--- a/Excel/StringTerms.xlsx
+++ b/Excel/StringTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B853A846-045E-4D26-977B-FE7F054804EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EB8A20-24FB-423B-8A05-4DE32F5848F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9020BB33-0B2F-43C5-8091-327AC8D50A2F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9020BB33-0B2F-43C5-8091-327AC8D50A2F}"/>
   </bookViews>
   <sheets>
     <sheet name="StringTermsTable" sheetId="1" r:id="rId1"/>
@@ -31,114 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t xml:space="preserve">TERMS OF SERVICE
-Effective Date: July 1, 2020
-The terms of this agreement ("Terms of Service") govern the relationship between you and Supercell Oy., a Finnish company (business ID 2336509-6) having its registered office at Itämerenkatu 11, 00180 Helsinki, Finland, (hereinafter "Supercell" or "Us" or "We") regarding your use of Supercell's games, websites and related services (the "Service"). Use of the Service is also governed by Supercell's Privacy Policy and other relevant policies, which are incorporated herein by reference.
-Before accessing or using the Service, including browsing any Supercell website or accessing a game, you must agree to these Terms of Service and the Privacy Policy. You may also be required to register an account on the Service (an "Account"). By registering for an Account or otherwise using the Service, you affirm that you are the legal age of majority in your country of residence. If you are not, your legal guardian must review and agree to these Terms. If you access the Service from a Social Networking Site ("SNS"), such as Facebook or Google+, you shall comply with its terms of service/use as well as these Terms of Service.
-BY INSTALLING, USING OR OTHERWISE ACCESSING THE SERVICE, YOU AGREE TO THESE TERMS OF SERVICE. IF YOU DO NOT AGREE TO THESE TERMS OF SERVICE, PLEASE DO NOT INSTALL, USE OR OTHERWISE ACCESS THE SERVICE. USE OF THE SERVICE IS VOID WHERE PROHIBITED.
-Supercell reserves the right, at its discretion, to change, modify, add or remove portions of these Terms of Service,  its Privacy Policy and other relevant Supercell policies at any time by posting the amended terms on the Supercell Service. You will be deemed to have accepted such changes by continuing to use the Service. If at any point you do not agree to any portion of the then-current version of our Terms of Service, the Supercell Privacy Policy, or any other Supercell policy, rules or codes of conduct relating to your use of the Service, your license to use the Service shall immediately terminate, and you must immediately stop using the Service.
-1. License
-1.1. Grant of a Limited License to Use the Service
-Subject to your agreement and continuing compliance with these Terms of Service and any other relevant Supercell policies, Supercell grants you a non-exclusive, non-transferable, non-sublicensable, revocable and limited license to access and use the Service for your own non-commercial entertainment purposes. You agree not to use the Service for any other purpose.
-The following restrictions apply to the use of the Service:
-You accept full responsibility for any unauthorized use of the Service by minors. You are responsible for any use of your credit card or other payment instrument (e.g. paypal) by minors.
-You shall not (or attempt to) purchase, sell, rent or give away your Account, create an Account using a false identity or information, or on behalf of someone other than yourself; You shall not use the Service if you have previously been removed by Supercell, or previously been banned from playing any Supercell game.
-You shall use your Account only for non-commercial purposes; You shall not use the Service to advertise, or solicit, or transmit any commercial advertisements, including chain letters, junk or spam e-mail or repetitive or misleading messages to anyone.
-Login information and Your Account
-You may be required to select a password for your Account or you may also use other credentials to access the Account ("Login Information"). You shall not share the Account or the Login Information, nor let anyone else access your Account or do anything else that might jeopardize the security of your Account. In the event you become aware of or reasonably suspect any breach of security, including without limitation any loss, theft, or unauthorized disclosure of the Login Information, you must immediately notify Supercell and modify your Login Information. You are solely responsible for maintaining the confidentiality of the Login Information, and you will be responsible for all uses of the Login Information, including purchases, whether or not authorized by you. You are responsible for anything that happens through your Account.
-Supercell reserves the right to remove or reclaim any usernames at any time and for any reason, including but not limited to claims by a third party that a username violates the third party's rights.
-The Service supports only one Account per game on a supported device.
-License Limitations
-Any use of the Service in violation of these License Limitations is strictly prohibited, can result in the immediate revocation of your limited license and may subject you to liability for violations of law.
-You agree that you will not, under any circumstances:
-Engage in any act that Supercell deems to be in conflict with the spirit or intent of the Service or make improper use of Supercell's support services.
-Use or take part (directly or indirectly) in the use of cheats, exploits, automation software, emulators, bots, hacks, mods or any unauthorized third-party software designed to modify or interfere with the Service, any Supercell game or any Supercell game experience.
-Modify or cause to be modified any files that are a part of the Service or any Supercell game without Supercell's express written consent.
-Disrupt, interfere with or otherwise adversely affect the normal flow of the Service or otherwise act in a manner that may negatively affect other users' experience when using the Service or playing Supercell's games. This includes win trading and any other kind of manipulation of rankings, taking advantage of errors in the Service to gain an unfair edge over other players and any other act that intentionally abuses or goes against the design of the Service.
-Disrupt, overburden, or aid or assist in the disruption or overburdening of any computer or server ("Server") used to offer or support the Service or any Supercell game environment.
-Institute, assist, or become involved in any type of attack, including without limitation distribution of a virus, denial of service attacks upon the Service, or other attempts to disrupt the Service or any other person's use or enjoyment of the Service.
-Attempt to gain unauthorized access to the Service, Accounts registered to others or to the computers, Servers, or networks connected to the Service by any means other than the user interface provided by Supercell, including but not limited to, by circumventing or modifying, attempting to circumvent or modify, or encouraging or assisting any other person to circumvent or modify, any security, technology, device, or software that is part of the Service.
-Post any information that is abusive, threatening, obscene, defamatory, libelous, or racially, sexually, religiously, or otherwise objectionable or offensive or engage in ongoing toxic behavior, such as by repeatedly posting information on an unsolicited basis.
-Post any information that contains nudity, excessive violence, or offensive subject matter or that contains a link to such content.
-Attempt to, or harass, abuse, or harm, or advocate or incite harassment, abuse, or harm of another person, group, including Supercell employees, including Supercell's customer service representatives.
-Make available through the Service any material or information that infringes any copyright, trademark, patent, trade secret, right of privacy, right of publicity, or other right of any person or entity or impersonates any other person, including without limitation a Supercell employee.
-Reverse engineer, decompile, disassemble, decipher or otherwise attempt to derive the source code for any underlying software or other intellectual property used to provide the Service or any Supercell game, or to obtain any information from the Service or any Supercell game using any method not expressly permitted by Supercell.
-Solicit or attempt to solicit Login Information or any other login credentials or personal information from other users of the Service or any Supercell game.
-Collect or post anyone's private information, including personally identifiable information (whether in text, image or video form), identification documents, or financial information through the Service.
-Use any Supercell game for gambling, betting or any similar activity in which prizes or rewards can be won (directly or indirectly), including betting on the outcome of matches in which you participate as a player, irrespective of whether or not there is a fee or stake involved.
-Supercell reserves the right to determine what conduct it considers to be in violation of the rules of use or otherwise outside the intent or spirit of these Terms of Service or the Service itself. Supercell reserves the right to take action as a result, which may include terminating your Account and prohibiting you from using the Service in whole or in part.
-1.2. Suspension and Termination of Account and Service
-WITHOUT LIMITING ANY OTHER REMEDIES, SUPERCELL MAY LIMIT, SUSPEND, TERMINATE, MODIFY, OR DELETE ACCOUNTS OR ACCESS TO THE SERVICE OR PORTIONS THEREOF IF YOU ARE, OR SUPERCELL SUSPECTS THAT YOU ARE, FAILING TO COMPLY WITH ANY OF THESE TERMS OF SERVICE OR FOR ANY ACTUAL OR SUSPECTED ILLEGAL OR IMPROPER USE OF THE SERVICE, WITH OR WITHOUT NOTICE TO YOU. YOU CAN LOSE YOUR USER NAME AND PERSONA IN THE SERVICE AS A RESULT OF ACCOUNT TERMINATION OR LIMITATION, AS WELL AS ANY BENEFITS, PRIVILEGES, EARNED ITEMS AND PURCHASED ITEMS ASSOCIATED WITH YOUR USE OF THE SERVICE, AND SUPERCELL IS UNDER NO OBLIGATION TO COMPENSATE YOU FOR ANY SUCH LOSSES OR RESULTS.
-WITHOUT LIMITING OUR OTHER REMEDIES, WE MAY LIMIT, SUSPEND OR TERMINATE THE SERVICE AND USER ACCOUNTS OR PORTIONS THEREOF, PROHIBIT ACCESS TO OUR GAMES AND SITES, AND THEIR CONTENT, SERVICES AND TOOLS, DELAY OR REMOVE HOSTED CONTENT, AND TAKE TECHNICAL AND LEGAL STEPS TO PREVENT USERS FROM ACCESSING THE SERVICE IF WE BELIEVE THAT THEY ARE CREATING RISK OR POSSIBLE LEGAL LIABILITIES, INFRINGING THE INTELLECTUAL PROPERTY RIGHTS OF THIRD PARTIES, OR ACTING INCONSISTENTLY WITH THE LETTER OR SPIRIT OF OUR TERMS OR   POLICIES. ADDITIONALLY, WE MAY, IN APPROPRIATE CIRCUMSTANCES AND AT OUR SOLE DISCRETION, SUSPEND OR TERMINATE ACCOUNTS OF USERS WHO MAY BE REPEAT INFRINGERS OF THIRD PARTY INTELLECTUAL PROPERTY RIGHTS.
-SUPERCELL RESERVES THE RIGHT TO TERMINATE ANY ACCOUNT THAT HAS BEEN INACTIVE FOR 180 DAYS.
-Supercell reserves the right to stop offering and/or supporting the Service or a particular game or part of the Service at any time, at which point your license to use the Service or a part thereof will be automatically terminated. In such event, Supercell shall not be required to provide refunds, benefits or other compensation to users in connection with such discontinued Service
-. Termination of your Account can include disabling your access to the Service or any part thereof including any content you submitted or others submitted.
-You may terminate your Account at any time and for any reason by following the process described on our support page located at https://support.supercell.com/ informing Supercell that you wish to terminate your Account.
-2. Ownership
-2.1. Games and Service
-All rights, title and interest in and to the Service (including without limitation any games, titles, computer code, themes, objects, characters, character names, stories, dialogue, catch phrases, concepts, artwork, animations, sounds, musical compositions, audio-visual effects, methods of operation, moral rights, documentation, in-game chat transcripts, character profile information, recordings of games played using a Supercell game client, and the Supercell game clients and server software) are owned by Supercell. Supercell reserves all rights, including without limitation, all intellectual property rights or other proprietary rights, in connection with its games and the Service.
-2.2. Accounts
-NOTWITHSTANDING ANYTHING TO THE CONTRARY HEREIN, YOU ACKNOWLEDGE AND AGREE THAT YOU SHALL HAVE NO OWNERSHIP OR OTHER PROPERTY INTEREST IN THE ACCOUNT, AND YOU FURTHER ACKNOWLEDGE AND AGREE THAT ALL RIGHTS IN AND TO THE ACCOUNT ARE AND SHALL FOREVER BE OWNED BY AND INURE TO THE BENEFIT OF SUPERCELL.
-2.3. Virtual Items
-Supercell owns, has licensed, or otherwise has rights to use all of the content that appears in the Service or in Supercell games. Notwithstanding any provision to the contrary herein, you agree that you have no right or title in or to any content that appears in the Service, including without limitation the virtual goods or currency appearing or originating in any Supercell game, whether earned in a game or purchased from Supercell, or any other attributes associated with an Account or stored on the Service.
-3. User Content
-3.1. Submission of User Content
-"User Content" means any communications, images, sounds, and all the material, data, and information that you upload or transmit through a Supercell game client or the Service, or that other users upload or transmit, including without limitation any chat text. By transmitting or submitting any User Content while using the Service, you affirm, represent and warrant that such transmission or submission is (a) accurate and not confidential or misleading; (b) not in violation of any laws, contractual restrictions or other third party rights, and that you have permission from any third party whose personal information or intellectual property is comprised in the User Content; (c) free of viruses, adware, spyware, worms or other malicious code; and (d) you acknowledge and agree that any of your personal information within such content will at all times be processed by Supercell in accordance with its Privacy Policy.
-3.1.1. Content Screening
-Supercell assumes no responsibility for the conduct of any user submitting any User Content, and assumes no responsibility for monitoring the Service for inappropriate content or conduct. We do not, and cannot, pre-screen or monitor all User Content. Your use of the Service is at your own risk. By using the Service, you may be exposed to User Content that is offensive, indecent or otherwise not in line with your expectations. You bear all risks associated with the use of any User Content available in connection with the Service. At our discretion, our representatives or technology may monitor and/or record your interaction with the Service or communications (including without limitation chat text) when you are using the Service.
-By entering into these Terms of Service, you hereby provide your irrevocable consent to such monitoring and recording. You acknowledge and agree that you have no expectation of privacy concerning the transmission of any User Content, including without limitation chat text or voice communications.
-Supercell reserves the right in its sole discretion to review, monitor, prohibit, edit, delete, disable access to or otherwise make unavailable any User Content (including without limitation your User Content) without notice for any reason or for no reason at any time. If at any time Supercell chooses, in its sole discretion, to monitor the Service, Supercell nonetheless assumes no responsibility for User Content and assumes no obligation to modify or remove any inappropriate User Content. We have the right, but not the obligation, in our sole discretion to edit, refuse to post, or remove any User Content.
-3.2. Information Use by Other Members of the Service
-3.2.1. Public Discourse
-The Service may include various forums, blogs and chat features where you can post User Content, including your observations and comments on designated topics. Supercell cannot guarantee that other members will not use the ideas and information that you share. Therefore, if you have an idea or information that you would like to keep confidential and/or don't want others to use, do not post it on the Service. Supercell shall have no responsibility to evaluate, use or compensate you for any ideas or information you may choose to submit.
-3.2.2. Responsible For Your Own Content
-You are solely responsible for the information that you post on, through or in connection with the Service and that you provide to others. Supercell may reject, refuse to post or delete any User Content for any or no reason, including, but not limited to, User Content that in the sole judgment of Supercell violates these Terms of Service.
-3.2.3. Your License to Supercell
-You hereby grant to Supercell an irrevocable, perpetual, transferable, fully paid-up, royalty-free, worldwide license (including the right to sublicense and assign to third party) and right to copy, reproduce, fix, adapt, modify, create derivative works from, manufacture, commercialize, publish, distribute, sell, license, sublicense, transfer, lease, transmit, publicly display, publicly perform, or provide access to electronically, broadcast, communicate to the public by telecommunication, display, perform, enter into computer memory, and use and practice, in any way, your User Content as well as all modified and derivative works thereof in connection with our provision of the Service, including marketing and promotions of the Service. You also hereby grant to Supercell the right to authorize others to exercise any of the rights granted to Supercell under these Terms of Service. You further hereby grant to Supercell the unconditional, irrevocable right to use and exploit your name, likeness and any other information or material included in any User Content and in connection with any User Content, without any obligation to you. Except as prohibited by law, you waive any rights of attribution and/or any moral rights you may have in your User Content, regardless of whether your User Content is altered or changed in any manner. Supercell does not claim any ownership rights in your User Content and nothing in these Terms of Service is intended to restrict any rights that you may have to use and exploit your User Content. Supercell has no obligation to monitor or enforce your intellectual property rights in or to your User Content.
-3.3. User Interactions
-You are solely responsible for your interactions with other users of the Service and any other parties with whom you interact through the Service and/or Supercell games. Supercell reserves the right, but has no obligation, to become involved in any way with these disputes. You will fully cooperate with Supercell to investigate any suspected unlawful, fraudulent or improper activity, including, without limitation, granting Supercell access to any password-protected portions of your Account.
-If you have a dispute with one or more users, you release us (and our officers, directors, agents, subsidiaries, joint ventures and employees) from claims, demands and damages (actual and consequential) of every kind and nature, known and unknown, arising out of or in any way connected with such disputes.
-4. Fees and Purchase Terms
-4.1.Purchases
-In the Service you may purchase, with "real world" money, a limited, personal, non-transferable, non-sublicensable, revocable license to use (a) "virtual currency", including but not limited to virtual cash or diamonds, all for use in Supercell games; (b) "virtual in-game items" (together with "virtual currency", "Virtual Items"); and (c) other goods or services ("Merchandise"). You are only allowed to purchase Virtual Items from us or our authorised partners through the Service, and not in any other way.
-Supercell may manage, regulate, control, modify or eliminate Virtual Items and/or Merchandise at any time, with or without notice. Supercell shall have no liability to you or any third party in the event that Supercell exercises any such rights.
-The transfer of Virtual Items and Merchandise is prohibited except where expressly authorized in the Service. Other than as expressly authorized in the Service, you shall not sell, purchase, redeem or otherwise transfer Virtual Items or Merchandise to any person or entity or attempt any of the aforesaid, including but not limited to Supercell, another user or any third party.
-ALL PURCHASES AND REDEMPTIONS OF VIRTUAL ITEMS MADE THROUGH THE SERVICE ARE FINAL AND NON-REFUNDABLE.
-The provision of Virtual Items for use in Supercell games is a service provided by Supercell that commences immediately upon acceptance by Supercell of your purchase.
-4.2. Payment of Fees
-You agree to pay all fees and applicable taxes incurred by you or anyone using an Account registered to you. Supercell may revise the pricing for the goods and services offered through the Service at any time. YOU ACKNOWLEDGE THAT SUPERCELL IS NOT REQUIRED TO PROVIDE A REFUND FOR ANY REASON, AND THAT YOU WILL NOT RECEIVE MONEY OR OTHER COMPENSATION FOR UNUSED VIRTUAL ITEMS WHEN AN ACCOUNT IS CLOSED, WHETHER SUCH CLOSURE WAS VOLUNTARY OR INVOLUNTARY.
-5. Updates to the Service
-You understand that the Service is an evolving one. Supercell may require that you accept updates to the Service and to Supercell's games you have installed on your device or computer. You acknowledge and agree that Supercell may update the Service and Supercell games, with or without notifying you. You may need to update third party software from time to time in order to receive the Service and play Supercell games.
-6. Disclaimer of Warranties
-WITHOUT LIMITING SUPERCELL'S LIABILITY UNDER SECTION 7 BELOW, THE SERVICE IS PROVIDED ON AN "AS IS" AND "AS AVAILABLE" BASIS FOR YOUR USE, WITHOUT WARRANTIES OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING WITHOUT LIMITATION THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE, NON-INFRINGEMENT, AND THOSE ARISING FROM COURSE OF DEALING OR USAGE OF TRADE. SUPERCELL DOES NOT WARRANT THAT YOU WILL BE ABLE TO ACCESS OR USE      THE SERVICE AT THE TIMES OR LOCATIONS OF YOUR CHOOSING; THAT THE SERVICE WILL BE UNINTERRUPTED OR ERROR-FREE; THAT DEFECTS WILL BE CORRECTED; OR THAT THE GAME OR THE SERVICE ARE FREE OF VIRUSES OR OTHER HARMFUL COMPONENTS.
-Some jurisdictions do not allow the exclusion of certain warranties. Accordingly, some of the above disclaimers may not apply to you.
-7. Limitation of Liability; Sole and Exclusive Remedy; Indemnification
-TO THE MAXIMUM EXTENT PERMITTED BY LAW, SUPERCELL SHALL NOT BE LIABLE TO YOU FOR ANY INDIRECT, INCIDENTAL, CONSEQUENTIAL, SPECIAL, PUNITIVE OR OTHER SIMILAR DAMAGES, INCLUDING BUT NOT LIMITED TO LOSS OF REVENUES, LOST PROFITS, LOST DATA OR BUSINESS INTERRUPTION OR OTHER INTANGIBLE LOSSES (HOWEVER SUCH LOSSES ARE QUALIFIED), ARISING OUT OF OR RELATING IN ANY WAY TO THESE TERMS OF SERVICE OR THE SERVICE ITSELF, WHETHER BASED ON CONTRACT, TORT OR ANY OTHER LEGAL THEORY, AND WHETHER OR NOT SUPERCELL HAS BEEN ADVISED OF THE POSSIBILITY OF SUCH DAMAGES. TO THE EXTENT NOT PROHIBITED BY LAW, SUPERCELL SHALL NOT BE LIABLE TO YOU FOR MORE THAN THE AMOUNT YOU HAVE PAID TO SUPERCELL IN ACCORDANCE WITH THESE TERMS OF SERVICE IN THE SIX (6) MONTHS IMMEDIATELY PRECEDING THE DATE ON WHICH YOU FIRST ASSERT A CLAIM. YOU ACKNOWLEDGE AND AGREE THAT IF YOU HAVE NOT PAID ANYTHING TO SUPERCELL DURING SUCH TIME PERIOD, YOUR SOLE REMEDY (AND SUPERCELL'S EXCLUSIVE LIABILITY) FOR ANY DISPUTE WITH SUPERCELL IS TO STOP USING THE SERVICE AND TO CANCEL YOUR ACCOUNT.
-NOTHING IN THESE TERMS OF SERVICE SHALL AFFECT THE STATUTORY RIGHTS OF ANY CONSUMER OR EXCLUDE OR RESTRICT ANY LIABILITY RESULTING FROM GROSS NEGLIGENCE OR WILLFUL MISCONDUCT OF SUPERCELL OR FOR DEATH OR PERSONAL INJURY ARISING FROM ANY NEGLIGENCE OR FRAUD OF SUPERCELL.
-You agree to indemnify, defend and hold Supercell (and our officers, directors, agents, subsidiaries, joint ventures and employees) harmless from any claim, demand, damages or other losses, including reasonable attorneys' fees, asserted by any third-party resulting from or arising out of your use of the Service, or any breach by you of these Terms of Service, however the foregoing does not apply if the infringement of rights is not attributable to your intentional or negligent behavior.
-8. Dispute Resolution and Law
-If a dispute arises between you and Supercell, we strongly encourage you to first contact us directly to seek a resolution by going to our customer support site at https://support.supercell.com/. If you are a resident of the United States, these Terms of Service and any dispute arising out of or related to it or Privacy Policy or the Service shall be governed in all respects by California law, without regard to conflict of law provisions. You agree that any claim or dispute you may have against Supercell must be resolved exclusively by a court located in San Francisco, California. If you are a resident outside of the United States, you agree that all disputes between you and Supercell shall be governed by the laws of Finland, without regard to conflict of law provisions. You agree that any claim or dispute you may have against Supercell must be resolved exclusively by a court located in Helsinki, Finland.
-9. Severability
-You and Supercell agree that if any portion of these Terms of Service or of the Supercell Privacy Policy is found illegal or unenforceable, in whole or in part by any court of competent jurisdiction, such provision shall, as to such jurisdiction, be ineffective solely to the extent of such determination of invalidity or unenforceability without affecting the validity or enforceability thereof in any other manner or jurisdiction and without affecting the remaining provisions of the terms, which shall continue to be in full force and effect.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.4. No Waiver
-The failure of Supercell to require or enforce strict performance by you of any provision of these Terms of Service or the Supercell Privacy Policy or failure to exercise any right under them shall not be construed as a waiver or relinquishment of Supercell's right to assert or rely upon any such provision or right in that or any other instance.
-The express waiver by Supercell of any provision, condition, or requirement of these Terms of Service or the Supercell Privacy Policy shall not constitute a waiver of any future obligation to comply with such provision, condition or requirement.
-Except as expressly and specifically set forth in this these Terms of Service, no representations, statements, consents, waivers, or other acts or omissions by Supercell shall be deemed a modification of these Terms of Service nor legally binding, unless documented in physical writing, hand signed by You and a duly appointed officer of Supercell.
-10.5. Notices
-We may notify you via postings on www.supercell.com, and via e-mail or any other communications means to contact information you provide to us. All notices given by you or required from you under these Terms of Service or the Supercell Privacy Policy shall be in writing and addressed to: Supercell Oy. Attn: Legal, Itämerenkatu 11-13, FI- 00180 Helsinki, Finland. Any notices that you provide without compliance with this Section on Notices shall have no legal effect.
-10.6. Equitable Remedies
-You acknowledge that the rights granted and obligations made under these Terms of Service to Supercell are of a unique and irreplaceable nature, the loss of which shall irreparably harm Supercell and which cannot be replaced by monetary damages alone so that Supercell shall be entitled to injunctive or other equitable relief (without the obligations of posting any bond or surety or proof of damages) in the event of any breach or anticipatory breach by you.
-You irrevocably waive all rights to seek injunctive or other equitable relief, or to enjoin or restrain the operation of the Service or any Supercell game, exploitation of any advertising or other materials issued in connection therewith, or exploitation of the Service or any content or other material used or displayed through the Service and agree to limit your claims to claims for monetary damages, limited by Section 7 (if any).
-10.7. Force Majeure
-Supercell shall not be liable for any delay or failure to perform resulting from causes outside the reasonable control of Supercell, including without limitation any failure to perform hereunder due to unforeseen circumstances or cause beyond Supercell's control such as acts of God, war, terrorism, riots, embargoes, acts of civil or military authorities, fire, floods, accidents, strikes, or shortages of transportation facilities, fuel, energy, labor or materials.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>eng|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,18 +54,17 @@
   </si>
   <si>
     <t>PRIVACY POLICY
-ENGLISH
 Effective Date: Oct 19, 2020
 Thank you for playing our games! This Privacy Policy describes:
 The ways we collect personal data about you and why we do so
 How we use your personal data, and
 The choices you have about your personal data.
-This Privacy Policy applies to Supercell's  games, websites and related services, which we here collectively call the Service. We may periodically update this Privacy Policy by posting a new version on supercell.com. If we make any material changes, we will notify you as required under applicable law, including by posting a notice in the Service prior to the change becoming effective. Your continued use of the Service after the effective date will be subject to the new Privacy Policy.
+This Privacy Policy applies to Powersource's  games, websites and related services, which we here collectively call the Service. We may periodically update this Privacy Policy by posting a new version on Powersource.com. If we make any material changes, we will notify you as required under applicable law, including by posting a notice in the Service prior to the change becoming effective. Your continued use of the Service after the effective date will be subject to the new Privacy Policy.
 CONTACT US
-If you have questions about data protection, or if you have any requests for resolving issues with your personal data, we encourage you to primarily contact us through the support features within each Supercell game, so we can reply to you more quickly. Alternatively, you may contact:
-Name of the controller: Supercell Oy
-Address: Itämerenkatu 11-13, FI-00180 Helsinki, Finland Attn: Privacy
-email: legal-requests@supercell.com
+If you have questions about data protection, or if you have any requests for resolving issues with your personal data, we encourage you to primarily contact us through the support features within each Powersource game, so we can reply to you more quickly. Alternatively, you may contact:
+Name of the controller: Powersource
+Address: Imae-ro 35 Bundang-gu Seongnam-si Gyeonggi, Korea Attn: Privacy
+email: powersource-legalrequests@gmail.com
 THE DATA WE COLLECT
 The categories of personal data we collect depend on the Services you use, and the requirements of applicable law.
 Data you provide us directly.
@@ -188,7 +80,7 @@
 Data we collect with cookies and similar technologies (see more below)
 Approximate location data (as derived from IP address)
 Data about your use of the Service, such as gameplay data and your interactions with other players inside the Service
-You also have the option to create a Supercell ID using your email address or other contact information.
+You also have the option to create a Powersource ID using your email address or other contact information.
 Data we collect from our partners.
 We also use third-party partners, such as social networking sites, data analytics providers and advertising networks to supplement information we have about you, such as:
 Data we receive if you link a third party tool with the Service (such as Facebook, WeChat or Google)
@@ -214,7 +106,7 @@
 Provide social features as part of the Service
 Customize your Service experience
 Respond to your comments and questions and provide player support
-Provide you Supercell offers in the Service as well as in other websites and services, and by email
+Provide you Powersource offers in the Service as well as in other websites and services, and by email
 Send you related information, such as updates, security alerts, and support messages
 Enable you to communicate with other players
 To show personalized advertisements.
@@ -223,7 +115,7 @@
 Deliver, target and improve our advertising and the Service
 For information on how to opt-out from personalized advertisements, see section 'Your Rights and Options' below.
 To keep the Service safe and fair.
-Ensuring a level playing field in the Service is a top priority for us. For more information on our acceptable use policy, see the Supercell Terms of Service.
+Ensuring a level playing field in the Service is a top priority for us. For more information on our acceptable use policy, see the Powersource Terms of Service.
 In order to keep the Service and its social features safe and fair, to fight fraud and ensure acceptable use otherwise, we have a legitimate interest to process necessary data to
 Analyze and monitor use of the Service and its social features
 Moderate chats either automatically or manually
@@ -233,16 +125,16 @@
 With your consent.
 With your consent, we may process your data for additional purposes.
 WHO CAN SEE YOUR DATA
-Apart from Supercell, your data can be accessed by others in the following situations:
+Apart from Powersource, your data can be accessed by others in the following situations:
 OTHER PLAYERS AND USERS.
 Social features are a core component of our games. Other players and users may, for example, see your profile data, in-game activities and read the messages you have posted.
 OUR SERVICE PROVIDERS.
-Supercell has vendors to us provide the Services. These vendors process your data only at and according to Supercell´s instructions to provide the Service, and perform tasks such as hosting, player support, advertising, analytics and fraud prevention.
+Powersource has vendors to us provide the Services. These vendors process your data only at and according to Powersource´s instructions to provide the Service, and perform tasks such as hosting, player support, advertising, analytics and fraud prevention.
 Other companies and public authorities.
 In order to combat fraud and illegal activity, we may process and disclose data with other companies and organizations and provide it to public authorities in response to lawful requests.
 We may also disclose your data based on your consent, to comply with the law or to protect the rights, property or safety of us, our players or others.
 Advertising and Social Media partners.
-The Service includes features from our partners, such as social media interaction tools, functionalities through application programming interfaces (APIs) or software development kits (SDKs) and in-game advertising. A list of these partners is available at supercell.com/en/partner-opt-out. These partners may access your data and operate under their own privacy policies. We encourage you to check their privacy policies to learn more about their data processing practices.
+The Service includes features from our partners, such as social media interaction tools, functionalities through application programming interfaces (APIs) or software development kits (SDKs) and in-game advertising. A list of these partners is available at Powersource.com/en/partner-opt-out. These partners may access your data and operate under their own privacy policies. We encourage you to check their privacy policies to learn more about their data processing practices.
 These partners may access data regarding your activities and your device (such as your IP address, mobile identifiers, page(s) visited, location, time of day). We may also combine and share data we have collected about you with third-party advertising partners. These advertising partners may use this data (and similar data collected from other websites) for purposes of delivering targeted advertisements to you when you visit third-party services within their networks. These partners may operate under their own privacy policies. This practice is commonly referred to as “interest-based advertising” or “online behavioral advertising.” If you prefer not to share your personal data with third-party advertising partners, you may follow the instructions in “Your Rights and Options” below.
 INTERNATIONAL DATA TRANSFERS
 Our Service is global by nature and your data can therefore be transferred to anywhere in the world. Because different countries may have different data protection laws than your own country, we take steps to ensure adequate safeguards are in place to protect your data as explained in this Policy. Adequate safeguards that we may use include standard contractual clauses approved by EU Commission and other lawful safeguards.
@@ -252,14 +144,14 @@
 Push Notifications
 We may send you push notifications through our mobile applications. You may at any time opt-out from receiving these types of communications by changing the settings on your mobile device.
 Opt-out of targeted advertising.
-You can opt-out of interest-based advertising on mobile applications by checking the privacy settings of your Android or iOS device and selecting "Limit Ad Tracking" (Apple iOS) or "Opt-out of Interest Based Ads" (Android). For more information, see also: supercell.com/en/partner-opt-out.
+You can opt-out of interest-based advertising on mobile applications by checking the privacy settings of your Android or iOS device and selecting "Limit Ad Tracking" (Apple iOS) or "Opt-out of Interest Based Ads" (Android). For more information, see also: Powersource.com/en/partner-opt-out.
 You can also opt out from personalized in-game offers through the options provided in the game settings.
 Access the personal data we hold about you.
 If you request, we will provide you a copy of your personal data in an electronic format.
 Your other rights.
 You also have the right to correct your data, have your data deleted, object how we use or share your data, and restrict how we use or share your data. You can always withdraw your consent.
 We will respond to all requests within a reasonable timeframe.  If you have an unresolved privacy or data use concern that we have not addressed satisfactorily, please contact our U.S.-based third-party dispute resolution provider (free of charge). You may also contact your local data protection authority within the European Economic Area, Switzerland or UK for unresolved complaints.
-If you wish to exercise any of your data subject rights described above, please use the support options described in “Contact Us” above. We will respond to all requests in accordance with applicable laws. To protect your privacy, we may also take additional steps to verify your identity before fulfilling your request, such as by requesting you provide us a purchase receipt or other account information, asking you to link your email address with your game account (for example through Supercell ID), or asking you to answer questions regarding your activities on our Services. Once you have verified your identity, you may also designate an authorized agent to exercise your rights on your behalf by providing the agent’s contact information to our customer support staff, as required by applicable law.
+If you wish to exercise any of your data subject rights described above, please use the support options described in “Contact Us” above. We will respond to all requests in accordance with applicable laws. To protect your privacy, we may also take additional steps to verify your identity before fulfilling your request, such as by requesting you provide us a purchase receipt or other account information, asking you to link your email address with your game account (for example through Powersource ID), or asking you to answer questions regarding your activities on our Services. Once you have verified your identity, you may also designate an authorized agent to exercise your rights on your behalf by providing the agent’s contact information to our customer support staff, as required by applicable law.
 You may have a right not to receive discriminatory treatment as a result of your exercise of these rights.
 COOKIES AND SIMILAR TECHNOLOGIES
 Like most online services, we and our partners use cookies and similar technologies to provide and personalize the Service, analyse use, target advertisements and prevent fraud. Cookies and similar technologies allow us and our partners to store their preferences and track your activities within the Service. Note that our partners may operate under their own privacy policies.
@@ -269,7 +161,7 @@
 analytics, personalization and attribution;
 limit the number of times a user is shown the same advertisement, across all known or inferred devices; and/or
 provide personalized advertising on each device that is inferred from the browsing patterns on all of the devices.
-For more information (including how to opt out), please visit https://supercell.com/en/partner-opt-out/. You can disable cookies in your browser settings, but some parts of the Service may then not function properly.
+For more information (including how to opt out), please visit https://Powersource.com/en/partner-opt-out/. You can disable cookies in your browser settings, but some parts of the Service may then not function properly.
 HOW DO WE PROTECT YOUR DATA
 Security Safeguards.
 In order to help ensure a secure and safe player experience, we are continuously developing and implementing administrative, technical and physical security measures to protect your data from unauthorized access or against loss, misuse or alteration.
@@ -281,7 +173,370 @@
 For games that are not directed at children but nonetheless may appeal to them, we take additional steps to limit access to these Services based on the player’s age. For these Services, when a player indicates they are under 13 (or the applicable age in their territory), we will limit their access to certain features, such as social media and chat features, as well as certain types of notification alerts. We also limit the processing of personal data to only what is necessary to support the internal operations of our Services.
 If you are a parent or guardian and wish to review personal data collected from your child, or have that information modified or deleted, you may contact us as described above. If we become aware that a child has provided us with personal data contrary to the above, we will delete any personal data we have collected, unless we have a legal obligation to keep it, and terminate the child’s account and/or revert them to the underage experience, as applicable.
 FOR CALIFORNIA RESIDENTS
-Please visit supercell.com/en/disclosure-california-residents for special disclosures pertaining to California residents.</t>
+Please visit Powersource.com/en/disclosure-california-residents for special disclosures pertaining to California residents.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TERMS OF SERVICE
+Effective Date: July 1, 2020
+The terms of this agreement ("Terms of Service") govern the relationship between you and Powersource, a Korean company (business ID 2336509-6) having its registered office at Imae-ro 35 Bundang-gu Seongnam-si Gyeonggi, Korea, (hereinafter "Powersource" or "Us" or "We") regarding your use of Powersource's games, websites and related services (the "Service"). Use of the Service is also governed by Powersource's Privacy Policy and other relevant policies, which are incorporated herein by reference.
+Before accessing or using the Service, including browsing any Powersource website or accessing a game, you must agree to these Terms of Service and the Privacy Policy. You may also be required to register an account on the Service (an "Account"). By registering for an Account or otherwise using the Service, you affirm that you are the legal age of majority in your country of residence. If you are not, your legal guardian must review and agree to these Terms. If you access the Service from a Social Networking Site ("SNS"), such as Facebook or Google+, you shall comply with its terms of service/use as well as these Terms of Service.
+BY INSTALLING, USING OR OTHERWISE ACCESSING THE SERVICE, YOU AGREE TO THESE TERMS OF SERVICE. IF YOU DO NOT AGREE TO THESE TERMS OF SERVICE, PLEASE DO NOT INSTALL, USE OR OTHERWISE ACCESS THE SERVICE. USE OF THE SERVICE IS VOID WHERE PROHIBITED.
+Powersource reserves the right, at its discretion, to change, modify, add or remove portions of these Terms of Service, its Privacy Policy and other relevant Powersource policies at any time by posting the amended terms on the Powersource Service. You will be deemed to have accepted such changes by continuing to use the Service. If at any point you do not agree to any portion of the then-current version of our Terms of Service, the Powersource Privacy Policy, or any other Powersource policy, rules or codes of conduct relating to your use of the Service, your license to use the Service shall immediately terminate, and you must immediately stop using the Service.
+1. License
+1.1. Grant of a Limited License to Use the Service
+Subject to your agreement and continuing compliance with these Terms of Service and any other relevant Powersource policies, Powersource grants you a non-exclusive, non-transferable, non-sublicensable, revocable and limited license to access and use the Service for your own non-commercial entertainment purposes. You agree not to use the Service for any other purpose.
+The following restrictions apply to the use of the Service:
+- You accept full responsibility for any unauthorized use of the Service by minors. You are responsible for any use of your credit card or other payment instrument (e.g. paypal) by minors.
+- You shall not (or attempt to) purchase, sell, rent or give away your Account, create an Account using a false identity or information, or on behalf of someone other than yourself; You shall not use the Service if you have previously been removed by Powersource, or previously been banned from playing any Powersource game.
+- You shall use your Account only for non-commercial purposes; You shall not use the Service to advertise, or solicit, or transmit any commercial advertisements, including chain letters, junk or spam e-mail or repetitive or misleading messages to anyone.
+Login information and Your Account
+You may be required to select a password for your Account or you may also use other credentials to access the Account ("Login Information"). You shall not share the Account or the Login Information, nor let anyone else access your Account or do anything else that might jeopardize the security of your Account. In the event you become aware of or reasonably suspect any breach of security, including without limitation any loss, theft, or unauthorized disclosure of the Login Information, you must immediately notify Powersource and modify your Login Information. You are solely responsible for maintaining the confidentiality of the Login Information, and you will be responsible for all uses of the Login Information, including purchases, whether or not authorized by you. You are responsible for anything that happens through your Account.
+Powersource reserves the right to remove or reclaim any usernames at any time and for any reason, including but not limited to claims by a third party that a username violates the third party's rights.
+The Service supports only one Account per game on a supported device.
+License Limitations
+Any use of the Service in violation of these License Limitations is strictly prohibited, can result in the immediate revocation of your limited license and may subject you to liability for violations of law.
+You agree that you will not, under any circumstances:
+- Engage in any act that Powersource deems to be in conflict with the spirit or intent of the Service or make improper use of Powersource's support services.
+- Use or take part (directly or indirectly) in the use of cheats, exploits, automation software, emulators, bots, hacks, mods or any unauthorized third-party software designed to modify or interfere with the Service, any Powersource game or any Powersource game experience.
+- Modify or cause to be modified any files that are a part of the Service or any Powersource game without Powersource's express written consent.
+- Disrupt, interfere with or otherwise adversely affect the normal flow of the Service or otherwise act in a manner that may negatively affect other users' experience when using the Service or playing Powersource's games. This includes win trading and any other kind of manipulation of rankings, taking advantage of errors in the Service to gain an unfair edge over other players and any other act that intentionally abuses or goes against the design of the Service.
+- Disrupt, overburden, or aid or assist in the disruption or overburdening of any computer or server ("Server") used to offer or support the Service or any Powersource game environment.
+Institute, assist, or become involved in any type of attack, including without limitation distribution of a virus, denial of service attacks upon the Service, or other attempts to disrupt the Service or any other person's use or enjoyment of the Service.
+- Attempt to gain unauthorized access to the Service, Accounts registered to others or to the computers, Servers, or networks connected to the Service by any means other than the user interface provided by Powersource, including but not limited to, by circumventing or modifying, attempting to circumvent or modify, or encouraging or assisting any other person to circumvent or modify, any security, technology, device, or software that is part of the Service.
+Post any information that is abusive, threatening, obscene, defamatory, libelous, or racially, sexually, religiously, or otherwise objectionable or offensive or engage in ongoing toxic behavior, such as by repeatedly posting information on an unsolicited basis.
+- Post any information that contains nudity, excessive violence, or offensive subject matter or that contains a link to such content.
+- Attempt to, or harass, abuse, or harm, or advocate or incite harassment, abuse, or harm of another person, group, including Powersource employees, including Powersource's customer service representatives.
+- Make available through the Service any material or information that infringes any copyright, trademark, patent, trade secret, right of privacy, right of publicity, or other right of any person or entity or impersonates any other person, including without limitation a Powersource employee.
+- Reverse engineer, decompile, disassemble, decipher or otherwise attempt to derive the source code for any underlying software or other intellectual property used to provide the Service or any Powersource game, or to obtain any information from the Service or any Powersource game using any method not expressly permitted by Powersource.
+- Solicit or attempt to solicit Login Information or any other login credentials or personal information from other users of the Service or any Powersource game.
+- Collect or post anyone's private information, including personally identifiable information (whether in text, image or video form), identification documents, or financial information through the Service.
+- Use any Powersource game for gambling, betting or any similar activity in which prizes or rewards can be won (directly or indirectly), including betting on the outcome of matches in which you participate as a player, irrespective of whether or not there is a fee or stake involved.
+Powersource reserves the right to determine what conduct it considers to be in violation of the rules of use or otherwise outside the intent or spirit of these Terms of Service or the Service itself. Powersource reserves the right to take action as a result, which may include terminating your Account and prohibiting you from using the Service in whole or in part.
+1.2. Suspension and Termination of Account and Service
+WITHOUT LIMITING ANY OTHER REMEDIES, Powersource MAY LIMIT, SUSPEND, TERMINATE, MODIFY, OR DELETE ACCOUNTS OR ACCESS TO THE SERVICE OR PORTIONS THEREOF IF YOU ARE, OR Powersource SUSPECTS THAT YOU ARE, FAILING TO COMPLY WITH ANY OF THESE TERMS OF SERVICE OR FOR ANY ACTUAL OR SUSPECTED ILLEGAL OR IMPROPER USE OF THE SERVICE, WITH OR WITHOUT NOTICE TO YOU. YOU CAN LOSE YOUR USER NAME AND PERSONA IN THE SERVICE AS A RESULT OF ACCOUNT TERMINATION OR LIMITATION, AS WELL AS ANY BENEFITS, PRIVILEGES, EARNED ITEMS AND PURCHASED ITEMS ASSOCIATED WITH YOUR USE OF THE SERVICE, AND Powersource IS UNDER NO OBLIGATION TO COMPENSATE YOU FOR ANY SUCH LOSSES OR RESULTS.
+WITHOUT LIMITING OUR OTHER REMEDIES, WE MAY LIMIT, SUSPEND OR TERMINATE THE SERVICE AND USER ACCOUNTS OR PORTIONS THEREOF, PROHIBIT ACCESS TO OUR GAMES AND SITES, AND THEIR CONTENT, SERVICES AND TOOLS, DELAY OR REMOVE HOSTED CONTENT, AND TAKE TECHNICAL AND LEGAL STEPS TO PREVENT USERS FROM ACCESSING THE SERVICE IF WE BELIEVE THAT THEY ARE CREATING RISK OR POSSIBLE LEGAL LIABILITIES, INFRINGING THE INTELLECTUAL PROPERTY RIGHTS OF THIRD PARTIES, OR ACTING INCONSISTENTLY WITH THE LETTER OR SPIRIT OF OUR TERMS OR   POLICIES. ADDITIONALLY, WE MAY, IN APPROPRIATE CIRCUMSTANCES AND AT OUR SOLE DISCRETION, SUSPEND OR TERMINATE ACCOUNTS OF USERS WHO MAY BE REPEAT INFRINGERS OF THIRD PARTY INTELLECTUAL PROPERTY RIGHTS.
+Powersource RESERVES THE RIGHT TO TERMINATE ANY ACCOUNT THAT HAS BEEN INACTIVE FOR 180 DAYS.
+Powersource reserves the right to stop offering and/or supporting the Service or a particular game or part of the Service at any time, at which point your license to use the Service or a part thereof will be automatically terminated. In such event, Powersource shall not be required to provide refunds, benefits or other compensation to users in connection with such discontinued Service
+. Termination of your Account can include disabling your access to the Service or any part thereof including any content you submitted or others submitted.
+2. Ownership
+2.1. Games and Service
+All rights, title and interest in and to the Service (including without limitation any games, titles, computer code, themes, objects, characters, character names, stories, dialogue, catch phrases, concepts, artwork, animations, sounds, musical compositions, audio-visual effects, methods of operation, moral rights, documentation, in-game chat transcripts, character profile information, recordings of games played using a Powersource game client, and the Powersource game clients and server software) are owned by Powersource. Powersource reserves all rights, including without limitation, all intellectual property rights or other proprietary rights, in connection with its games and the Service.
+2.2. Accounts
+NOTWITHSTANDING ANYTHING TO THE CONTRARY HEREIN, YOU ACKNOWLEDGE AND AGREE THAT YOU SHALL HAVE NO OWNERSHIP OR OTHER PROPERTY INTEREST IN THE ACCOUNT, AND YOU FURTHER ACKNOWLEDGE AND AGREE THAT ALL RIGHTS IN AND TO THE ACCOUNT ARE AND SHALL FOREVER BE OWNED BY AND INURE TO THE BENEFIT OF Powersource.
+2.3. Virtual Items
+Powersource owns, has licensed, or otherwise has rights to use all of the content that appears in the Service or in Powersource games. Notwithstanding any provision to the contrary herein, you agree that you have no right or title in or to any content that appears in the Service, including without limitation the virtual goods or currency appearing or originating in any Powersource game, whether earned in a game or purchased from Powersource, or any other attributes associated with an Account or stored on the Service.
+3. User Content
+3.1. Submission of User Content
+"User Content" means any communications, images, sounds, and all the material, data, and information that you upload or transmit through a Powersource game client or the Service, or that other users upload or transmit, including without limitation any chat text. By transmitting or submitting any User Content while using the Service, you affirm, represent and warrant that such transmission or submission is (a) accurate and not confidential or misleading; (b) not in violation of any laws, contractual restrictions or other third party rights, and that you have permission from any third party whose personal information or intellectual property is comprised in the User Content; (c) free of viruses, adware, spyware, worms or other malicious code; and (d) you acknowledge and agree that any of your personal information within such content will at all times be processed by Powersource in accordance with its Privacy Policy.
+3.1.1. Content Screening
+Powersource assumes no responsibility for the conduct of any user submitting any User Content, and assumes no responsibility for monitoring the Service for inappropriate content or conduct. We do not, and cannot, pre-screen or monitor all User Content. Your use of the Service is at your own risk. By using the Service, you may be exposed to User Content that is offensive, indecent or otherwise not in line with your expectations. You bear all risks associated with the use of any User Content available in connection with the Service. At our discretion, our representatives or technology may monitor and/or record your interaction with the Service or communications (including without limitation chat text) when you are using the Service.
+By entering into these Terms of Service, you hereby provide your irrevocable consent to such monitoring and recording. You acknowledge and agree that you have no expectation of privacy concerning the transmission of any User Content, including without limitation chat text or voice communications.
+Powersource reserves the right in its sole discretion to review, monitor, prohibit, edit, delete, disable access to or otherwise make unavailable any User Content (including without limitation your User Content) without notice for any reason or for no reason at any time. If at any time Powersource chooses, in its sole discretion, to monitor the Service, Powersource nonetheless assumes no responsibility for User Content and assumes no obligation to modify or remove any inappropriate User Content. We have the right, but not the obligation, in our sole discretion to edit, refuse to post, or remove any User Content.
+3.2. Information Use by Other Members of the Service
+3.2.1. Public Discourse
+The Service may include various forums, blogs and chat features where you can post User Content, including your observations and comments on designated topics. Powersource cannot guarantee that other members will not use the ideas and information that you share. Therefore, if you have an idea or information that you would like to keep confidential and/or don't want others to use, do not post it on the Service. Powersource shall have no responsibility to evaluate, use or compensate you for any ideas or information you may choose to submit.
+3.2.2. Responsible For Your Own Content
+You are solely responsible for the information that you post on, through or in connection with the Service and that you provide to others. Powersource may reject, refuse to post or delete any User Content for any or no reason, including, but not limited to, User Content that in the sole judgment of Powersource violates these Terms of Service.
+3.2.3. Your License to Powersource
+You hereby grant to Powersource an irrevocable, perpetual, transferable, fully paid-up, royalty-free, worldwide license (including the right to sublicense and assign to third party) and right to copy, reproduce, fix, adapt, modify, create derivative works from, manufacture, commercialize, publish, distribute, sell, license, sublicense, transfer, lease, transmit, publicly display, publicly perform, or provide access to electronically, broadcast, communicate to the public by telecommunication, display, perform, enter into computer memory, and use and practice, in any way, your User Content as well as all modified and derivative works thereof in connection with our provision of the Service, including marketing and promotions of the Service. You also hereby grant to Powersource the right to authorize others to exercise any of the rights granted to Powersource under these Terms of Service. You further hereby grant to Powersource the unconditional, irrevocable right to use and exploit your name, likeness and any other information or material included in any User Content and in connection with any User Content, without any obligation to you. Except as prohibited by law, you waive any rights of attribution and/or any moral rights you may have in your User Content, regardless of whether your User Content is altered or changed in any manner. Powersource does not claim any ownership rights in your User Content and nothing in these Terms of Service is intended to restrict any rights that you may have to use and exploit your User Content. Powersource has no obligation to monitor or enforce your intellectual property rights in or to your User Content.
+3.3. User Interactions
+You are solely responsible for your interactions with other users of the Service and any other parties with whom you interact through the Service and/or Powersource games. Powersource reserves the right, but has no obligation, to become involved in any way with these disputes. You will fully cooperate with Powersource to investigate any suspected unlawful, fraudulent or improper activity, including, without limitation, granting Powersource access to any password-protected portions of your Account.
+If you have a dispute with one or more users, you release us (and our officers, directors, agents, subsidiaries, joint ventures and employees) from claims, demands and damages (actual and consequential) of every kind and nature, known and unknown, arising out of or in any way connected with such disputes.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. Fees and Purchase Terms
+4.1.Purchases
+In the Service you may purchase, with "real world" money, a limited, personal, non-transferable, non-sublicensable, revocable license to use (a) "virtual currency", including but not limited to virtual cash or diamonds, all for use in Powersource games; (b) "virtual in-game items" (together with "virtual currency", "Virtual Items"); and (c) other goods or services ("Merchandise"). You are only allowed to purchase Virtual Items from us or our authorised partners through the Service, and not in any other way.
+Powersource may manage, regulate, control, modify or eliminate Virtual Items and/or Merchandise at any time, with or without notice. Powersource shall have no liability to you or any third party in the event that Powersource exercises any such rights.
+The transfer of Virtual Items and Merchandise is prohibited except where expressly authorized in the Service. Other than as expressly authorized in the Service, you shall not sell, purchase, redeem or otherwise transfer Virtual Items or Merchandise to any person or entity or attempt any of the aforesaid, including but not limited to Powersource, another user or any third party.
+ALL PURCHASES AND REDEMPTIONS OF VIRTUAL ITEMS MADE THROUGH THE SERVICE ARE FINAL AND NON-REFUNDABLE.
+The provision of Virtual Items for use in Powersource games is a service provided by Powersource that commences immediately upon acceptance by Powersource of your purchase.
+4.2. Payment of Fees
+You agree to pay all fees and applicable taxes incurred by you or anyone using an Account registered to you. Powersource may revise the pricing for the goods and services offered through the Service at any time. YOU ACKNOWLEDGE THAT Powersource IS NOT REQUIRED TO PROVIDE A REFUND FOR ANY REASON, AND THAT YOU WILL NOT RECEIVE MONEY OR OTHER COMPENSATION FOR UNUSED VIRTUAL ITEMS WHEN AN ACCOUNT IS CLOSED, WHETHER SUCH CLOSURE WAS VOLUNTARY OR INVOLUNTARY.
+5. Updates to the Service
+You understand that the Service is an evolving one. Powersource may require that you accept updates to the Service and to Powersource's games you have installed on your device or computer. You acknowledge and agree that Powersource may update the Service and Powersource games, with or without notifying you. You may need to update third party software from time to time in order to receive the Service and play Powersource games.
+6. Disclaimer of Warranties
+WITHOUT LIMITING Powersource'S LIABILITY UNDER SECTION 7 BELOW, THE SERVICE IS PROVIDED ON AN "AS IS" AND "AS AVAILABLE" BASIS FOR YOUR USE, WITHOUT WARRANTIES OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING WITHOUT LIMITATION THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE, NON-INFRINGEMENT, AND THOSE ARISING FROM COURSE OF DEALING OR USAGE OF TRADE. Powersource DOES NOT WARRANT THAT YOU WILL BE ABLE TO ACCESS OR USE      THE SERVICE AT THE TIMES OR LOCATIONS OF YOUR CHOOSING; THAT THE SERVICE WILL BE UNINTERRUPTED OR ERROR-FREE; THAT DEFECTS WILL BE CORRECTED; OR THAT THE GAME OR THE SERVICE ARE FREE OF VIRUSES OR OTHER HARMFUL COMPONENTS.
+Some jurisdictions do not allow the exclusion of certain warranties. Accordingly, some of the above disclaimers may not apply to you.
+7. Limitation of Liability; Sole and Exclusive Remedy; Indemnification
+TO THE MAXIMUM EXTENT PERMITTED BY LAW, Powersource SHALL NOT BE LIABLE TO YOU FOR ANY INDIRECT, INCIDENTAL, CONSEQUENTIAL, SPECIAL, PUNITIVE OR OTHER SIMILAR DAMAGES, INCLUDING BUT NOT LIMITED TO LOSS OF REVENUES, LOST PROFITS, LOST DATA OR BUSINESS INTERRUPTION OR OTHER INTANGIBLE LOSSES (HOWEVER SUCH LOSSES ARE QUALIFIED), ARISING OUT OF OR RELATING IN ANY WAY TO THESE TERMS OF SERVICE OR THE SERVICE ITSELF, WHETHER BASED ON CONTRACT, TORT OR ANY OTHER LEGAL THEORY, AND WHETHER OR NOT Powersource HAS BEEN ADVISED OF THE POSSIBILITY OF SUCH DAMAGES. TO THE EXTENT NOT PROHIBITED BY LAW, Powersource SHALL NOT BE LIABLE TO YOU FOR MORE THAN THE AMOUNT YOU HAVE PAID TO Powersource IN ACCORDANCE WITH THESE TERMS OF SERVICE IN THE SIX (6) MONTHS IMMEDIATELY PRECEDING THE DATE ON WHICH YOU FIRST ASSERT A CLAIM. YOU ACKNOWLEDGE AND AGREE THAT IF YOU HAVE NOT PAID ANYTHING TO Powersource DURING SUCH TIME PERIOD, YOUR SOLE REMEDY (AND Powersource'S EXCLUSIVE LIABILITY) FOR ANY DISPUTE WITH Powersource IS TO STOP USING THE SERVICE AND TO CANCEL YOUR ACCOUNT.
+NOTHING IN THESE TERMS OF SERVICE SHALL AFFECT THE STATUTORY RIGHTS OF ANY CONSUMER OR EXCLUDE OR RESTRICT ANY LIABILITY RESULTING FROM GROSS NEGLIGENCE OR WILLFUL MISCONDUCT OF Powersource OR FOR DEATH OR PERSONAL INJURY ARISING FROM ANY NEGLIGENCE OR FRAUD OF Powersource.
+You agree to indemnify, defend and hold Powersource (and our officers, directors, agents, subsidiaries, joint ventures and employees) harmless from any claim, demand, damages or other losses, including reasonable attorneys' fees, asserted by any third-party resulting from or arising out of your use of the Service, or any breach by you of these Terms of Service, however the foregoing does not apply if the infringement of rights is not attributable to your intentional or negligent behavior.
+8. Dispute Resolution and Law
+If a dispute arises between you and Powersource, we strongly encourage you to first contact us directly to seek a resolution by going to our customer support site at https://support.Powersource.com/. If you are a resident of the United States, these Terms of Service and any dispute arising out of or related to it or Privacy Policy or the Service shall be governed in all respects by California law, without regard to conflict of law provisions. You agree that any claim or dispute you may have against Powersource must be resolved exclusively by a court located in San Francisco, California. If you are a resident outside of the United States, you agree that all disputes between you and Powersource shall be governed by the laws of Finland, without regard to conflict of law provisions. You agree that any claim or dispute you may have against Powersource must be resolved exclusively by a court located in Helsinki, Finland.
+9. Severability
+You and Powersource agree that if any portion of these Terms of Service or of the Powersource Privacy Policy is found illegal or unenforceable, in whole or in part by any court of competent jurisdiction, such provision shall, as to such jurisdiction, be ineffective solely to the extent of such determination of invalidity or unenforceability without affecting the validity or enforceability thereof in any other manner or jurisdiction and without affecting the remaining provisions of the terms, which shall continue to be in full force and effect.
+10. General Provisions
+10.1. Assignment
+Powersource may assign or delegate these Terms of Service and/or the Powersource Privacy Policy, in whole or in part, to any person or entity at any time with or without your consent. You may not assign or delegate any rights or obligations under the Terms of Service or Privacy Policy without Powersource's prior written consent, and any unauthorized assignment and delegation by you is ineffective.
+10.2. Supplemental Policies
+Powersource may publish additional policies related to specific services such as forums, contests or loyalty programs. Your right to use such services is subject to those specific policies and these Terms of Service.
+10.3. Entire Agreement
+These Terms of Service, any supplemental policies and any documents expressly incorporated by reference herein (including the Powersource Privacy Policy), contain the entire understanding of you and Powersource, and supersede all prior understandings of the parties hereto relating to the subject matter hereof, whether electronic, oral or written, or whether established by custom, practice, policy or precedent, between you and us with respect to the Service.
+10.4. No Waiver
+The failure of Powersource to require or enforce strict performance by you of any provision of these Terms of Service or the Powersource Privacy Policy or failure to exercise any right under them shall not be construed as a waiver or relinquishment of Powersource's right to assert or rely upon any such provision or right in that or any other instance.
+The express waiver by Powersource of any provision, condition, or requirement of these Terms of Service or the Powersource Privacy Policy shall not constitute a waiver of any future obligation to comply with such provision, condition or requirement.
+Except as expressly and specifically set forth in this these Terms of Service, no representations, statements, consents, waivers, or other acts or omissions by Powersource shall be deemed a modification of these Terms of Service nor legally binding, unless documented in physical writing, hand signed by You and a duly appointed officer of Powersource.
+10.5. Notices
+We may notify you via postings on www.Powersource.com, and via e-mail or any other communications means to contact information you provide to us. All notices given by you or required from you under these Terms of Service or the Powersource Privacy Policy shall be in writing and addressed to: Powersource Oy. Attn: Legal, Itämerenkatu 11-13, FI- 00180 Helsinki, Finland. Any notices that you provide without compliance with this Section on Notices shall have no legal effect.
+10.6. Equitable Remedies
+You acknowledge that the rights granted and obligations made under these Terms of Service to Powersource are of a unique and irreplaceable nature, the loss of which shall irreparably harm Powersource and which cannot be replaced by monetary damages alone so that Powersource shall be entitled to injunctive or other equitable relief (without the obligations of posting any bond or surety or proof of damages) in the event of any breach or anticipatory breach by you.
+You irrevocably waive all rights to seek injunctive or other equitable relief, or to enjoin or restrain the operation of the Service or any Powersource game, exploitation of any advertising or other materials issued in connection therewith, or exploitation of the Service or any content or other material used or displayed through the Service and agree to limit your claims to claims for monetary damages, limited by Section 7 (if any).
+10.7. Force Majeure
+Powersource shall not be liable for any delay or failure to perform resulting from causes outside the reasonable control of Powersource, including without limitation any failure to perform hereunder due to unforeseen circumstances or cause beyond Powersource's control such as acts of God, war, terrorism, riots, embargoes, acts of civil or military authorities, fire, floods, accidents, strikes, or shortages of transportation facilities, fuel, energy, labor or materials.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kor|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUPERCELL 이용약관
+발효일 : 2020년 7월 1일
+본 약관(이하 "서비스 약관")은 귀하와 경기 성남시 분당구 이매로 35에 등록 사무소를 가진 회사(사업자 등록번호 2336509-6)인 파워소스스튜디오(이하 "Supercell" 또는 "당사") 사이에 있어서 귀하가 Supercell의 게임, 웹사이트 및 관련 서비스(이하 "서비스")를 이용하는 것에 관하여 적용됩니다. 또한 서비스의 이용에는 Supercell의 개인정보 보호정책과 기타 관련 정책들이 적용되는데, 이는 본 약관에 참조 형식으로 포함됩니다.
+서비스에 접속하거나 이를 이용(Supercell의 웹사이트를 방문하거나 게임에 접속하는 행위를 포함)하기 전에, 귀하는 본 서비스 약관과 개인정보 보호정책에 동의하여야 합니다. 또한 귀하는 서비스 계정(이하 "계정")을 등록할 필요가 있습니다. 계정을 등록하거나 서비스를 이용함으로써, 귀하는 귀하가 거주하는 국가의 미성년자가 아님을 표시하는 것입니다. 만일 귀하가 미성년자일 경우에는 귀하가 계정을 등록하거나 또는 서비스를 이용함으로써 귀하는 귀하의 법정 대리인이 본 약관을 검토하고 동의하였다는 의사표시를 한 것입니다. 만일 귀하가 Facebook 또는 Google+와 같은 소셜 네트워크 서비스(이하 "SNS")를 통하여 서비스에 접속하였다면, 귀하는 본 서비스 약관뿐만 아니라 SNS의 서비스 약관까지 준수해야 합니다.
+귀하가 서비스를 설치∙이용 또는 서비스에 접속함으로써, 귀하는 본 서비스 약관에 동의한 것입니다. 만일 귀하가 본 서비스 약관에 동의하지 않는다면, 서비스에의 접속 또는 서비스의 설치 또는 이용을 하지 않으시길 바랍니다. 서비스가 금지되는 경우 서비스의 이용은 무효입니다.
+Supercell은 관련 법령에 따라 Supercell의 서비스상에 변경된 조건들을 게재함으로써 본 서비스 약관과 당사의 개인정보 보호정책과 기타 관련 Supercell 정책들의 일부를 재량에 따라 변경∙수정∙추가 또는 제거할 권리를 가집니다. Supercell이 약관 및 개인정보보호정책을 변경할 경우, 변경된 내용은 Supercell이 고지한 적용일자에 효력을 발생합니다. Supercell은 적용일자로부터 최소한 7일 이전(이용자의 권리 및 의무에 중대하게 불리한 경우에는 30일 이전)에 적용일, 변경내용, 변경사유 등을 명시하여 Supercell의 웹사이트 또는 서비스 화면에 고지합니다. 귀하는 이에 대하여 거부의사를 표시할 수 있고, 거부의사의 표시 없이 서비스를 계속해서 이용하는 것은 그러한 변경을 수용하는 것으로 간주될 것입니다. 만일 귀하가 귀하의 서비스 이용과 관련된 당사의 현재 버전의 서비스 약관, 개인정보 보호정책, 또는 그 밖에 어떠한 정책, 규칙 또는 행동강령의 어느 한 부분에라도 동의하지 않는다면, 서비스를 이용할 수 있는 귀하의 라이선스는 즉시 종료되어야 하고, 귀하는 즉시 서비스의 이용을 중단해야 합니다.
+1. 라이선스
+1.1. 서비스 이용에 관한 제한적 라이선스의 허여
+본 서비스 약관과 그 밖에 관련된 Supercell의 정책들에 대한 귀하의 동의 및 지속적인 준수에 따라, Supercell은 귀하에게 양도 불가능하고, 비독점적이고, 2차 라이선스 허여가 불가능하고, 취소 가능하고, 귀하 자신의 비상업적∙오락적 목적으로의 접속과 이용에 한정되며, 제한된 라이선스를 허여합니다. 귀하는 그 밖의 다른 목적으로 서비스를 이용하지 않을 것에 동의합니다.
+이하의 제한들은 서비스의 이용에 적용됩니다.
+ 미성년자가 법정대리인의 동의를 받지 않고 의무부담행위를 한 경우(예를 들면, 유료서비스 결제), 미성년자 또는 그 미성년자의 법정대리인은 해당계약을 취소할 수 있습니다.
+귀하는 귀하의 계정을 구매, 판매, 대여, 양도(혹은 이를 시도)하지 않고 거짓 신원 혹은 정보로 또는 타인을 대신하여 계정을 생성하지 않아야 합니다; 귀하가 사전에 Supercell에 의해 제명되었거나 다른 Supercell 게임의 플레이가 금지되었을 경우 서비스를 이용할 수 없습니다.
+귀하는 오로지 비상업적인 목적으로만 귀하의 계정을 이용하여야 합니다. 귀하는 광고, 호객행위, 상업적 광고들의 전송(행운의 편지, 스팸메일 또는 누군가에 대한 반복적이거나 허위의 메시지 전송을 포함) 목적으로 서비스를 이용할 수 없습니다.
+로그인 정보 및 계정
+귀하는 귀하의 계정에 대한 암호를 선택할 것을 요구 받게 되거나 계정 접속을 위해 다른 비밀 정보를 사용할 수도 있습니다(이하 "로그인 정보"). 귀하는 계정 또는 로그인 정보를 타인과 공유할 수 없고, 타인으로 하여금 귀하의 계정에 접근하거나 그 밖에 귀하의 계정의 보안을 위협하는 어떠한 행위를 하도록 허락할 수 없습니다. 귀하가 보안사고를 알게 되거나 합리적으로 보안사고를 의심할만한 상황을 인지하게 될 경우(로그인 정보의 손실, 도난 또는 무단 공개를 포함하나, 이에 한정되지 아니함), 귀하는 즉시 Supercell에 해당 사실을 통지하고 귀하의 로그인 정보를 수정하여야 합니다. 귀하의 로그인 정보의 비밀유지는 전적으로 귀하가 책임져야 하고, 귀하는 귀하의 로그인 정보에 관한 모든 이용행위(구매행위를 포함하며, 귀하의 승인을 받았는지 여부는 불문함)에 대하여 책임을 부담합니다. 귀하는 귀하의 계정을 통하여 발생하는 모든 사안에 대하여 책임을 부담합니다.
+Supercell은 언제든지, 그리고 어떠한 이유로든지(어떠한 이용자명이 제3자의 권리를 침해하였다는 제3자의 주장을 포함하나, 이에 한정되지 아니함), 어떠한 이용자명도 제거하거나 회수할 권리를 가집니다.
+본 서비스는 지원기기의 게임당 하나의 계정만을 지원합니다.
+라이선스의 제한
+본 라이선스의 제한을 위반한 상태에서의 모든 서비스의 이용은 엄격하게 금지되고, 귀하의 제한된 라이선스는 즉시 취소될 수 있으며, 귀하는 위법행위에 대하여 책임을 져야 할 수도 있습니다.
+귀하는 어떤 상황에서도 다음과 같은 행위를 하지 않을 것에 동의합니다.
+Supercell의 서비스 정신 또는 서비스 의도에 반하는 것으로 Supercell이 간주하는 행위 또는 Supercell의 지원 서비스를 부적절하게 이용하는 행위
+Supercell의 게임 또는 게임경력을 변경하거나 방해하도록 설계된 치트, 엑스플로잇, 자동화 소프트웨어, 에뮬레이터, 보트, 해킹 프로그램, 유저제작게임 또는 그 밖에 승인되지 않은 제3자 소프트웨어를 이용 혹은 이용(직, 간접적)에 참여하거나, 서비스 또는 Supercell 게임의 일부 파일을 변경하거나 변경하도록 하는 행위
+서비스의 일반적인 흐름에 지장을 주거나 방해 또는 이에 부정적인 영향을 주는 행위나 서비스의 이용이나 Supercell의 게임 플레이에서 다른 사용자의 경험에 부정적인 영향을 주는 방식의 행동. 이는 몰아주기와 같은 순위 조작과 관련된 모든 행동, 서비스 오류를 통해 다른 플레이어들로부터 부당한 이득을 얻는 행동, 서비스 내용에 대한 의도적인 악용 및 이에 반하는 행동들을 포함합니다.
+서비스 또는 Supercell의 게임 환경을 제공하거나 지원하는 데에 사용되는 컴퓨터 또는 서버(이하 "서버")에 과부하를 걸거나 방해를 주거나 또는 이러한 과부하 또는 방해행위를 지원하는 행위
+공격행위(바이러스의 배포, 서비스에 대한 거부 공격, 또는 그 밖에 서비스 또는 제3자의 서비스 이용을 방해하고자 하는 행위를 포함하나, 이에 한정되지 아니함)를 개시하거나, 지원하거나, 또는 그에 관여하는 행위
+서비스, 타인 또는 다른 컴퓨터에 등록된 계정, 서버 또는 서비스에 연결된 네트워크에 대해 Supercell로부터 제공된 이용자 인터페이스가 아닌 다른 수단을 통해 승인되지 않은 접속을 시도하는 행위(서비스의 일부분인 보안, 기술, 기기 또는 소프트웨어를 변경 또는 우회하거나 그러한 시도를 하는 행위 또는 그러한 변경이나 우회를 하는 누군가를 지원하거나 방조하는 행위를 포함하나, 이에 한정되지 아니함)
+권리남용적이거나 위협적이거나 음란하거나 타인의 명예를 훼손하거나 비방하거나 인종∙성별∙종교적 또는 그 밖의 이유로 부당하거나 불쾌한 정보를 게시하는 행위 또는 원치 않는 모든 사람들에게 반복적으로 정보를 게시하는 것과 같이 지속적인 이러한 해독행위들에 관여하는 것
+나체, 과도한 폭력 또는 불쾌한 주제를 포함한 정보 또는 그러한 내용에 관한 링크를 게시하는 행위
+Supercell의 고객 서비스 대리인을 포함하여 Supercell의 피용자를 포함한 타인이나 그룹을 희롱하거나 괴롭히거나 해를 끼치는 행위 또는 그러한 희롱 또는 가해를 시도하거나 조장하는 행위
+서비스를 통하여 타인인 개인 또는 법인의 저작권, 상표, 특허, 영업비밀, 프라이버시권, 퍼블리시티권 또는 기타 권리를 침해하거나 타인(Supercell의 피용자를 포함하나, 이에 한정되지 아니함)을 사칭하는 자료 또는 정보를 사용할 수 있도록 하는 행위
+서비스 또는 Supercell의 게임을 제공하기 위하여 사용된 근본 소프트웨어 또는 다른 지적 재산권의 소스 코드를 추출하기 위하여, 또는 Supercell이 명시적으로 허용하지 않은 방법을 사용하여 서비스 또는 Supercell 게임으로부터 정보를 얻기 위하여 역설계, 역컴파일, 역어셈블, 해독행위 또는 기타 이를 위한 시도를 하는 행위
+서비스 또는 Supercell 게임의 다른 이용자로부터 로그인 정보나 기타 로그인을 위한 비밀 정보 또는 개인정보를 구하거나 구하려는 시도를 하는 행위
+서비스를 통하여 누군가의 사적인 정보{개인신원정보(문자, 이미지, 또는 비디오와 같은 형태 불문함), 신원확인 문서, 또는 재무정보를 포함}를 수집하거나 게시하는 행위
+수수료 또는 판돈의 개입 여부를 불문하고, 귀하가 플레이어로서 참가하는 경기의 결과에 대해 배팅하는 행위를 포함해 도박, 배팅 또는 (직접적 또는 간접적으로) 상 또는 보상이 획득될 수 있는 유사한 활동을 위해 Supercell 게임을 이용하는 행위
+Supercell은 어떠한 행위가 이용규칙 위반에 해당되거나 본 서비스 약관 및 본 서비스 약관의 의도 또는 정신을 이탈하는 것인지 여부를 결정할 권리를 가집니다. Supercell은 그 결정의 결과로서 조치를 취할 권리를 가지며 여기에는 귀하의 계정을 종료시키고 귀하의 서비스 이용을 전부 또는 일부를 금지하는 것이 포함됩니다.
+1.2. 계정과 서비스의 중단 및 종료
+만일 귀하가 본 서비스 약관을 준수하지 않거나 또는 서비스를 불법으로 또는 부적절하게 이용하거나, 또는 Supercell이 귀하의 약관 미준수, 위법하거나 부적절한 이용행위를 의심할만한 사정이 있는 경우(이하 총칭하여 "이용자 의무위반 행위")에는, Supercell은 귀하에게 통지하고 귀하의 서비스 또는 그 일부에 대한 접속 또는 귀하의 계정을 제한∙중단∙변경∙삭제(이하 "이용제한 조치")할 수 있습니다. Supercell은 이용자 의무위반 행위에 대하여 위반행위의 내용, 정도, 횟수, 결과 등 제반 사정을 고려하여 차등하여 서비스 이용제한 조치를 취할 수 있고, 이는 Supercell의 다른 권리구제수단을 제한하지 않습니다. 계정종료 또는 제한의 결과로, 귀하는 귀하의 서비스 이용과 관련된 이익, 특권, 획득한 아이템들과 구매한 아이템들뿐만 아니라 귀하의 서비스 내 이용자명과 캐릭터를 상실할 수 있고, Supercell은 이러한 손해 또는 결과에 관하여 귀하에게 배상할 책임이 없습니다.
+당사는 이용자가 위험 또는 법률상 책임을 창출하거나, 제3자의 지적재산권을 침해하거나, 또는 당사의 약관이나 정책의 문언 또는 정신에 반하는 행위를 하는 것으로 판단될 경우에는 서비스와 이용자 계정 또는 그 일부분을 제한∙중단 또는 해지할 수 있고, 당사의 게임∙사이트 및 그 콘텐츠∙서비스∙툴에의 접속을 금지할 수 있으며, 제공되는 콘텐츠를 제거하거나 지연시킬 수 있고, 해당 이용자의 서비스 접속을 막기 위한 기술적∙법률적 조치를 취할 수 있습니다(이는 Supercell의 다른 권리구제수단을 제한하지 않음). 또한, 당사는 적절한 상황 하에서 전적으로 당사의 재량에 따라, 제3자의 지적재산권을 반복적으로 침해할 여지가 있는 이용자의 계정을 중단하거나 해지시킬 수 있습니다.
+Supercell은 180일 이상 휴면 중인 계정을 해지시킬 권리를 가집니다.
+Supercell은 언제든지 서비스 또는 특정 게임 또는 서비스 일부의 제공 및/또는 지원을 중단할 권리를 가지고, 그와 동시에 서비스 또는 그 일부를 이용할 수 있는 귀하의 라이선스는 자동으로 종료됩니다. 이러한 경우, Supercell은 이용자에 대하여 서비스의 중단으로 인한 환불∙보상∙배상을 할 책임을 부담하지 않습니다. 귀하의 계정의 해지에는 서비스 또는 그 일부(귀하 또는 타인이 제출한 콘텐츠를 포함)에 대한 귀하의 접속을 불가능하게 하는 것도 포함될 수 있습니다.
+귀하는 당사의 지원페이지https://support.supercell.com/ 에 설명된 절차에 따라 Supercell에 대하여 귀하의 계정을 해지하고자 하는 의사를 통지함으로써 언제든지, 어떠한 이유로든지 귀하의 계정을 해지할 수 있습니다. 계정 해지시는 Supercell이 제공하는 서비스 이용 및 접속이 불가능하며, 귀하가 이용하던 콘텐츠 정보는 모두 삭제되어 복구가 불가능합니다.
+2. 소유권
+2.1. 게임과 서비스
+서비스에 관한 모든 권리, 소유권, 이익(게임, 출판물, 컴퓨터 코드, 테마, 물건, 캐릭터, 캐릭터명, 스토리, 다이얼로그, 캐치프레이즈, 콘셉트, 삽화, 애니메이션, 음향, 음악구성형식, 시청각적 효과, 작동방법, 저작인격권, 서류, 게임상의 채팅기록, 캐릭터 프로필 정보, Supercell의 게임 클라이언트를 이용한 게임 플레이 기록, Supercell의 게임 클라이언트와 서버 소프트웨어를 포함하나, 이에 한정되지 아니함)은 Supercell이 소유합니다. Supercell은 당사의 게임 및 서비스에 관한 모든 권리(지적재산권 또는 그 밖의 소유권을 포함하나, 이에 한정되지 아니함)를 가집니다.
+2.2. 계정
+어떠한 경우에도, 귀하는 귀하가 계정에 대한 소유권 또는 그 밖의 재산상 이익을 가지지 않음을 인정하고 동의하며, 나아가, 귀하는 계정상의 또는 계정에 대한 모든 권리는 영구적으로 Supercell이 소유하고 Supercell의 이익을 위하여만 유효함을 인정하고 동의합니다.
+2.3. 가상 아이템들
+Supercell은 Supercell의 게임 또는 서비스상의 모든 콘텐츠를 소유하고, 라이선스를 허여하며 기타 이를 이용할 권리를 가집니다. 어떠한 경우에도, 귀하는 서비스상의 어떠한 콘텐츠(Supercell의 게임에서 발생하거나 나타나는 가상의 물품 또는 통화(게임상에서 획득하였거나 Supercell로부터 구매하였는지 여부를 불문함) 또는 계정과 결부되거나 서비스상에 저장된 부수물을 포함하나, 이에 한정되지 아니함)에 대하여 아무런 권리 또는 소유권을 가지지 않음에 동의합니다.
+3. 이용자 콘텐츠
+3.1 이용자 콘텐츠 개진
+"이용자 콘텐츠"는 의사소통, 이미지, 음향, 그리고 모든 자료, 데이터, 그리고 귀하 또는 다른 이용자들이 Supercell 게임 클라이언트 또는 서비스를 통하여 업로드하거나 전송한 정보(채팅 텍스트를 포함하나, 이에 한정되지 아니함)를 의미합니다. 서비스를 이용하는 동안 어떠한 이용자 콘텐츠를 전송 또는 제출함으로써, 귀하는 그러한 전송 또는 제출행위가 (a)정확하고, 비밀이 아니며, (b) 법률 또는 계약상의 제한 또는 그 밖의 제3자의 권리를 위반하지 아니하고, 또한 귀하가 이용자 콘텐츠를 구성하는 개인정보 또는 지적재산권의 소유자인 제3자로부터 허락을 받았으며, (c) 바이러스, 애드웨어, 스파이웨어, 웜 바이러스 또는 그 밖의 악성코드가 없다는 것을 확인하고 진술 및 보증하며, (d) 그러한 콘텐츠 내의 귀하의 개인정보는 언제나 Supercell의 개인정보 보호정책에 따라 처리됨을 인정하고 이에 동의합니다.
+3.2. 콘텐츠 심사
+Supercell은 이용자 콘텐츠를 제출하는 이용자의 행위에 대하여 어떠한 책임도 지지 않고, 부적절한 콘텐츠 또는 행위에 대하여 서비스를 감시할 어떠한 책임도 지지 않습니다. 당사는 모든 이용자 콘텐츠를 사전에 심사하거나 감시할 수 없고 심사 또는 감시하지도 않습니다. 귀하의 서비스 이용에 따른 위험은 귀하 자신이 부담합니다. 서비스를 이용함으로써 귀하는 불쾌하고, 외설적이거나 귀하의 기대에 부응하지 않는 이용자 콘텐츠에 노출될 수 있습니다. 귀하는 서비스와 연결되어 사용 가능한 모든 이용자 콘텐츠의 사용과 관련된 일체의 위험을 부담합니다. 당사의 재량에 따라, 귀하의 서비스 이용 시 당사의 대리인 또는 당사의 기술에 의하여 귀하의 서비스와의 상호작용 또는 의사소통(채팅 텍스트를 포함하나 이에 한정되지 아니함)을 관찰 및/또는 기록할 수 있습니다.
+본 서비스 약관을 체결함으로써 귀하는 이러한 관찰과 기록에 대하여 취소할 수 없는 동의를 하는 것입니다. 귀하는 채팅 텍스트 또는 음성 의사소통을 포함하여 이용자 콘텐츠의 전송과 관련하여 프라이버시를 기대하지 않음을 인정하고 동의합니다.
+Supercell은 어떠한 근거에 대한 공지 없이 혹은 언제든지 별다른 이유 없이 재량으로 사용자 콘텐츠(귀하의 사용자 콘텐츠에 대한 제한 없이 이를 포함하여)에 대한 검토, 관찰, 금지, 편집, 삭제, 접속 금지 또는 이를 이용할 수 없도록 할 권한을 갖습니다. Supercell이 전적으로 당사의 재량에 따라 서비스를 관찰하기로 결정한 경우에도, Supercell은 이용자 콘텐츠에 대하여 어떠한 책임도 부담하지 아니하고, 부적절한 이용자 콘텐츠를 수정 또는 제거할 의무를 부담하지도 않습니다. 당사는 당사의 전적인 재량 하에 이용자 콘텐츠를 편집하고, 전송을 거부하거나 제거할 권리를 가지고 있으나, 그러한 의무를 부담하지는 않습니다.
+3.2. 서비스의 다른 이용자들에 의한 정보 이용
+3.2.1. 공시
+지정된 주제에 관한 귀하의 논평과 언급을 포함하여 귀하가 이용자 콘텐츠를 게시할 수 있는 다양한 포럼, 블로그, 그리고 채팅 기능이 서비스에 포함될 수 있습니다. Supercell은 귀하가 공유하는 아이디어와 정보를 다른 이용자들이 이용하지 않으리라는 점을 보증하지 않습니다. 따라서 만일 귀하가 비밀을 유지하고자 하는 정보 또는 아이디어를 가지고 있고 또는/그리고 다른 사람들이 이를 이용하지 않기를 바란다면, 이를 서비스에 게시하지 마십시오. Supercell은 귀하가 제출하기로 결정한 아이디어 또는 정보를 평가하거나 이용하거나 그와 관련하여 귀하에게 배상할 책임을 지지 않습니다.
+3.2.2. 귀하 소유의 콘텐츠에 대한 책임
+귀하는 귀하가 서비스상에 또는 서비스를 통하여 또는 서비스와 관련하여 게시하거나 또는 타인에게 제공한 정보에 대하여 전적으로 책임을 집니다. Supercell은 어떠한 이유로든지 또는 아무 이유 없이도 이용자 콘텐츠(Supercell의 전적인 판단에 따랐을 때 본 서비스 약관을 위반하는 이용자 콘텐츠를 포함하나, 이에 한정되지 아니함)를 거절하거나 게시를 거부하거나 이를 삭제할 수 있습니다.
+3.3. Supercell에 대한 귀하의 라이선스
+귀하는 이로써 Supercell에 대하여 취소할 수 없고, 영구적이며, 이전 가능하며, 전액 완납된, 로열티가 부과되지 않는, 전 세계적인 라이선스(2차 라이선스권과 제3자에 대한 양도권을 포함)와, 당사의 서비스 제공과 관련된 귀하의 이용자 콘텐츠뿐만 아니라 그에 관한 모든 변경되고 파생된 가공물을 복사∙복제∙재생성∙수리∙조정∙변경∙2차적저작물 생성∙제조∙상업화∙퍼블리싱∙배포∙판매∙라이선스∙2차 라이선스∙이전∙리스∙전송∙공개적인 전시∙공개적인 공연∙전자적 접속의 제공∙방송∙전기통신에 의한 대중과의 의사소통∙전시∙공연∙컴퓨터 메모리에의 입력, 그리고 어떠한 방식으로든지 이용 및 실행(서비스의 마케팅과 프로모션을 포함)할 권리를 허여합니다. 또한 귀하는 Supercell이 본 서비스 약관에 따라 Supercell에게 허여된 권리를 행사할 권한을 타인에게 부여할 수 있음을 허여합니다. 나아가 귀하는 Supercell에게, 귀하에 대하여 어떠한 의무도 부담함이 없이, 귀하의 성명, 초상, 그리고 그 밖에 이용자 콘텐츠에 포함되거나 그와 연관된 정보 또는 자료를 이용하고 활용할 무조건적이고 취소 불가능한 권리를 허여합니다. 법률에 의하여 금지되지 않는 한, 귀하의 이용자 콘텐츠가 어떠한 방식으로 수정 또는 변경되건 간에, 귀하는 귀하의 이용자 콘텐츠에 대하여 귀하가 가질 수 있는 모든 소유권 및/또는 저작인격권을 포기합니다. Supercell은 귀하의 이용자 콘텐츠에 대하여 어떠한 소유권도 주장하지 않고 본 서비스 약관은 귀하가 귀하의 이용자 콘텐츠를 이용하고 활용할 권리를 제한하지 않습니다. Supercell은 귀하의 이용자 콘텐츠에 대한 귀하의 지적 재산권을 감시하거나 집행할 의무를 부담하지 않습니다
+3.4. 이용자 상호작용
+귀하는 서비스의 다른 이용자들 및 서비스 및/또는 Supercell 게임을 통하여 귀하가 상호작용하는 다른 당사자들과의 상호작용에 대하여 전적으로 책임을 부담합니다. Supercell은 이러한 분쟁에 관여할 권리를 가지지만 그러한 의무는 부담하지 않습니다. 위법하거나 사기적이거나 또는 부적합하다고 의심받는 활동에 관한 Supercell의 조사에 귀하는 전적으로 협력(Supercell이 귀하의 계정의 암호로 보호받는 부분에 접속하는 것을 승인하는 것을 포함하나, 이에 한정되지 아니함)합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 수수료와 구매 조건
+4.1. 구매
+귀하는 현실세계의 화폐로 서비스상에서 (a) Supercell 게임들에서 사용되기 위한 "가상 화폐"(가상의 현금 또는 다이아몬드를 포함하나 이에 한정되지 아니함), (b) "가상의 게임상 아이템"("가상 화폐"와 총칭하여 "가상 아이템"이라 함), 그리고 (c) 다른 상품 또는 용역(이하 "상품")을 이용할 수 있는 제한되고, 개인적이며, 양도 불가능하고, 2차 라이선스 발급이 불가능하며, 취소 가능한 라이선스를 구매할 수 있습니다. 귀하는 가상 아이템을 Supercell 또는 Supercell의 승인을 얻은 파트너사들의 서비스를 통해서만 구매할 수 있으며 기타 방법으로는 구매가 불가능합니다.
+Supercell의 서비스를 통해 가상 아이템, 상품 등의 구매 시, 구매대금은 이동통신사, 당사의 게임을 설치하고 결제할 수 있도록 제공하는 오픈마켓 등의 전자상거래 제공자(게임 내 결제 제공 사업자 포함)(예: Google Play App Store, Apple App Store 등, 이하 "App Store 사업자") 및 결제업체에서 정하는 정책과 방식에 따라 한도가 결정되고 결제가 진행됩니다. 결제가격 중 외화 결제 시 환율 및 앱스토어 사업자의 수수료 등으로 예상지불 금액과 실제 청구금액에 차이가 발생할 수 있습니다.
+Supercell 게임에서 사용될 가상 아이템의 공급은 Supercell이 제공하는 서비스로서 귀하의 구매를 Supercell이 승낙함에 따라 즉시 개시됩니다.
+Supercell은 언제든지 통지를 제공하거나 제공하지 않고 가상 아이템 및/또는 상품을 관리∙규제∙통제∙변경∙제거할 수 있습니다. Supercell이 이러한 권리를 실행하는 경우, Supercell은 어떠한 경우에도 귀하 또는 제3자에 대하여 어떠한 책임도 부담하지 않습니다.
+가상 아이템과 상품의 이전은 서비스상에서 명시적으로 허용되는 경우 외에는 금지됩니다. 서비스상에서 명시적으로 허용되는 경우 외에는 귀하는 가상 아이템 또는 상품을 타인 또는 법인(Supercell, 다른 이용자 또는 그 밖의 제3자를 포함하나, 이에 한정되지 아니함)에게 판매하거나 구매하거나 교환하거나 달리 이전 혹은 이를 시도해서는 안 됩니다.
+귀하가 가상 아이템 또는 상품을 구매한 경우, 귀하는 본 약관이나 기타 거래조건에서 달리 정하지 아니하는 한, 귀하가 구매에 관한 내용을 통지를 받은 날(귀하가 그 통지를 받은 이후에 가상 아이템 또는 상품을 공급받은 경우에는 가상 아이템 또는 상품을 공급받은 날)로부터 7일 이내에는 Supercell이 정한 절차를 통해 구매를 취소할 수 있습니다. 다만 귀하가 가상 아이템 또는 상품을 사용 또는 일부 소비한 경우 및 기타 해당되는 경우에는 구매를 취소할 수 없습니다.
+다만 위 규정에도 불구하고, 귀하는 가상 아이템 또는 상품의 내용이 표시·광고 내용과 다르거나, 계약내용과 다르게 이행된 때에는 당해 제품 또는 기타상품을 공급받은 날로부터 3개월 이내, 그 사실을 안 날 또는 알 수 있었던 날로부터 30일 이내에 구매를 취소할 수 있습니다.
+구매 취소에 따른 환불이 접수되면 Supercell은 접수신청 내용이 정당한지 여부를 심사하고, 귀하가 이용하는 앱스토어 사업자의 환불 운영정책 및 절차에 따라 환불을 진행합니다. 심사를 통해 환불이 결정된 경우에는 환불 가능 잔액을 산출하여 환불합니다.
+귀하가 구매를 취소한 경우, Supercell은 구매 취소된 가상 아이템 또는 상품을 회수 또는 삭제합니다. Supercell은 가상 아이템 또는 상품이 회수 또는 삭제된 날로부터 3영업일 이내에 앱스토어 사업자에 대한 취소요청 등의 필요한 환불절차를 개시하고, 당사가 환불절차의 개시를 지연하는 때에는 그 지연기간에 대하여 관련법령에 따른 지연이자율을 곱하여 지연이자를 지급합니다.
+4.2. 수수료의 지급
+귀하는 귀하 또는 귀하에게 등록된 계정을 이용하는 누군가에 의하여 발생하는 모든 비용과 해당 세금을 지급하는 것에 동의합니다. Supercell은 언제든지 서비스를 통하여 제공되는 상품과 용역의 가격을 수정할 수 있습니다. 귀하는 계정이 자발적 또는 비자발적으로 폐쇄되었을 때, 미사용 가상 아이템에 관하여 현금을 수령하거나 또는 다른 배상을 받지 않는다는 점을 인정합니다.
+5. 서비스의 업데이트
+귀하는 서비스가 진화하고 있음을 이해합니다. Supercell은 귀하에 대하여 서비스 및 귀하의 장치나 컴퓨터에 설치된 Supercell 게임에 대한 업데이트를 수용할 것을 요구할 수 있습니다. 귀하는 Supercell이 귀하에게 통지를 하거나 통지하지 아니하고도 서비스 및 Supercell 게임을 업데이트할 수 있음을 인정하고 동의합니다. 귀하는 서비스를 받고 Supercell 게임을 실행하기 위하여 때때로 제3자의 소프트웨어를 업데이트해야 할 수도 있습니다.
+6. 보증의 부인
+하기 제7항에 따른 Supercell의 책임을 제한하지 아니하고, 서비스는 어떠한 종류의 명시적∙묵시적 보증(상품성, 특정 목적에의 적합성, 소유권 및 비침해에 대한 보증, 그리고 거래과정 또는 거래관습상 발생하는 보증들을 포함하나, 이에 한정되지 아니함)도 없이, 귀하의 이용을 위하여 "있는 그대로", 그리고 "이용 가능한대로" 제공됩니다. Supercell은 귀하가 선택하는 시간 또는 장소에서 서비스에 접속하거나 서비스를 이용할 수 있을 것이라고 보증하지 않습니다. 또한 Supercell은 서비스가 방해받지 않거나 서비스에 에러가 발생하지 않음을 보증하지 않고, 결함이 수정될 것이라고 보증하지도 않으며, 게임 또는 서비스에 바이러스 또는 그 밖의 유해한 요소가 없다고 보증하지도 않습니다.
+일부 관할 구역에서는 특정 보증의 제외를 허가하지 않습니다. 따라서, 위의 부인 중 일부는 귀하에게 적용되지 않을 수 있습니다.
+7. 책임의 제한; 유일하고 배타적인 구제수단; 손해배상
+Supercell은 계약에 근거하든지 불법행위에 근거하든지 또는 그 밖의 법률 이론에 근거하든지 간에, 또한 Supercell이 그러한 손해의 가능성에 관하여 조언을 받았는지 여부와 무관하게 본 서비스 약관 또는 서비스 그 자체에 관련되거나 그로부터 발생하는 간접적∙부수적∙결과적 손해, 특별손해, 징벌적 또는 그 밖에 그와 유사한 손해(매출의 손실, 이익의 손실, 데이터의 손실, 사업 방해 또는 그 밖의 무형의 손실(이러한 손실에 어떻게 단서가 달리든지 불문함)을 포함하나, 이에 한정되지 아니함)에 대하여 귀하에게 책임지지 않습니다. Supercell은 귀하가 최초로 청구권을 주장한 날로부터 직전 6개월 이내에 귀하가 본 서비스 약관에 따라 Supercell에 대하여 지급한 금액을 초과하여 책임지지 않습니다. 귀하는 귀하가 위 기간 동안 Supercell에 대하여 아무것도 지급하지 않은 경우에는, Supercell과의 모든 분쟁에 있어서 귀하의 유일한 구제수단(그리고 Supercell의 배타적인 책임)은 서비스의 이용을 중단하고 귀하의 계정을 취소하는 것임을 인정하고 동의합니다.
+일부 재판관할에서는 특정한 종류의 손해에 대한 책임의 배제 또는 제한 또는 특정한 보증의 배제를 허용하지 않습니다. 그에 따르면, 상기 부인과 제한 중 일부는 귀하에게 적용되지 않을 수도 있습니다. 관련법상 Supercell이 본 서비스 약관에 명시된 바와 같이 보증을 부인하거나 책임을 제한할 수 없게 되는 한도 내에서 이러한 보증의 범위 및 Supercell의 책임 한도는 해당 관련법하에서 허용되는 최소한도가 됩니다. 특히, 본 서비스 약관은 소비자의 성문법상의 권리에 영향을 미치지 아니하고, Supercell의 과실 또는 사기로 인하여 발생한 사망 또는 신체적 상해에 대한 책임을 배제하거나 제한하지 않습니다.
+귀하는 귀하의 서비스 이용 또는 귀하의 본 서비스 약관 위반행위(그러나 귀하의 고의 또는 과실에 기인하지 않은 권리침해의 경우는 제외함)로부터 발생하는 제3자가 제기하는 청구, 요구, 손해 또는 그 밖의 손실(합리적인 변호사 비용을 포함)로부터 Supercell(및 당사의 담당자, 관리자, 대리인, 자회사, 합작 회사, 직원들)을 면책, 방어하고 해를 입지 않도록 하며 손해를 배상할 것에 동의합니다.
+8. 분쟁 해결과 준거법
+귀하와 Supercell 사이에 분쟁이 발생할 경우, 해결책을 강구하기 위해 우선 당사의 고객 지원 사이트 https://support.supercell.com/를 통하여 당사와 직접 접촉할 것을 강력히 권장합니다. 만일 귀하가 미국 거주자라면, 본 서비스 약관과, 본 서비스 약관, 개인정보 보호정책 또는 서비스로부터 또는 그와 관련하여 발생하는 분쟁은 모든 면에서 국제사법 조항을 제외하고 캘리포니아 법에 의해 규율됩니다. 귀하는 Supercell을 상대로 귀하가 제기하는 일체의 청구 또는 분쟁은 캘리포니아주, 샌프란시스코 소재 법원에서 배타적으로 해결된다는 것에 동의합니다. 만일 귀하가 미국 이외의 지역의 거주자라면, 귀하는 귀하와 Supercell 사이의 모든 분쟁은 국제사법 조항을 제외하고 핀란드 법에 의해 규율된다는 것에 동의합니다.
+9. 분리가능성
+귀하와 Supercell은, 본 서비스 약관 또는 Supercell 개인정보 보호정책의 일부가 전부 또는 부분적으로 어떠한 관할법원에서 불법이거나 또는 집행이 불가능하다고 판명될 경우, 그러한 조항은 해당 관할에 대하여 그 무효 또는 집행불능의 결정의 범위 내에서만 효력이 없으나, 이는 다른 방식으로나 또는 다른 관할에서의 해당 조항의 유효성 또는 집행 가능성에는 영향을 미치지 아니하고, 약관의 그 밖의 다른 조항의 유효성 및 집행 가능성에도 영향을 미치지 않음에 동의합니다.
+10. 일반 조항
+10.1. 양도
+Supercell은 귀하의 동의 여부와 무관하게, 언제든지 본 서비스 약관 및/또는 개인정보 보호정책의 전부 또는 일부를 어떠한 개인 또는 법인에게 양도 또는 위임할 수 있습니다. 귀하는 Supercell의 사전 서면 동의 없이는 서비스 약관 또는 개인정보 보호정책 상의 권리 또는 의무를 양도 또는 위임할 수 없고, 승인받지 아니한 귀하의 양도 또는 위임은 무효입니다.
+10.2. 추가 정책
+Supercell은 포럼, 대회 또는 고객보상 프로그램과 같은 특별한 서비스에 관련된 추가적인 정책을 공포할 수 있습니다. 그러한 서비스의 이용에 관한 귀하의 권리는 본 서비스 약관과 이들 특별 정책의 적용을 받습니다.
+10.3. 완전한 합의
+본 서비스 약관, 추가 정책 및 본 서비스 약관에서 언급함으로써 명시적으로 포함된 문서들(Supercell 개인정보 보호정책 포함)은 귀하와 Supercell의 완전한 이해를 포함하고, 본 약관의 주제에 관한 귀하와 당사 간의 모든 사전의 이해(그것이 전자적 방식이나 구두 또는 서면에 의하였는지, 또는 귀하와 당사간에 서비스와 관련하여 관습, 실무, 또는 정책 또는 선례에 의해 확립되었는지 여부를 불문함)를 대체합니다.
+10.4. 권리포기의 부존재
+Supercell이 귀하로 하여금 본 서비스 약관 또는 Supercell 개인정보 보호정책의 어떠한 규정을 엄격하게 이행하도록 요구하거나 그 이행을 집행하지 않았다거나 또는 Supercell이 약관상의 권리를 미실행한 사실이 그러한 상황 또는 그 밖의 경우에 Supercell이 해당 규정이나 권리를 주장하거나 그러한 규정이나 권리에 의지할 권리를 포기하거나 양도하는 것으로 해석될 수 없습니다.
+본 서비스 약관 또는 Supercell 개인정보 보호정책의 어떠한 조항, 조건, 또는 요건에 대한 Supercell의 명시적인 포기의 의사표시가 장래에 있어서도 그러한 조항, 조건 또는 요건을 준수할 의무에 대한 포기로 간주되어서는 안됩니다.
+본 서비스 약관에 명시적으로 특정하여 기재된 경우를 제외하고는, 귀하와 적법하게 지명된 Supercell의 담당자가 수기로 서명한 물리적인 서면 문서로 작성되지 않는 한 Supercell의 어떠한 진술, 성명, 동의, 포기 또는 그 밖의 행위 또는 누락도 본 서비스 약관의 수정으로 간주되지 않고, 법률적으로 구속력을 가지지도 않습니다.
+10.5. 통지
+당사는 www.supercell.com 에의 게재, 그리고 귀하가 당사에 제공한 연락처 정보로 이메일 또는 그 밖의 의사소통 수단을 통하여 귀하에게 통지할 수 있습니다. 본 서비스 약관 또는 Supercell 개인정보 보호정책 하에서의 귀하로부터의 모든 통지는 다음 주소로 서면으로 이루어져야 합니다: Supercell Oy. Attn: Legal, Itämerenkatu 11-13, FI-00180 Helsinki, Finland. 통지에 관한 본 항을 준수하지 아니하고 귀하가 제공하는 모든 통지는 법률적으로 효력이 없습니다.
+10.6. 형평법상의 구제수단
+귀하는, Supercell에 대한 본 서비스 약관상의 권리 및 의무가 유일무이하고 대체 불가능하며, 그러한 권리 및 의무의 손실은 Supercell에게 회복 불가능한 손실을 가하고, 그러한 손실은 금전적 손해배상만으로 충당할 수 없으므로, 따라서 Supercell은 귀하의 계약 위반 시 또는 귀하의 계약위반이 예상되는 경우에 보전처분 또는 기타 형평법상의 구제수단(보석금이나 보증금 또는 손해에 대한 증명을 제공할 의무 없이)을 실행할 권한을 가짐을 인정합니다.
+귀하는 보전처분 또는 그 밖의 형평법상의 구제수단을 구할 권리, 또는 서비스나 Supercell 게임의 운영, 광고 또는 그와 관련되어 발행되는 기타 자료의 활용, 서비스의 활용 또는 서비스를 통하여 이용 또는 전시된 서비스 또는 콘텐츠나 그 밖의 자료의 활용을 금지시키거나 제지할 일체의 권리를 포기하며, 이와 같은 포기는 취소할 수 없습니다. 또한 귀하는 귀하의 청구권을 제7항에 의해 제한되는 금전적 손해배상청구로 한정함에 동의합니다.
+10.7. 불가항력
+Supercell은 Supercell의 합리적인 통제를 벗어난 원인으로 야기된 이행지체 또는 불이행에 대한 책임을 부담하지 않습니다. 여기에는 천재지변, 전쟁, 테러, 폭동, 금수조치, 행정 및 군 당국의 처분, 화재, 홍수, 사고, 파업, 또는 물류시설∙연료∙에너지∙노동력 또는 자재의 부족과 같이 Supercell의 통제를 벗어난 예상할 수 없는 상황 또는 원인으로 인한 불이행이 포함되나, 이에 한정되지는 아니합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 보호정책
+발효일: 2020년 7월 1일
+당사의 게임을 즐겨 주셔서 감사합니다! 본 개인정보 보호정책에서는 다음 사항을 설명합니다.
+당사가 귀하에 관한 개인정보를 수집하는 방식 및 그 이유
+당사가 귀하의 개인정보를 사용하는 방식
+개인정보에 대해 귀하가 갖는 선택 사항
+본 개인정보 보호정책은 Supercell의 게임, 웹사이트 및 관련 서비스에 적용되며, 본 문서에서는 이를 서비스라 통칭합니다. 당사는 본 개인정보 보호정책을 주기적으로 갱신해 supercell.com에 신규 버전을 게시할 수 있습니다. 중대한 변경이 이루어지는 경우, 당사는 변경 사항이 시행되기 전에 서비스에서 고지문을 게시하는 방식을 포함해 관련 법률에 요구되는 바에 따라 귀하에게 통지합니다. 귀하가 시행일 이후에도 서비스를 계속 사용하는 경우 새로운 개인정보 보호정책의 적용을 받습니다.
+연락처
+개인정보 보호에 관한 문의 사항, 또는 귀하의 개인정보에 관한 문제를 해결하기 위한 요청 사항이 있는 경우, 일차적으로 각각의 Supercell 게임 내에 존재하는 고객지원 기능을 통해 당사로 연락하시면 보다 신속하게 답변 받을 수 있습니다. 이 외에 다음 연락처를 통해 당사에 직접 연락하실 수도 있습니다.
+관리자 성명: Supercell Oy
+주소: Itämerenkatu 11-13, FI-00180 Helsinki, Finland / 담당자: Privacy 팀
+이메일: legal-requests@supercell.com
+당사가 수집하는 데이터
+당사가 수집하는 개인정보의 범주는 귀하가 사용하는 서비스 및 관련 법률의 요건에 따라 달라집니다.
+귀하가 당사에 제공하는 정보.
+연락처 정보(이름, 이메일 주소 또는 전화번호 등)
+플레이어 이름이나 태그 및 비밀번호
+프로필 정보(프로필 사진 등)
+서비스로 제출된 귀하의 메시지(채팅 기록 및 고객지원 티켓 등)
+귀하의 선택에 따라 당사에 제공하는 기타 정보(분실된 계정을 확인하기 위한 정보 또는 설문조사나 판촉 프로그램에 참가하기 위해 제공하는 정보 등)
+당사에서 자동으로 수집하는 데이터.
+계정 및 게임 진척도에 관한 정보, 대부분의 경우 자동으로 생성된 내부 계정 ID 포함
+IP 주소 및 모바일 장치 식별자(장치 또는 광고 ID 등)
+장치 이름 및 운영체제, 브라우저 종류 및 언어, 인터넷 서비스 제공자, 및 이동통신사 등 귀하의 장치에 관한 정보
+당사가 쿠키 및 유사한 기술을 통해 수집하는 정보(자세한 내용은 아래 참고)
+대략적인 위치 정보(IP 주소로부터 도출됨)
+정확한 지리적 위치 정보(GPS, 귀하의 동의를 받는 경우)
+서비스 사용에 관한 정보(게임 플레이 데이터 및 서비스 내에서 귀하가 다른 플레이어와 하는 상호작용 등)
+귀하는 본인의 이메일 주소 또는 그 밖의 연락 정보를 사용해 Supercell ID를 새로 만들 수도 있습니다.
+당사가 당사의 협력사로부터 수집하는 정보.
+당사는 다음의 정보와 같이 당사가 귀하에 관해 보유하는 정보를 보완하기 위해 소셜 네트워킹 사이트, 데이터 분석 서비스 제공자 및 광고 네트워크 등의 제3자 협력사도 이용합니다.
+제3자 툴을 서비스에 연결한 경우 받는 데이터(예, Facebook, WeChat 또는 Google)
+인구통계학적 데이터(예: IP 주소의 대략적인 위치 결정)
+사기 방지를 위한 데이터(예: 게임에서의 환불 악용 또는 광고에서의 클릭 사기)
+게임이 실행되는 플랫폼의 데이터(예: 결제 확인)
+보다 나은 서비스를 제공하기 위한 광고 및 분석 목적을 위한 데이터
+귀하가 본인의 개인정보 설정을 통해 제3자 서비스(LINE, WeChat, Google 또는 Facebook 등)에서 당사가 이용할 수 있도록 허용한 정보
+귀하의 데이터를 수집하는 이유
+당사는 다음과 같은 여러 사업상 목적을 위해 귀하의 데이터를 사용합니다.
+서비스의 실행을 위해.
+계약의 이행을 목적으로, 당사는 다음을 위해 필요한 정보를 처리합니다.
+계정 생성 및 귀하의 당사 게임 및 서비스 사용
+서비스를 운영
+결제 확인 및 처리
+귀하가 요청한 제품 및 서비스를 제공
+귀하에게 서비스 관련 통신물을 발송
+당사의 플레이어들에게 서비스를 보다 적합하도록 만들기 위해.
+당사의 플레이어들에게 훌륭한 서비스를 제공하기 위한 목적으로, 당사는 다음을 위해 필요한 정보를 수집 및 처리할 수 있는 적법한 이해관계가 있습니다.
+플레이어 프로필을 업데이트하고 개발하기 위해
+서비스 및 플레이어 경험을 개발하고 개선하기 위해
+당사와 귀하 사이의 상호관계 관리
+서비스의 일부로 소셜 기능을 제공하기 위해
+귀하를 위한 서비스 경험의 개별화
+귀하의 의견 및 질문에 응대하고 플레이어 지원을 제공하기 위해
+서비스 및 다른 웹 사이트와 서비스 및 이메일을 통해 Supercell 상품을 귀하에게 제공
+업데이트, 보안 경고 및 지원 메시지와 같은 관련 정보를 사용자에게 보내기 위해
+귀하가 다른 사용자에게 연락할 수 있도록 하기 위해
+개인화된 광고를 표시하기 위해.
+본 서비스 및 기타 웹사이트와 서비스에서(이메일 포함) 귀하에게 개인별 맞춤 광고를 보여주기 위한 목적으로, 당사는 다음을 위해 필요한 정보를 처리할 수 있는 적법한 이해관계가 있습니다.
+서비스 및 온라인 행동과 관련하여 귀하가 액세스하는 컨텐츠 추적
+광고 및 서비스의 제공, 타게팅 및 개선
+개인별 맞춤 광고의 수신 거부 방법에 관한 정보는 아래 '귀하의 권리 및 선택권' 항목을 참고하시기 바랍니다.
+서비스를 안전하고 공정하게 유지하기 위해.
+서비스 내에서 공평한 경쟁의 장을 보장하는 것이 당사의 최우선 사항입니다. 당사가 허용하는 이용행위에 관한 방침에 대한 자세한 정보는 Supercell 서비스 약관을 참고하십시오.
+서비스와 그 소셜 기능을 안전하고 공정하게 유지하기 위해, 사기를 방지하기 위해, 그리고 그 외에 허용되는 이용행위를 보장하기 위해, 당사는 다음을 목적으로 필요한 정보를 처리할 수 있는 적법한 이해관계가 있습니다.
+서비스 및 해당 소셜 기능의 사용 분석 및 모니터링
+자동 또는 수동으로 채팅 관리
+사기 행위를 저지른 플레이어, 또는 비매너 플레이어에 대한 조치
+분석, 프로필 및 분류하기 위해.
+위와 같은 모든 경우 및 목적과 관련해, 당사는 수집된 모든 정보를 분석하고, 정리하며, 분류할 수 있습니다.
+귀하의 동의를 통해.
+귀하가 동의한 경우, 당사는 귀하에게 현지 이벤트를 보여주기 위해 귀하의 GPS 위치 정보를 사용하는 등, 추가적인 목적을 위해 귀하의 정보를 이용할 수 있습니다.
+귀하의 데이터를 볼 수 있는 사람
+Supercell과는 별도로 다음과 같은 상황에서는 다른 사용자가 데이터에 액세스할 수 있습니다.
+다른 플레이어 및 사용자.
+소셜 기능은 당사가 제공하는 게임의 핵심 구성 요소입니다. 예를 들어, 다른 플레이어 및 사용자는 귀하의 프로필 정보 또는 게임 내 활동을 열람하고, 귀하가 게시한 메시지를 읽을 수 있습니다.
+당사의 서비스 제공자.
+Supercell은 당사의 서비스 제공을 돕기 위해 업체를 이용합니다. 이러한 업체들은 서비스를 제공하고, 호스팅, 고객지원, 분석 및 사기 방지 등의 작업을 수행하기 위해, 오로지 Supercell의 지침에 따라서만 귀하의 정보를 이용합니다.
+기타 회사 및 공공기관.
+사기 및 불법 활동을 방지하기 위해, 당사는 다른 회사 및 조직 간에 서로 정보를 처리하고 공개하며, 적법한 요청에 따라 공공기관에 정보를 제공할 수 있습니다.
+당사는 또한 법률을 준수하기 위해, 또는 당사, 당사의 플레이어 또는 타인의 권리, 재산을 보호하고 안전을 도모하기 위해 귀하의 동의를 받고 귀하의 정보를 공개할 수 습니다.
+광고 및 소셜 미디어 협력사.
+본 서비스에는 소셜 미디어 상호작용 도구, 애플리케이션 프로그래밍 인터페이스(API) 또는 소프트웨어 개발 키트(SDK)를 통한 기능 및 인게임 광고 등, 당사의 협력사로부터 제공된 기능이 포함됩니다. 이러한 협력사들의 목록은 supercell.com/en/partner-opt-out 에서 열람할 수 있습니다.
+이러한 협력사는 귀하의 활동 및 귀하의 장치에 관한 정보(IP 주소, 모바일 식별자, 방문한 페이지(들), 위치, 일시 등)를 열람할 수 있습니다. 당사는 당사가 귀하에 관해 수집한 정보를 제3자 광고 협력사와의 사이에서 종합하고 공유할 수도 있습니다. 이러한 광고 협력사들은 자사의 네트워크 내에서 귀하가 제3자 서비스를 방문할 때 귀하에게 타겟 광고를 제공할 목적으로 이러한 정보(및 다른 웹사이트로부터 수집된 유사한 정보)를 사용할 수도 있습니다.
+이러한 협력사는 자사의 개인정보 보호정책에 따라 운영될 수도 있습니다. 이러한 행위는 통상적으로 “관심 기반 광고” 또는 “온라인 행동 기반 광고”라고 불립니다. 귀하의 개인정보가 제3자 광고 협력사와 공유되는 것을 원하지 않는 경우, 아래 “귀하의 권리 및 선택권”에 기재된 안내에 따르십시오.
+국제적 데이터 전송
+당사의 서비스는 그 성질상 전 세계적으로 이루어지며, 따라서 귀하의 정보는 전 세계 어느 곳으로나 이전될 수 있습니다. 다른 국가들은 귀하의 국가와는 상이한 개인정보 보호 법제를 가지고 있을 수 있기 때문에, 당사는 본 정책에 설명된 바와 같이 귀하의 정보를 보호하기 위해 적절한 보호 장치가 구비되도록 보장하기 위한 조치를 취합니다. 당사가 취하는 적절한 보호 장치에는 EU 집행위원회에 의해 승인된 표준 계약 조항 및 그 밖의 적법한 보호 장치가 포함됩니다.
+귀하의 권리 및 선택권
+마케팅 이메일 및 기타 직접 마케팅 통신물의 수신 거부
+귀하는 해당 통신물에 기재된 안내에 따르거나, 귀하의 인게임 설정을 변경함으로써, 당사로부터 제공되는 마케팅 이메일 등의 판촉 통신물 수신을 거부할 수 있습니다. 갱신된 설정이 즉각적으로 적용되지 않을 수 있습니다. 이러한 수신 거부와 관계없이, 귀하는 서비스에 관한 통신물이나 당사의 서비스 약관 또는 본 개인정보 보호정책의 갱신 사항 등 당사로부터 제공되는 비판촉 이메일을 계속 수신할 수 있습니다.
+푸시 알림
+당사는 당사의 모바일 애플리케이션을 통해 귀하에게 푸시 알림을 발송할 수 있습니다. 귀하는 언제든지 귀하의 모바일 장치상의 설정을 변경함으로써 이러한 유형의 통신물 수신을 거부할 수 있습니다.
+타겟 광고의 수신 거부
+귀하는 귀하의 Android 또는 iOS 장치의 개인정보 설정에서 "광고 추적 제한"(Apple iOS) 또는 "관심 기반 광고 수신 거부"(Android)를 선택함으로써 관심 기반 광고의 수신을 거부할 수 있습니다. 자세한 정보에 대해서는 다음 내용도 참고하십시오: supercell.com/en/partner-opt-out.
+귀하는 게임 설정에서 제공되는 옵션을 통해 개인 맞춤형 인게임 제공사항에 관한 통신물도 수신 거부할 수 있습니다.
+당사가 귀하에 관해 보유하는 개인정보의 열람
+귀하가 요청하는 경우, 당사는 전자적 형식으로 준비된 귀하의 개인정보 사본을 귀하에게 제공합니다.
+귀하의 기타 권리
+귀하는 귀하의 정보를 정정 및 삭제시킬 수 있는 권리, 그리고 당사가 귀하의 정보를 사용하거나 공유하는 방법에 대해 반대하거나 이를 제한할 수 있는 권리 또한 갖습니다. 귀하는 예컨대 모바일 장치 설정에서 GPS 위치 공유를 해제함으로써, 언제든지 귀하의 동의를 철회할 수 있습니다.
+당사는 합리적인 일정 내에 모든 요청에 응할 것입니다. 당사가 만족스럽게 대처하지 못한 미해결된 개인정보 보호 문제나 정보 사용 우려 사항이 있는 경우, 미국에 소재하는 당사의 제3자 분쟁해결기관에 연락하시기 바랍니다(무료). 귀하는 미해결된 불만 사항과 관련해 유럽경제지역(EEA), 스위스 또는 영국 내에 소재하는 귀하의 현지 개인정보보호 당국에 연락할 수 있습니다.
+위에 기술된 정보주체로서의 귀하의 권리를 행사하고자 하는 경우, 위 “당사 연락처”에 기술된 지원 옵션을 사용하시기 바랍니다. 당사는 관련 법률에 따라 모든 요청에 응할 것입니다. 귀하의 개인정보를 보호하기 위해, 당사는 귀하의 요청 사항을 이행하기 전에 귀하의 신원을 확인하기 위한 추가 조치를 취할 수도 있으며, 이러한 조치에는 귀하에게 구매 영수증이나 기타 계정 정보를 제공하도록 요청하거나, 귀하의 이메일 주소를 귀하의 게임 계정과 연계시키도록 요청하거나(예컨대, Supercell ID를 통해), 당사의 서비스 내에서 이루어진 귀하의 활동에 관한 질문에 응답하도록 요청하는 등의 조치가 포함될 수 있습니다. 귀하에 의해 귀하의 신원이 확인된 경우, 귀하는 관련 법률에 의해 요구되는 바에 따라, 대리인의 연락 정보를 당사의 고객 지원 담당자에게 제공함으로써 귀하를 대리해서 귀하의 권리를 행사할 수권 대리인을 지정할 수도 있습니다.
+귀하는 이러한 권리의 행사로 인해 차별적 취급을 받지 않을 권리를 가집니다.
+쿠키 및 유사 기술
+대부분의 온라인 서비스와 마찬가지로, 당사와 당사의 협력사는 서비스를 제공하고 개인별로 맞춤 설정하며, 이용 행위를 분석하고, 광고 대상자를 선정하며, 사기 행위를 방지하기 위해 쿠키 및 유사한 기술을 사용합니다. 쿠키 및 유사한 기술은 당사와 당사의 협력사가 서비스 내에서 사용자의 선호 사항을 보관하고 그 활동을 추적할 수 있게 합니다. 당사의 협력사는 자체적인 개인정보 보호정책에 따라 운영될 수 있음을 유의하십시오.
+당사와 당사의 협력사는 쿠키 및 유사한 추적 기술 등 당사의 기술을 사용하는 비제휴 웹사이트 및 애플리케이션과의 사이에서 이루어지는 사용자들의 상호작용에 관한 정보를 수집 및 보관합니다. 이를 통해 당사는 예컨대 여러 장치나 브라우저 배후에 있는 하나의 공통된 사용자나 가구의 존재를 추론할 수 있게 되고, 해당 브라우저들과 장치들을 하나의 장치 그래프에 연계시킬 수 있게 됩니다. 이러한 조치들의 목적은 다음과 같습니다.
+사기 탐지 및 방지
+사용자가 하나의 장치에서 서비스를 이용한 후 또 다른 장치에서 매끄럽게 서비스를 이용할 수 있도록 허용
+조치 분석 개인별 맞춤 제공 및 귀속 처리
+알려지거나 추론된 모든 장치에 걸쳐 한 사용자가 동일한 광고를 제시 받는 횟수의 제한
+모든 장치에서 이루어진 브라우징 패턴으로부터 추론되는 개인별 맞춤 광고를 각각의 장치에서 제공
+자세한 정보(수신 거부 방법 포함)에 대해서는 supercell.com/en/partner-opt-out 을 방문하시기 바랍니다. 브라우저 설정에서 쿠키 사용을 차단할 수 있으나, 그러한 경우 서비스의 일부가 제대로 작동하지 못할 수도 있습니다.
+당사가 귀하의 정보를 보호하는 방식
+보안 방침
+보안이 유지되는 안전한 플레이어 경험을 보장하도록 돕기 위해, 당사는 권한 없는 접근이나 정보의 분실, 오용 또는 변조로부터 귀하의 정보를 보호하기 위한 행정적, 기술적 및 물리적 보안 조치를 지속적으로 개발하고 시행합니다.
+정보 보유
+당사는 귀하의 계정이 활성 상태인 동안, 또는 귀하에게 서비스를 제공하는 데 필요한 바에 따라 귀하의 정보를 보유합니다. 당사는 예컨대 미사용되는 게임 계정을 주기적으로 익명 처리할 수 있으며, 불필요한 정보를 주기적으로 검토해 익명 처리할 수 있습니다.
+귀하의 개인정보 삭제를 귀하가 당사에 요청하는 경우, 당사는 당사의 법적 의무를 준수하거나, 분쟁을 해결하거나, 당사의 계약을 집행하기 위한 경우 등, 당사의 적법한 사업상 이익을 위해 필요한 바에 따라 귀하의 정보를 보유할 것임을 유의하십시오.
+아동
+당사는 아동의 온라인 개인정보 보호를 매우 중시합니다. 일반적으로, 당사의 서비스는 13세(또는 현지 법률이 정하는 연령) 미만의 아동을 대상으로 하지 않으며, 당사의 서비스는 다음 문항에 기술된 경우를 제외하고 아동으로부터 고의로 개인정보를 수집하지 않습니다.
+아동을 대상으로 하지 않음에도 불구하고 아동의 흥미를 끌 수도 있는 게임의 경우, 당사는 플레이어의 연령에 기초해 이러한 서비스에 대한 이용을 제한하기 위한 추가 조치를 취합니다. 이러한 서비스에 대해, 플레이어가 자신이 13세(또는 해당 국가에서 정한 연령) 미만이라고 표시하는 경우, 당사는 해당 플레이어의 이용 범위를 소셜 미디어 및 채팅 기능 등 소정의 기능과 소정 유형의 알림 경보로 제한할 것입니다. 아울러, 당사는 해당 개인정보의 처리를 오로지 당사 서비스의 내부적 운영을 지원하기 위해 필요한 용도로만 제한합니다.
+귀하가 부모 또는 후견인이고, 귀하의 자녀로부터 수집된 개인정보를 살펴보거나, 해당 정보를 수정 또는 삭제시키고자 하는 경우, 위에 기술된 바에 따라 당사에 연락하십시오. 아동이 위에 기술된 내용에 상반되게 개인정보를 당사에 제공했음을 당사가 인지하게 되는 경우, 당사는 해당 정보를 유지해야 할 법적 의무가 없는 한, 당사가 수집한 개인정보를 삭제할 것이며, 해당하는 바에 따라, 해당 아동의 계정을 종료시키거나 미성년자용 서비스로 복귀시킬 것입니다.
+캘리포니아 주 거주자의 경우
+캘리포니아 주 거주자에 관한 특별 고지 사항에 대해서는 supercell.com/en/disclosure-california-residents 을(를) 방문하시기 바랍니다.
+개인정보 관련 문의 (한국 국내 대리인)
+국내 대리인: QROAD Inc. (대표: 길호웅)
+주소: (Hanyang bldg 6F) 18, Gukhoe-daero 70-gil, Yeongdeungpo-gu, Seoul, Korea
+전화번호: +82-2-6196-6336
+이메일: sc_official@qroad.net
+업무시간: (공휴일 제외) 월~금요일, 11:00~17:00 (점심 시간: 13:00~14:00)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,48 +904,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292B9CE2-FE29-4B86-8E94-C68B2B5D6E10}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.625" customWidth="1"/>
-    <col min="2" max="2" width="140.625" customWidth="1"/>
+    <col min="2" max="3" width="140.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StringTerms.xlsx
+++ b/Excel/StringTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EB8A20-24FB-423B-8A05-4DE32F5848F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179F32FD-95D7-4892-8996-52D3B90732F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9020BB33-0B2F-43C5-8091-327AC8D50A2F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>eng|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,22 +49,245 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GameUI_PrivacyPolicyFull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIVACY POLICY
-Effective Date: Oct 19, 2020
+    <t>kor|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 수수료와 구매 조건
+4.1. 구매
+귀하는 현실세계의 화폐로 서비스상에서 (a) Powersource Studio 게임들에서 사용되기 위한 "가상 화폐"(가상의 현금 또는 다이아몬드를 포함하나 이에 한정되지 아니함), (b) "가상의 게임상 아이템"("가상 화폐"와 총칭하여 "가상 아이템"이라 함), 그리고 (c) 다른 상품 또는 용역(이하 "상품")을 이용할 수 있는 제한되고, 개인적이며, 양도 불가능하고, 2차 라이선스 발급이 불가능하며, 취소 가능한 라이선스를 구매할 수 있습니다. 귀하는 가상 아이템을 Powersource Studio 또는 Powersource Studio의 승인을 얻은 파트너사들의 서비스를 통해서만 구매할 수 있으며 기타 방법으로는 구매가 불가능합니다.
+Powersource Studio의 서비스를 통해 가상 아이템, 상품 등의 구매 시, 구매대금은 이동통신사, 당사의 게임을 설치하고 결제할 수 있도록 제공하는 오픈마켓 등의 전자상거래 제공자(게임 내 결제 제공 사업자 포함)(예: Google Play App Store, Apple App Store 등, 이하 "App Store 사업자") 및 결제업체에서 정하는 정책과 방식에 따라 한도가 결정되고 결제가 진행됩니다. 결제가격 중 외화 결제 시 환율 및 앱스토어 사업자의 수수료 등으로 예상지불 금액과 실제 청구금액에 차이가 발생할 수 있습니다.
+Powersource Studio 게임에서 사용될 가상 아이템의 공급은 Powersource Studio가 제공하는 서비스로서 귀하의 구매를 Powersource Studio가 승낙함에 따라 즉시 개시됩니다.
+Powersource Studio는 언제든지 통지를 제공하거나 제공하지 않고 가상 아이템 및/또는 상품을 관리∙규제∙통제∙변경∙제거할 수 있습니다. Powersource Studio가 이러한 권리를 실행하는 경우, Powersource Studio는 어떠한 경우에도 귀하 또는 제3자에 대하여 어떠한 책임도 부담하지 않습니다.
+가상 아이템과 상품의 이전은 서비스상에서 명시적으로 허용되는 경우 외에는 금지됩니다. 서비스상에서 명시적으로 허용되는 경우 외에는 귀하는 가상 아이템 또는 상품을 타인 또는 법인(Powersource Studio, 다른 이용자 또는 그 밖의 제3자를 포함하나, 이에 한정되지 아니함)에게 판매하거나 구매하거나 교환하거나 달리 이전 혹은 이를 시도해서는 안 됩니다.
+귀하가 가상 아이템 또는 상품을 구매한 경우, 귀하는 본 약관이나 기타 거래조건에서 달리 정하지 아니하는 한, 귀하가 구매에 관한 내용을 통지를 받은 날(귀하가 그 통지를 받은 이후에 가상 아이템 또는 상품을 공급받은 경우에는 가상 아이템 또는 상품을 공급받은 날)로부터 7일 이내에는 Powersource Studio가 정한 절차를 통해 구매를 취소할 수 있습니다. 다만 귀하가 가상 아이템 또는 상품을 사용 또는 일부 소비한 경우 및 기타 해당되는 경우에는 구매를 취소할 수 없습니다.
+다만 위 규정에도 불구하고, 귀하는 가상 아이템 또는 상품의 내용이 표시·광고 내용과 다르거나, 계약내용과 다르게 이행된 때에는 당해 제품 또는 기타상품을 공급받은 날로부터 3개월 이내, 그 사실을 안 날 또는 알 수 있었던 날로부터 30일 이내에 구매를 취소할 수 있습니다.
+구매 취소에 따른 환불이 접수되면 Powersource Studio는 접수신청 내용이 정당한지 여부를 심사하고, 귀하가 이용하는 앱스토어 사업자의 환불 운영정책 및 절차에 따라 환불을 진행합니다. 심사를 통해 환불이 결정된 경우에는 환불 가능 잔액을 산출하여 환불합니다.
+귀하가 구매를 취소한 경우, Powersource Studio는 구매 취소된 가상 아이템 또는 상품을 회수 또는 삭제합니다. Powersource Studio는 가상 아이템 또는 상품이 회수 또는 삭제된 날로부터 3영업일 이내에 앱스토어 사업자에 대한 취소요청 등의 필요한 환불절차를 개시하고, 당사가 환불절차의 개시를 지연하는 때에는 그 지연기간에 대하여 관련법령에 따른 지연이자율을 곱하여 지연이자를 지급합니다.
+4.2. 수수료의 지급
+귀하는 귀하 또는 귀하에게 등록된 계정을 이용하는 누군가에 의하여 발생하는 모든 비용과 해당 세금을 지급하는 것에 동의합니다. Powersource Studio는 언제든지 서비스를 통하여 제공되는 상품과 용역의 가격을 수정할 수 있습니다. 귀하는 계정이 자발적 또는 비자발적으로 폐쇄되었을 때, 미사용 가상 아이템에 관하여 현금을 수령하거나 또는 다른 배상을 받지 않는다는 점을 인정합니다.
+5. 서비스의 업데이트
+귀하는 서비스가 진화하고 있음을 이해합니다. Powersource Studio는 귀하에 대하여 서비스 및 귀하의 장치나 컴퓨터에 설치된 Powersource Studio 게임에 대한 업데이트를 수용할 것을 요구할 수 있습니다. 귀하는 Powersource Studio가 귀하에게 통지를 하거나 통지하지 아니하고도 서비스 및 Powersource Studio 게임을 업데이트할 수 있음을 인정하고 동의합니다. 귀하는 서비스를 받고 Powersource Studio 게임을 실행하기 위하여 때때로 제3자의 소프트웨어를 업데이트해야 할 수도 있습니다.
+6. 보증의 부인
+하기 제7항에 따른 Powersource Studio의 책임을 제한하지 아니하고, 서비스는 어떠한 종류의 명시적∙묵시적 보증(상품성, 특정 목적에의 적합성, 소유권 및 비침해에 대한 보증, 그리고 거래과정 또는 거래관습상 발생하는 보증들을 포함하나, 이에 한정되지 아니함)도 없이, 귀하의 이용을 위하여 "있는 그대로", 그리고 "이용 가능한대로" 제공됩니다. Powersource Studio는 귀하가 선택하는 시간 또는 장소에서 서비스에 접속하거나 서비스를 이용할 수 있을 것이라고 보증하지 않습니다. 또한 Powersource Studio는 서비스가 방해받지 않거나 서비스에 에러가 발생하지 않음을 보증하지 않고, 결함이 수정될 것이라고 보증하지도 않으며, 게임 또는 서비스에 바이러스 또는 그 밖의 유해한 요소가 없다고 보증하지도 않습니다.
+일부 관할 구역에서는 특정 보증의 제외를 허가하지 않습니다. 따라서, 위의 부인 중 일부는 귀하에게 적용되지 않을 수 있습니다.
+7. 책임의 제한; 유일하고 배타적인 구제수단; 손해배상
+Powersource Studio는 계약에 근거하든지 불법행위에 근거하든지 또는 그 밖의 법률 이론에 근거하든지 간에, 또한 Powersource Studio가 그러한 손해의 가능성에 관하여 조언을 받았는지 여부와 무관하게 본 서비스 약관 또는 서비스 그 자체에 관련되거나 그로부터 발생하는 간접적∙부수적∙결과적 손해, 특별손해, 징벌적 또는 그 밖에 그와 유사한 손해(매출의 손실, 이익의 손실, 데이터의 손실, 사업 방해 또는 그 밖의 무형의 손실(이러한 손실에 어떻게 단서가 달리든지 불문함)을 포함하나, 이에 한정되지 아니함)에 대하여 귀하에게 책임지지 않습니다. Powersource Studio는 귀하가 최초로 청구권을 주장한 날로부터 직전 6개월 이내에 귀하가 본 서비스 약관에 따라 Powersource Studio에 대하여 지급한 금액을 초과하여 책임지지 않습니다. 귀하는 귀하가 위 기간 동안 Powersource Studio에 대하여 아무것도 지급하지 않은 경우에는, Powersource Studio과의 모든 분쟁에 있어서 귀하의 유일한 구제수단(그리고 Powersource Studio의 배타적인 책임)은 서비스의 이용을 중단하고 귀하의 계정을 취소하는 것임을 인정하고 동의합니다.
+일부 재판관할에서는 특정한 종류의 손해에 대한 책임의 배제 또는 제한 또는 특정한 보증의 배제를 허용하지 않습니다. 그에 따르면, 상기 부인과 제한 중 일부는 귀하에게 적용되지 않을 수도 있습니다. 관련법상 Powersource Studio가 본 서비스 약관에 명시된 바와 같이 보증을 부인하거나 책임을 제한할 수 없게 되는 한도 내에서 이러한 보증의 범위 및 Powersource Studio의 책임 한도는 해당 관련법하에서 허용되는 최소한도가 됩니다. 특히, 본 서비스 약관은 소비자의 성문법상의 권리에 영향을 미치지 아니하고, Powersource Studio의 과실 또는 사기로 인하여 발생한 사망 또는 신체적 상해에 대한 책임을 배제하거나 제한하지 않습니다.
+귀하는 귀하의 서비스 이용 또는 귀하의 본 서비스 약관 위반행위(그러나 귀하의 고의 또는 과실에 기인하지 않은 권리침해의 경우는 제외함)로부터 발생하는 제3자가 제기하는 청구, 요구, 손해 또는 그 밖의 손실(합리적인 변호사 비용을 포함)로부터 Powersource Studio(및 당사의 담당자, 관리자, 대리인, 자회사, 합작 회사, 직원들)을 면책, 방어하고 해를 입지 않도록 하며 손해를 배상할 것에 동의합니다.
+8. 분쟁 해결과 준거법
+귀하와 Powersource Studio 사이에 분쟁이 발생할 경우, 해결책을 강구하기 위해 우선 당사의 게임 내 문의를 통하여 당사와 직접 접촉할 것을 강력히 권장합니다. 만일 귀하가 미국 거주자라면, 본 서비스 약관과, 본 서비스 약관, 개인정보 보호정책 또는 서비스로부터 또는 그와 관련하여 발생하는 분쟁은 모든 면에서 국제사법 조항을 제외하고 캘리포니아 법에 의해 규율됩니다. 귀하는 Powersource Studio을 상대로 귀하가 제기하는 일체의 청구 또는 분쟁은 캘리포니아주, 샌프란시스코 소재 법원에서 배타적으로 해결된다는 것에 동의합니다. 만일 귀하가 미국 이외의 지역의 거주자라면, 귀하는 귀하와 Powersource Studio 사이의 모든 분쟁은 국제사법 조항을 제외하고 한국 법에 의해 규율된다는 것에 동의합니다.
+9. 분리가능성
+귀하와 Powersource Studio는, 본 서비스 약관 또는 Powersource Studio 개인정보 보호정책의 일부가 전부 또는 부분적으로 어떠한 관할법원에서 불법이거나 또는 집행이 불가능하다고 판명될 경우, 그러한 조항은 해당 관할에 대하여 그 무효 또는 집행불능의 결정의 범위 내에서만 효력이 없으나, 이는 다른 방식으로나 또는 다른 관할에서의 해당 조항의 유효성 또는 집행 가능성에는 영향을 미치지 아니하고, 약관의 그 밖의 다른 조항의 유효성 및 집행 가능성에도 영향을 미치지 않음에 동의합니다.
+10. 일반 조항
+10.1. 양도
+Powersource Studio는 귀하의 동의 여부와 무관하게, 언제든지 본 서비스 약관 및/또는 개인정보 보호정책의 전부 또는 일부를 어떠한 개인 또는 법인에게 양도 또는 위임할 수 있습니다. 귀하는 Powersource Studio의 사전 서면 동의 없이는 서비스 약관 또는 개인정보 보호정책 상의 권리 또는 의무를 양도 또는 위임할 수 없고, 승인받지 아니한 귀하의 양도 또는 위임은 무효입니다.
+10.2. 추가 정책
+Powersource Studio는 포럼, 대회 또는 고객보상 프로그램과 같은 특별한 서비스에 관련된 추가적인 정책을 공포할 수 있습니다. 그러한 서비스의 이용에 관한 귀하의 권리는 본 서비스 약관과 이들 특별 정책의 적용을 받습니다.
+10.3. 완전한 합의
+본 서비스 약관, 추가 정책 및 본 서비스 약관에서 언급함으로써 명시적으로 포함된 문서들(Powersource Studio 개인정보 보호정책 포함)은 귀하와 Powersource Studio의 완전한 이해를 포함하고, 본 약관의 주제에 관한 귀하와 당사 간의 모든 사전의 이해(그것이 전자적 방식이나 구두 또는 서면에 의하였는지, 또는 귀하와 당사간에 서비스와 관련하여 관습, 실무, 또는 정책 또는 선례에 의해 확립되었는지 여부를 불문함)를 대체합니다.
+10.4. 권리포기의 부존재
+Powersource Studio가 귀하로 하여금 본 서비스 약관 또는 Powersource Studio 개인정보 보호정책의 어떠한 규정을 엄격하게 이행하도록 요구하거나 그 이행을 집행하지 않았다거나 또는 Powersource Studio가 약관상의 권리를 미실행한 사실이 그러한 상황 또는 그 밖의 경우에 Powersource Studio가 해당 규정이나 권리를 주장하거나 그러한 규정이나 권리에 의지할 권리를 포기하거나 양도하는 것으로 해석될 수 없습니다.
+본 서비스 약관 또는 Powersource Studio 개인정보 보호정책의 어떠한 조항, 조건, 또는 요건에 대한 Powersource Studio의 명시적인 포기의 의사표시가 장래에 있어서도 그러한 조항, 조건 또는 요건을 준수할 의무에 대한 포기로 간주되어서는 안됩니다.
+본 서비스 약관에 명시적으로 특정하여 기재된 경우를 제외하고는, 귀하와 적법하게 지명된 Powersource Studio의 담당자가 수기로 서명한 물리적인 서면 문서로 작성되지 않는 한 Powersource Studio의 어떠한 진술, 성명, 동의, 포기 또는 그 밖의 행위 또는 누락도 본 서비스 약관의 수정으로 간주되지 않고, 법률적으로 구속력을 가지지도 않습니다.
+10.5. 통지
+당사는 귀하가 당사에 제공한 연락처 정보로 이메일 또는 그 밖의 의사소통 수단을 통하여 귀하에게 통지할 수 있습니다. 본 서비스 약관 또는 Powersource Studio 개인정보 보호정책 하에서의 귀하로부터의 모든 통지는 powersourcelegalrequests@gmail.com 의 이메일 주소로 이루어져야 합니다. 통지에 관한 본 항을 준수하지 아니하고 귀하가 제공하는 모든 통지는 법률적으로 효력이 없습니다.
+10.6. 형평법상의 구제수단
+귀하는, Powersource Studio에 대한 본 서비스 약관상의 권리 및 의무가 유일무이하고 대체 불가능하며, 그러한 권리 및 의무의 손실은 Powersource Studio에게 회복 불가능한 손실을 가하고, 그러한 손실은 금전적 손해배상만으로 충당할 수 없으므로, 따라서 Powersource Studio는 귀하의 계약 위반 시 또는 귀하의 계약위반이 예상되는 경우에 보전처분 또는 기타 형평법상의 구제수단(보석금이나 보증금 또는 손해에 대한 증명을 제공할 의무 없이)을 실행할 권한을 가짐을 인정합니다.
+귀하는 보전처분 또는 그 밖의 형평법상의 구제수단을 구할 권리, 또는 서비스나 Powersource Studio 게임의 운영, 광고 또는 그와 관련되어 발행되는 기타 자료의 활용, 서비스의 활용 또는 서비스를 통하여 이용 또는 전시된 서비스 또는 콘텐츠나 그 밖의 자료의 활용을 금지시키거나 제지할 일체의 권리를 포기하며, 이와 같은 포기는 취소할 수 없습니다. 또한 귀하는 귀하의 청구권을 제7항에 의해 제한되는 금전적 손해배상청구로 한정함에 동의합니다.
+10.7. 불가항력
+Powersource Studio는 Powersource Studio의 합리적인 통제를 벗어난 원인으로 야기된 이행지체 또는 불이행에 대한 책임을 부담하지 않습니다. 여기에는 천재지변, 전쟁, 테러, 폭동, 금수조치, 행정 및 군 당국의 처분, 화재, 홍수, 사고, 파업, 또는 물류시설∙연료∙에너지∙노동력 또는 자재의 부족과 같이 Powersource Studio의 통제를 벗어난 예상할 수 없는 상황 또는 원인으로 인한 불이행이 포함되나, 이에 한정되지는 아니합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">발효일 : 2020년 11월 6일
+본 약관(이하 "서비스 약관")은 귀하와 경기 성남시 분당구 이매로 35에 사무소를 가진 회사인 Powersource Studio (이하 "Powersource Studio" 또는 "당사") 사이에 있어서 귀하가 Powersource Studio의 게임, 웹사이트 및 관련 서비스(이하 "서비스")를 이용하는 것에 관하여 적용됩니다. 또한 서비스의 이용에는 Powersource Studio의 개인정보 보호정책과 기타 관련 정책들이 적용되는데, 이는 본 약관에 참조 형식으로 포함됩니다.
+서비스에 접속하거나 이를 이용(Powersource Studio의 웹사이트를 방문하거나 게임에 접속하는 행위를 포함)하기 전에, 귀하는 본 서비스 약관과 개인정보 보호정책에 동의하여야 합니다. 또한 귀하는 서비스 계정(이하 "계정")을 등록할 필요가 있습니다. 계정을 등록하거나 서비스를 이용함으로써, 귀하는 귀하가 거주하는 국가의 미성년자가 아님을 표시하는 것입니다. 만일 귀하가 미성년자일 경우에는 귀하가 계정을 등록하거나 또는 서비스를 이용함으로써 귀하는 귀하의 법정 대리인이 본 약관을 검토하고 동의하였다는 의사표시를 한 것입니다. 만일 귀하가 Google과 같은 소셜 네트워크 서비스(이하 "SNS")를 통하여 서비스에 접속하였다면, 귀하는 본 서비스 약관뿐만 아니라 SNS의 서비스 약관까지 준수해야 합니다.
+귀하가 서비스를 설치∙이용 또는 서비스에 접속함으로써, 귀하는 본 서비스 약관에 동의한 것입니다. 만일 귀하가 본 서비스 약관에 동의하지 않는다면, 서비스에의 접속 또는 서비스의 설치 또는 이용을 하지 않으시길 바랍니다. 서비스가 금지되는 경우 서비스의 이용은 무효입니다.
+Powersource Studio는 관련 법령에 따라 Powersource Studio의 서비스상에 변경된 조건들을 게재함으로써 본 서비스 약관과 당사의 개인정보 보호정책과 기타 관련 Powersource Studio 정책들의 일부를 재량에 따라 변경∙수정∙추가 또는 제거할 권리를 가집니다. Powersource Studio가 약관 및 개인정보보호정책을 변경할 경우, 변경된 내용은 Powersource Studio가 고지한 적용일자에 효력을 발생합니다. Powersource Studio는 적용일자로부터 최소한 7일 이전(이용자의 권리 및 의무에 중대하게 불리한 경우에는 30일 이전)에 적용일, 변경내용, 변경사유 등을 명시하여 Powersource Studio의 웹사이트 또는 서비스 화면에 고지합니다. 귀하는 이에 대하여 거부의사를 표시할 수 있고, 거부의사의 표시 없이 서비스를 계속해서 이용하는 것은 그러한 변경을 수용하는 것으로 간주될 것입니다. 만일 귀하가 귀하의 서비스 이용과 관련된 당사의 현재 버전의 서비스 약관, 개인정보 보호정책, 또는 그 밖에 어떠한 정책, 규칙 또는 행동강령의 어느 한 부분에라도 동의하지 않는다면, 서비스를 이용할 수 있는 귀하의 라이선스는 즉시 종료되어야 하고, 귀하는 즉시 서비스의 이용을 중단해야 합니다.
+1. 라이선스
+1.1. 서비스 이용에 관한 제한적 라이선스의 허여
+본 서비스 약관과 그 밖에 관련된 Powersource Studio의 정책들에 대한 귀하의 동의 및 지속적인 준수에 따라, Powersource Studio는 귀하에게 양도 불가능하고, 비독점적이고, 2차 라이선스 허여가 불가능하고, 취소 가능하고, 귀하 자신의 비상업적∙오락적 목적으로의 접속과 이용에 한정되며, 제한된 라이선스를 허여합니다. 귀하는 그 밖의 다른 목적으로 서비스를 이용하지 않을 것에 동의합니다.
+이하의 제한들은 서비스의 이용에 적용됩니다.
+- 미성년자가 법정대리인의 동의를 받지 않고 의무부담행위를 한 경우(예를 들면, 유료서비스 결제), 미성년자 또는 그 미성년자의 법정대리인은 해당계약을 취소할 수 있습니다.
+- 귀하는 귀하의 계정을 구매, 판매, 대여, 양도(혹은 이를 시도)하지 않고 거짓 신원 혹은 정보로 또는 타인을 대신하여 계정을 생성하지 않아야 합니다; 귀하가 사전에 Powersource Studio에 의해 제명되었거나 다른 Powersource Studio 게임의 플레이가 금지되었을 경우 서비스를 이용할 수 없습니다.
+- 귀하는 오로지 비상업적인 목적으로만 귀하의 계정을 이용하여야 합니다. 귀하는 광고, 호객행위, 상업적 광고들의 전송(행운의 편지, 스팸메일 또는 누군가에 대한 반복적이거나 허위의 메시지 전송을 포함) 목적으로 서비스를 이용할 수 없습니다.
+로그인 정보 및 계정
+귀하는 귀하의 계정에 대한 암호를 선택할 것을 요구 받게 되거나 계정 접속을 위해 다른 비밀 정보를 사용할 수도 있습니다(이하 "로그인 정보"). 귀하는 계정 또는 로그인 정보를 타인과 공유할 수 없고, 타인으로 하여금 귀하의 계정에 접근하거나 그 밖에 귀하의 계정의 보안을 위협하는 어떠한 행위를 하도록 허락할 수 없습니다. 귀하가 보안사고를 알게 되거나 합리적으로 보안사고를 의심할만한 상황을 인지하게 될 경우(로그인 정보의 손실, 도난 또는 무단 공개를 포함하나, 이에 한정되지 아니함), 귀하는 즉시 Powersource Studio에 해당 사실을 통지하고 귀하의 로그인 정보를 수정하여야 합니다. 귀하의 로그인 정보의 비밀유지는 전적으로 귀하가 책임져야 하고, 귀하는 귀하의 로그인 정보에 관한 모든 이용행위(구매행위를 포함하며, 귀하의 승인을 받았는지 여부는 불문함)에 대하여 책임을 부담합니다. 귀하는 귀하의 계정을 통하여 발생하는 모든 사안에 대하여 책임을 부담합니다.
+Powersource Studio는 언제든지, 그리고 어떠한 이유로든지(어떠한 이용자명이 제3자의 권리를 침해하였다는 제3자의 주장을 포함하나, 이에 한정되지 아니함), 어떠한 이용자명도 제거하거나 회수할 권리를 가집니다.
+본 서비스는 지원기기의 게임당 하나의 계정만을 지원합니다.
+라이선스의 제한
+본 라이선스의 제한을 위반한 상태에서의 모든 서비스의 이용은 엄격하게 금지되고, 귀하의 제한된 라이선스는 즉시 취소될 수 있으며, 귀하는 위법행위에 대하여 책임을 져야 할 수도 있습니다.
+귀하는 어떤 상황에서도 다음과 같은 행위를 하지 않을 것에 동의합니다.
+- Powersource Studio의 서비스 정신 또는 서비스 의도에 반하는 것으로 Powersource Studio가 간주하는 행위 또는 Powersource Studio의 지원 서비스를 부적절하게 이용하는 행위
+- Powersource Studio의 게임 또는 게임경력을 변경하거나 방해하도록 설계된 치트, 엑스플로잇, 자동화 소프트웨어, 에뮬레이터, 보트, 해킹 프로그램, 유저제작게임 또는 그 밖에 승인되지 않은 제3자 소프트웨어를 이용 혹은 이용(직, 간접적)에 참여하거나, 서비스 또는 Powersource Studio 게임의 일부 파일을 변경하거나 변경하도록 하는 행위
+- 서비스의 일반적인 흐름에 지장을 주거나 방해 또는 이에 부정적인 영향을 주는 행위나 서비스의 이용이나 Powersource Studio의 게임 플레이에서 다른 사용자의 경험에 부정적인 영향을 주는 방식의 행동. 이는 몰아주기와 같은 순위 조작과 관련된 모든 행동, 서비스 오류를 통해 다른 플레이어들로부터 부당한 이득을 얻는 행동, 서비스 내용에 대한 의도적인 악용 및 이에 반하는 행동들을 포함합니다.
+- 서비스 또는 Powersource Studio의 게임 환경을 제공하거나 지원하는 데에 사용되는 컴퓨터 또는 서버(이하 "서버")에 과부하를 걸거나 방해를 주거나 또는 이러한 과부하 또는 방해행위를 지원하는 행위
+- 공격행위(바이러스의 배포, 서비스에 대한 거부 공격, 또는 그 밖에 서비스 또는 제3자의 서비스 이용을 방해하고자 하는 행위를 포함하나, 이에 한정되지 아니함)를 개시하거나, 지원하거나, 또는 그에 관여하는 행위
+- 서비스, 타인 또는 다른 컴퓨터에 등록된 계정, 서버 또는 서비스에 연결된 네트워크에 대해 Powersource Studio로부터 제공된 이용자 인터페이스가 아닌 다른 수단을 통해 승인되지 않은 접속을 시도하는 행위(서비스의 일부분인 보안, 기술, 기기 또는 소프트웨어를 변경 또는 우회하거나 그러한 시도를 하는 행위 또는 그러한 변경이나 우회를 하는 누군가를 지원하거나 방조하는 행위를 포함하나, 이에 한정되지 아니함)
+- 권리남용적이거나 위협적이거나 음란하거나 타인의 명예를 훼손하거나 비방하거나 인종∙성별∙종교적 또는 그 밖의 이유로 부당하거나 불쾌한 정보를 게시하는 행위 또는 원치 않는 모든 사람들에게 반복적으로 정보를 게시하는 것과 같이 지속적인 이러한 해독행위들에 관여하는 것
+- 나체, 과도한 폭력 또는 불쾌한 주제를 포함한 정보 또는 그러한 내용에 관한 링크를 게시하는 행위
+- Powersource Studio의 고객 서비스 대리인을 포함하여 Powersource Studio의 피용자를 포함한 타인이나 그룹을 희롱하거나 괴롭히거나 해를 끼치는 행위 또는 그러한 희롱 또는 가해를 시도하거나 조장하는 행위
+- 서비스를 통하여 타인인 개인 또는 법인의 저작권, 상표, 특허, 영업비밀, 프라이버시권, 퍼블리시티권 또는 기타 권리를 침해하거나 타인(Powersource Studio의 피용자를 포함하나, 이에 한정되지 아니함)을 사칭하는 자료 또는 정보를 사용할 수 있도록 하는 행위
+- 서비스 또는 Powersource Studio의 게임을 제공하기 위하여 사용된 근본 소프트웨어 또는 다른 지적 재산권의 소스 코드를 추출하기 위하여, 또는 Powersource Studio가 명시적으로 허용하지 않은 방법을 사용하여 서비스 또는 Powersource Studio 게임으로부터 정보를 얻기 위하여 역설계, 역컴파일, 역어셈블, 해독행위 또는 기타 이를 위한 시도를 하는 행위
+- 서비스 또는 Powersource Studio 게임의 다른 이용자로부터 로그인 정보나 기타 로그인을 위한 비밀 정보 또는 개인정보를 구하거나 구하려는 시도를 하는 행위
+- 서비스를 통하여 누군가의 사적인 정보{개인신원정보(문자, 이미지, 또는 비디오와 같은 형태 불문함), 신원확인 문서, 또는 재무정보를 포함}를 수집하거나 게시하는 행위
+수수료 또는 판돈의 개입 여부를 불문하고, 귀하가 플레이어로서 참가하는 경기의 결과에 대해 배팅하는 행위를 포함해 도박, 배팅 또는 (직접적 또는 간접적으로) 상 또는 보상이 획득될 수 있는 유사한 활동을 위해 Powersource Studio 게임을 이용하는 행위
+Powersource Studio는 어떠한 행위가 이용규칙 위반에 해당되거나 본 서비스 약관 및 본 서비스 약관의 의도 또는 정신을 이탈하는 것인지 여부를 결정할 권리를 가집니다. Powersource Studio는 그 결정의 결과로서 조치를 취할 권리를 가지며 여기에는 귀하의 계정을 종료시키고 귀하의 서비스 이용을 전부 또는 일부를 금지하는 것이 포함됩니다.
+1.2. 계정과 서비스의 중단 및 종료
+만일 귀하가 본 서비스 약관을 준수하지 않거나 또는 서비스를 불법으로 또는 부적절하게 이용하거나, 또는 Powersource Studio가 귀하의 약관 미준수, 위법하거나 부적절한 이용행위를 의심할만한 사정이 있는 경우(이하 총칭하여 "이용자 의무위반 행위")에는, Powersource Studio는 귀하에게 통지하고 귀하의 서비스 또는 그 일부에 대한 접속 또는 귀하의 계정을 제한∙중단∙변경∙삭제(이하 "이용제한 조치")할 수 있습니다. Powersource Studio는 이용자 의무위반 행위에 대하여 위반행위의 내용, 정도, 횟수, 결과 등 제반 사정을 고려하여 차등하여 서비스 이용제한 조치를 취할 수 있고, 이는 Powersource Studio의 다른 권리구제수단을 제한하지 않습니다. 계정종료 또는 제한의 결과로, 귀하는 귀하의 서비스 이용과 관련된 이익, 특권, 획득한 아이템들과 구매한 아이템들뿐만 아니라 귀하의 서비스 내 이용자명과 캐릭터를 상실할 수 있고, Powersource Studio는 이러한 손해 또는 결과에 관하여 귀하에게 배상할 책임이 없습니다.
+당사는 이용자가 위험 또는 법률상 책임을 창출하거나, 제3자의 지적재산권을 침해하거나, 또는 당사의 약관이나 정책의 문언 또는 정신에 반하는 행위를 하는 것으로 판단될 경우에는 서비스와 이용자 계정 또는 그 일부분을 제한∙중단 또는 해지할 수 있고, 당사의 게임∙사이트 및 그 콘텐츠∙서비스∙툴에의 접속을 금지할 수 있으며, 제공되는 콘텐츠를 제거하거나 지연시킬 수 있고, 해당 이용자의 서비스 접속을 막기 위한 기술적∙법률적 조치를 취할 수 있습니다(이는 Powersource Studio의 다른 권리구제수단을 제한하지 않음). 또한, 당사는 적절한 상황 하에서 전적으로 당사의 재량에 따라, 제3자의 지적재산권을 반복적으로 침해할 여지가 있는 이용자의 계정을 중단하거나 해지시킬 수 있습니다.
+Powersource Studio는 180일 이상 휴면 중인 계정을 해지시킬 권리를 가집니다.
+Powersource Studio는 언제든지 서비스 또는 특정 게임 또는 서비스 일부의 제공 및/또는 지원을 중단할 권리를 가지고, 그와 동시에 서비스 또는 그 일부를 이용할 수 있는 귀하의 라이선스는 자동으로 종료됩니다. 이러한 경우, Powersource Studio는 이용자에 대하여 서비스의 중단으로 인한 환불∙보상∙배상을 할 책임을 부담하지 않습니다. 귀하의 계정의 해지에는 서비스 또는 그 일부(귀하 또는 타인이 제출한 콘텐츠를 포함)에 대한 귀하의 접속을 불가능하게 하는 것도 포함될 수 있습니다.
+2. 소유권
+2.1. 게임과 서비스
+서비스에 관한 모든 권리, 소유권, 이익(게임, 출판물, 컴퓨터 코드, 테마, 물건, 캐릭터, 캐릭터명, 스토리, 다이얼로그, 캐치프레이즈, 콘셉트, 삽화, 애니메이션, 음향, 음악구성형식, 시청각적 효과, 작동방법, 저작인격권, 서류, 게임상의 채팅기록, 캐릭터 프로필 정보, Powersource Studio의 게임 클라이언트를 이용한 게임 플레이 기록, Powersource Studio의 게임 클라이언트와 서버 소프트웨어를 포함하나, 이에 한정되지 아니함)은 Powersource Studio가 소유합니다. Powersource Studio는 당사의 게임 및 서비스에 관한 모든 권리(지적재산권 또는 그 밖의 소유권을 포함하나, 이에 한정되지 아니함)를 가집니다.
+2.2. 계정
+어떠한 경우에도, 귀하는 귀하가 계정에 대한 소유권 또는 그 밖의 재산상 이익을 가지지 않음을 인정하고 동의하며, 나아가, 귀하는 계정상의 또는 계정에 대한 모든 권리는 영구적으로 Powersource Studio가 소유하고 Powersource Studio의 이익을 위하여만 유효함을 인정하고 동의합니다.
+2.3. 가상 아이템들
+Powersource Studio는 Powersource Studio의 게임 또는 서비스상의 모든 콘텐츠를 소유하고, 라이선스를 허여하며 기타 이를 이용할 권리를 가집니다. 어떠한 경우에도, 귀하는 서비스상의 어떠한 콘텐츠(Powersource Studio의 게임에서 발생하거나 나타나는 가상의 물품 또는 통화(게임상에서 획득하였거나 Powersource Studio로부터 구매하였는지 여부를 불문함) 또는 계정과 결부되거나 서비스상에 저장된 부수물을 포함하나, 이에 한정되지 아니함)에 대하여 아무런 권리 또는 소유권을 가지지 않음에 동의합니다.
+3. 이용자 콘텐츠
+3.1 이용자 콘텐츠 개진
+"이용자 콘텐츠"는 의사소통, 이미지, 음향, 그리고 모든 자료, 데이터, 그리고 귀하 또는 다른 이용자들이 Powersource Studio 게임 클라이언트 또는 서비스를 통하여 업로드하거나 전송한 정보(채팅 텍스트를 포함하나, 이에 한정되지 아니함)를 의미합니다. 서비스를 이용하는 동안 어떠한 이용자 콘텐츠를 전송 또는 제출함으로써, 귀하는 그러한 전송 또는 제출행위가 (a)정확하고, 비밀이 아니며, (b) 법률 또는 계약상의 제한 또는 그 밖의 제3자의 권리를 위반하지 아니하고, 또한 귀하가 이용자 콘텐츠를 구성하는 개인정보 또는 지적재산권의 소유자인 제3자로부터 허락을 받았으며, (c) 바이러스, 애드웨어, 스파이웨어, 웜 바이러스 또는 그 밖의 악성코드가 없다는 것을 확인하고 진술 및 보증하며, (d) 그러한 콘텐츠 내의 귀하의 개인정보는 언제나 Powersource Studio의 개인정보 보호정책에 따라 처리됨을 인정하고 이에 동의합니다.
+3.2. 콘텐츠 심사
+Powersource Studio는 이용자 콘텐츠를 제출하는 이용자의 행위에 대하여 어떠한 책임도 지지 않고, 부적절한 콘텐츠 또는 행위에 대하여 서비스를 감시할 어떠한 책임도 지지 않습니다. 당사는 모든 이용자 콘텐츠를 사전에 심사하거나 감시할 수 없고 심사 또는 감시하지도 않습니다. 귀하의 서비스 이용에 따른 위험은 귀하 자신이 부담합니다. 서비스를 이용함으로써 귀하는 불쾌하고, 외설적이거나 귀하의 기대에 부응하지 않는 이용자 콘텐츠에 노출될 수 있습니다. 귀하는 서비스와 연결되어 사용 가능한 모든 이용자 콘텐츠의 사용과 관련된 일체의 위험을 부담합니다. 당사의 재량에 따라, 귀하의 서비스 이용 시 당사의 대리인 또는 당사의 기술에 의하여 귀하의 서비스와의 상호작용 또는 의사소통(채팅 텍스트를 포함하나 이에 한정되지 아니함)을 관찰 및/또는 기록할 수 있습니다.
+본 서비스 약관을 체결함으로써 귀하는 이러한 관찰과 기록에 대하여 취소할 수 없는 동의를 하는 것입니다. 귀하는 채팅 텍스트 또는 음성 의사소통을 포함하여 이용자 콘텐츠의 전송과 관련하여 프라이버시를 기대하지 않음을 인정하고 동의합니다.
+Powersource Studio는 어떠한 근거에 대한 공지 없이 혹은 언제든지 별다른 이유 없이 재량으로 사용자 콘텐츠(귀하의 사용자 콘텐츠에 대한 제한 없이 이를 포함하여)에 대한 검토, 관찰, 금지, 편집, 삭제, 접속 금지 또는 이를 이용할 수 없도록 할 권한을 갖습니다. Powersource Studio가 전적으로 당사의 재량에 따라 서비스를 관찰하기로 결정한 경우에도, Powersource Studio는 이용자 콘텐츠에 대하여 어떠한 책임도 부담하지 아니하고, 부적절한 이용자 콘텐츠를 수정 또는 제거할 의무를 부담하지도 않습니다. 당사는 당사의 전적인 재량 하에 이용자 콘텐츠를 편집하고, 전송을 거부하거나 제거할 권리를 가지고 있으나, 그러한 의무를 부담하지는 않습니다.
+3.2. 서비스의 다른 이용자들에 의한 정보 이용
+3.2.1. 공시
+지정된 주제에 관한 귀하의 논평과 언급을 포함하여 귀하가 이용자 콘텐츠를 게시할 수 있는 다양한 포럼, 블로그, 그리고 채팅 기능이 서비스에 포함될 수 있습니다. Powersource Studio는 귀하가 공유하는 아이디어와 정보를 다른 이용자들이 이용하지 않으리라는 점을 보증하지 않습니다. 따라서 만일 귀하가 비밀을 유지하고자 하는 정보 또는 아이디어를 가지고 있고 또는/그리고 다른 사람들이 이를 이용하지 않기를 바란다면, 이를 서비스에 게시하지 마십시오. Powersource Studio는 귀하가 제출하기로 결정한 아이디어 또는 정보를 평가하거나 이용하거나 그와 관련하여 귀하에게 배상할 책임을 지지 않습니다.
+3.2.2. 귀하 소유의 콘텐츠에 대한 책임
+귀하는 귀하가 서비스상에 또는 서비스를 통하여 또는 서비스와 관련하여 게시하거나 또는 타인에게 제공한 정보에 대하여 전적으로 책임을 집니다. Powersource Studio는 어떠한 이유로든지 또는 아무 이유 없이도 이용자 콘텐츠(Powersource Studio의 전적인 판단에 따랐을 때 본 서비스 약관을 위반하는 이용자 콘텐츠를 포함하나, 이에 한정되지 아니함)를 거절하거나 게시를 거부하거나 이를 삭제할 수 있습니다.
+3.3. Powersource Studio에 대한 귀하의 라이선스
+귀하는 이로써 Powersource Studio에 대하여 취소할 수 없고, 영구적이며, 이전 가능하며, 전액 완납된, 로열티가 부과되지 않는, 전 세계적인 라이선스(2차 라이선스권과 제3자에 대한 양도권을 포함)와, 당사의 서비스 제공과 관련된 귀하의 이용자 콘텐츠뿐만 아니라 그에 관한 모든 변경되고 파생된 가공물을 복사∙복제∙재생성∙수리∙조정∙변경∙2차적저작물 생성∙제조∙상업화∙퍼블리싱∙배포∙판매∙라이선스∙2차 라이선스∙이전∙리스∙전송∙공개적인 전시∙공개적인 공연∙전자적 접속의 제공∙방송∙전기통신에 의한 대중과의 의사소통∙전시∙공연∙컴퓨터 메모리에의 입력, 그리고 어떠한 방식으로든지 이용 및 실행(서비스의 마케팅과 프로모션을 포함)할 권리를 허여합니다. 또한 귀하는 Powersource Studio가 본 서비스 약관에 따라 Powersource Studio에게 허여된 권리를 행사할 권한을 타인에게 부여할 수 있음을 허여합니다. 나아가 귀하는 Powersource Studio에게, 귀하에 대하여 어떠한 의무도 부담함이 없이, 귀하의 성명, 초상, 그리고 그 밖에 이용자 콘텐츠에 포함되거나 그와 연관된 정보 또는 자료를 이용하고 활용할 무조건적이고 취소 불가능한 권리를 허여합니다. 법률에 의하여 금지되지 않는 한, 귀하의 이용자 콘텐츠가 어떠한 방식으로 수정 또는 변경되건 간에, 귀하는 귀하의 이용자 콘텐츠에 대하여 귀하가 가질 수 있는 모든 소유권 및/또는 저작인격권을 포기합니다. Powersource Studio는 귀하의 이용자 콘텐츠에 대하여 어떠한 소유권도 주장하지 않고 본 서비스 약관은 귀하가 귀하의 이용자 콘텐츠를 이용하고 활용할 권리를 제한하지 않습니다. Powersource Studio는 귀하의 이용자 콘텐츠에 대한 귀하의 지적 재산권을 감시하거나 집행할 의무를 부담하지 않습니다
+3.4. 이용자 상호작용
+귀하는 서비스의 다른 이용자들 및 서비스 및/또는 Powersource Studio 게임을 통하여 귀하가 상호작용하는 다른 당사자들과의 상호작용에 대하여 전적으로 책임을 부담합니다. Powersource Studio는 이러한 분쟁에 관여할 권리를 가지지만 그러한 의무는 부담하지 않습니다. 위법하거나 사기적이거나 또는 부적합하다고 의심받는 활동에 관한 Powersource Studio의 조사에 귀하는 전적으로 협력(Powersource Studio가 귀하의 계정의 암호로 보호받는 부분에 접속하는 것을 승인하는 것을 포함하나, 이에 한정되지 아니함)합니다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Effective Date: November 6, 2020
+The terms of this agreement ("Terms of Service") govern the relationship between you and Powersource, a Korean company having its registered office at Imae-ro 35 Bundang-gu Seongnam-si Gyeonggi, Korea, (hereinafter "Powersource" or "Us" or "We") regarding your use of Powersource's games, websites and related services (the "Service"). Use of the Service is also governed by Powersource's Privacy Policy and other relevant policies, which are incorporated herein by reference.
+Before accessing or using the Service, including browsing any Powersource website or accessing a game, you must agree to these Terms of Service and the Privacy Policy. You may also be required to register an account on the Service (an "Account"). By registering for an Account or otherwise using the Service, you affirm that you are the legal age of majority in your country of residence. If you are not, your legal guardian must review and agree to these Terms. If you access the Service from a Social Networking Site ("SNS"), such as Google, you shall comply with its terms of service/use as well as these Terms of Service.
+BY INSTALLING, USING OR OTHERWISE ACCESSING THE SERVICE, YOU AGREE TO THESE TERMS OF SERVICE. IF YOU DO NOT AGREE TO THESE TERMS OF SERVICE, PLEASE DO NOT INSTALL, USE OR OTHERWISE ACCESS THE SERVICE. USE OF THE SERVICE IS VOID WHERE PROHIBITED.
+Powersource reserves the right, at its discretion, to change, modify, add or remove portions of these Terms of Service, its Privacy Policy and other relevant Powersource policies at any time by posting the amended terms on the Powersource Service. You will be deemed to have accepted such changes by continuing to use the Service. If at any point you do not agree to any portion of the then-current version of our Terms of Service, the Powersource Privacy Policy, or any other Powersource policy, rules or codes of conduct relating to your use of the Service, your license to use the Service shall immediately terminate, and you must immediately stop using the Service.
+1. License
+1.1. Grant of a Limited License to Use the Service
+Subject to your agreement and continuing compliance with these Terms of Service and any other relevant Powersource policies, Powersource grants you a non-exclusive, non-transferable, non-sublicensable, revocable and limited license to access and use the Service for your own non-commercial entertainment purposes. You agree not to use the Service for any other purpose.
+The following restrictions apply to the use of the Service:
+- You accept full responsibility for any unauthorized use of the Service by minors. You are responsible for any use of your credit card or other payment instrument (e.g. paypal) by minors.
+- You shall not (or attempt to) purchase, sell, rent or give away your Account, create an Account using a false identity or information, or on behalf of someone other than yourself; You shall not use the Service if you have previously been removed by Powersource, or previously been banned from playing any Powersource game.
+- You shall use your Account only for non-commercial purposes; You shall not use the Service to advertise, or solicit, or transmit any commercial advertisements, including chain letters, junk or spam e-mail or repetitive or misleading messages to anyone.
+Login information and Your Account
+You may be required to select a password for your Account or you may also use other credentials to access the Account ("Login Information"). You shall not share the Account or the Login Information, nor let anyone else access your Account or do anything else that might jeopardize the security of your Account. In the event you become aware of or reasonably suspect any breach of security, including without limitation any loss, theft, or unauthorized disclosure of the Login Information, you must immediately notify Powersource and modify your Login Information. You are solely responsible for maintaining the confidentiality of the Login Information, and you will be responsible for all uses of the Login Information, including purchases, whether or not authorized by you. You are responsible for anything that happens through your Account.
+Powersource reserves the right to remove or reclaim any usernames at any time and for any reason, including but not limited to claims by a third party that a username violates the third party's rights.
+The Service supports only one Account per game on a supported device.
+License Limitations
+Any use of the Service in violation of these License Limitations is strictly prohibited, can result in the immediate revocation of your limited license and may subject you to liability for violations of law.
+You agree that you will not, under any circumstances:
+- Engage in any act that Powersource deems to be in conflict with the spirit or intent of the Service or make improper use of Powersource's support services.
+- Use or take part (directly or indirectly) in the use of cheats, exploits, automation software, emulators, bots, hacks, mods or any unauthorized third-party software designed to modify or interfere with the Service, any Powersource game or any Powersource game experience.
+- Modify or cause to be modified any files that are a part of the Service or any Powersource game without Powersource's express written consent.
+- Disrupt, interfere with or otherwise adversely affect the normal flow of the Service or otherwise act in a manner that may negatively affect other users' experience when using the Service or playing Powersource's games. This includes win trading and any other kind of manipulation of rankings, taking advantage of errors in the Service to gain an unfair edge over other players and any other act that intentionally abuses or goes against the design of the Service.
+- Disrupt, overburden, or aid or assist in the disruption or overburdening of any computer or server ("Server") used to offer or support the Service or any Powersource game environment.
+Institute, assist, or become involved in any type of attack, including without limitation distribution of a virus, denial of service attacks upon the Service, or other attempts to disrupt the Service or any other person's use or enjoyment of the Service.
+- Attempt to gain unauthorized access to the Service, Accounts registered to others or to the computers, Servers, or networks connected to the Service by any means other than the user interface provided by Powersource, including but not limited to, by circumventing or modifying, attempting to circumvent or modify, or encouraging or assisting any other person to circumvent or modify, any security, technology, device, or software that is part of the Service.
+Post any information that is abusive, threatening, obscene, defamatory, libelous, or racially, sexually, religiously, or otherwise objectionable or offensive or engage in ongoing toxic behavior, such as by repeatedly posting information on an unsolicited basis.
+- Post any information that contains nudity, excessive violence, or offensive subject matter or that contains a link to such content.
+- Attempt to, or harass, abuse, or harm, or advocate or incite harassment, abuse, or harm of another person, group, including Powersource employees, including Powersource's customer service representatives.
+- Make available through the Service any material or information that infringes any copyright, trademark, patent, trade secret, right of privacy, right of publicity, or other right of any person or entity or impersonates any other person, including without limitation a Powersource employee.
+- Reverse engineer, decompile, disassemble, decipher or otherwise attempt to derive the source code for any underlying software or other intellectual property used to provide the Service or any Powersource game, or to obtain any information from the Service or any Powersource game using any method not expressly permitted by Powersource.
+- Solicit or attempt to solicit Login Information or any other login credentials or personal information from other users of the Service or any Powersource game.
+- Collect or post anyone's private information, including personally identifiable information (whether in text, image or video form), identification documents, or financial information through the Service.
+- Use any Powersource game for gambling, betting or any similar activity in which prizes or rewards can be won (directly or indirectly), including betting on the outcome of matches in which you participate as a player, irrespective of whether or not there is a fee or stake involved.
+Powersource reserves the right to determine what conduct it considers to be in violation of the rules of use or otherwise outside the intent or spirit of these Terms of Service or the Service itself. Powersource reserves the right to take action as a result, which may include terminating your Account and prohibiting you from using the Service in whole or in part.
+1.2. Suspension and Termination of Account and Service
+WITHOUT LIMITING ANY OTHER REMEDIES, Powersource MAY LIMIT, SUSPEND, TERMINATE, MODIFY, OR DELETE ACCOUNTS OR ACCESS TO THE SERVICE OR PORTIONS THEREOF IF YOU ARE, OR Powersource SUSPECTS THAT YOU ARE, FAILING TO COMPLY WITH ANY OF THESE TERMS OF SERVICE OR FOR ANY ACTUAL OR SUSPECTED ILLEGAL OR IMPROPER USE OF THE SERVICE, WITH OR WITHOUT NOTICE TO YOU. YOU CAN LOSE YOUR USER NAME AND PERSONA IN THE SERVICE AS A RESULT OF ACCOUNT TERMINATION OR LIMITATION, AS WELL AS ANY BENEFITS, PRIVILEGES, EARNED ITEMS AND PURCHASED ITEMS ASSOCIATED WITH YOUR USE OF THE SERVICE, AND Powersource IS UNDER NO OBLIGATION TO COMPENSATE YOU FOR ANY SUCH LOSSES OR RESULTS.
+WITHOUT LIMITING OUR OTHER REMEDIES, WE MAY LIMIT, SUSPEND OR TERMINATE THE SERVICE AND USER ACCOUNTS OR PORTIONS THEREOF, PROHIBIT ACCESS TO OUR GAMES AND SITES, AND THEIR CONTENT, SERVICES AND TOOLS, DELAY OR REMOVE HOSTED CONTENT, AND TAKE TECHNICAL AND LEGAL STEPS TO PREVENT USERS FROM ACCESSING THE SERVICE IF WE BELIEVE THAT THEY ARE CREATING RISK OR POSSIBLE LEGAL LIABILITIES, INFRINGING THE INTELLECTUAL PROPERTY RIGHTS OF THIRD PARTIES, OR ACTING INCONSISTENTLY WITH THE LETTER OR SPIRIT OF OUR TERMS OR   POLICIES. ADDITIONALLY, WE MAY, IN APPROPRIATE CIRCUMSTANCES AND AT OUR SOLE DISCRETION, SUSPEND OR TERMINATE ACCOUNTS OF USERS WHO MAY BE REPEAT INFRINGERS OF THIRD PARTY INTELLECTUAL PROPERTY RIGHTS.
+Powersource RESERVES THE RIGHT TO TERMINATE ANY ACCOUNT THAT HAS BEEN INACTIVE FOR 180 DAYS.
+Powersource reserves the right to stop offering and/or supporting the Service or a particular game or part of the Service at any time, at which point your license to use the Service or a part thereof will be automatically terminated. In such event, Powersource shall not be required to provide refunds, benefits or other compensation to users in connection with such discontinued Service. Termination of your Account can include disabling your access to the Service or any part thereof including any content you submitted or others submitted.
+2. Ownership
+2.1. Games and Service
+All rights, title and interest in and to the Service (including without limitation any games, titles, computer code, themes, objects, characters, character names, stories, dialogue, catch phrases, concepts, artwork, animations, sounds, musical compositions, audio-visual effects, methods of operation, moral rights, documentation, in-game chat transcripts, character profile information, recordings of games played using a Powersource game client, and the Powersource game clients and server software) are owned by Powersource. Powersource reserves all rights, including without limitation, all intellectual property rights or other proprietary rights, in connection with its games and the Service.
+2.2. Accounts
+NOTWITHSTANDING ANYTHING TO THE CONTRARY HEREIN, YOU ACKNOWLEDGE AND AGREE THAT YOU SHALL HAVE NO OWNERSHIP OR OTHER PROPERTY INTEREST IN THE ACCOUNT, AND YOU FURTHER ACKNOWLEDGE AND AGREE THAT ALL RIGHTS IN AND TO THE ACCOUNT ARE AND SHALL FOREVER BE OWNED BY AND INURE TO THE BENEFIT OF Powersource.
+2.3. Virtual Items
+Powersource owns, has licensed, or otherwise has rights to use all of the content that appears in the Service or in Powersource games. Notwithstanding any provision to the contrary herein, you agree that you have no right or title in or to any content that appears in the Service, including without limitation the virtual goods or currency appearing or originating in any Powersource game, whether earned in a game or purchased from Powersource, or any other attributes associated with an Account or stored on the Service.
+3. User Content
+3.1. Submission of User Content
+"User Content" means any communications, images, sounds, and all the material, data, and information that you upload or transmit through a Powersource game client or the Service, or that other users upload or transmit, including without limitation any chat text. By transmitting or submitting any User Content while using the Service, you affirm, represent and warrant that such transmission or submission is (a) accurate and not confidential or misleading; (b) not in violation of any laws, contractual restrictions or other third party rights, and that you have permission from any third party whose personal information or intellectual property is comprised in the User Content; (c) free of viruses, adware, spyware, worms or other malicious code; and (d) you acknowledge and agree that any of your personal information within such content will at all times be processed by Powersource in accordance with its Privacy Policy.
+3.1.1. Content Screening
+Powersource assumes no responsibility for the conduct of any user submitting any User Content, and assumes no responsibility for monitoring the Service for inappropriate content or conduct. We do not, and cannot, pre-screen or monitor all User Content. Your use of the Service is at your own risk. By using the Service, you may be exposed to User Content that is offensive, indecent or otherwise not in line with your expectations. You bear all risks associated with the use of any User Content available in connection with the Service. At our discretion, our representatives or technology may monitor and/or record your interaction with the Service or communications (including without limitation chat text) when you are using the Service.
+By entering into these Terms of Service, you hereby provide your irrevocable consent to such monitoring and recording. You acknowledge and agree that you have no expectation of privacy concerning the transmission of any User Content, including without limitation chat text or voice communications.
+Powersource reserves the right in its sole discretion to review, monitor, prohibit, edit, delete, disable access to or otherwise make unavailable any User Content (including without limitation your User Content) without notice for any reason or for no reason at any time. If at any time Powersource chooses, in its sole discretion, to monitor the Service, Powersource nonetheless assumes no responsibility for User Content and assumes no obligation to modify or remove any inappropriate User Content. We have the right, but not the obligation, in our sole discretion to edit, refuse to post, or remove any User Content.
+3.2. Information Use by Other Members of the Service
+3.2.1. Public Discourse
+The Service may include various forums, blogs and chat features where you can post User Content, including your observations and comments on designated topics. Powersource cannot guarantee that other members will not use the ideas and information that you share. Therefore, if you have an idea or information that you would like to keep confidential and/or don't want others to use, do not post it on the Service. Powersource shall have no responsibility to evaluate, use or compensate you for any ideas or information you may choose to submit.
+3.2.2. Responsible For Your Own Content
+You are solely responsible for the information that you post on, through or in connection with the Service and that you provide to others. Powersource may reject, refuse to post or delete any User Content for any or no reason, including, but not limited to, User Content that in the sole judgment of Powersource violates these Terms of Service.
+3.2.3. Your License to Powersource
+You hereby grant to Powersource an irrevocable, perpetual, transferable, fully paid-up, royalty-free, worldwide license (including the right to sublicense and assign to third party) and right to copy, reproduce, fix, adapt, modify, create derivative works from, manufacture, commercialize, publish, distribute, sell, license, sublicense, transfer, lease, transmit, publicly display, publicly perform, or provide access to electronically, broadcast, communicate to the public by telecommunication, display, perform, enter into computer memory, and use and practice, in any way, your User Content as well as all modified and derivative works thereof in connection with our provision of the Service, including marketing and promotions of the Service. You also hereby grant to Powersource the right to authorize others to exercise any of the rights granted to Powersource under these Terms of Service. You further hereby grant to Powersource the unconditional, irrevocable right to use and exploit your name, likeness and any other information or material included in any User Content and in connection with any User Content, without any obligation to you. Except as prohibited by law, you waive any rights of attribution and/or any moral rights you may have in your User Content, regardless of whether your User Content is altered or changed in any manner. Powersource does not claim any ownership rights in your User Content and nothing in these Terms of Service is intended to restrict any rights that you may have to use and exploit your User Content. Powersource has no obligation to monitor or enforce your intellectual property rights in or to your User Content.
+3.3. User Interactions
+You are solely responsible for your interactions with other users of the Service and any other parties with whom you interact through the Service and/or Powersource games. Powersource reserves the right, but has no obligation, to become involved in any way with these disputes. You will fully cooperate with Powersource to investigate any suspected unlawful, fraudulent or improper activity, including, without limitation, granting Powersource access to any password-protected portions of your Account.
+If you have a dispute with one or more users, you release us (and our officers, directors, agents, subsidiaries, joint ventures and employees) from claims, demands and damages (actual and consequential) of every kind and nature, known and unknown, arising out of or in any way connected with such disputes.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. Fees and Purchase Terms
+4.1.Purchases
+In the Service you may purchase, with "real world" money, a limited, personal, non-transferable, non-sublicensable, revocable license to use (a) "virtual currency", including but not limited to virtual cash or diamonds, all for use in Powersource games; (b) "virtual in-game items" (together with "virtual currency", "Virtual Items"); and (c) other goods or services ("Merchandise"). You are only allowed to purchase Virtual Items from us or our authorised partners through the Service, and not in any other way.
+Powersource may manage, regulate, control, modify or eliminate Virtual Items and/or Merchandise at any time, with or without notice. Powersource shall have no liability to you or any third party in the event that Powersource exercises any such rights.
+The transfer of Virtual Items and Merchandise is prohibited except where expressly authorized in the Service. Other than as expressly authorized in the Service, you shall not sell, purchase, redeem or otherwise transfer Virtual Items or Merchandise to any person or entity or attempt any of the aforesaid, including but not limited to Powersource, another user or any third party.
+ALL PURCHASES AND REDEMPTIONS OF VIRTUAL ITEMS MADE THROUGH THE SERVICE ARE FINAL AND NON-REFUNDABLE.
+The provision of Virtual Items for use in Powersource games is a service provided by Powersource that commences immediately upon acceptance by Powersource of your purchase.
+4.2. Payment of Fees
+You agree to pay all fees and applicable taxes incurred by you or anyone using an Account registered to you. Powersource may revise the pricing for the goods and services offered through the Service at any time. YOU ACKNOWLEDGE THAT Powersource IS NOT REQUIRED TO PROVIDE A REFUND FOR ANY REASON, AND THAT YOU WILL NOT RECEIVE MONEY OR OTHER COMPENSATION FOR UNUSED VIRTUAL ITEMS WHEN AN ACCOUNT IS CLOSED, WHETHER SUCH CLOSURE WAS VOLUNTARY OR INVOLUNTARY.
+5. Updates to the Service
+You understand that the Service is an evolving one. Powersource may require that you accept updates to the Service and to Powersource's games you have installed on your device or computer. You acknowledge and agree that Powersource may update the Service and Powersource games, with or without notifying you. You may need to update third party software from time to time in order to receive the Service and play Powersource games.
+6. Disclaimer of Warranties
+WITHOUT LIMITING Powersource'S LIABILITY UNDER SECTION 7 BELOW, THE SERVICE IS PROVIDED ON AN "AS IS" AND "AS AVAILABLE" BASIS FOR YOUR USE, WITHOUT WARRANTIES OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING WITHOUT LIMITATION THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE, NON-INFRINGEMENT, AND THOSE ARISING FROM COURSE OF DEALING OR USAGE OF TRADE. Powersource DOES NOT WARRANT THAT YOU WILL BE ABLE TO ACCESS OR USE      THE SERVICE AT THE TIMES OR LOCATIONS OF YOUR CHOOSING; THAT THE SERVICE WILL BE UNINTERRUPTED OR ERROR-FREE; THAT DEFECTS WILL BE CORRECTED; OR THAT THE GAME OR THE SERVICE ARE FREE OF VIRUSES OR OTHER HARMFUL COMPONENTS.
+Some jurisdictions do not allow the exclusion of certain warranties. Accordingly, some of the above disclaimers may not apply to you.
+7. Limitation of Liability; Sole and Exclusive Remedy; Indemnification
+TO THE MAXIMUM EXTENT PERMITTED BY LAW, Powersource SHALL NOT BE LIABLE TO YOU FOR ANY INDIRECT, INCIDENTAL, CONSEQUENTIAL, SPECIAL, PUNITIVE OR OTHER SIMILAR DAMAGES, INCLUDING BUT NOT LIMITED TO LOSS OF REVENUES, LOST PROFITS, LOST DATA OR BUSINESS INTERRUPTION OR OTHER INTANGIBLE LOSSES (HOWEVER SUCH LOSSES ARE QUALIFIED), ARISING OUT OF OR RELATING IN ANY WAY TO THESE TERMS OF SERVICE OR THE SERVICE ITSELF, WHETHER BASED ON CONTRACT, TORT OR ANY OTHER LEGAL THEORY, AND WHETHER OR NOT Powersource HAS BEEN ADVISED OF THE POSSIBILITY OF SUCH DAMAGES. TO THE EXTENT NOT PROHIBITED BY LAW, Powersource SHALL NOT BE LIABLE TO YOU FOR MORE THAN THE AMOUNT YOU HAVE PAID TO Powersource IN ACCORDANCE WITH THESE TERMS OF SERVICE IN THE SIX (6) MONTHS IMMEDIATELY PRECEDING THE DATE ON WHICH YOU FIRST ASSERT A CLAIM. YOU ACKNOWLEDGE AND AGREE THAT IF YOU HAVE NOT PAID ANYTHING TO Powersource DURING SUCH TIME PERIOD, YOUR SOLE REMEDY (AND Powersource'S EXCLUSIVE LIABILITY) FOR ANY DISPUTE WITH Powersource IS TO STOP USING THE SERVICE AND TO CANCEL YOUR ACCOUNT.
+NOTHING IN THESE TERMS OF SERVICE SHALL AFFECT THE STATUTORY RIGHTS OF ANY CONSUMER OR EXCLUDE OR RESTRICT ANY LIABILITY RESULTING FROM GROSS NEGLIGENCE OR WILLFUL MISCONDUCT OF Powersource OR FOR DEATH OR PERSONAL INJURY ARISING FROM ANY NEGLIGENCE OR FRAUD OF Powersource.
+You agree to indemnify, defend and hold Powersource (and our officers, directors, agents, subsidiaries, joint ventures and employees) harmless from any claim, demand, damages or other losses, including reasonable attorneys' fees, asserted by any third-party resulting from or arising out of your use of the Service, or any breach by you of these Terms of Service, however the foregoing does not apply if the infringement of rights is not attributable to your intentional or negligent behavior.
+8. Dispute Resolution and Law
+If a dispute arises between you and Powersource, we strongly encourage you to first contact us directly to seek a resolution by going to our in-game inquiry. If you are a resident of the United States, these Terms of Service and any dispute arising out of or related to it or Privacy Policy or the Service shall be governed in all respects by California law, without regard to conflict of law provisions. You agree that any claim or dispute you may have against Powersource must be resolved exclusively by a court located in San Francisco, California. If you are a resident outside of the United States, you agree that all disputes between you and Powersource shall be governed by the laws of Finland, without regard to conflict of law provisions. You agree that any claim or dispute you may have against Powersource must be resolved exclusively by a court located in Korea.
+9. Severability
+You and Powersource agree that if any portion of these Terms of Service or of the Powersource Privacy Policy is found illegal or unenforceable, in whole or in part by any court of competent jurisdiction, such provision shall, as to such jurisdiction, be ineffective solely to the extent of such determination of invalidity or unenforceability without affecting the validity or enforceability thereof in any other manner or jurisdiction and without affecting the remaining provisions of the terms, which shall continue to be in full force and effect.
+10. General Provisions
+10.1. Assignment
+Powersource may assign or delegate these Terms of Service and/or the Powersource Privacy Policy, in whole or in part, to any person or entity at any time with or without your consent. You may not assign or delegate any rights or obligations under the Terms of Service or Privacy Policy without Powersource's prior written consent, and any unauthorized assignment and delegation by you is ineffective.
+10.2. Supplemental Policies
+Powersource may publish additional policies related to specific services such as forums, contests or loyalty programs. Your right to use such services is subject to those specific policies and these Terms of Service.
+10.3. Entire Agreement
+These Terms of Service, any supplemental policies and any documents expressly incorporated by reference herein (including the Powersource Privacy Policy), contain the entire understanding of you and Powersource, and supersede all prior understandings of the parties hereto relating to the subject matter hereof, whether electronic, oral or written, or whether established by custom, practice, policy or precedent, between you and us with respect to the Service.
+10.4. No Waiver
+The failure of Powersource to require or enforce strict performance by you of any provision of these Terms of Service or the Powersource Privacy Policy or failure to exercise any right under them shall not be construed as a waiver or relinquishment of Powersource's right to assert or rely upon any such provision or right in that or any other instance.
+The express waiver by Powersource of any provision, condition, or requirement of these Terms of Service or the Powersource Privacy Policy shall not constitute a waiver of any future obligation to comply with such provision, condition or requirement.
+Except as expressly and specifically set forth in this these Terms of Service, no representations, statements, consents, waivers, or other acts or omissions by Powersource shall be deemed a modification of these Terms of Service nor legally binding, unless documented in physical writing, hand signed by You and a duly appointed officer of Powersource.
+10.5. Notices
+We may notify you via e-mail or any other communications means to contact information you provide to us. All notices given by you or required from you under these Terms of Service or the Powersource Privacy Policy shall be addressed to the following email: powersourcelegalrequests@gmail.com. Any notices that you provide without compliance with this Section on Notices shall have no legal effect.
+10.6. Equitable Remedies
+You acknowledge that the rights granted and obligations made under these Terms of Service to Powersource are of a unique and irreplaceable nature, the loss of which shall irreparably harm Powersource and which cannot be replaced by monetary damages alone so that Powersource shall be entitled to injunctive or other equitable relief (without the obligations of posting any bond or surety or proof of damages) in the event of any breach or anticipatory breach by you.
+You irrevocably waive all rights to seek injunctive or other equitable relief, or to enjoin or restrain the operation of the Service or any Powersource game, exploitation of any advertising or other materials issued in connection therewith, or exploitation of the Service or any content or other material used or displayed through the Service and agree to limit your claims to claims for monetary damages, limited by Section 7 (if any).
+10.7. Force Majeure
+Powersource shall not be liable for any delay or failure to perform resulting from causes outside the reasonable control of Powersource, including without limitation any failure to perform hereunder due to unforeseen circumstances or cause beyond Powersource's control such as acts of God, war, terrorism, riots, embargoes, acts of civil or military authorities, fire, floods, accidents, strikes, or shortages of transportation facilities, fuel, energy, labor or materials.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effective Date: November 2, 2020
 Thank you for playing our games! This Privacy Policy describes:
-The ways we collect personal data about you and why we do so
-How we use your personal data, and
-The choices you have about your personal data.
+- The ways we collect personal data about you and why we do so
+- How we use your personal data, and
+- The choices you have about your personal data.
 This Privacy Policy applies to Powersource's  games, websites and related services, which we here collectively call the Service. We may periodically update this Privacy Policy by posting a new version on Powersource.com. If we make any material changes, we will notify you as required under applicable law, including by posting a notice in the Service prior to the change becoming effective. Your continued use of the Service after the effective date will be subject to the new Privacy Policy.
 CONTACT US
 If you have questions about data protection, or if you have any requests for resolving issues with your personal data, we encourage you to primarily contact us through the support features within each Powersource game, so we can reply to you more quickly. Alternatively, you may contact:
 Name of the controller: Powersource
 Address: Imae-ro 35 Bundang-gu Seongnam-si Gyeonggi, Korea Attn: Privacy
-email: powersource-legalrequests@gmail.com
+email: powersourcelegalrequests@gmail.com
 THE DATA WE COLLECT
 The categories of personal data we collect depend on the Services you use, and the requirements of applicable law.
 Data you provide us directly.
@@ -177,320 +400,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">TERMS OF SERVICE
-Effective Date: July 1, 2020
-The terms of this agreement ("Terms of Service") govern the relationship between you and Powersource, a Korean company (business ID 2336509-6) having its registered office at Imae-ro 35 Bundang-gu Seongnam-si Gyeonggi, Korea, (hereinafter "Powersource" or "Us" or "We") regarding your use of Powersource's games, websites and related services (the "Service"). Use of the Service is also governed by Powersource's Privacy Policy and other relevant policies, which are incorporated herein by reference.
-Before accessing or using the Service, including browsing any Powersource website or accessing a game, you must agree to these Terms of Service and the Privacy Policy. You may also be required to register an account on the Service (an "Account"). By registering for an Account or otherwise using the Service, you affirm that you are the legal age of majority in your country of residence. If you are not, your legal guardian must review and agree to these Terms. If you access the Service from a Social Networking Site ("SNS"), such as Facebook or Google+, you shall comply with its terms of service/use as well as these Terms of Service.
-BY INSTALLING, USING OR OTHERWISE ACCESSING THE SERVICE, YOU AGREE TO THESE TERMS OF SERVICE. IF YOU DO NOT AGREE TO THESE TERMS OF SERVICE, PLEASE DO NOT INSTALL, USE OR OTHERWISE ACCESS THE SERVICE. USE OF THE SERVICE IS VOID WHERE PROHIBITED.
-Powersource reserves the right, at its discretion, to change, modify, add or remove portions of these Terms of Service, its Privacy Policy and other relevant Powersource policies at any time by posting the amended terms on the Powersource Service. You will be deemed to have accepted such changes by continuing to use the Service. If at any point you do not agree to any portion of the then-current version of our Terms of Service, the Powersource Privacy Policy, or any other Powersource policy, rules or codes of conduct relating to your use of the Service, your license to use the Service shall immediately terminate, and you must immediately stop using the Service.
-1. License
-1.1. Grant of a Limited License to Use the Service
-Subject to your agreement and continuing compliance with these Terms of Service and any other relevant Powersource policies, Powersource grants you a non-exclusive, non-transferable, non-sublicensable, revocable and limited license to access and use the Service for your own non-commercial entertainment purposes. You agree not to use the Service for any other purpose.
-The following restrictions apply to the use of the Service:
-- You accept full responsibility for any unauthorized use of the Service by minors. You are responsible for any use of your credit card or other payment instrument (e.g. paypal) by minors.
-- You shall not (or attempt to) purchase, sell, rent or give away your Account, create an Account using a false identity or information, or on behalf of someone other than yourself; You shall not use the Service if you have previously been removed by Powersource, or previously been banned from playing any Powersource game.
-- You shall use your Account only for non-commercial purposes; You shall not use the Service to advertise, or solicit, or transmit any commercial advertisements, including chain letters, junk or spam e-mail or repetitive or misleading messages to anyone.
-Login information and Your Account
-You may be required to select a password for your Account or you may also use other credentials to access the Account ("Login Information"). You shall not share the Account or the Login Information, nor let anyone else access your Account or do anything else that might jeopardize the security of your Account. In the event you become aware of or reasonably suspect any breach of security, including without limitation any loss, theft, or unauthorized disclosure of the Login Information, you must immediately notify Powersource and modify your Login Information. You are solely responsible for maintaining the confidentiality of the Login Information, and you will be responsible for all uses of the Login Information, including purchases, whether or not authorized by you. You are responsible for anything that happens through your Account.
-Powersource reserves the right to remove or reclaim any usernames at any time and for any reason, including but not limited to claims by a third party that a username violates the third party's rights.
-The Service supports only one Account per game on a supported device.
-License Limitations
-Any use of the Service in violation of these License Limitations is strictly prohibited, can result in the immediate revocation of your limited license and may subject you to liability for violations of law.
-You agree that you will not, under any circumstances:
-- Engage in any act that Powersource deems to be in conflict with the spirit or intent of the Service or make improper use of Powersource's support services.
-- Use or take part (directly or indirectly) in the use of cheats, exploits, automation software, emulators, bots, hacks, mods or any unauthorized third-party software designed to modify or interfere with the Service, any Powersource game or any Powersource game experience.
-- Modify or cause to be modified any files that are a part of the Service or any Powersource game without Powersource's express written consent.
-- Disrupt, interfere with or otherwise adversely affect the normal flow of the Service or otherwise act in a manner that may negatively affect other users' experience when using the Service or playing Powersource's games. This includes win trading and any other kind of manipulation of rankings, taking advantage of errors in the Service to gain an unfair edge over other players and any other act that intentionally abuses or goes against the design of the Service.
-- Disrupt, overburden, or aid or assist in the disruption or overburdening of any computer or server ("Server") used to offer or support the Service or any Powersource game environment.
-Institute, assist, or become involved in any type of attack, including without limitation distribution of a virus, denial of service attacks upon the Service, or other attempts to disrupt the Service or any other person's use or enjoyment of the Service.
-- Attempt to gain unauthorized access to the Service, Accounts registered to others or to the computers, Servers, or networks connected to the Service by any means other than the user interface provided by Powersource, including but not limited to, by circumventing or modifying, attempting to circumvent or modify, or encouraging or assisting any other person to circumvent or modify, any security, technology, device, or software that is part of the Service.
-Post any information that is abusive, threatening, obscene, defamatory, libelous, or racially, sexually, religiously, or otherwise objectionable or offensive or engage in ongoing toxic behavior, such as by repeatedly posting information on an unsolicited basis.
-- Post any information that contains nudity, excessive violence, or offensive subject matter or that contains a link to such content.
-- Attempt to, or harass, abuse, or harm, or advocate or incite harassment, abuse, or harm of another person, group, including Powersource employees, including Powersource's customer service representatives.
-- Make available through the Service any material or information that infringes any copyright, trademark, patent, trade secret, right of privacy, right of publicity, or other right of any person or entity or impersonates any other person, including without limitation a Powersource employee.
-- Reverse engineer, decompile, disassemble, decipher or otherwise attempt to derive the source code for any underlying software or other intellectual property used to provide the Service or any Powersource game, or to obtain any information from the Service or any Powersource game using any method not expressly permitted by Powersource.
-- Solicit or attempt to solicit Login Information or any other login credentials or personal information from other users of the Service or any Powersource game.
-- Collect or post anyone's private information, including personally identifiable information (whether in text, image or video form), identification documents, or financial information through the Service.
-- Use any Powersource game for gambling, betting or any similar activity in which prizes or rewards can be won (directly or indirectly), including betting on the outcome of matches in which you participate as a player, irrespective of whether or not there is a fee or stake involved.
-Powersource reserves the right to determine what conduct it considers to be in violation of the rules of use or otherwise outside the intent or spirit of these Terms of Service or the Service itself. Powersource reserves the right to take action as a result, which may include terminating your Account and prohibiting you from using the Service in whole or in part.
-1.2. Suspension and Termination of Account and Service
-WITHOUT LIMITING ANY OTHER REMEDIES, Powersource MAY LIMIT, SUSPEND, TERMINATE, MODIFY, OR DELETE ACCOUNTS OR ACCESS TO THE SERVICE OR PORTIONS THEREOF IF YOU ARE, OR Powersource SUSPECTS THAT YOU ARE, FAILING TO COMPLY WITH ANY OF THESE TERMS OF SERVICE OR FOR ANY ACTUAL OR SUSPECTED ILLEGAL OR IMPROPER USE OF THE SERVICE, WITH OR WITHOUT NOTICE TO YOU. YOU CAN LOSE YOUR USER NAME AND PERSONA IN THE SERVICE AS A RESULT OF ACCOUNT TERMINATION OR LIMITATION, AS WELL AS ANY BENEFITS, PRIVILEGES, EARNED ITEMS AND PURCHASED ITEMS ASSOCIATED WITH YOUR USE OF THE SERVICE, AND Powersource IS UNDER NO OBLIGATION TO COMPENSATE YOU FOR ANY SUCH LOSSES OR RESULTS.
-WITHOUT LIMITING OUR OTHER REMEDIES, WE MAY LIMIT, SUSPEND OR TERMINATE THE SERVICE AND USER ACCOUNTS OR PORTIONS THEREOF, PROHIBIT ACCESS TO OUR GAMES AND SITES, AND THEIR CONTENT, SERVICES AND TOOLS, DELAY OR REMOVE HOSTED CONTENT, AND TAKE TECHNICAL AND LEGAL STEPS TO PREVENT USERS FROM ACCESSING THE SERVICE IF WE BELIEVE THAT THEY ARE CREATING RISK OR POSSIBLE LEGAL LIABILITIES, INFRINGING THE INTELLECTUAL PROPERTY RIGHTS OF THIRD PARTIES, OR ACTING INCONSISTENTLY WITH THE LETTER OR SPIRIT OF OUR TERMS OR   POLICIES. ADDITIONALLY, WE MAY, IN APPROPRIATE CIRCUMSTANCES AND AT OUR SOLE DISCRETION, SUSPEND OR TERMINATE ACCOUNTS OF USERS WHO MAY BE REPEAT INFRINGERS OF THIRD PARTY INTELLECTUAL PROPERTY RIGHTS.
-Powersource RESERVES THE RIGHT TO TERMINATE ANY ACCOUNT THAT HAS BEEN INACTIVE FOR 180 DAYS.
-Powersource reserves the right to stop offering and/or supporting the Service or a particular game or part of the Service at any time, at which point your license to use the Service or a part thereof will be automatically terminated. In such event, Powersource shall not be required to provide refunds, benefits or other compensation to users in connection with such discontinued Service
-. Termination of your Account can include disabling your access to the Service or any part thereof including any content you submitted or others submitted.
-2. Ownership
-2.1. Games and Service
-All rights, title and interest in and to the Service (including without limitation any games, titles, computer code, themes, objects, characters, character names, stories, dialogue, catch phrases, concepts, artwork, animations, sounds, musical compositions, audio-visual effects, methods of operation, moral rights, documentation, in-game chat transcripts, character profile information, recordings of games played using a Powersource game client, and the Powersource game clients and server software) are owned by Powersource. Powersource reserves all rights, including without limitation, all intellectual property rights or other proprietary rights, in connection with its games and the Service.
-2.2. Accounts
-NOTWITHSTANDING ANYTHING TO THE CONTRARY HEREIN, YOU ACKNOWLEDGE AND AGREE THAT YOU SHALL HAVE NO OWNERSHIP OR OTHER PROPERTY INTEREST IN THE ACCOUNT, AND YOU FURTHER ACKNOWLEDGE AND AGREE THAT ALL RIGHTS IN AND TO THE ACCOUNT ARE AND SHALL FOREVER BE OWNED BY AND INURE TO THE BENEFIT OF Powersource.
-2.3. Virtual Items
-Powersource owns, has licensed, or otherwise has rights to use all of the content that appears in the Service or in Powersource games. Notwithstanding any provision to the contrary herein, you agree that you have no right or title in or to any content that appears in the Service, including without limitation the virtual goods or currency appearing or originating in any Powersource game, whether earned in a game or purchased from Powersource, or any other attributes associated with an Account or stored on the Service.
-3. User Content
-3.1. Submission of User Content
-"User Content" means any communications, images, sounds, and all the material, data, and information that you upload or transmit through a Powersource game client or the Service, or that other users upload or transmit, including without limitation any chat text. By transmitting or submitting any User Content while using the Service, you affirm, represent and warrant that such transmission or submission is (a) accurate and not confidential or misleading; (b) not in violation of any laws, contractual restrictions or other third party rights, and that you have permission from any third party whose personal information or intellectual property is comprised in the User Content; (c) free of viruses, adware, spyware, worms or other malicious code; and (d) you acknowledge and agree that any of your personal information within such content will at all times be processed by Powersource in accordance with its Privacy Policy.
-3.1.1. Content Screening
-Powersource assumes no responsibility for the conduct of any user submitting any User Content, and assumes no responsibility for monitoring the Service for inappropriate content or conduct. We do not, and cannot, pre-screen or monitor all User Content. Your use of the Service is at your own risk. By using the Service, you may be exposed to User Content that is offensive, indecent or otherwise not in line with your expectations. You bear all risks associated with the use of any User Content available in connection with the Service. At our discretion, our representatives or technology may monitor and/or record your interaction with the Service or communications (including without limitation chat text) when you are using the Service.
-By entering into these Terms of Service, you hereby provide your irrevocable consent to such monitoring and recording. You acknowledge and agree that you have no expectation of privacy concerning the transmission of any User Content, including without limitation chat text or voice communications.
-Powersource reserves the right in its sole discretion to review, monitor, prohibit, edit, delete, disable access to or otherwise make unavailable any User Content (including without limitation your User Content) without notice for any reason or for no reason at any time. If at any time Powersource chooses, in its sole discretion, to monitor the Service, Powersource nonetheless assumes no responsibility for User Content and assumes no obligation to modify or remove any inappropriate User Content. We have the right, but not the obligation, in our sole discretion to edit, refuse to post, or remove any User Content.
-3.2. Information Use by Other Members of the Service
-3.2.1. Public Discourse
-The Service may include various forums, blogs and chat features where you can post User Content, including your observations and comments on designated topics. Powersource cannot guarantee that other members will not use the ideas and information that you share. Therefore, if you have an idea or information that you would like to keep confidential and/or don't want others to use, do not post it on the Service. Powersource shall have no responsibility to evaluate, use or compensate you for any ideas or information you may choose to submit.
-3.2.2. Responsible For Your Own Content
-You are solely responsible for the information that you post on, through or in connection with the Service and that you provide to others. Powersource may reject, refuse to post or delete any User Content for any or no reason, including, but not limited to, User Content that in the sole judgment of Powersource violates these Terms of Service.
-3.2.3. Your License to Powersource
-You hereby grant to Powersource an irrevocable, perpetual, transferable, fully paid-up, royalty-free, worldwide license (including the right to sublicense and assign to third party) and right to copy, reproduce, fix, adapt, modify, create derivative works from, manufacture, commercialize, publish, distribute, sell, license, sublicense, transfer, lease, transmit, publicly display, publicly perform, or provide access to electronically, broadcast, communicate to the public by telecommunication, display, perform, enter into computer memory, and use and practice, in any way, your User Content as well as all modified and derivative works thereof in connection with our provision of the Service, including marketing and promotions of the Service. You also hereby grant to Powersource the right to authorize others to exercise any of the rights granted to Powersource under these Terms of Service. You further hereby grant to Powersource the unconditional, irrevocable right to use and exploit your name, likeness and any other information or material included in any User Content and in connection with any User Content, without any obligation to you. Except as prohibited by law, you waive any rights of attribution and/or any moral rights you may have in your User Content, regardless of whether your User Content is altered or changed in any manner. Powersource does not claim any ownership rights in your User Content and nothing in these Terms of Service is intended to restrict any rights that you may have to use and exploit your User Content. Powersource has no obligation to monitor or enforce your intellectual property rights in or to your User Content.
-3.3. User Interactions
-You are solely responsible for your interactions with other users of the Service and any other parties with whom you interact through the Service and/or Powersource games. Powersource reserves the right, but has no obligation, to become involved in any way with these disputes. You will fully cooperate with Powersource to investigate any suspected unlawful, fraudulent or improper activity, including, without limitation, granting Powersource access to any password-protected portions of your Account.
-If you have a dispute with one or more users, you release us (and our officers, directors, agents, subsidiaries, joint ventures and employees) from claims, demands and damages (actual and consequential) of every kind and nature, known and unknown, arising out of or in any way connected with such disputes.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. Fees and Purchase Terms
-4.1.Purchases
-In the Service you may purchase, with "real world" money, a limited, personal, non-transferable, non-sublicensable, revocable license to use (a) "virtual currency", including but not limited to virtual cash or diamonds, all for use in Powersource games; (b) "virtual in-game items" (together with "virtual currency", "Virtual Items"); and (c) other goods or services ("Merchandise"). You are only allowed to purchase Virtual Items from us or our authorised partners through the Service, and not in any other way.
-Powersource may manage, regulate, control, modify or eliminate Virtual Items and/or Merchandise at any time, with or without notice. Powersource shall have no liability to you or any third party in the event that Powersource exercises any such rights.
-The transfer of Virtual Items and Merchandise is prohibited except where expressly authorized in the Service. Other than as expressly authorized in the Service, you shall not sell, purchase, redeem or otherwise transfer Virtual Items or Merchandise to any person or entity or attempt any of the aforesaid, including but not limited to Powersource, another user or any third party.
-ALL PURCHASES AND REDEMPTIONS OF VIRTUAL ITEMS MADE THROUGH THE SERVICE ARE FINAL AND NON-REFUNDABLE.
-The provision of Virtual Items for use in Powersource games is a service provided by Powersource that commences immediately upon acceptance by Powersource of your purchase.
-4.2. Payment of Fees
-You agree to pay all fees and applicable taxes incurred by you or anyone using an Account registered to you. Powersource may revise the pricing for the goods and services offered through the Service at any time. YOU ACKNOWLEDGE THAT Powersource IS NOT REQUIRED TO PROVIDE A REFUND FOR ANY REASON, AND THAT YOU WILL NOT RECEIVE MONEY OR OTHER COMPENSATION FOR UNUSED VIRTUAL ITEMS WHEN AN ACCOUNT IS CLOSED, WHETHER SUCH CLOSURE WAS VOLUNTARY OR INVOLUNTARY.
-5. Updates to the Service
-You understand that the Service is an evolving one. Powersource may require that you accept updates to the Service and to Powersource's games you have installed on your device or computer. You acknowledge and agree that Powersource may update the Service and Powersource games, with or without notifying you. You may need to update third party software from time to time in order to receive the Service and play Powersource games.
-6. Disclaimer of Warranties
-WITHOUT LIMITING Powersource'S LIABILITY UNDER SECTION 7 BELOW, THE SERVICE IS PROVIDED ON AN "AS IS" AND "AS AVAILABLE" BASIS FOR YOUR USE, WITHOUT WARRANTIES OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING WITHOUT LIMITATION THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE, NON-INFRINGEMENT, AND THOSE ARISING FROM COURSE OF DEALING OR USAGE OF TRADE. Powersource DOES NOT WARRANT THAT YOU WILL BE ABLE TO ACCESS OR USE      THE SERVICE AT THE TIMES OR LOCATIONS OF YOUR CHOOSING; THAT THE SERVICE WILL BE UNINTERRUPTED OR ERROR-FREE; THAT DEFECTS WILL BE CORRECTED; OR THAT THE GAME OR THE SERVICE ARE FREE OF VIRUSES OR OTHER HARMFUL COMPONENTS.
-Some jurisdictions do not allow the exclusion of certain warranties. Accordingly, some of the above disclaimers may not apply to you.
-7. Limitation of Liability; Sole and Exclusive Remedy; Indemnification
-TO THE MAXIMUM EXTENT PERMITTED BY LAW, Powersource SHALL NOT BE LIABLE TO YOU FOR ANY INDIRECT, INCIDENTAL, CONSEQUENTIAL, SPECIAL, PUNITIVE OR OTHER SIMILAR DAMAGES, INCLUDING BUT NOT LIMITED TO LOSS OF REVENUES, LOST PROFITS, LOST DATA OR BUSINESS INTERRUPTION OR OTHER INTANGIBLE LOSSES (HOWEVER SUCH LOSSES ARE QUALIFIED), ARISING OUT OF OR RELATING IN ANY WAY TO THESE TERMS OF SERVICE OR THE SERVICE ITSELF, WHETHER BASED ON CONTRACT, TORT OR ANY OTHER LEGAL THEORY, AND WHETHER OR NOT Powersource HAS BEEN ADVISED OF THE POSSIBILITY OF SUCH DAMAGES. TO THE EXTENT NOT PROHIBITED BY LAW, Powersource SHALL NOT BE LIABLE TO YOU FOR MORE THAN THE AMOUNT YOU HAVE PAID TO Powersource IN ACCORDANCE WITH THESE TERMS OF SERVICE IN THE SIX (6) MONTHS IMMEDIATELY PRECEDING THE DATE ON WHICH YOU FIRST ASSERT A CLAIM. YOU ACKNOWLEDGE AND AGREE THAT IF YOU HAVE NOT PAID ANYTHING TO Powersource DURING SUCH TIME PERIOD, YOUR SOLE REMEDY (AND Powersource'S EXCLUSIVE LIABILITY) FOR ANY DISPUTE WITH Powersource IS TO STOP USING THE SERVICE AND TO CANCEL YOUR ACCOUNT.
-NOTHING IN THESE TERMS OF SERVICE SHALL AFFECT THE STATUTORY RIGHTS OF ANY CONSUMER OR EXCLUDE OR RESTRICT ANY LIABILITY RESULTING FROM GROSS NEGLIGENCE OR WILLFUL MISCONDUCT OF Powersource OR FOR DEATH OR PERSONAL INJURY ARISING FROM ANY NEGLIGENCE OR FRAUD OF Powersource.
-You agree to indemnify, defend and hold Powersource (and our officers, directors, agents, subsidiaries, joint ventures and employees) harmless from any claim, demand, damages or other losses, including reasonable attorneys' fees, asserted by any third-party resulting from or arising out of your use of the Service, or any breach by you of these Terms of Service, however the foregoing does not apply if the infringement of rights is not attributable to your intentional or negligent behavior.
-8. Dispute Resolution and Law
-If a dispute arises between you and Powersource, we strongly encourage you to first contact us directly to seek a resolution by going to our customer support site at https://support.Powersource.com/. If you are a resident of the United States, these Terms of Service and any dispute arising out of or related to it or Privacy Policy or the Service shall be governed in all respects by California law, without regard to conflict of law provisions. You agree that any claim or dispute you may have against Powersource must be resolved exclusively by a court located in San Francisco, California. If you are a resident outside of the United States, you agree that all disputes between you and Powersource shall be governed by the laws of Finland, without regard to conflict of law provisions. You agree that any claim or dispute you may have against Powersource must be resolved exclusively by a court located in Helsinki, Finland.
-9. Severability
-You and Powersource agree that if any portion of these Terms of Service or of the Powersource Privacy Policy is found illegal or unenforceable, in whole or in part by any court of competent jurisdiction, such provision shall, as to such jurisdiction, be ineffective solely to the extent of such determination of invalidity or unenforceability without affecting the validity or enforceability thereof in any other manner or jurisdiction and without affecting the remaining provisions of the terms, which shall continue to be in full force and effect.
-10. General Provisions
-10.1. Assignment
-Powersource may assign or delegate these Terms of Service and/or the Powersource Privacy Policy, in whole or in part, to any person or entity at any time with or without your consent. You may not assign or delegate any rights or obligations under the Terms of Service or Privacy Policy without Powersource's prior written consent, and any unauthorized assignment and delegation by you is ineffective.
-10.2. Supplemental Policies
-Powersource may publish additional policies related to specific services such as forums, contests or loyalty programs. Your right to use such services is subject to those specific policies and these Terms of Service.
-10.3. Entire Agreement
-These Terms of Service, any supplemental policies and any documents expressly incorporated by reference herein (including the Powersource Privacy Policy), contain the entire understanding of you and Powersource, and supersede all prior understandings of the parties hereto relating to the subject matter hereof, whether electronic, oral or written, or whether established by custom, practice, policy or precedent, between you and us with respect to the Service.
-10.4. No Waiver
-The failure of Powersource to require or enforce strict performance by you of any provision of these Terms of Service or the Powersource Privacy Policy or failure to exercise any right under them shall not be construed as a waiver or relinquishment of Powersource's right to assert or rely upon any such provision or right in that or any other instance.
-The express waiver by Powersource of any provision, condition, or requirement of these Terms of Service or the Powersource Privacy Policy shall not constitute a waiver of any future obligation to comply with such provision, condition or requirement.
-Except as expressly and specifically set forth in this these Terms of Service, no representations, statements, consents, waivers, or other acts or omissions by Powersource shall be deemed a modification of these Terms of Service nor legally binding, unless documented in physical writing, hand signed by You and a duly appointed officer of Powersource.
-10.5. Notices
-We may notify you via postings on www.Powersource.com, and via e-mail or any other communications means to contact information you provide to us. All notices given by you or required from you under these Terms of Service or the Powersource Privacy Policy shall be in writing and addressed to: Powersource Oy. Attn: Legal, Itämerenkatu 11-13, FI- 00180 Helsinki, Finland. Any notices that you provide without compliance with this Section on Notices shall have no legal effect.
-10.6. Equitable Remedies
-You acknowledge that the rights granted and obligations made under these Terms of Service to Powersource are of a unique and irreplaceable nature, the loss of which shall irreparably harm Powersource and which cannot be replaced by monetary damages alone so that Powersource shall be entitled to injunctive or other equitable relief (without the obligations of posting any bond or surety or proof of damages) in the event of any breach or anticipatory breach by you.
-You irrevocably waive all rights to seek injunctive or other equitable relief, or to enjoin or restrain the operation of the Service or any Powersource game, exploitation of any advertising or other materials issued in connection therewith, or exploitation of the Service or any content or other material used or displayed through the Service and agree to limit your claims to claims for monetary damages, limited by Section 7 (if any).
-10.7. Force Majeure
-Powersource shall not be liable for any delay or failure to perform resulting from causes outside the reasonable control of Powersource, including without limitation any failure to perform hereunder due to unforeseen circumstances or cause beyond Powersource's control such as acts of God, war, terrorism, riots, embargoes, acts of civil or military authorities, fire, floods, accidents, strikes, or shortages of transportation facilities, fuel, energy, labor or materials.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kor|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUPERCELL 이용약관
-발효일 : 2020년 7월 1일
-본 약관(이하 "서비스 약관")은 귀하와 경기 성남시 분당구 이매로 35에 등록 사무소를 가진 회사(사업자 등록번호 2336509-6)인 파워소스스튜디오(이하 "Supercell" 또는 "당사") 사이에 있어서 귀하가 Supercell의 게임, 웹사이트 및 관련 서비스(이하 "서비스")를 이용하는 것에 관하여 적용됩니다. 또한 서비스의 이용에는 Supercell의 개인정보 보호정책과 기타 관련 정책들이 적용되는데, 이는 본 약관에 참조 형식으로 포함됩니다.
-서비스에 접속하거나 이를 이용(Supercell의 웹사이트를 방문하거나 게임에 접속하는 행위를 포함)하기 전에, 귀하는 본 서비스 약관과 개인정보 보호정책에 동의하여야 합니다. 또한 귀하는 서비스 계정(이하 "계정")을 등록할 필요가 있습니다. 계정을 등록하거나 서비스를 이용함으로써, 귀하는 귀하가 거주하는 국가의 미성년자가 아님을 표시하는 것입니다. 만일 귀하가 미성년자일 경우에는 귀하가 계정을 등록하거나 또는 서비스를 이용함으로써 귀하는 귀하의 법정 대리인이 본 약관을 검토하고 동의하였다는 의사표시를 한 것입니다. 만일 귀하가 Facebook 또는 Google+와 같은 소셜 네트워크 서비스(이하 "SNS")를 통하여 서비스에 접속하였다면, 귀하는 본 서비스 약관뿐만 아니라 SNS의 서비스 약관까지 준수해야 합니다.
-귀하가 서비스를 설치∙이용 또는 서비스에 접속함으로써, 귀하는 본 서비스 약관에 동의한 것입니다. 만일 귀하가 본 서비스 약관에 동의하지 않는다면, 서비스에의 접속 또는 서비스의 설치 또는 이용을 하지 않으시길 바랍니다. 서비스가 금지되는 경우 서비스의 이용은 무효입니다.
-Supercell은 관련 법령에 따라 Supercell의 서비스상에 변경된 조건들을 게재함으로써 본 서비스 약관과 당사의 개인정보 보호정책과 기타 관련 Supercell 정책들의 일부를 재량에 따라 변경∙수정∙추가 또는 제거할 권리를 가집니다. Supercell이 약관 및 개인정보보호정책을 변경할 경우, 변경된 내용은 Supercell이 고지한 적용일자에 효력을 발생합니다. Supercell은 적용일자로부터 최소한 7일 이전(이용자의 권리 및 의무에 중대하게 불리한 경우에는 30일 이전)에 적용일, 변경내용, 변경사유 등을 명시하여 Supercell의 웹사이트 또는 서비스 화면에 고지합니다. 귀하는 이에 대하여 거부의사를 표시할 수 있고, 거부의사의 표시 없이 서비스를 계속해서 이용하는 것은 그러한 변경을 수용하는 것으로 간주될 것입니다. 만일 귀하가 귀하의 서비스 이용과 관련된 당사의 현재 버전의 서비스 약관, 개인정보 보호정책, 또는 그 밖에 어떠한 정책, 규칙 또는 행동강령의 어느 한 부분에라도 동의하지 않는다면, 서비스를 이용할 수 있는 귀하의 라이선스는 즉시 종료되어야 하고, 귀하는 즉시 서비스의 이용을 중단해야 합니다.
-1. 라이선스
-1.1. 서비스 이용에 관한 제한적 라이선스의 허여
-본 서비스 약관과 그 밖에 관련된 Supercell의 정책들에 대한 귀하의 동의 및 지속적인 준수에 따라, Supercell은 귀하에게 양도 불가능하고, 비독점적이고, 2차 라이선스 허여가 불가능하고, 취소 가능하고, 귀하 자신의 비상업적∙오락적 목적으로의 접속과 이용에 한정되며, 제한된 라이선스를 허여합니다. 귀하는 그 밖의 다른 목적으로 서비스를 이용하지 않을 것에 동의합니다.
-이하의 제한들은 서비스의 이용에 적용됩니다.
- 미성년자가 법정대리인의 동의를 받지 않고 의무부담행위를 한 경우(예를 들면, 유료서비스 결제), 미성년자 또는 그 미성년자의 법정대리인은 해당계약을 취소할 수 있습니다.
-귀하는 귀하의 계정을 구매, 판매, 대여, 양도(혹은 이를 시도)하지 않고 거짓 신원 혹은 정보로 또는 타인을 대신하여 계정을 생성하지 않아야 합니다; 귀하가 사전에 Supercell에 의해 제명되었거나 다른 Supercell 게임의 플레이가 금지되었을 경우 서비스를 이용할 수 없습니다.
-귀하는 오로지 비상업적인 목적으로만 귀하의 계정을 이용하여야 합니다. 귀하는 광고, 호객행위, 상업적 광고들의 전송(행운의 편지, 스팸메일 또는 누군가에 대한 반복적이거나 허위의 메시지 전송을 포함) 목적으로 서비스를 이용할 수 없습니다.
-로그인 정보 및 계정
-귀하는 귀하의 계정에 대한 암호를 선택할 것을 요구 받게 되거나 계정 접속을 위해 다른 비밀 정보를 사용할 수도 있습니다(이하 "로그인 정보"). 귀하는 계정 또는 로그인 정보를 타인과 공유할 수 없고, 타인으로 하여금 귀하의 계정에 접근하거나 그 밖에 귀하의 계정의 보안을 위협하는 어떠한 행위를 하도록 허락할 수 없습니다. 귀하가 보안사고를 알게 되거나 합리적으로 보안사고를 의심할만한 상황을 인지하게 될 경우(로그인 정보의 손실, 도난 또는 무단 공개를 포함하나, 이에 한정되지 아니함), 귀하는 즉시 Supercell에 해당 사실을 통지하고 귀하의 로그인 정보를 수정하여야 합니다. 귀하의 로그인 정보의 비밀유지는 전적으로 귀하가 책임져야 하고, 귀하는 귀하의 로그인 정보에 관한 모든 이용행위(구매행위를 포함하며, 귀하의 승인을 받았는지 여부는 불문함)에 대하여 책임을 부담합니다. 귀하는 귀하의 계정을 통하여 발생하는 모든 사안에 대하여 책임을 부담합니다.
-Supercell은 언제든지, 그리고 어떠한 이유로든지(어떠한 이용자명이 제3자의 권리를 침해하였다는 제3자의 주장을 포함하나, 이에 한정되지 아니함), 어떠한 이용자명도 제거하거나 회수할 권리를 가집니다.
-본 서비스는 지원기기의 게임당 하나의 계정만을 지원합니다.
-라이선스의 제한
-본 라이선스의 제한을 위반한 상태에서의 모든 서비스의 이용은 엄격하게 금지되고, 귀하의 제한된 라이선스는 즉시 취소될 수 있으며, 귀하는 위법행위에 대하여 책임을 져야 할 수도 있습니다.
-귀하는 어떤 상황에서도 다음과 같은 행위를 하지 않을 것에 동의합니다.
-Supercell의 서비스 정신 또는 서비스 의도에 반하는 것으로 Supercell이 간주하는 행위 또는 Supercell의 지원 서비스를 부적절하게 이용하는 행위
-Supercell의 게임 또는 게임경력을 변경하거나 방해하도록 설계된 치트, 엑스플로잇, 자동화 소프트웨어, 에뮬레이터, 보트, 해킹 프로그램, 유저제작게임 또는 그 밖에 승인되지 않은 제3자 소프트웨어를 이용 혹은 이용(직, 간접적)에 참여하거나, 서비스 또는 Supercell 게임의 일부 파일을 변경하거나 변경하도록 하는 행위
-서비스의 일반적인 흐름에 지장을 주거나 방해 또는 이에 부정적인 영향을 주는 행위나 서비스의 이용이나 Supercell의 게임 플레이에서 다른 사용자의 경험에 부정적인 영향을 주는 방식의 행동. 이는 몰아주기와 같은 순위 조작과 관련된 모든 행동, 서비스 오류를 통해 다른 플레이어들로부터 부당한 이득을 얻는 행동, 서비스 내용에 대한 의도적인 악용 및 이에 반하는 행동들을 포함합니다.
-서비스 또는 Supercell의 게임 환경을 제공하거나 지원하는 데에 사용되는 컴퓨터 또는 서버(이하 "서버")에 과부하를 걸거나 방해를 주거나 또는 이러한 과부하 또는 방해행위를 지원하는 행위
-공격행위(바이러스의 배포, 서비스에 대한 거부 공격, 또는 그 밖에 서비스 또는 제3자의 서비스 이용을 방해하고자 하는 행위를 포함하나, 이에 한정되지 아니함)를 개시하거나, 지원하거나, 또는 그에 관여하는 행위
-서비스, 타인 또는 다른 컴퓨터에 등록된 계정, 서버 또는 서비스에 연결된 네트워크에 대해 Supercell로부터 제공된 이용자 인터페이스가 아닌 다른 수단을 통해 승인되지 않은 접속을 시도하는 행위(서비스의 일부분인 보안, 기술, 기기 또는 소프트웨어를 변경 또는 우회하거나 그러한 시도를 하는 행위 또는 그러한 변경이나 우회를 하는 누군가를 지원하거나 방조하는 행위를 포함하나, 이에 한정되지 아니함)
-권리남용적이거나 위협적이거나 음란하거나 타인의 명예를 훼손하거나 비방하거나 인종∙성별∙종교적 또는 그 밖의 이유로 부당하거나 불쾌한 정보를 게시하는 행위 또는 원치 않는 모든 사람들에게 반복적으로 정보를 게시하는 것과 같이 지속적인 이러한 해독행위들에 관여하는 것
-나체, 과도한 폭력 또는 불쾌한 주제를 포함한 정보 또는 그러한 내용에 관한 링크를 게시하는 행위
-Supercell의 고객 서비스 대리인을 포함하여 Supercell의 피용자를 포함한 타인이나 그룹을 희롱하거나 괴롭히거나 해를 끼치는 행위 또는 그러한 희롱 또는 가해를 시도하거나 조장하는 행위
-서비스를 통하여 타인인 개인 또는 법인의 저작권, 상표, 특허, 영업비밀, 프라이버시권, 퍼블리시티권 또는 기타 권리를 침해하거나 타인(Supercell의 피용자를 포함하나, 이에 한정되지 아니함)을 사칭하는 자료 또는 정보를 사용할 수 있도록 하는 행위
-서비스 또는 Supercell의 게임을 제공하기 위하여 사용된 근본 소프트웨어 또는 다른 지적 재산권의 소스 코드를 추출하기 위하여, 또는 Supercell이 명시적으로 허용하지 않은 방법을 사용하여 서비스 또는 Supercell 게임으로부터 정보를 얻기 위하여 역설계, 역컴파일, 역어셈블, 해독행위 또는 기타 이를 위한 시도를 하는 행위
-서비스 또는 Supercell 게임의 다른 이용자로부터 로그인 정보나 기타 로그인을 위한 비밀 정보 또는 개인정보를 구하거나 구하려는 시도를 하는 행위
-서비스를 통하여 누군가의 사적인 정보{개인신원정보(문자, 이미지, 또는 비디오와 같은 형태 불문함), 신원확인 문서, 또는 재무정보를 포함}를 수집하거나 게시하는 행위
-수수료 또는 판돈의 개입 여부를 불문하고, 귀하가 플레이어로서 참가하는 경기의 결과에 대해 배팅하는 행위를 포함해 도박, 배팅 또는 (직접적 또는 간접적으로) 상 또는 보상이 획득될 수 있는 유사한 활동을 위해 Supercell 게임을 이용하는 행위
-Supercell은 어떠한 행위가 이용규칙 위반에 해당되거나 본 서비스 약관 및 본 서비스 약관의 의도 또는 정신을 이탈하는 것인지 여부를 결정할 권리를 가집니다. Supercell은 그 결정의 결과로서 조치를 취할 권리를 가지며 여기에는 귀하의 계정을 종료시키고 귀하의 서비스 이용을 전부 또는 일부를 금지하는 것이 포함됩니다.
-1.2. 계정과 서비스의 중단 및 종료
-만일 귀하가 본 서비스 약관을 준수하지 않거나 또는 서비스를 불법으로 또는 부적절하게 이용하거나, 또는 Supercell이 귀하의 약관 미준수, 위법하거나 부적절한 이용행위를 의심할만한 사정이 있는 경우(이하 총칭하여 "이용자 의무위반 행위")에는, Supercell은 귀하에게 통지하고 귀하의 서비스 또는 그 일부에 대한 접속 또는 귀하의 계정을 제한∙중단∙변경∙삭제(이하 "이용제한 조치")할 수 있습니다. Supercell은 이용자 의무위반 행위에 대하여 위반행위의 내용, 정도, 횟수, 결과 등 제반 사정을 고려하여 차등하여 서비스 이용제한 조치를 취할 수 있고, 이는 Supercell의 다른 권리구제수단을 제한하지 않습니다. 계정종료 또는 제한의 결과로, 귀하는 귀하의 서비스 이용과 관련된 이익, 특권, 획득한 아이템들과 구매한 아이템들뿐만 아니라 귀하의 서비스 내 이용자명과 캐릭터를 상실할 수 있고, Supercell은 이러한 손해 또는 결과에 관하여 귀하에게 배상할 책임이 없습니다.
-당사는 이용자가 위험 또는 법률상 책임을 창출하거나, 제3자의 지적재산권을 침해하거나, 또는 당사의 약관이나 정책의 문언 또는 정신에 반하는 행위를 하는 것으로 판단될 경우에는 서비스와 이용자 계정 또는 그 일부분을 제한∙중단 또는 해지할 수 있고, 당사의 게임∙사이트 및 그 콘텐츠∙서비스∙툴에의 접속을 금지할 수 있으며, 제공되는 콘텐츠를 제거하거나 지연시킬 수 있고, 해당 이용자의 서비스 접속을 막기 위한 기술적∙법률적 조치를 취할 수 있습니다(이는 Supercell의 다른 권리구제수단을 제한하지 않음). 또한, 당사는 적절한 상황 하에서 전적으로 당사의 재량에 따라, 제3자의 지적재산권을 반복적으로 침해할 여지가 있는 이용자의 계정을 중단하거나 해지시킬 수 있습니다.
-Supercell은 180일 이상 휴면 중인 계정을 해지시킬 권리를 가집니다.
-Supercell은 언제든지 서비스 또는 특정 게임 또는 서비스 일부의 제공 및/또는 지원을 중단할 권리를 가지고, 그와 동시에 서비스 또는 그 일부를 이용할 수 있는 귀하의 라이선스는 자동으로 종료됩니다. 이러한 경우, Supercell은 이용자에 대하여 서비스의 중단으로 인한 환불∙보상∙배상을 할 책임을 부담하지 않습니다. 귀하의 계정의 해지에는 서비스 또는 그 일부(귀하 또는 타인이 제출한 콘텐츠를 포함)에 대한 귀하의 접속을 불가능하게 하는 것도 포함될 수 있습니다.
-귀하는 당사의 지원페이지https://support.supercell.com/ 에 설명된 절차에 따라 Supercell에 대하여 귀하의 계정을 해지하고자 하는 의사를 통지함으로써 언제든지, 어떠한 이유로든지 귀하의 계정을 해지할 수 있습니다. 계정 해지시는 Supercell이 제공하는 서비스 이용 및 접속이 불가능하며, 귀하가 이용하던 콘텐츠 정보는 모두 삭제되어 복구가 불가능합니다.
-2. 소유권
-2.1. 게임과 서비스
-서비스에 관한 모든 권리, 소유권, 이익(게임, 출판물, 컴퓨터 코드, 테마, 물건, 캐릭터, 캐릭터명, 스토리, 다이얼로그, 캐치프레이즈, 콘셉트, 삽화, 애니메이션, 음향, 음악구성형식, 시청각적 효과, 작동방법, 저작인격권, 서류, 게임상의 채팅기록, 캐릭터 프로필 정보, Supercell의 게임 클라이언트를 이용한 게임 플레이 기록, Supercell의 게임 클라이언트와 서버 소프트웨어를 포함하나, 이에 한정되지 아니함)은 Supercell이 소유합니다. Supercell은 당사의 게임 및 서비스에 관한 모든 권리(지적재산권 또는 그 밖의 소유권을 포함하나, 이에 한정되지 아니함)를 가집니다.
-2.2. 계정
-어떠한 경우에도, 귀하는 귀하가 계정에 대한 소유권 또는 그 밖의 재산상 이익을 가지지 않음을 인정하고 동의하며, 나아가, 귀하는 계정상의 또는 계정에 대한 모든 권리는 영구적으로 Supercell이 소유하고 Supercell의 이익을 위하여만 유효함을 인정하고 동의합니다.
-2.3. 가상 아이템들
-Supercell은 Supercell의 게임 또는 서비스상의 모든 콘텐츠를 소유하고, 라이선스를 허여하며 기타 이를 이용할 권리를 가집니다. 어떠한 경우에도, 귀하는 서비스상의 어떠한 콘텐츠(Supercell의 게임에서 발생하거나 나타나는 가상의 물품 또는 통화(게임상에서 획득하였거나 Supercell로부터 구매하였는지 여부를 불문함) 또는 계정과 결부되거나 서비스상에 저장된 부수물을 포함하나, 이에 한정되지 아니함)에 대하여 아무런 권리 또는 소유권을 가지지 않음에 동의합니다.
-3. 이용자 콘텐츠
-3.1 이용자 콘텐츠 개진
-"이용자 콘텐츠"는 의사소통, 이미지, 음향, 그리고 모든 자료, 데이터, 그리고 귀하 또는 다른 이용자들이 Supercell 게임 클라이언트 또는 서비스를 통하여 업로드하거나 전송한 정보(채팅 텍스트를 포함하나, 이에 한정되지 아니함)를 의미합니다. 서비스를 이용하는 동안 어떠한 이용자 콘텐츠를 전송 또는 제출함으로써, 귀하는 그러한 전송 또는 제출행위가 (a)정확하고, 비밀이 아니며, (b) 법률 또는 계약상의 제한 또는 그 밖의 제3자의 권리를 위반하지 아니하고, 또한 귀하가 이용자 콘텐츠를 구성하는 개인정보 또는 지적재산권의 소유자인 제3자로부터 허락을 받았으며, (c) 바이러스, 애드웨어, 스파이웨어, 웜 바이러스 또는 그 밖의 악성코드가 없다는 것을 확인하고 진술 및 보증하며, (d) 그러한 콘텐츠 내의 귀하의 개인정보는 언제나 Supercell의 개인정보 보호정책에 따라 처리됨을 인정하고 이에 동의합니다.
-3.2. 콘텐츠 심사
-Supercell은 이용자 콘텐츠를 제출하는 이용자의 행위에 대하여 어떠한 책임도 지지 않고, 부적절한 콘텐츠 또는 행위에 대하여 서비스를 감시할 어떠한 책임도 지지 않습니다. 당사는 모든 이용자 콘텐츠를 사전에 심사하거나 감시할 수 없고 심사 또는 감시하지도 않습니다. 귀하의 서비스 이용에 따른 위험은 귀하 자신이 부담합니다. 서비스를 이용함으로써 귀하는 불쾌하고, 외설적이거나 귀하의 기대에 부응하지 않는 이용자 콘텐츠에 노출될 수 있습니다. 귀하는 서비스와 연결되어 사용 가능한 모든 이용자 콘텐츠의 사용과 관련된 일체의 위험을 부담합니다. 당사의 재량에 따라, 귀하의 서비스 이용 시 당사의 대리인 또는 당사의 기술에 의하여 귀하의 서비스와의 상호작용 또는 의사소통(채팅 텍스트를 포함하나 이에 한정되지 아니함)을 관찰 및/또는 기록할 수 있습니다.
-본 서비스 약관을 체결함으로써 귀하는 이러한 관찰과 기록에 대하여 취소할 수 없는 동의를 하는 것입니다. 귀하는 채팅 텍스트 또는 음성 의사소통을 포함하여 이용자 콘텐츠의 전송과 관련하여 프라이버시를 기대하지 않음을 인정하고 동의합니다.
-Supercell은 어떠한 근거에 대한 공지 없이 혹은 언제든지 별다른 이유 없이 재량으로 사용자 콘텐츠(귀하의 사용자 콘텐츠에 대한 제한 없이 이를 포함하여)에 대한 검토, 관찰, 금지, 편집, 삭제, 접속 금지 또는 이를 이용할 수 없도록 할 권한을 갖습니다. Supercell이 전적으로 당사의 재량에 따라 서비스를 관찰하기로 결정한 경우에도, Supercell은 이용자 콘텐츠에 대하여 어떠한 책임도 부담하지 아니하고, 부적절한 이용자 콘텐츠를 수정 또는 제거할 의무를 부담하지도 않습니다. 당사는 당사의 전적인 재량 하에 이용자 콘텐츠를 편집하고, 전송을 거부하거나 제거할 권리를 가지고 있으나, 그러한 의무를 부담하지는 않습니다.
-3.2. 서비스의 다른 이용자들에 의한 정보 이용
-3.2.1. 공시
-지정된 주제에 관한 귀하의 논평과 언급을 포함하여 귀하가 이용자 콘텐츠를 게시할 수 있는 다양한 포럼, 블로그, 그리고 채팅 기능이 서비스에 포함될 수 있습니다. Supercell은 귀하가 공유하는 아이디어와 정보를 다른 이용자들이 이용하지 않으리라는 점을 보증하지 않습니다. 따라서 만일 귀하가 비밀을 유지하고자 하는 정보 또는 아이디어를 가지고 있고 또는/그리고 다른 사람들이 이를 이용하지 않기를 바란다면, 이를 서비스에 게시하지 마십시오. Supercell은 귀하가 제출하기로 결정한 아이디어 또는 정보를 평가하거나 이용하거나 그와 관련하여 귀하에게 배상할 책임을 지지 않습니다.
-3.2.2. 귀하 소유의 콘텐츠에 대한 책임
-귀하는 귀하가 서비스상에 또는 서비스를 통하여 또는 서비스와 관련하여 게시하거나 또는 타인에게 제공한 정보에 대하여 전적으로 책임을 집니다. Supercell은 어떠한 이유로든지 또는 아무 이유 없이도 이용자 콘텐츠(Supercell의 전적인 판단에 따랐을 때 본 서비스 약관을 위반하는 이용자 콘텐츠를 포함하나, 이에 한정되지 아니함)를 거절하거나 게시를 거부하거나 이를 삭제할 수 있습니다.
-3.3. Supercell에 대한 귀하의 라이선스
-귀하는 이로써 Supercell에 대하여 취소할 수 없고, 영구적이며, 이전 가능하며, 전액 완납된, 로열티가 부과되지 않는, 전 세계적인 라이선스(2차 라이선스권과 제3자에 대한 양도권을 포함)와, 당사의 서비스 제공과 관련된 귀하의 이용자 콘텐츠뿐만 아니라 그에 관한 모든 변경되고 파생된 가공물을 복사∙복제∙재생성∙수리∙조정∙변경∙2차적저작물 생성∙제조∙상업화∙퍼블리싱∙배포∙판매∙라이선스∙2차 라이선스∙이전∙리스∙전송∙공개적인 전시∙공개적인 공연∙전자적 접속의 제공∙방송∙전기통신에 의한 대중과의 의사소통∙전시∙공연∙컴퓨터 메모리에의 입력, 그리고 어떠한 방식으로든지 이용 및 실행(서비스의 마케팅과 프로모션을 포함)할 권리를 허여합니다. 또한 귀하는 Supercell이 본 서비스 약관에 따라 Supercell에게 허여된 권리를 행사할 권한을 타인에게 부여할 수 있음을 허여합니다. 나아가 귀하는 Supercell에게, 귀하에 대하여 어떠한 의무도 부담함이 없이, 귀하의 성명, 초상, 그리고 그 밖에 이용자 콘텐츠에 포함되거나 그와 연관된 정보 또는 자료를 이용하고 활용할 무조건적이고 취소 불가능한 권리를 허여합니다. 법률에 의하여 금지되지 않는 한, 귀하의 이용자 콘텐츠가 어떠한 방식으로 수정 또는 변경되건 간에, 귀하는 귀하의 이용자 콘텐츠에 대하여 귀하가 가질 수 있는 모든 소유권 및/또는 저작인격권을 포기합니다. Supercell은 귀하의 이용자 콘텐츠에 대하여 어떠한 소유권도 주장하지 않고 본 서비스 약관은 귀하가 귀하의 이용자 콘텐츠를 이용하고 활용할 권리를 제한하지 않습니다. Supercell은 귀하의 이용자 콘텐츠에 대한 귀하의 지적 재산권을 감시하거나 집행할 의무를 부담하지 않습니다
-3.4. 이용자 상호작용
-귀하는 서비스의 다른 이용자들 및 서비스 및/또는 Supercell 게임을 통하여 귀하가 상호작용하는 다른 당사자들과의 상호작용에 대하여 전적으로 책임을 부담합니다. Supercell은 이러한 분쟁에 관여할 권리를 가지지만 그러한 의무는 부담하지 않습니다. 위법하거나 사기적이거나 또는 부적합하다고 의심받는 활동에 관한 Supercell의 조사에 귀하는 전적으로 협력(Supercell이 귀하의 계정의 암호로 보호받는 부분에 접속하는 것을 승인하는 것을 포함하나, 이에 한정되지 아니함)합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 수수료와 구매 조건
-4.1. 구매
-귀하는 현실세계의 화폐로 서비스상에서 (a) Supercell 게임들에서 사용되기 위한 "가상 화폐"(가상의 현금 또는 다이아몬드를 포함하나 이에 한정되지 아니함), (b) "가상의 게임상 아이템"("가상 화폐"와 총칭하여 "가상 아이템"이라 함), 그리고 (c) 다른 상품 또는 용역(이하 "상품")을 이용할 수 있는 제한되고, 개인적이며, 양도 불가능하고, 2차 라이선스 발급이 불가능하며, 취소 가능한 라이선스를 구매할 수 있습니다. 귀하는 가상 아이템을 Supercell 또는 Supercell의 승인을 얻은 파트너사들의 서비스를 통해서만 구매할 수 있으며 기타 방법으로는 구매가 불가능합니다.
-Supercell의 서비스를 통해 가상 아이템, 상품 등의 구매 시, 구매대금은 이동통신사, 당사의 게임을 설치하고 결제할 수 있도록 제공하는 오픈마켓 등의 전자상거래 제공자(게임 내 결제 제공 사업자 포함)(예: Google Play App Store, Apple App Store 등, 이하 "App Store 사업자") 및 결제업체에서 정하는 정책과 방식에 따라 한도가 결정되고 결제가 진행됩니다. 결제가격 중 외화 결제 시 환율 및 앱스토어 사업자의 수수료 등으로 예상지불 금액과 실제 청구금액에 차이가 발생할 수 있습니다.
-Supercell 게임에서 사용될 가상 아이템의 공급은 Supercell이 제공하는 서비스로서 귀하의 구매를 Supercell이 승낙함에 따라 즉시 개시됩니다.
-Supercell은 언제든지 통지를 제공하거나 제공하지 않고 가상 아이템 및/또는 상품을 관리∙규제∙통제∙변경∙제거할 수 있습니다. Supercell이 이러한 권리를 실행하는 경우, Supercell은 어떠한 경우에도 귀하 또는 제3자에 대하여 어떠한 책임도 부담하지 않습니다.
-가상 아이템과 상품의 이전은 서비스상에서 명시적으로 허용되는 경우 외에는 금지됩니다. 서비스상에서 명시적으로 허용되는 경우 외에는 귀하는 가상 아이템 또는 상품을 타인 또는 법인(Supercell, 다른 이용자 또는 그 밖의 제3자를 포함하나, 이에 한정되지 아니함)에게 판매하거나 구매하거나 교환하거나 달리 이전 혹은 이를 시도해서는 안 됩니다.
-귀하가 가상 아이템 또는 상품을 구매한 경우, 귀하는 본 약관이나 기타 거래조건에서 달리 정하지 아니하는 한, 귀하가 구매에 관한 내용을 통지를 받은 날(귀하가 그 통지를 받은 이후에 가상 아이템 또는 상품을 공급받은 경우에는 가상 아이템 또는 상품을 공급받은 날)로부터 7일 이내에는 Supercell이 정한 절차를 통해 구매를 취소할 수 있습니다. 다만 귀하가 가상 아이템 또는 상품을 사용 또는 일부 소비한 경우 및 기타 해당되는 경우에는 구매를 취소할 수 없습니다.
-다만 위 규정에도 불구하고, 귀하는 가상 아이템 또는 상품의 내용이 표시·광고 내용과 다르거나, 계약내용과 다르게 이행된 때에는 당해 제품 또는 기타상품을 공급받은 날로부터 3개월 이내, 그 사실을 안 날 또는 알 수 있었던 날로부터 30일 이내에 구매를 취소할 수 있습니다.
-구매 취소에 따른 환불이 접수되면 Supercell은 접수신청 내용이 정당한지 여부를 심사하고, 귀하가 이용하는 앱스토어 사업자의 환불 운영정책 및 절차에 따라 환불을 진행합니다. 심사를 통해 환불이 결정된 경우에는 환불 가능 잔액을 산출하여 환불합니다.
-귀하가 구매를 취소한 경우, Supercell은 구매 취소된 가상 아이템 또는 상품을 회수 또는 삭제합니다. Supercell은 가상 아이템 또는 상품이 회수 또는 삭제된 날로부터 3영업일 이내에 앱스토어 사업자에 대한 취소요청 등의 필요한 환불절차를 개시하고, 당사가 환불절차의 개시를 지연하는 때에는 그 지연기간에 대하여 관련법령에 따른 지연이자율을 곱하여 지연이자를 지급합니다.
-4.2. 수수료의 지급
-귀하는 귀하 또는 귀하에게 등록된 계정을 이용하는 누군가에 의하여 발생하는 모든 비용과 해당 세금을 지급하는 것에 동의합니다. Supercell은 언제든지 서비스를 통하여 제공되는 상품과 용역의 가격을 수정할 수 있습니다. 귀하는 계정이 자발적 또는 비자발적으로 폐쇄되었을 때, 미사용 가상 아이템에 관하여 현금을 수령하거나 또는 다른 배상을 받지 않는다는 점을 인정합니다.
-5. 서비스의 업데이트
-귀하는 서비스가 진화하고 있음을 이해합니다. Supercell은 귀하에 대하여 서비스 및 귀하의 장치나 컴퓨터에 설치된 Supercell 게임에 대한 업데이트를 수용할 것을 요구할 수 있습니다. 귀하는 Supercell이 귀하에게 통지를 하거나 통지하지 아니하고도 서비스 및 Supercell 게임을 업데이트할 수 있음을 인정하고 동의합니다. 귀하는 서비스를 받고 Supercell 게임을 실행하기 위하여 때때로 제3자의 소프트웨어를 업데이트해야 할 수도 있습니다.
-6. 보증의 부인
-하기 제7항에 따른 Supercell의 책임을 제한하지 아니하고, 서비스는 어떠한 종류의 명시적∙묵시적 보증(상품성, 특정 목적에의 적합성, 소유권 및 비침해에 대한 보증, 그리고 거래과정 또는 거래관습상 발생하는 보증들을 포함하나, 이에 한정되지 아니함)도 없이, 귀하의 이용을 위하여 "있는 그대로", 그리고 "이용 가능한대로" 제공됩니다. Supercell은 귀하가 선택하는 시간 또는 장소에서 서비스에 접속하거나 서비스를 이용할 수 있을 것이라고 보증하지 않습니다. 또한 Supercell은 서비스가 방해받지 않거나 서비스에 에러가 발생하지 않음을 보증하지 않고, 결함이 수정될 것이라고 보증하지도 않으며, 게임 또는 서비스에 바이러스 또는 그 밖의 유해한 요소가 없다고 보증하지도 않습니다.
-일부 관할 구역에서는 특정 보증의 제외를 허가하지 않습니다. 따라서, 위의 부인 중 일부는 귀하에게 적용되지 않을 수 있습니다.
-7. 책임의 제한; 유일하고 배타적인 구제수단; 손해배상
-Supercell은 계약에 근거하든지 불법행위에 근거하든지 또는 그 밖의 법률 이론에 근거하든지 간에, 또한 Supercell이 그러한 손해의 가능성에 관하여 조언을 받았는지 여부와 무관하게 본 서비스 약관 또는 서비스 그 자체에 관련되거나 그로부터 발생하는 간접적∙부수적∙결과적 손해, 특별손해, 징벌적 또는 그 밖에 그와 유사한 손해(매출의 손실, 이익의 손실, 데이터의 손실, 사업 방해 또는 그 밖의 무형의 손실(이러한 손실에 어떻게 단서가 달리든지 불문함)을 포함하나, 이에 한정되지 아니함)에 대하여 귀하에게 책임지지 않습니다. Supercell은 귀하가 최초로 청구권을 주장한 날로부터 직전 6개월 이내에 귀하가 본 서비스 약관에 따라 Supercell에 대하여 지급한 금액을 초과하여 책임지지 않습니다. 귀하는 귀하가 위 기간 동안 Supercell에 대하여 아무것도 지급하지 않은 경우에는, Supercell과의 모든 분쟁에 있어서 귀하의 유일한 구제수단(그리고 Supercell의 배타적인 책임)은 서비스의 이용을 중단하고 귀하의 계정을 취소하는 것임을 인정하고 동의합니다.
-일부 재판관할에서는 특정한 종류의 손해에 대한 책임의 배제 또는 제한 또는 특정한 보증의 배제를 허용하지 않습니다. 그에 따르면, 상기 부인과 제한 중 일부는 귀하에게 적용되지 않을 수도 있습니다. 관련법상 Supercell이 본 서비스 약관에 명시된 바와 같이 보증을 부인하거나 책임을 제한할 수 없게 되는 한도 내에서 이러한 보증의 범위 및 Supercell의 책임 한도는 해당 관련법하에서 허용되는 최소한도가 됩니다. 특히, 본 서비스 약관은 소비자의 성문법상의 권리에 영향을 미치지 아니하고, Supercell의 과실 또는 사기로 인하여 발생한 사망 또는 신체적 상해에 대한 책임을 배제하거나 제한하지 않습니다.
-귀하는 귀하의 서비스 이용 또는 귀하의 본 서비스 약관 위반행위(그러나 귀하의 고의 또는 과실에 기인하지 않은 권리침해의 경우는 제외함)로부터 발생하는 제3자가 제기하는 청구, 요구, 손해 또는 그 밖의 손실(합리적인 변호사 비용을 포함)로부터 Supercell(및 당사의 담당자, 관리자, 대리인, 자회사, 합작 회사, 직원들)을 면책, 방어하고 해를 입지 않도록 하며 손해를 배상할 것에 동의합니다.
-8. 분쟁 해결과 준거법
-귀하와 Supercell 사이에 분쟁이 발생할 경우, 해결책을 강구하기 위해 우선 당사의 고객 지원 사이트 https://support.supercell.com/를 통하여 당사와 직접 접촉할 것을 강력히 권장합니다. 만일 귀하가 미국 거주자라면, 본 서비스 약관과, 본 서비스 약관, 개인정보 보호정책 또는 서비스로부터 또는 그와 관련하여 발생하는 분쟁은 모든 면에서 국제사법 조항을 제외하고 캘리포니아 법에 의해 규율됩니다. 귀하는 Supercell을 상대로 귀하가 제기하는 일체의 청구 또는 분쟁은 캘리포니아주, 샌프란시스코 소재 법원에서 배타적으로 해결된다는 것에 동의합니다. 만일 귀하가 미국 이외의 지역의 거주자라면, 귀하는 귀하와 Supercell 사이의 모든 분쟁은 국제사법 조항을 제외하고 핀란드 법에 의해 규율된다는 것에 동의합니다.
-9. 분리가능성
-귀하와 Supercell은, 본 서비스 약관 또는 Supercell 개인정보 보호정책의 일부가 전부 또는 부분적으로 어떠한 관할법원에서 불법이거나 또는 집행이 불가능하다고 판명될 경우, 그러한 조항은 해당 관할에 대하여 그 무효 또는 집행불능의 결정의 범위 내에서만 효력이 없으나, 이는 다른 방식으로나 또는 다른 관할에서의 해당 조항의 유효성 또는 집행 가능성에는 영향을 미치지 아니하고, 약관의 그 밖의 다른 조항의 유효성 및 집행 가능성에도 영향을 미치지 않음에 동의합니다.
-10. 일반 조항
-10.1. 양도
-Supercell은 귀하의 동의 여부와 무관하게, 언제든지 본 서비스 약관 및/또는 개인정보 보호정책의 전부 또는 일부를 어떠한 개인 또는 법인에게 양도 또는 위임할 수 있습니다. 귀하는 Supercell의 사전 서면 동의 없이는 서비스 약관 또는 개인정보 보호정책 상의 권리 또는 의무를 양도 또는 위임할 수 없고, 승인받지 아니한 귀하의 양도 또는 위임은 무효입니다.
-10.2. 추가 정책
-Supercell은 포럼, 대회 또는 고객보상 프로그램과 같은 특별한 서비스에 관련된 추가적인 정책을 공포할 수 있습니다. 그러한 서비스의 이용에 관한 귀하의 권리는 본 서비스 약관과 이들 특별 정책의 적용을 받습니다.
-10.3. 완전한 합의
-본 서비스 약관, 추가 정책 및 본 서비스 약관에서 언급함으로써 명시적으로 포함된 문서들(Supercell 개인정보 보호정책 포함)은 귀하와 Supercell의 완전한 이해를 포함하고, 본 약관의 주제에 관한 귀하와 당사 간의 모든 사전의 이해(그것이 전자적 방식이나 구두 또는 서면에 의하였는지, 또는 귀하와 당사간에 서비스와 관련하여 관습, 실무, 또는 정책 또는 선례에 의해 확립되었는지 여부를 불문함)를 대체합니다.
-10.4. 권리포기의 부존재
-Supercell이 귀하로 하여금 본 서비스 약관 또는 Supercell 개인정보 보호정책의 어떠한 규정을 엄격하게 이행하도록 요구하거나 그 이행을 집행하지 않았다거나 또는 Supercell이 약관상의 권리를 미실행한 사실이 그러한 상황 또는 그 밖의 경우에 Supercell이 해당 규정이나 권리를 주장하거나 그러한 규정이나 권리에 의지할 권리를 포기하거나 양도하는 것으로 해석될 수 없습니다.
-본 서비스 약관 또는 Supercell 개인정보 보호정책의 어떠한 조항, 조건, 또는 요건에 대한 Supercell의 명시적인 포기의 의사표시가 장래에 있어서도 그러한 조항, 조건 또는 요건을 준수할 의무에 대한 포기로 간주되어서는 안됩니다.
-본 서비스 약관에 명시적으로 특정하여 기재된 경우를 제외하고는, 귀하와 적법하게 지명된 Supercell의 담당자가 수기로 서명한 물리적인 서면 문서로 작성되지 않는 한 Supercell의 어떠한 진술, 성명, 동의, 포기 또는 그 밖의 행위 또는 누락도 본 서비스 약관의 수정으로 간주되지 않고, 법률적으로 구속력을 가지지도 않습니다.
-10.5. 통지
-당사는 www.supercell.com 에의 게재, 그리고 귀하가 당사에 제공한 연락처 정보로 이메일 또는 그 밖의 의사소통 수단을 통하여 귀하에게 통지할 수 있습니다. 본 서비스 약관 또는 Supercell 개인정보 보호정책 하에서의 귀하로부터의 모든 통지는 다음 주소로 서면으로 이루어져야 합니다: Supercell Oy. Attn: Legal, Itämerenkatu 11-13, FI-00180 Helsinki, Finland. 통지에 관한 본 항을 준수하지 아니하고 귀하가 제공하는 모든 통지는 법률적으로 효력이 없습니다.
-10.6. 형평법상의 구제수단
-귀하는, Supercell에 대한 본 서비스 약관상의 권리 및 의무가 유일무이하고 대체 불가능하며, 그러한 권리 및 의무의 손실은 Supercell에게 회복 불가능한 손실을 가하고, 그러한 손실은 금전적 손해배상만으로 충당할 수 없으므로, 따라서 Supercell은 귀하의 계약 위반 시 또는 귀하의 계약위반이 예상되는 경우에 보전처분 또는 기타 형평법상의 구제수단(보석금이나 보증금 또는 손해에 대한 증명을 제공할 의무 없이)을 실행할 권한을 가짐을 인정합니다.
-귀하는 보전처분 또는 그 밖의 형평법상의 구제수단을 구할 권리, 또는 서비스나 Supercell 게임의 운영, 광고 또는 그와 관련되어 발행되는 기타 자료의 활용, 서비스의 활용 또는 서비스를 통하여 이용 또는 전시된 서비스 또는 콘텐츠나 그 밖의 자료의 활용을 금지시키거나 제지할 일체의 권리를 포기하며, 이와 같은 포기는 취소할 수 없습니다. 또한 귀하는 귀하의 청구권을 제7항에 의해 제한되는 금전적 손해배상청구로 한정함에 동의합니다.
-10.7. 불가항력
-Supercell은 Supercell의 합리적인 통제를 벗어난 원인으로 야기된 이행지체 또는 불이행에 대한 책임을 부담하지 않습니다. 여기에는 천재지변, 전쟁, 테러, 폭동, 금수조치, 행정 및 군 당국의 처분, 화재, 홍수, 사고, 파업, 또는 물류시설∙연료∙에너지∙노동력 또는 자재의 부족과 같이 Supercell의 통제를 벗어난 예상할 수 없는 상황 또는 원인으로 인한 불이행이 포함되나, 이에 한정되지는 아니합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인정보 보호정책
-발효일: 2020년 7월 1일
+    <t>발효일: 2020년 11월 2일
 당사의 게임을 즐겨 주셔서 감사합니다! 본 개인정보 보호정책에서는 다음 사항을 설명합니다.
-당사가 귀하에 관한 개인정보를 수집하는 방식 및 그 이유
-당사가 귀하의 개인정보를 사용하는 방식
-개인정보에 대해 귀하가 갖는 선택 사항
-본 개인정보 보호정책은 Supercell의 게임, 웹사이트 및 관련 서비스에 적용되며, 본 문서에서는 이를 서비스라 통칭합니다. 당사는 본 개인정보 보호정책을 주기적으로 갱신해 supercell.com에 신규 버전을 게시할 수 있습니다. 중대한 변경이 이루어지는 경우, 당사는 변경 사항이 시행되기 전에 서비스에서 고지문을 게시하는 방식을 포함해 관련 법률에 요구되는 바에 따라 귀하에게 통지합니다. 귀하가 시행일 이후에도 서비스를 계속 사용하는 경우 새로운 개인정보 보호정책의 적용을 받습니다.
+- 당사가 귀하에 관한 개인정보를 수집하는 방식 및 그 이유
+- 당사가 귀하의 개인정보를 사용하는 방식
+- 개인정보에 대해 귀하가 갖는 선택 사항
+본 개인정보 보호정책은 Powersource Studio의 게임, 웹사이트 및 관련 서비스에 적용되며, 본 문서에서는 이를 서비스라 통칭합니다. 당사는 본 개인정보 보호정책을 주기적으로 갱신해 Powersource Studio.com에 신규 버전을 게시할 수 있습니다. 중대한 변경이 이루어지는 경우, 당사는 변경 사항이 시행되기 전에 서비스에서 고지문을 게시하는 방식을 포함해 관련 법률에 요구되는 바에 따라 귀하에게 통지합니다. 귀하가 시행일 이후에도 서비스를 계속 사용하는 경우 새로운 개인정보 보호정책의 적용을 받습니다.
 연락처
-개인정보 보호에 관한 문의 사항, 또는 귀하의 개인정보에 관한 문제를 해결하기 위한 요청 사항이 있는 경우, 일차적으로 각각의 Supercell 게임 내에 존재하는 고객지원 기능을 통해 당사로 연락하시면 보다 신속하게 답변 받을 수 있습니다. 이 외에 다음 연락처를 통해 당사에 직접 연락하실 수도 있습니다.
-관리자 성명: Supercell Oy
-주소: Itämerenkatu 11-13, FI-00180 Helsinki, Finland / 담당자: Privacy 팀
-이메일: legal-requests@supercell.com
+개인정보 보호에 관한 문의 사항, 또는 귀하의 개인정보에 관한 문제를 해결하기 위한 요청 사항이 있는 경우, 일차적으로 각각의 Powersource Studio 게임 내에 존재하는 고객지원 기능을 통해 당사로 연락하시면 보다 신속하게 답변 받을 수 있습니다. 이 외에 다음 연락처를 통해 당사에 직접 연락하실 수도 있습니다.
+관리자 성명: 파워소스스튜디오
+주소: 경기 성남시 분당구 이매로 35 / 담당자: Privacy 팀
+이메일: powersourcelegalrequests@gmail.com
 당사가 수집하는 데이터
 당사가 수집하는 개인정보의 범주는 귀하가 사용하는 서비스 및 관련 법률의 요건에 따라 달라집니다.
 귀하가 당사에 제공하는 정보.
-연락처 정보(이름, 이메일 주소 또는 전화번호 등)
-플레이어 이름이나 태그 및 비밀번호
-프로필 정보(프로필 사진 등)
-서비스로 제출된 귀하의 메시지(채팅 기록 및 고객지원 티켓 등)
-귀하의 선택에 따라 당사에 제공하는 기타 정보(분실된 계정을 확인하기 위한 정보 또는 설문조사나 판촉 프로그램에 참가하기 위해 제공하는 정보 등)
+- 연락처 정보(이름, 이메일 주소 또는 전화번호 등)
+- 플레이어 이름이나 태그 및 비밀번호
+- 프로필 정보(프로필 사진 등)
+- 서비스로 제출된 귀하의 메시지(고객지원 티켓 등)
+- 귀하의 선택에 따라 당사에 제공하는 기타 정보(분실된 계정을 확인하기 위한 정보 또는 설문조사나 판촉 프로그램에 참가하기 위해 제공하는 정보 등)
 당사에서 자동으로 수집하는 데이터.
-계정 및 게임 진척도에 관한 정보, 대부분의 경우 자동으로 생성된 내부 계정 ID 포함
-IP 주소 및 모바일 장치 식별자(장치 또는 광고 ID 등)
-장치 이름 및 운영체제, 브라우저 종류 및 언어, 인터넷 서비스 제공자, 및 이동통신사 등 귀하의 장치에 관한 정보
-당사가 쿠키 및 유사한 기술을 통해 수집하는 정보(자세한 내용은 아래 참고)
-대략적인 위치 정보(IP 주소로부터 도출됨)
-정확한 지리적 위치 정보(GPS, 귀하의 동의를 받는 경우)
-서비스 사용에 관한 정보(게임 플레이 데이터 및 서비스 내에서 귀하가 다른 플레이어와 하는 상호작용 등)
-귀하는 본인의 이메일 주소 또는 그 밖의 연락 정보를 사용해 Supercell ID를 새로 만들 수도 있습니다.
+- 계정 및 게임 진척도에 관한 정보, 대부분의 경우 자동으로 생성된 내부 계정 ID 포함
+- IP 주소 및 모바일 장치 식별자(장치 또는 광고 ID 등)
+- 장치 이름 및 운영체제, 브라우저 종류 및 언어, 인터넷 서비스 제공자, 및 이동통신사 등 귀하의 장치에 관한 정보
+- 당사가 쿠키 및 유사한 기술을 통해 수집하는 정보(자세한 내용은 아래 참고)
+- 대략적인 위치 정보(IP 주소로부터 도출됨)
+- 서비스 사용에 관한 정보(게임 플레이 데이터 및 서비스 내에서 귀하가 다른 플레이어와 하는 상호작용 등)
 당사가 당사의 협력사로부터 수집하는 정보.
 당사는 다음의 정보와 같이 당사가 귀하에 관해 보유하는 정보를 보완하기 위해 소셜 네트워킹 사이트, 데이터 분석 서비스 제공자 및 광고 네트워크 등의 제3자 협력사도 이용합니다.
-제3자 툴을 서비스에 연결한 경우 받는 데이터(예, Facebook, WeChat 또는 Google)
-인구통계학적 데이터(예: IP 주소의 대략적인 위치 결정)
-사기 방지를 위한 데이터(예: 게임에서의 환불 악용 또는 광고에서의 클릭 사기)
-게임이 실행되는 플랫폼의 데이터(예: 결제 확인)
-보다 나은 서비스를 제공하기 위한 광고 및 분석 목적을 위한 데이터
-귀하가 본인의 개인정보 설정을 통해 제3자 서비스(LINE, WeChat, Google 또는 Facebook 등)에서 당사가 이용할 수 있도록 허용한 정보
+- 제3자 툴을 서비스에 연결한 경우 받는 데이터(예, Facebook, WeChat 또는 Google)
+- 인구통계학적 데이터(예: IP 주소의 대략적인 위치 결정)
+- 사기 방지를 위한 데이터(예: 게임에서의 환불 악용 또는 광고에서의 클릭 사기)
+- 게임이 실행되는 플랫폼의 데이터(예: 결제 확인)
+- 보다 나은 서비스를 제공하기 위한 광고 및 분석 목적을 위한 데이터
+- 귀하가 본인의 개인정보 설정을 통해 제3자 서비스(LINE, WeChat, Google 또는 Facebook 등)에서 당사가 이용할 수 있도록 허용한 정보
 귀하의 데이터를 수집하는 이유
 당사는 다음과 같은 여러 사업상 목적을 위해 귀하의 데이터를 사용합니다.
 서비스의 실행을 위해.
 계약의 이행을 목적으로, 당사는 다음을 위해 필요한 정보를 처리합니다.
-계정 생성 및 귀하의 당사 게임 및 서비스 사용
-서비스를 운영
-결제 확인 및 처리
-귀하가 요청한 제품 및 서비스를 제공
-귀하에게 서비스 관련 통신물을 발송
+- 계정 생성 및 귀하의 당사 게임 및 서비스 사용
+- 서비스를 운영
+- 결제 확인 및 처리
+- 귀하가 요청한 제품 및 서비스를 제공
+- 귀하에게 서비스 관련 통신물을 발송
 당사의 플레이어들에게 서비스를 보다 적합하도록 만들기 위해.
 당사의 플레이어들에게 훌륭한 서비스를 제공하기 위한 목적으로, 당사는 다음을 위해 필요한 정보를 수집 및 처리할 수 있는 적법한 이해관계가 있습니다.
-플레이어 프로필을 업데이트하고 개발하기 위해
-서비스 및 플레이어 경험을 개발하고 개선하기 위해
-당사와 귀하 사이의 상호관계 관리
-서비스의 일부로 소셜 기능을 제공하기 위해
-귀하를 위한 서비스 경험의 개별화
-귀하의 의견 및 질문에 응대하고 플레이어 지원을 제공하기 위해
-서비스 및 다른 웹 사이트와 서비스 및 이메일을 통해 Supercell 상품을 귀하에게 제공
-업데이트, 보안 경고 및 지원 메시지와 같은 관련 정보를 사용자에게 보내기 위해
-귀하가 다른 사용자에게 연락할 수 있도록 하기 위해
+- 플레이어 프로필을 업데이트하고 개발하기 위해
+- 서비스 및 플레이어 경험을 개발하고 개선하기 위해
+- 당사와 귀하 사이의 상호관계 관리
+- 서비스의 일부로 소셜 기능을 제공하기 위해
+- 귀하를 위한 서비스 경험의 개별화
+- 귀하의 의견 및 질문에 응대하고 플레이어 지원을 제공하기 위해
+- 서비스 및 다른 웹 사이트와 서비스 및 이메일을 통해 Powersource Studio 상품을 귀하에게 제공
+- 업데이트, 보안 경고 및 지원 메시지와 같은 관련 정보를 사용자에게 보내기 위해
+- 귀하가 다른 사용자에게 연락할 수 있도록 하기 위해
 개인화된 광고를 표시하기 위해.
 본 서비스 및 기타 웹사이트와 서비스에서(이메일 포함) 귀하에게 개인별 맞춤 광고를 보여주기 위한 목적으로, 당사는 다음을 위해 필요한 정보를 처리할 수 있는 적법한 이해관계가 있습니다.
-서비스 및 온라인 행동과 관련하여 귀하가 액세스하는 컨텐츠 추적
-광고 및 서비스의 제공, 타게팅 및 개선
+- 서비스 및 온라인 행동과 관련하여 귀하가 액세스하는 컨텐츠 추적
+- 광고 및 서비스의 제공, 타게팅 및 개선
 개인별 맞춤 광고의 수신 거부 방법에 관한 정보는 아래 '귀하의 권리 및 선택권' 항목을 참고하시기 바랍니다.
 서비스를 안전하고 공정하게 유지하기 위해.
-서비스 내에서 공평한 경쟁의 장을 보장하는 것이 당사의 최우선 사항입니다. 당사가 허용하는 이용행위에 관한 방침에 대한 자세한 정보는 Supercell 서비스 약관을 참고하십시오.
+서비스 내에서 공평한 경쟁의 장을 보장하는 것이 당사의 최우선 사항입니다. 당사가 허용하는 이용행위에 관한 방침에 대한 자세한 정보는 Powersource Studio 서비스 약관을 참고하십시오.
 서비스와 그 소셜 기능을 안전하고 공정하게 유지하기 위해, 사기를 방지하기 위해, 그리고 그 외에 허용되는 이용행위를 보장하기 위해, 당사는 다음을 목적으로 필요한 정보를 처리할 수 있는 적법한 이해관계가 있습니다.
-서비스 및 해당 소셜 기능의 사용 분석 및 모니터링
-자동 또는 수동으로 채팅 관리
-사기 행위를 저지른 플레이어, 또는 비매너 플레이어에 대한 조치
+- 서비스 및 해당 소셜 기능의 사용 분석 및 모니터링
+- 자동 또는 수동으로 채팅 관리
+- 사기 행위를 저지른 플레이어, 또는 비매너 플레이어에 대한 조치
 분석, 프로필 및 분류하기 위해.
 위와 같은 모든 경우 및 목적과 관련해, 당사는 수집된 모든 정보를 분석하고, 정리하며, 분류할 수 있습니다.
 귀하의 동의를 통해.
 귀하가 동의한 경우, 당사는 귀하에게 현지 이벤트를 보여주기 위해 귀하의 GPS 위치 정보를 사용하는 등, 추가적인 목적을 위해 귀하의 정보를 이용할 수 있습니다.
 귀하의 데이터를 볼 수 있는 사람
-Supercell과는 별도로 다음과 같은 상황에서는 다른 사용자가 데이터에 액세스할 수 있습니다.
+Powersource Studio과는 별도로 다음과 같은 상황에서는 다른 사용자가 데이터에 액세스할 수 있습니다.
 다른 플레이어 및 사용자.
 소셜 기능은 당사가 제공하는 게임의 핵심 구성 요소입니다. 예를 들어, 다른 플레이어 및 사용자는 귀하의 프로필 정보 또는 게임 내 활동을 열람하고, 귀하가 게시한 메시지를 읽을 수 있습니다.
 당사의 서비스 제공자.
-Supercell은 당사의 서비스 제공을 돕기 위해 업체를 이용합니다. 이러한 업체들은 서비스를 제공하고, 호스팅, 고객지원, 분석 및 사기 방지 등의 작업을 수행하기 위해, 오로지 Supercell의 지침에 따라서만 귀하의 정보를 이용합니다.
+Powersource Studio는 당사의 서비스 제공을 돕기 위해 업체를 이용합니다. 이러한 업체들은 서비스를 제공하고, 호스팅, 고객지원, 분석 및 사기 방지 등의 작업을 수행하기 위해, 오로지 Powersource Studio의 지침에 따라서만 귀하의 정보를 이용합니다.
 기타 회사 및 공공기관.
 사기 및 불법 활동을 방지하기 위해, 당사는 다른 회사 및 조직 간에 서로 정보를 처리하고 공개하며, 적법한 요청에 따라 공공기관에 정보를 제공할 수 있습니다.
 당사는 또한 법률을 준수하기 위해, 또는 당사, 당사의 플레이어 또는 타인의 권리, 재산을 보호하고 안전을 도모하기 위해 귀하의 동의를 받고 귀하의 정보를 공개할 수 습니다.
 광고 및 소셜 미디어 협력사.
-본 서비스에는 소셜 미디어 상호작용 도구, 애플리케이션 프로그래밍 인터페이스(API) 또는 소프트웨어 개발 키트(SDK)를 통한 기능 및 인게임 광고 등, 당사의 협력사로부터 제공된 기능이 포함됩니다. 이러한 협력사들의 목록은 supercell.com/en/partner-opt-out 에서 열람할 수 있습니다.
+본 서비스에는 소셜 미디어 상호작용 도구, 애플리케이션 프로그래밍 인터페이스(API) 또는 소프트웨어 개발 키트(SDK)를 통한 기능 및 인게임 광고 등, 당사의 협력사로부터 제공된 기능이 포함됩니다.
 이러한 협력사는 귀하의 활동 및 귀하의 장치에 관한 정보(IP 주소, 모바일 식별자, 방문한 페이지(들), 위치, 일시 등)를 열람할 수 있습니다. 당사는 당사가 귀하에 관해 수집한 정보를 제3자 광고 협력사와의 사이에서 종합하고 공유할 수도 있습니다. 이러한 광고 협력사들은 자사의 네트워크 내에서 귀하가 제3자 서비스를 방문할 때 귀하에게 타겟 광고를 제공할 목적으로 이러한 정보(및 다른 웹사이트로부터 수집된 유사한 정보)를 사용할 수도 있습니다.
 이러한 협력사는 자사의 개인정보 보호정책에 따라 운영될 수도 있습니다. 이러한 행위는 통상적으로 “관심 기반 광고” 또는 “온라인 행동 기반 광고”라고 불립니다. 귀하의 개인정보가 제3자 광고 협력사와 공유되는 것을 원하지 않는 경우, 아래 “귀하의 권리 및 선택권”에 기재된 안내에 따르십시오.
 국제적 데이터 전송
@@ -501,14 +490,14 @@
 푸시 알림
 당사는 당사의 모바일 애플리케이션을 통해 귀하에게 푸시 알림을 발송할 수 있습니다. 귀하는 언제든지 귀하의 모바일 장치상의 설정을 변경함으로써 이러한 유형의 통신물 수신을 거부할 수 있습니다.
 타겟 광고의 수신 거부
-귀하는 귀하의 Android 또는 iOS 장치의 개인정보 설정에서 "광고 추적 제한"(Apple iOS) 또는 "관심 기반 광고 수신 거부"(Android)를 선택함으로써 관심 기반 광고의 수신을 거부할 수 있습니다. 자세한 정보에 대해서는 다음 내용도 참고하십시오: supercell.com/en/partner-opt-out.
+귀하는 귀하의 Android 또는 iOS 장치의 개인정보 설정에서 "광고 추적 제한"(Apple iOS) 또는 "관심 기반 광고 수신 거부"(Android)를 선택함으로써 관심 기반 광고의 수신을 거부할 수 있습니다. 자세한 정보에 대해서는 다음 내용도 참고하십시오: Powersource Studio.com/en/partner-opt-out.
 귀하는 게임 설정에서 제공되는 옵션을 통해 개인 맞춤형 인게임 제공사항에 관한 통신물도 수신 거부할 수 있습니다.
 당사가 귀하에 관해 보유하는 개인정보의 열람
 귀하가 요청하는 경우, 당사는 전자적 형식으로 준비된 귀하의 개인정보 사본을 귀하에게 제공합니다.
 귀하의 기타 권리
 귀하는 귀하의 정보를 정정 및 삭제시킬 수 있는 권리, 그리고 당사가 귀하의 정보를 사용하거나 공유하는 방법에 대해 반대하거나 이를 제한할 수 있는 권리 또한 갖습니다. 귀하는 예컨대 모바일 장치 설정에서 GPS 위치 공유를 해제함으로써, 언제든지 귀하의 동의를 철회할 수 있습니다.
 당사는 합리적인 일정 내에 모든 요청에 응할 것입니다. 당사가 만족스럽게 대처하지 못한 미해결된 개인정보 보호 문제나 정보 사용 우려 사항이 있는 경우, 미국에 소재하는 당사의 제3자 분쟁해결기관에 연락하시기 바랍니다(무료). 귀하는 미해결된 불만 사항과 관련해 유럽경제지역(EEA), 스위스 또는 영국 내에 소재하는 귀하의 현지 개인정보보호 당국에 연락할 수 있습니다.
-위에 기술된 정보주체로서의 귀하의 권리를 행사하고자 하는 경우, 위 “당사 연락처”에 기술된 지원 옵션을 사용하시기 바랍니다. 당사는 관련 법률에 따라 모든 요청에 응할 것입니다. 귀하의 개인정보를 보호하기 위해, 당사는 귀하의 요청 사항을 이행하기 전에 귀하의 신원을 확인하기 위한 추가 조치를 취할 수도 있으며, 이러한 조치에는 귀하에게 구매 영수증이나 기타 계정 정보를 제공하도록 요청하거나, 귀하의 이메일 주소를 귀하의 게임 계정과 연계시키도록 요청하거나(예컨대, Supercell ID를 통해), 당사의 서비스 내에서 이루어진 귀하의 활동에 관한 질문에 응답하도록 요청하는 등의 조치가 포함될 수 있습니다. 귀하에 의해 귀하의 신원이 확인된 경우, 귀하는 관련 법률에 의해 요구되는 바에 따라, 대리인의 연락 정보를 당사의 고객 지원 담당자에게 제공함으로써 귀하를 대리해서 귀하의 권리를 행사할 수권 대리인을 지정할 수도 있습니다.
+위에 기술된 정보주체로서의 귀하의 권리를 행사하고자 하는 경우, 위 “당사 연락처”에 기술된 지원 옵션을 사용하시기 바랍니다. 당사는 관련 법률에 따라 모든 요청에 응할 것입니다. 귀하의 개인정보를 보호하기 위해, 당사는 귀하의 요청 사항을 이행하기 전에 귀하의 신원을 확인하기 위한 추가 조치를 취할 수도 있으며, 이러한 조치에는 귀하에게 구매 영수증이나 기타 계정 정보를 제공하도록 요청하거나, 귀하의 이메일 주소를 귀하의 게임 계정과 연계시키도록 요청하거나(예컨대, Powersource Studio ID를 통해), 당사의 서비스 내에서 이루어진 귀하의 활동에 관한 질문에 응답하도록 요청하는 등의 조치가 포함될 수 있습니다. 귀하에 의해 귀하의 신원이 확인된 경우, 귀하는 관련 법률에 의해 요구되는 바에 따라, 대리인의 연락 정보를 당사의 고객 지원 담당자에게 제공함으로써 귀하를 대리해서 귀하의 권리를 행사할 수권 대리인을 지정할 수도 있습니다.
 귀하는 이러한 권리의 행사로 인해 차별적 취급을 받지 않을 권리를 가집니다.
 쿠키 및 유사 기술
 대부분의 온라인 서비스와 마찬가지로, 당사와 당사의 협력사는 서비스를 제공하고 개인별로 맞춤 설정하며, 이용 행위를 분석하고, 광고 대상자를 선정하며, 사기 행위를 방지하기 위해 쿠키 및 유사한 기술을 사용합니다. 쿠키 및 유사한 기술은 당사와 당사의 협력사가 서비스 내에서 사용자의 선호 사항을 보관하고 그 활동을 추적할 수 있게 합니다. 당사의 협력사는 자체적인 개인정보 보호정책에 따라 운영될 수 있음을 유의하십시오.
@@ -518,7 +507,7 @@
 조치 분석 개인별 맞춤 제공 및 귀속 처리
 알려지거나 추론된 모든 장치에 걸쳐 한 사용자가 동일한 광고를 제시 받는 횟수의 제한
 모든 장치에서 이루어진 브라우징 패턴으로부터 추론되는 개인별 맞춤 광고를 각각의 장치에서 제공
-자세한 정보(수신 거부 방법 포함)에 대해서는 supercell.com/en/partner-opt-out 을 방문하시기 바랍니다. 브라우저 설정에서 쿠키 사용을 차단할 수 있으나, 그러한 경우 서비스의 일부가 제대로 작동하지 못할 수도 있습니다.
+자세한 정보(수신 거부 방법 포함)에 대해서는 Powersource Studio.com/en/partner-opt-out 을 방문하시기 바랍니다. 브라우저 설정에서 쿠키 사용을 차단할 수 있으나, 그러한 경우 서비스의 일부가 제대로 작동하지 못할 수도 있습니다.
 당사가 귀하의 정보를 보호하는 방식
 보안 방침
 보안이 유지되는 안전한 플레이어 경험을 보장하도록 돕기 위해, 당사는 권한 없는 접근이나 정보의 분실, 오용 또는 변조로부터 귀하의 정보를 보호하기 위한 행정적, 기술적 및 물리적 보안 조치를 지속적으로 개발하고 시행합니다.
@@ -530,13 +519,50 @@
 아동을 대상으로 하지 않음에도 불구하고 아동의 흥미를 끌 수도 있는 게임의 경우, 당사는 플레이어의 연령에 기초해 이러한 서비스에 대한 이용을 제한하기 위한 추가 조치를 취합니다. 이러한 서비스에 대해, 플레이어가 자신이 13세(또는 해당 국가에서 정한 연령) 미만이라고 표시하는 경우, 당사는 해당 플레이어의 이용 범위를 소셜 미디어 및 채팅 기능 등 소정의 기능과 소정 유형의 알림 경보로 제한할 것입니다. 아울러, 당사는 해당 개인정보의 처리를 오로지 당사 서비스의 내부적 운영을 지원하기 위해 필요한 용도로만 제한합니다.
 귀하가 부모 또는 후견인이고, 귀하의 자녀로부터 수집된 개인정보를 살펴보거나, 해당 정보를 수정 또는 삭제시키고자 하는 경우, 위에 기술된 바에 따라 당사에 연락하십시오. 아동이 위에 기술된 내용에 상반되게 개인정보를 당사에 제공했음을 당사가 인지하게 되는 경우, 당사는 해당 정보를 유지해야 할 법적 의무가 없는 한, 당사가 수집한 개인정보를 삭제할 것이며, 해당하는 바에 따라, 해당 아동의 계정을 종료시키거나 미성년자용 서비스로 복귀시킬 것입니다.
 캘리포니아 주 거주자의 경우
-캘리포니아 주 거주자에 관한 특별 고지 사항에 대해서는 supercell.com/en/disclosure-california-residents 을(를) 방문하시기 바랍니다.
+캘리포니아 주 거주자에 관한 특별 고지 사항에 대해서는 Powersource Studio.com/en/disclosure-california-residents 을(를) 방문하시기 바랍니다.
 개인정보 관련 문의 (한국 국내 대리인)
 국내 대리인: QROAD Inc. (대표: 길호웅)
 주소: (Hanyang bldg 6F) 18, Gukhoe-daero 70-gil, Yeongdeungpo-gu, Seoul, Korea
 전화번호: +82-2-6196-6336
 이메일: sc_official@qroad.net
 업무시간: (공휴일 제외) 월~금요일, 11:00~17:00 (점심 시간: 13:00~14:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameUI_PrivacyPolicyFullOne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameUI_PrivacyPolicyFullTwo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISCLOSURE FOR CALIFORNIA RESIDENTS
+The following section applies to only to residents of California.
+1) DATA COLLECTION
+The categories of personal data we have collected in the preceding 12 months, and the sources of said data, are described in the section “THE DATA WE COLLECT” in the global privacy policy.
+2) DATA USE
+The business or commercial purposes for collecting your personal data are described in the section “WHY DO WE COLLECT YOUR DATA” in the global privacy policy.
+3) DATA DISCLOSURE AND/OR SALE
+We do not “sell” your personal data with third parties as most people would understand that term. However, we may share your cookie information and advertising identifiers with our third-party advertising platforms to deliver interest-based advertisements, attribute installs and optimize campaign performance. To the extent that practice is considered a “sale” under the CCPA, you may opt out of said sharing by following the steps described in “Opt-out of targeted advertising” in the global privacy policy.
+We do not have actual knowledge of any sale of personal data of minors under 16 years of age, as the term “sale” is defined under the CCPA.
+In the preceding 12 months, we have disclosed the following categories of personal data as part of our Services:
+Category of Personal Data Collected Examples of Data Collected by Supercell Categories Of Third Parties Who May Receive Personal Data For A Business Purpose
+Identifiers. A real name, alias, unique personal identifier, online identifier, Internet Protocol address, email address, account name, or other similar identifiers. Other Players (username and profile only)
+Service Providers
+Business Partners
+Advertising Networks (Advertising identifier and IP address only)
+Personal data categories listed in the California Customer Records statute (Cal. Civ. Code § 1798.80(e)). A name or telephone number. Service Providers
+Protected classification characteristics under California or federal law. Age. Service Providers
+Advertising Networks (for compliance purposes only)
+Commercial information. Records of products or services purchased, obtained, or considered, or other purchasing or consuming histories or tendencies. Service Providers
+Advertising Networks
+Internet or other electronic network activity. Browsing history, information on a consumer's interaction with an internet website, application, or advertisement. Service Providers
+Advertising Networks
+Inferences drawn from other personal data to create a profile about a consumer. Profile reflecting a consumer's preferences, characteristics and behavior. Service Providers
+In addition to the sharing described above, we may share any information we collect about you with our affiliates, to protect us or others, or in the event of a merger, sale, or other asset transfer. See the section “WHO CAN SEE YOUR DATA” in the global privacy policy for more information.
+4) YOUR RIGHTS
+Your rights under California law are described in the section “Your Rights and Options” in the global privacy policy.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -904,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292B9CE2-FE29-4B86-8E94-C68B2B5D6E10}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -921,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -932,10 +958,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
@@ -943,25 +969,37 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/StringTerms.xlsx
+++ b/Excel/StringTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179F32FD-95D7-4892-8996-52D3B90732F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ECA93D-6BAF-4D1A-9231-93CEB467D4AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9020BB33-0B2F-43C5-8091-327AC8D50A2F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>eng|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,54 +49,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GameUI_PrivacyPolicyFull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>kor|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 수수료와 구매 조건
-4.1. 구매
-귀하는 현실세계의 화폐로 서비스상에서 (a) Powersource Studio 게임들에서 사용되기 위한 "가상 화폐"(가상의 현금 또는 다이아몬드를 포함하나 이에 한정되지 아니함), (b) "가상의 게임상 아이템"("가상 화폐"와 총칭하여 "가상 아이템"이라 함), 그리고 (c) 다른 상품 또는 용역(이하 "상품")을 이용할 수 있는 제한되고, 개인적이며, 양도 불가능하고, 2차 라이선스 발급이 불가능하며, 취소 가능한 라이선스를 구매할 수 있습니다. 귀하는 가상 아이템을 Powersource Studio 또는 Powersource Studio의 승인을 얻은 파트너사들의 서비스를 통해서만 구매할 수 있으며 기타 방법으로는 구매가 불가능합니다.
-Powersource Studio의 서비스를 통해 가상 아이템, 상품 등의 구매 시, 구매대금은 이동통신사, 당사의 게임을 설치하고 결제할 수 있도록 제공하는 오픈마켓 등의 전자상거래 제공자(게임 내 결제 제공 사업자 포함)(예: Google Play App Store, Apple App Store 등, 이하 "App Store 사업자") 및 결제업체에서 정하는 정책과 방식에 따라 한도가 결정되고 결제가 진행됩니다. 결제가격 중 외화 결제 시 환율 및 앱스토어 사업자의 수수료 등으로 예상지불 금액과 실제 청구금액에 차이가 발생할 수 있습니다.
-Powersource Studio 게임에서 사용될 가상 아이템의 공급은 Powersource Studio가 제공하는 서비스로서 귀하의 구매를 Powersource Studio가 승낙함에 따라 즉시 개시됩니다.
-Powersource Studio는 언제든지 통지를 제공하거나 제공하지 않고 가상 아이템 및/또는 상품을 관리∙규제∙통제∙변경∙제거할 수 있습니다. Powersource Studio가 이러한 권리를 실행하는 경우, Powersource Studio는 어떠한 경우에도 귀하 또는 제3자에 대하여 어떠한 책임도 부담하지 않습니다.
-가상 아이템과 상품의 이전은 서비스상에서 명시적으로 허용되는 경우 외에는 금지됩니다. 서비스상에서 명시적으로 허용되는 경우 외에는 귀하는 가상 아이템 또는 상품을 타인 또는 법인(Powersource Studio, 다른 이용자 또는 그 밖의 제3자를 포함하나, 이에 한정되지 아니함)에게 판매하거나 구매하거나 교환하거나 달리 이전 혹은 이를 시도해서는 안 됩니다.
-귀하가 가상 아이템 또는 상품을 구매한 경우, 귀하는 본 약관이나 기타 거래조건에서 달리 정하지 아니하는 한, 귀하가 구매에 관한 내용을 통지를 받은 날(귀하가 그 통지를 받은 이후에 가상 아이템 또는 상품을 공급받은 경우에는 가상 아이템 또는 상품을 공급받은 날)로부터 7일 이내에는 Powersource Studio가 정한 절차를 통해 구매를 취소할 수 있습니다. 다만 귀하가 가상 아이템 또는 상품을 사용 또는 일부 소비한 경우 및 기타 해당되는 경우에는 구매를 취소할 수 없습니다.
-다만 위 규정에도 불구하고, 귀하는 가상 아이템 또는 상품의 내용이 표시·광고 내용과 다르거나, 계약내용과 다르게 이행된 때에는 당해 제품 또는 기타상품을 공급받은 날로부터 3개월 이내, 그 사실을 안 날 또는 알 수 있었던 날로부터 30일 이내에 구매를 취소할 수 있습니다.
-구매 취소에 따른 환불이 접수되면 Powersource Studio는 접수신청 내용이 정당한지 여부를 심사하고, 귀하가 이용하는 앱스토어 사업자의 환불 운영정책 및 절차에 따라 환불을 진행합니다. 심사를 통해 환불이 결정된 경우에는 환불 가능 잔액을 산출하여 환불합니다.
-귀하가 구매를 취소한 경우, Powersource Studio는 구매 취소된 가상 아이템 또는 상품을 회수 또는 삭제합니다. Powersource Studio는 가상 아이템 또는 상품이 회수 또는 삭제된 날로부터 3영업일 이내에 앱스토어 사업자에 대한 취소요청 등의 필요한 환불절차를 개시하고, 당사가 환불절차의 개시를 지연하는 때에는 그 지연기간에 대하여 관련법령에 따른 지연이자율을 곱하여 지연이자를 지급합니다.
-4.2. 수수료의 지급
-귀하는 귀하 또는 귀하에게 등록된 계정을 이용하는 누군가에 의하여 발생하는 모든 비용과 해당 세금을 지급하는 것에 동의합니다. Powersource Studio는 언제든지 서비스를 통하여 제공되는 상품과 용역의 가격을 수정할 수 있습니다. 귀하는 계정이 자발적 또는 비자발적으로 폐쇄되었을 때, 미사용 가상 아이템에 관하여 현금을 수령하거나 또는 다른 배상을 받지 않는다는 점을 인정합니다.
-5. 서비스의 업데이트
-귀하는 서비스가 진화하고 있음을 이해합니다. Powersource Studio는 귀하에 대하여 서비스 및 귀하의 장치나 컴퓨터에 설치된 Powersource Studio 게임에 대한 업데이트를 수용할 것을 요구할 수 있습니다. 귀하는 Powersource Studio가 귀하에게 통지를 하거나 통지하지 아니하고도 서비스 및 Powersource Studio 게임을 업데이트할 수 있음을 인정하고 동의합니다. 귀하는 서비스를 받고 Powersource Studio 게임을 실행하기 위하여 때때로 제3자의 소프트웨어를 업데이트해야 할 수도 있습니다.
-6. 보증의 부인
-하기 제7항에 따른 Powersource Studio의 책임을 제한하지 아니하고, 서비스는 어떠한 종류의 명시적∙묵시적 보증(상품성, 특정 목적에의 적합성, 소유권 및 비침해에 대한 보증, 그리고 거래과정 또는 거래관습상 발생하는 보증들을 포함하나, 이에 한정되지 아니함)도 없이, 귀하의 이용을 위하여 "있는 그대로", 그리고 "이용 가능한대로" 제공됩니다. Powersource Studio는 귀하가 선택하는 시간 또는 장소에서 서비스에 접속하거나 서비스를 이용할 수 있을 것이라고 보증하지 않습니다. 또한 Powersource Studio는 서비스가 방해받지 않거나 서비스에 에러가 발생하지 않음을 보증하지 않고, 결함이 수정될 것이라고 보증하지도 않으며, 게임 또는 서비스에 바이러스 또는 그 밖의 유해한 요소가 없다고 보증하지도 않습니다.
-일부 관할 구역에서는 특정 보증의 제외를 허가하지 않습니다. 따라서, 위의 부인 중 일부는 귀하에게 적용되지 않을 수 있습니다.
-7. 책임의 제한; 유일하고 배타적인 구제수단; 손해배상
-Powersource Studio는 계약에 근거하든지 불법행위에 근거하든지 또는 그 밖의 법률 이론에 근거하든지 간에, 또한 Powersource Studio가 그러한 손해의 가능성에 관하여 조언을 받았는지 여부와 무관하게 본 서비스 약관 또는 서비스 그 자체에 관련되거나 그로부터 발생하는 간접적∙부수적∙결과적 손해, 특별손해, 징벌적 또는 그 밖에 그와 유사한 손해(매출의 손실, 이익의 손실, 데이터의 손실, 사업 방해 또는 그 밖의 무형의 손실(이러한 손실에 어떻게 단서가 달리든지 불문함)을 포함하나, 이에 한정되지 아니함)에 대하여 귀하에게 책임지지 않습니다. Powersource Studio는 귀하가 최초로 청구권을 주장한 날로부터 직전 6개월 이내에 귀하가 본 서비스 약관에 따라 Powersource Studio에 대하여 지급한 금액을 초과하여 책임지지 않습니다. 귀하는 귀하가 위 기간 동안 Powersource Studio에 대하여 아무것도 지급하지 않은 경우에는, Powersource Studio과의 모든 분쟁에 있어서 귀하의 유일한 구제수단(그리고 Powersource Studio의 배타적인 책임)은 서비스의 이용을 중단하고 귀하의 계정을 취소하는 것임을 인정하고 동의합니다.
-일부 재판관할에서는 특정한 종류의 손해에 대한 책임의 배제 또는 제한 또는 특정한 보증의 배제를 허용하지 않습니다. 그에 따르면, 상기 부인과 제한 중 일부는 귀하에게 적용되지 않을 수도 있습니다. 관련법상 Powersource Studio가 본 서비스 약관에 명시된 바와 같이 보증을 부인하거나 책임을 제한할 수 없게 되는 한도 내에서 이러한 보증의 범위 및 Powersource Studio의 책임 한도는 해당 관련법하에서 허용되는 최소한도가 됩니다. 특히, 본 서비스 약관은 소비자의 성문법상의 권리에 영향을 미치지 아니하고, Powersource Studio의 과실 또는 사기로 인하여 발생한 사망 또는 신체적 상해에 대한 책임을 배제하거나 제한하지 않습니다.
-귀하는 귀하의 서비스 이용 또는 귀하의 본 서비스 약관 위반행위(그러나 귀하의 고의 또는 과실에 기인하지 않은 권리침해의 경우는 제외함)로부터 발생하는 제3자가 제기하는 청구, 요구, 손해 또는 그 밖의 손실(합리적인 변호사 비용을 포함)로부터 Powersource Studio(및 당사의 담당자, 관리자, 대리인, 자회사, 합작 회사, 직원들)을 면책, 방어하고 해를 입지 않도록 하며 손해를 배상할 것에 동의합니다.
-8. 분쟁 해결과 준거법
-귀하와 Powersource Studio 사이에 분쟁이 발생할 경우, 해결책을 강구하기 위해 우선 당사의 게임 내 문의를 통하여 당사와 직접 접촉할 것을 강력히 권장합니다. 만일 귀하가 미국 거주자라면, 본 서비스 약관과, 본 서비스 약관, 개인정보 보호정책 또는 서비스로부터 또는 그와 관련하여 발생하는 분쟁은 모든 면에서 국제사법 조항을 제외하고 캘리포니아 법에 의해 규율됩니다. 귀하는 Powersource Studio을 상대로 귀하가 제기하는 일체의 청구 또는 분쟁은 캘리포니아주, 샌프란시스코 소재 법원에서 배타적으로 해결된다는 것에 동의합니다. 만일 귀하가 미국 이외의 지역의 거주자라면, 귀하는 귀하와 Powersource Studio 사이의 모든 분쟁은 국제사법 조항을 제외하고 한국 법에 의해 규율된다는 것에 동의합니다.
-9. 분리가능성
-귀하와 Powersource Studio는, 본 서비스 약관 또는 Powersource Studio 개인정보 보호정책의 일부가 전부 또는 부분적으로 어떠한 관할법원에서 불법이거나 또는 집행이 불가능하다고 판명될 경우, 그러한 조항은 해당 관할에 대하여 그 무효 또는 집행불능의 결정의 범위 내에서만 효력이 없으나, 이는 다른 방식으로나 또는 다른 관할에서의 해당 조항의 유효성 또는 집행 가능성에는 영향을 미치지 아니하고, 약관의 그 밖의 다른 조항의 유효성 및 집행 가능성에도 영향을 미치지 않음에 동의합니다.
-10. 일반 조항
-10.1. 양도
-Powersource Studio는 귀하의 동의 여부와 무관하게, 언제든지 본 서비스 약관 및/또는 개인정보 보호정책의 전부 또는 일부를 어떠한 개인 또는 법인에게 양도 또는 위임할 수 있습니다. 귀하는 Powersource Studio의 사전 서면 동의 없이는 서비스 약관 또는 개인정보 보호정책 상의 권리 또는 의무를 양도 또는 위임할 수 없고, 승인받지 아니한 귀하의 양도 또는 위임은 무효입니다.
-10.2. 추가 정책
-Powersource Studio는 포럼, 대회 또는 고객보상 프로그램과 같은 특별한 서비스에 관련된 추가적인 정책을 공포할 수 있습니다. 그러한 서비스의 이용에 관한 귀하의 권리는 본 서비스 약관과 이들 특별 정책의 적용을 받습니다.
-10.3. 완전한 합의
-본 서비스 약관, 추가 정책 및 본 서비스 약관에서 언급함으로써 명시적으로 포함된 문서들(Powersource Studio 개인정보 보호정책 포함)은 귀하와 Powersource Studio의 완전한 이해를 포함하고, 본 약관의 주제에 관한 귀하와 당사 간의 모든 사전의 이해(그것이 전자적 방식이나 구두 또는 서면에 의하였는지, 또는 귀하와 당사간에 서비스와 관련하여 관습, 실무, 또는 정책 또는 선례에 의해 확립되었는지 여부를 불문함)를 대체합니다.
-10.4. 권리포기의 부존재
-Powersource Studio가 귀하로 하여금 본 서비스 약관 또는 Powersource Studio 개인정보 보호정책의 어떠한 규정을 엄격하게 이행하도록 요구하거나 그 이행을 집행하지 않았다거나 또는 Powersource Studio가 약관상의 권리를 미실행한 사실이 그러한 상황 또는 그 밖의 경우에 Powersource Studio가 해당 규정이나 권리를 주장하거나 그러한 규정이나 권리에 의지할 권리를 포기하거나 양도하는 것으로 해석될 수 없습니다.
-본 서비스 약관 또는 Powersource Studio 개인정보 보호정책의 어떠한 조항, 조건, 또는 요건에 대한 Powersource Studio의 명시적인 포기의 의사표시가 장래에 있어서도 그러한 조항, 조건 또는 요건을 준수할 의무에 대한 포기로 간주되어서는 안됩니다.
-본 서비스 약관에 명시적으로 특정하여 기재된 경우를 제외하고는, 귀하와 적법하게 지명된 Powersource Studio의 담당자가 수기로 서명한 물리적인 서면 문서로 작성되지 않는 한 Powersource Studio의 어떠한 진술, 성명, 동의, 포기 또는 그 밖의 행위 또는 누락도 본 서비스 약관의 수정으로 간주되지 않고, 법률적으로 구속력을 가지지도 않습니다.
-10.5. 통지
-당사는 귀하가 당사에 제공한 연락처 정보로 이메일 또는 그 밖의 의사소통 수단을 통하여 귀하에게 통지할 수 있습니다. 본 서비스 약관 또는 Powersource Studio 개인정보 보호정책 하에서의 귀하로부터의 모든 통지는 powersourcelegalrequests@gmail.com 의 이메일 주소로 이루어져야 합니다. 통지에 관한 본 항을 준수하지 아니하고 귀하가 제공하는 모든 통지는 법률적으로 효력이 없습니다.
-10.6. 형평법상의 구제수단
-귀하는, Powersource Studio에 대한 본 서비스 약관상의 권리 및 의무가 유일무이하고 대체 불가능하며, 그러한 권리 및 의무의 손실은 Powersource Studio에게 회복 불가능한 손실을 가하고, 그러한 손실은 금전적 손해배상만으로 충당할 수 없으므로, 따라서 Powersource Studio는 귀하의 계약 위반 시 또는 귀하의 계약위반이 예상되는 경우에 보전처분 또는 기타 형평법상의 구제수단(보석금이나 보증금 또는 손해에 대한 증명을 제공할 의무 없이)을 실행할 권한을 가짐을 인정합니다.
-귀하는 보전처분 또는 그 밖의 형평법상의 구제수단을 구할 권리, 또는 서비스나 Powersource Studio 게임의 운영, 광고 또는 그와 관련되어 발행되는 기타 자료의 활용, 서비스의 활용 또는 서비스를 통하여 이용 또는 전시된 서비스 또는 콘텐츠나 그 밖의 자료의 활용을 금지시키거나 제지할 일체의 권리를 포기하며, 이와 같은 포기는 취소할 수 없습니다. 또한 귀하는 귀하의 청구권을 제7항에 의해 제한되는 금전적 손해배상청구로 한정함에 동의합니다.
-10.7. 불가항력
-Powersource Studio는 Powersource Studio의 합리적인 통제를 벗어난 원인으로 야기된 이행지체 또는 불이행에 대한 책임을 부담하지 않습니다. 여기에는 천재지변, 전쟁, 테러, 폭동, 금수조치, 행정 및 군 당국의 처분, 화재, 홍수, 사고, 파업, 또는 물류시설∙연료∙에너지∙노동력 또는 자재의 부족과 같이 Powersource Studio의 통제를 벗어난 예상할 수 없는 상황 또는 원인으로 인한 불이행이 포함되나, 이에 한정되지는 아니합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -277,126 +234,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Effective Date: November 2, 2020
-Thank you for playing our games! This Privacy Policy describes:
-- The ways we collect personal data about you and why we do so
-- How we use your personal data, and
-- The choices you have about your personal data.
-This Privacy Policy applies to Powersource's  games, websites and related services, which we here collectively call the Service. We may periodically update this Privacy Policy by posting a new version on Powersource.com. If we make any material changes, we will notify you as required under applicable law, including by posting a notice in the Service prior to the change becoming effective. Your continued use of the Service after the effective date will be subject to the new Privacy Policy.
-CONTACT US
-If you have questions about data protection, or if you have any requests for resolving issues with your personal data, we encourage you to primarily contact us through the support features within each Powersource game, so we can reply to you more quickly. Alternatively, you may contact:
-Name of the controller: Powersource
-Address: Imae-ro 35 Bundang-gu Seongnam-si Gyeonggi, Korea Attn: Privacy
-email: powersourcelegalrequests@gmail.com
-THE DATA WE COLLECT
-The categories of personal data we collect depend on the Services you use, and the requirements of applicable law.
-Data you provide us directly.
-Contact information (such as name and email address or phone numbers)
-Player name or tag and password
-Profile information (such as profile photo)
-Your messages to the Service (such as chat logs and player support tickets)
-Other data you choose to give us (such as data to identify a lost account or data you provide to participate in survey or promotional programs)
-Data we collect automatically.
-Data about your account and game progress, including in most cases an automatically created internal account ID
-Your IP address and mobile device identifiers (such as your device or advertising ID)
-Data about your device, such as device name and operating system, browser type and language, internet service provider, and mobile carrier
-Data we collect with cookies and similar technologies (see more below)
-Approximate location data (as derived from IP address)
-Data about your use of the Service, such as gameplay data and your interactions with other players inside the Service
-You also have the option to create a Powersource ID using your email address or other contact information.
-Data we collect from our partners.
-We also use third-party partners, such as social networking sites, data analytics providers and advertising networks to supplement information we have about you, such as:
-Data we receive if you link a third party tool with the Service (such as Facebook, WeChat or Google)
-Demographic data (such as to determine the coarse location of your IP address)
-Data to fight fraud (such as refund abuse in games or click fraud in advertising)
-Data from platforms that the games run on (such as to verify payment)
-Data for advertising and analytics purposes, so we can provide you a better Service
-Data that you have made available to us from a third party service (such as LINE, WeChat, Google or Facebook) via your privacy settings
-WHY DO WE COLLECT YOUR DATA
-We use your data for a variety of business purposes, such as:
-To make the Service work.
-To perform the contract, we process data necessary to
-Create accounts and allow you to play our games and use our Service
-Operate the Service
-Verify and confirm payments
-Provide and deliver products and services you request
-Send you Service-related communications
-To make the Service more suitable for our players.
-To provide a great Service to our players, we have a legitimate interest to collect and process necessary data to
-Update and develop player profiles
-Develop and improve the Service and player experience
-Manage our relationship with you
-Provide social features as part of the Service
-Customize your Service experience
-Respond to your comments and questions and provide player support
-Provide you Powersource offers in the Service as well as in other websites and services, and by email
-Send you related information, such as updates, security alerts, and support messages
-Enable you to communicate with other players
-To show personalized advertisements.
-To show you personalized advertisements in the Service as well as in other websites and services (including email) we have a legitimate interest to process necessary data to
-Track the content you access in connection with the Service and your online behavior
-Deliver, target and improve our advertising and the Service
-For information on how to opt-out from personalized advertisements, see section 'Your Rights and Options' below.
-To keep the Service safe and fair.
-Ensuring a level playing field in the Service is a top priority for us. For more information on our acceptable use policy, see the Powersource Terms of Service.
-In order to keep the Service and its social features safe and fair, to fight fraud and ensure acceptable use otherwise, we have a legitimate interest to process necessary data to
-Analyze and monitor use of the Service and its social features
-Moderate chats either automatically or manually
-Take action against fraudulent or misbehaving players
-To analyze, profile, and segment.
-In all of the above cases and purposes, we may analyze, profile and segment all collected data.
-With your consent.
-With your consent, we may process your data for additional purposes.
-WHO CAN SEE YOUR DATA
-Apart from Powersource, your data can be accessed by others in the following situations:
-OTHER PLAYERS AND USERS.
-Social features are a core component of our games. Other players and users may, for example, see your profile data, in-game activities and read the messages you have posted.
-OUR SERVICE PROVIDERS.
-Powersource has vendors to us provide the Services. These vendors process your data only at and according to Powersource´s instructions to provide the Service, and perform tasks such as hosting, player support, advertising, analytics and fraud prevention.
-Other companies and public authorities.
-In order to combat fraud and illegal activity, we may process and disclose data with other companies and organizations and provide it to public authorities in response to lawful requests.
-We may also disclose your data based on your consent, to comply with the law or to protect the rights, property or safety of us, our players or others.
-Advertising and Social Media partners.
-The Service includes features from our partners, such as social media interaction tools, functionalities through application programming interfaces (APIs) or software development kits (SDKs) and in-game advertising. A list of these partners is available at Powersource.com/en/partner-opt-out. These partners may access your data and operate under their own privacy policies. We encourage you to check their privacy policies to learn more about their data processing practices.
-These partners may access data regarding your activities and your device (such as your IP address, mobile identifiers, page(s) visited, location, time of day). We may also combine and share data we have collected about you with third-party advertising partners. These advertising partners may use this data (and similar data collected from other websites) for purposes of delivering targeted advertisements to you when you visit third-party services within their networks. These partners may operate under their own privacy policies. This practice is commonly referred to as “interest-based advertising” or “online behavioral advertising.” If you prefer not to share your personal data with third-party advertising partners, you may follow the instructions in “Your Rights and Options” below.
-INTERNATIONAL DATA TRANSFERS
-Our Service is global by nature and your data can therefore be transferred to anywhere in the world. Because different countries may have different data protection laws than your own country, we take steps to ensure adequate safeguards are in place to protect your data as explained in this Policy. Adequate safeguards that we may use include standard contractual clauses approved by EU Commission and other lawful safeguards.
-YOUR RIGHTS AND OPTIONS
-Opt-out of marketing emails and other direct marketing.
-You may opt-out of receiving promotional communications, such as marketing emails from us by following the instructions in such communications, or by changing your in-game settings. The updated settings may not be effective immediately. Note that you may still continue to receive non-promotional emails from us, such as communications regarding the Service or updates to our Terms of Service or this Privacy Policy.
-Push Notifications
-We may send you push notifications through our mobile applications. You may at any time opt-out from receiving these types of communications by changing the settings on your mobile device.
-Opt-out of targeted advertising.
-You can opt-out of interest-based advertising on mobile applications by checking the privacy settings of your Android or iOS device and selecting "Limit Ad Tracking" (Apple iOS) or "Opt-out of Interest Based Ads" (Android). For more information, see also: Powersource.com/en/partner-opt-out.
-You can also opt out from personalized in-game offers through the options provided in the game settings.
-Access the personal data we hold about you.
-If you request, we will provide you a copy of your personal data in an electronic format.
-Your other rights.
-You also have the right to correct your data, have your data deleted, object how we use or share your data, and restrict how we use or share your data. You can always withdraw your consent.
-We will respond to all requests within a reasonable timeframe.  If you have an unresolved privacy or data use concern that we have not addressed satisfactorily, please contact our U.S.-based third-party dispute resolution provider (free of charge). You may also contact your local data protection authority within the European Economic Area, Switzerland or UK for unresolved complaints.
-If you wish to exercise any of your data subject rights described above, please use the support options described in “Contact Us” above. We will respond to all requests in accordance with applicable laws. To protect your privacy, we may also take additional steps to verify your identity before fulfilling your request, such as by requesting you provide us a purchase receipt or other account information, asking you to link your email address with your game account (for example through Powersource ID), or asking you to answer questions regarding your activities on our Services. Once you have verified your identity, you may also designate an authorized agent to exercise your rights on your behalf by providing the agent’s contact information to our customer support staff, as required by applicable law.
-You may have a right not to receive discriminatory treatment as a result of your exercise of these rights.
-COOKIES AND SIMILAR TECHNOLOGIES
-Like most online services, we and our partners use cookies and similar technologies to provide and personalize the Service, analyse use, target advertisements and prevent fraud. Cookies and similar technologies allow us and our partners to store their preferences and track your activities within the Service. Note that our partners may operate under their own privacy policies.
-We and our partners collect and store information about users' interactions with unaffiliated websites and applications that use our technologies, including cookies and similar tracking technologies. This allows us to infer the presence of a common user or household behind multiple devices or browsers, for instance, and then link those browsers and devices into a device graph. We do so in order to
-detect and prevent fraud;
-allow users to use the Service on one device and pick up seamlessly where they left off on another device;
-analytics, personalization and attribution;
-limit the number of times a user is shown the same advertisement, across all known or inferred devices; and/or
-provide personalized advertising on each device that is inferred from the browsing patterns on all of the devices.
-For more information (including how to opt out), please visit https://Powersource.com/en/partner-opt-out/. You can disable cookies in your browser settings, but some parts of the Service may then not function properly.
-HOW DO WE PROTECT YOUR DATA
-Security Safeguards.
-In order to help ensure a secure and safe player experience, we are continuously developing and implementing administrative, technical and physical security measures to protect your data from unauthorized access or against loss, misuse or alteration.
-Data retention.
-We retain your data for as long as your account is active or as needed to provide you the Service. We may for example periodically de-identify unused game accounts, and we may regularly review and de-identify unnecessary data.
-Note that if you ask us to remove your personal data, we will retain your data as necessary for our legitimate business interests, such as to comply with our legal obligations, resolve disputes, and enforce our agreements.
-CHILDREN
-Protecting children’s privacy online is very important to us. Generally, our Services are not directed to children under 13 (or other age as required by local law), and the Services do not knowingly collect personal data from children, except as described in the following paragraph.
-For games that are not directed at children but nonetheless may appeal to them, we take additional steps to limit access to these Services based on the player’s age. For these Services, when a player indicates they are under 13 (or the applicable age in their territory), we will limit their access to certain features, such as social media and chat features, as well as certain types of notification alerts. We also limit the processing of personal data to only what is necessary to support the internal operations of our Services.
-If you are a parent or guardian and wish to review personal data collected from your child, or have that information modified or deleted, you may contact us as described above. If we become aware that a child has provided us with personal data contrary to the above, we will delete any personal data we have collected, unless we have a legal obligation to keep it, and terminate the child’s account and/or revert them to the underage experience, as applicable.
-FOR CALIFORNIA RESIDENTS
-Please visit Powersource.com/en/disclosure-california-residents for special disclosures pertaining to California residents.</t>
+    <t>4. 수수료와 구매 조건
+4.1. 구매
+귀하는 현실세계의 화폐로 서비스상에서 (a) Powersource Studio 게임들에서 사용되기 위한 "가상 화폐"(가상의 현금 또는 다이아몬드를 포함하나 이에 한정되지 아니함), (b) "가상의 게임상 아이템"("가상 화폐"와 총칭하여 "가상 아이템"이라 함), 그리고 (c) 다른 상품 또는 용역(이하 "상품")을 이용할 수 있는 제한되고, 개인적이며, 양도 불가능하고, 2차 라이선스 발급이 불가능하며, 취소 가능한 라이선스를 구매할 수 있습니다. 귀하는 가상 아이템을 Powersource Studio 또는 Powersource Studio의 승인을 얻은 파트너사들의 서비스를 통해서만 구매할 수 있으며 기타 방법으로는 구매가 불가능합니다.
+Powersource Studio의 서비스를 통해 가상 아이템, 상품 등의 구매 시, 구매대금은 이동통신사, 당사의 게임을 설치하고 결제할 수 있도록 제공하는 오픈마켓 등의 전자상거래 제공자(게임 내 결제 제공 사업자 포함)(예: Google Play App Store, Apple App Store 등, 이하 "App Store 사업자") 및 결제업체에서 정하는 정책과 방식에 따라 한도가 결정되고 결제가 진행됩니다. 결제가격 중 외화 결제 시 환율 및 앱스토어 사업자의 수수료 등으로 예상지불 금액과 실제 청구금액에 차이가 발생할 수 있습니다.
+Powersource Studio 게임에서 사용될 가상 아이템의 공급은 Powersource Studio가 제공하는 서비스로서 귀하의 구매를 Powersource Studio가 승낙함에 따라 즉시 개시됩니다.
+Powersource Studio는 언제든지 통지를 제공하거나 제공하지 않고 가상 아이템 및/또는 상품을 관리∙규제∙통제∙변경∙제거할 수 있습니다. Powersource Studio가 이러한 권리를 실행하는 경우, Powersource Studio는 어떠한 경우에도 귀하 또는 제3자에 대하여 어떠한 책임도 부담하지 않습니다.
+가상 아이템과 상품의 이전은 서비스상에서 명시적으로 허용되는 경우 외에는 금지됩니다. 서비스상에서 명시적으로 허용되는 경우 외에는 귀하는 가상 아이템 또는 상품을 타인 또는 법인(Powersource Studio, 다른 이용자 또는 그 밖의 제3자를 포함하나, 이에 한정되지 아니함)에게 판매하거나 구매하거나 교환하거나 달리 이전 혹은 이를 시도해서는 안 됩니다.
+귀하가 가상 아이템 또는 상품을 구매한 경우, 귀하는 본 약관이나 기타 거래조건에서 달리 정하지 아니하는 한, 귀하가 구매에 관한 내용을 통지를 받은 날(귀하가 그 통지를 받은 이후에 가상 아이템 또는 상품을 공급받은 경우에는 가상 아이템 또는 상품을 공급받은 날)로부터 7일 이내에는 Powersource Studio가 정한 절차를 통해 구매를 취소할 수 있습니다. 다만 귀하가 가상 아이템 또는 상품을 사용 또는 일부 소비한 경우 및 기타 해당되는 경우에는 구매를 취소할 수 없습니다.
+다만 위 규정에도 불구하고, 귀하는 가상 아이템 또는 상품의 내용이 표시·광고 내용과 다르거나, 계약내용과 다르게 이행된 때에는 당해 제품 또는 기타상품을 공급받은 날로부터 3개월 이내, 그 사실을 안 날 또는 알 수 있었던 날로부터 30일 이내에 구매를 취소할 수 있습니다.
+구매 취소에 따른 환불이 접수되면 Powersource Studio는 접수신청 내용이 정당한지 여부를 심사하고, 귀하가 이용하는 앱스토어 사업자의 환불 운영정책 및 절차에 따라 환불을 진행합니다. 심사를 통해 환불이 결정된 경우에는 환불 가능 잔액을 산출하여 환불합니다.
+귀하가 구매를 취소한 경우, Powersource Studio는 구매 취소된 가상 아이템 또는 상품을 회수 또는 삭제합니다. Powersource Studio는 가상 아이템 또는 상품이 회수 또는 삭제된 날로부터 3영업일 이내에 앱스토어 사업자에 대한 취소요청 등의 필요한 환불절차를 개시하고, 당사가 환불절차의 개시를 지연하는 때에는 그 지연기간에 대하여 관련법령에 따른 지연이자율을 곱하여 지연이자를 지급합니다.
+4.2. 수수료의 지급
+귀하는 귀하 또는 귀하에게 등록된 계정을 이용하는 누군가에 의하여 발생하는 모든 비용과 해당 세금을 지급하는 것에 동의합니다. Powersource Studio는 언제든지 서비스를 통하여 제공되는 상품과 용역의 가격을 수정할 수 있습니다. 귀하는 계정이 자발적 또는 비자발적으로 폐쇄되었을 때, 미사용 가상 아이템에 관하여 현금을 수령하거나 또는 다른 배상을 받지 않는다는 점을 인정합니다.
+5. 서비스의 업데이트
+귀하는 서비스가 진화하고 있음을 이해합니다. Powersource Studio는 귀하에 대하여 서비스 및 귀하의 장치나 컴퓨터에 설치된 Powersource Studio 게임에 대한 업데이트를 수용할 것을 요구할 수 있습니다. 귀하는 Powersource Studio가 귀하에게 통지를 하거나 통지하지 아니하고도 서비스 및 Powersource Studio 게임을 업데이트할 수 있음을 인정하고 동의합니다. 귀하는 서비스를 받고 Powersource Studio 게임을 실행하기 위하여 때때로 제3자의 소프트웨어를 업데이트해야 할 수도 있습니다.
+6. 보증의 부인
+하기 제7항에 따른 Powersource Studio의 책임을 제한하지 아니하고, 서비스는 어떠한 종류의 명시적∙묵시적 보증(상품성, 특정 목적에의 적합성, 소유권 및 비침해에 대한 보증, 그리고 거래과정 또는 거래관습상 발생하는 보증들을 포함하나, 이에 한정되지 아니함)도 없이, 귀하의 이용을 위하여 "있는 그대로", 그리고 "이용 가능한대로" 제공됩니다. Powersource Studio는 귀하가 선택하는 시간 또는 장소에서 서비스에 접속하거나 서비스를 이용할 수 있을 것이라고 보증하지 않습니다. 또한 Powersource Studio는 서비스가 방해받지 않거나 서비스에 에러가 발생하지 않음을 보증하지 않고, 결함이 수정될 것이라고 보증하지도 않으며, 게임 또는 서비스에 바이러스 또는 그 밖의 유해한 요소가 없다고 보증하지도 않습니다.
+일부 관할 구역에서는 특정 보증의 제외를 허가하지 않습니다. 따라서, 위의 부인 중 일부는 귀하에게 적용되지 않을 수 있습니다.
+7. 책임의 제한; 유일하고 배타적인 구제수단; 손해배상
+Powersource Studio는 계약에 근거하든지 불법행위에 근거하든지 또는 그 밖의 법률 이론에 근거하든지 간에, 또한 Powersource Studio가 그러한 손해의 가능성에 관하여 조언을 받았는지 여부와 무관하게 본 서비스 약관 또는 서비스 그 자체에 관련되거나 그로부터 발생하는 간접적∙부수적∙결과적 손해, 특별손해, 징벌적 또는 그 밖에 그와 유사한 손해(매출의 손실, 이익의 손실, 데이터의 손실, 사업 방해 또는 그 밖의 무형의 손실(이러한 손실에 어떻게 단서가 달리든지 불문함)을 포함하나, 이에 한정되지 아니함)에 대하여 귀하에게 책임지지 않습니다. Powersource Studio는 귀하가 최초로 청구권을 주장한 날로부터 직전 6개월 이내에 귀하가 본 서비스 약관에 따라 Powersource Studio에 대하여 지급한 금액을 초과하여 책임지지 않습니다. 귀하는 귀하가 위 기간 동안 Powersource Studio에 대하여 아무것도 지급하지 않은 경우에는, Powersource Studio와의 모든 분쟁에 있어서 귀하의 유일한 구제수단(그리고 Powersource Studio의 배타적인 책임)은 서비스의 이용을 중단하고 귀하의 계정을 취소하는 것임을 인정하고 동의합니다.
+일부 재판관할에서는 특정한 종류의 손해에 대한 책임의 배제 또는 제한 또는 특정한 보증의 배제를 허용하지 않습니다. 그에 따르면, 상기 부인과 제한 중 일부는 귀하에게 적용되지 않을 수도 있습니다. 관련법상 Powersource Studio가 본 서비스 약관에 명시된 바와 같이 보증을 부인하거나 책임을 제한할 수 없게 되는 한도 내에서 이러한 보증의 범위 및 Powersource Studio의 책임 한도는 해당 관련법하에서 허용되는 최소한도가 됩니다. 특히, 본 서비스 약관은 소비자의 성문법상의 권리에 영향을 미치지 아니하고, Powersource Studio의 과실 또는 사기로 인하여 발생한 사망 또는 신체적 상해에 대한 책임을 배제하거나 제한하지 않습니다.
+귀하는 귀하의 서비스 이용 또는 귀하의 본 서비스 약관 위반행위(그러나 귀하의 고의 또는 과실에 기인하지 않은 권리침해의 경우는 제외함)로부터 발생하는 제3자가 제기하는 청구, 요구, 손해 또는 그 밖의 손실(합리적인 변호사 비용을 포함)로부터 Powersource Studio(및 당사의 담당자, 관리자, 대리인, 자회사, 합작 회사, 직원들)을 면책, 방어하고 해를 입지 않도록 하며 손해를 배상할 것에 동의합니다.
+8. 분쟁 해결과 준거법
+귀하와 Powersource Studio 사이에 분쟁이 발생할 경우, 해결책을 강구하기 위해 우선 당사의 게임 내 문의를 통하여 당사와 직접 접촉할 것을 강력히 권장합니다. 만일 귀하가 미국 거주자라면, 본 서비스 약관과, 본 서비스 약관, 개인정보 보호정책 또는 서비스로부터 또는 그와 관련하여 발생하는 분쟁은 모든 면에서 국제사법 조항을 제외하고 캘리포니아 법에 의해 규율됩니다. 귀하는 Powersource Studio을 상대로 귀하가 제기하는 일체의 청구 또는 분쟁은 캘리포니아주, 샌프란시스코 소재 법원에서 배타적으로 해결된다는 것에 동의합니다. 만일 귀하가 미국 이외의 지역의 거주자라면, 귀하는 귀하와 Powersource Studio 사이의 모든 분쟁은 국제사법 조항을 제외하고 한국 법에 의해 규율된다는 것에 동의합니다.
+9. 분리가능성
+귀하와 Powersource Studio는, 본 서비스 약관 또는 Powersource Studio 개인정보 보호정책의 일부가 전부 또는 부분적으로 어떠한 관할법원에서 불법이거나 또는 집행이 불가능하다고 판명될 경우, 그러한 조항은 해당 관할에 대하여 그 무효 또는 집행불능의 결정의 범위 내에서만 효력이 없으나, 이는 다른 방식으로나 또는 다른 관할에서의 해당 조항의 유효성 또는 집행 가능성에는 영향을 미치지 아니하고, 약관의 그 밖의 다른 조항의 유효성 및 집행 가능성에도 영향을 미치지 않음에 동의합니다.
+10. 일반 조항
+10.1. 양도
+Powersource Studio는 귀하의 동의 여부와 무관하게, 언제든지 본 서비스 약관 및/또는 개인정보 보호정책의 전부 또는 일부를 어떠한 개인 또는 법인에게 양도 또는 위임할 수 있습니다. 귀하는 Powersource Studio의 사전 서면 동의 없이는 서비스 약관 또는 개인정보 보호정책 상의 권리 또는 의무를 양도 또는 위임할 수 없고, 승인받지 아니한 귀하의 양도 또는 위임은 무효입니다.
+10.2. 추가 정책
+Powersource Studio는 포럼, 대회 또는 고객보상 프로그램과 같은 특별한 서비스에 관련된 추가적인 정책을 공포할 수 있습니다. 그러한 서비스의 이용에 관한 귀하의 권리는 본 서비스 약관과 이들 특별 정책의 적용을 받습니다.
+10.3. 완전한 합의
+본 서비스 약관, 추가 정책 및 본 서비스 약관에서 언급함으로써 명시적으로 포함된 문서들(Powersource Studio 개인정보 보호정책 포함)은 귀하와 Powersource Studio의 완전한 이해를 포함하고, 본 약관의 주제에 관한 귀하와 당사 간의 모든 사전의 이해(그것이 전자적 방식이나 구두 또는 서면에 의하였는지, 또는 귀하와 당사간에 서비스와 관련하여 관습, 실무, 또는 정책 또는 선례에 의해 확립되었는지 여부를 불문함)를 대체합니다.
+10.4. 권리포기의 부존재
+Powersource Studio가 귀하로 하여금 본 서비스 약관 또는 Powersource Studio 개인정보 보호정책의 어떠한 규정을 엄격하게 이행하도록 요구하거나 그 이행을 집행하지 않았다거나 또는 Powersource Studio가 약관상의 권리를 미실행한 사실이 그러한 상황 또는 그 밖의 경우에 Powersource Studio가 해당 규정이나 권리를 주장하거나 그러한 규정이나 권리에 의지할 권리를 포기하거나 양도하는 것으로 해석될 수 없습니다.
+본 서비스 약관 또는 Powersource Studio 개인정보 보호정책의 어떠한 조항, 조건, 또는 요건에 대한 Powersource Studio의 명시적인 포기의 의사표시가 장래에 있어서도 그러한 조항, 조건 또는 요건을 준수할 의무에 대한 포기로 간주되어서는 안됩니다.
+본 서비스 약관에 명시적으로 특정하여 기재된 경우를 제외하고는, 귀하와 적법하게 지명된 Powersource Studio의 담당자가 수기로 서명한 물리적인 서면 문서로 작성되지 않는 한 Powersource Studio의 어떠한 진술, 성명, 동의, 포기 또는 그 밖의 행위 또는 누락도 본 서비스 약관의 수정으로 간주되지 않고, 법률적으로 구속력을 가지지도 않습니다.
+10.5. 통지
+당사는 귀하가 당사에 제공한 연락처 정보로 이메일 또는 그 밖의 의사소통 수단을 통하여 귀하에게 통지할 수 있습니다. 본 서비스 약관 또는 Powersource Studio 개인정보 보호정책 하에서의 귀하로부터의 모든 통지는 powersourcelegalrequests@gmail.com 의 이메일 주소로 이루어져야 합니다. 통지에 관한 본 항을 준수하지 아니하고 귀하가 제공하는 모든 통지는 법률적으로 효력이 없습니다.
+10.6. 형평법상의 구제수단
+귀하는, Powersource Studio에 대한 본 서비스 약관상의 권리 및 의무가 유일무이하고 대체 불가능하며, 그러한 권리 및 의무의 손실은 Powersource Studio에게 회복 불가능한 손실을 가하고, 그러한 손실은 금전적 손해배상만으로 충당할 수 없으므로, 따라서 Powersource Studio는 귀하의 계약 위반 시 또는 귀하의 계약위반이 예상되는 경우에 보전처분 또는 기타 형평법상의 구제수단(보석금이나 보증금 또는 손해에 대한 증명을 제공할 의무 없이)을 실행할 권한을 가짐을 인정합니다.
+귀하는 보전처분 또는 그 밖의 형평법상의 구제수단을 구할 권리, 또는 서비스나 Powersource Studio 게임의 운영, 광고 또는 그와 관련되어 발행되는 기타 자료의 활용, 서비스의 활용 또는 서비스를 통하여 이용 또는 전시된 서비스 또는 콘텐츠나 그 밖의 자료의 활용을 금지시키거나 제지할 일체의 권리를 포기하며, 이와 같은 포기는 취소할 수 없습니다. 또한 귀하는 귀하의 청구권을 제7항에 의해 제한되는 금전적 손해배상청구로 한정함에 동의합니다.
+10.7. 불가항력
+Powersource Studio는 Powersource Studio의 합리적인 통제를 벗어난 원인으로 야기된 이행지체 또는 불이행에 대한 책임을 부담하지 않습니다. 여기에는 천재지변, 전쟁, 테러, 폭동, 금수조치, 행정 및 군 당국의 처분, 화재, 홍수, 사고, 파업, 또는 물류시설∙연료∙에너지∙노동력 또는 자재의 부족과 같이 Powersource Studio의 통제를 벗어난 예상할 수 없는 상황 또는 원인으로 인한 불이행이 포함되나, 이에 한정되지는 아니합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -470,7 +351,7 @@
 귀하의 동의를 통해.
 귀하가 동의한 경우, 당사는 귀하에게 현지 이벤트를 보여주기 위해 귀하의 GPS 위치 정보를 사용하는 등, 추가적인 목적을 위해 귀하의 정보를 이용할 수 있습니다.
 귀하의 데이터를 볼 수 있는 사람
-Powersource Studio과는 별도로 다음과 같은 상황에서는 다른 사용자가 데이터에 액세스할 수 있습니다.
+Powersource Studio와는 별도로 다음과 같은 상황에서는 다른 사용자가 데이터에 액세스할 수 있습니다.
 다른 플레이어 및 사용자.
 소셜 기능은 당사가 제공하는 게임의 핵심 구성 요소입니다. 예를 들어, 다른 플레이어 및 사용자는 귀하의 프로필 정보 또는 게임 내 활동을 열람하고, 귀하가 게시한 메시지를 읽을 수 있습니다.
 당사의 서비스 제공자.
@@ -490,24 +371,23 @@
 푸시 알림
 당사는 당사의 모바일 애플리케이션을 통해 귀하에게 푸시 알림을 발송할 수 있습니다. 귀하는 언제든지 귀하의 모바일 장치상의 설정을 변경함으로써 이러한 유형의 통신물 수신을 거부할 수 있습니다.
 타겟 광고의 수신 거부
-귀하는 귀하의 Android 또는 iOS 장치의 개인정보 설정에서 "광고 추적 제한"(Apple iOS) 또는 "관심 기반 광고 수신 거부"(Android)를 선택함으로써 관심 기반 광고의 수신을 거부할 수 있습니다. 자세한 정보에 대해서는 다음 내용도 참고하십시오: Powersource Studio.com/en/partner-opt-out.
+귀하는 귀하의 Android 또는 iOS 장치의 개인정보 설정에서 "광고 추적 제한"(Apple iOS) 또는 "관심 기반 광고 수신 거부"(Android)를 선택함으로써 관심 기반 광고의 수신을 거부할 수 있습니다.
 귀하는 게임 설정에서 제공되는 옵션을 통해 개인 맞춤형 인게임 제공사항에 관한 통신물도 수신 거부할 수 있습니다.
 당사가 귀하에 관해 보유하는 개인정보의 열람
 귀하가 요청하는 경우, 당사는 전자적 형식으로 준비된 귀하의 개인정보 사본을 귀하에게 제공합니다.
 귀하의 기타 권리
 귀하는 귀하의 정보를 정정 및 삭제시킬 수 있는 권리, 그리고 당사가 귀하의 정보를 사용하거나 공유하는 방법에 대해 반대하거나 이를 제한할 수 있는 권리 또한 갖습니다. 귀하는 예컨대 모바일 장치 설정에서 GPS 위치 공유를 해제함으로써, 언제든지 귀하의 동의를 철회할 수 있습니다.
 당사는 합리적인 일정 내에 모든 요청에 응할 것입니다. 당사가 만족스럽게 대처하지 못한 미해결된 개인정보 보호 문제나 정보 사용 우려 사항이 있는 경우, 미국에 소재하는 당사의 제3자 분쟁해결기관에 연락하시기 바랍니다(무료). 귀하는 미해결된 불만 사항과 관련해 유럽경제지역(EEA), 스위스 또는 영국 내에 소재하는 귀하의 현지 개인정보보호 당국에 연락할 수 있습니다.
-위에 기술된 정보주체로서의 귀하의 권리를 행사하고자 하는 경우, 위 “당사 연락처”에 기술된 지원 옵션을 사용하시기 바랍니다. 당사는 관련 법률에 따라 모든 요청에 응할 것입니다. 귀하의 개인정보를 보호하기 위해, 당사는 귀하의 요청 사항을 이행하기 전에 귀하의 신원을 확인하기 위한 추가 조치를 취할 수도 있으며, 이러한 조치에는 귀하에게 구매 영수증이나 기타 계정 정보를 제공하도록 요청하거나, 귀하의 이메일 주소를 귀하의 게임 계정과 연계시키도록 요청하거나(예컨대, Powersource Studio ID를 통해), 당사의 서비스 내에서 이루어진 귀하의 활동에 관한 질문에 응답하도록 요청하는 등의 조치가 포함될 수 있습니다. 귀하에 의해 귀하의 신원이 확인된 경우, 귀하는 관련 법률에 의해 요구되는 바에 따라, 대리인의 연락 정보를 당사의 고객 지원 담당자에게 제공함으로써 귀하를 대리해서 귀하의 권리를 행사할 수권 대리인을 지정할 수도 있습니다.
+위에 기술된 정보주체로서의 귀하의 권리를 행사하고자 하는 경우, 위 “당사 연락처”에 기술된 지원 옵션을 사용하시기 바랍니다. 당사는 관련 법률에 따라 모든 요청에 응할 것입니다. 귀하의 개인정보를 보호하기 위해, 당사는 귀하의 요청 사항을 이행하기 전에 귀하의 신원을 확인하기 위한 추가 조치를 취할 수도 있으며, 이러한 조치에는 귀하에게 구매 영수증이나 기타 계정 정보를 제공하도록 요청하거나, 당사의 서비스 내에서 이루어진 귀하의 활동에 관한 질문에 응답하도록 요청하는 등의 조치가 포함될 수 있습니다. 귀하에 의해 귀하의 신원이 확인된 경우, 귀하는 관련 법률에 의해 요구되는 바에 따라, 대리인의 연락 정보를 당사의 고객 지원 담당자에게 제공함으로써 귀하를 대리해서 귀하의 권리를 행사할 수권 대리인을 지정할 수도 있습니다.
 귀하는 이러한 권리의 행사로 인해 차별적 취급을 받지 않을 권리를 가집니다.
 쿠키 및 유사 기술
 대부분의 온라인 서비스와 마찬가지로, 당사와 당사의 협력사는 서비스를 제공하고 개인별로 맞춤 설정하며, 이용 행위를 분석하고, 광고 대상자를 선정하며, 사기 행위를 방지하기 위해 쿠키 및 유사한 기술을 사용합니다. 쿠키 및 유사한 기술은 당사와 당사의 협력사가 서비스 내에서 사용자의 선호 사항을 보관하고 그 활동을 추적할 수 있게 합니다. 당사의 협력사는 자체적인 개인정보 보호정책에 따라 운영될 수 있음을 유의하십시오.
 당사와 당사의 협력사는 쿠키 및 유사한 추적 기술 등 당사의 기술을 사용하는 비제휴 웹사이트 및 애플리케이션과의 사이에서 이루어지는 사용자들의 상호작용에 관한 정보를 수집 및 보관합니다. 이를 통해 당사는 예컨대 여러 장치나 브라우저 배후에 있는 하나의 공통된 사용자나 가구의 존재를 추론할 수 있게 되고, 해당 브라우저들과 장치들을 하나의 장치 그래프에 연계시킬 수 있게 됩니다. 이러한 조치들의 목적은 다음과 같습니다.
-사기 탐지 및 방지
-사용자가 하나의 장치에서 서비스를 이용한 후 또 다른 장치에서 매끄럽게 서비스를 이용할 수 있도록 허용
-조치 분석 개인별 맞춤 제공 및 귀속 처리
-알려지거나 추론된 모든 장치에 걸쳐 한 사용자가 동일한 광고를 제시 받는 횟수의 제한
-모든 장치에서 이루어진 브라우징 패턴으로부터 추론되는 개인별 맞춤 광고를 각각의 장치에서 제공
-자세한 정보(수신 거부 방법 포함)에 대해서는 Powersource Studio.com/en/partner-opt-out 을 방문하시기 바랍니다. 브라우저 설정에서 쿠키 사용을 차단할 수 있으나, 그러한 경우 서비스의 일부가 제대로 작동하지 못할 수도 있습니다.
+- 사기 탐지 및 방지
+- 사용자가 하나의 장치에서 서비스를 이용한 후 또 다른 장치에서 매끄럽게 서비스를 이용할 수 있도록 허용
+- 조치 분석 개인별 맞춤 제공 및 귀속 처리
+- 알려지거나 추론된 모든 장치에 걸쳐 한 사용자가 동일한 광고를 제시 받는 횟수의 제한
+- 모든 장치에서 이루어진 브라우징 패턴으로부터 추론되는 개인별 맞춤 광고를 각각의 장치에서 제공
 당사가 귀하의 정보를 보호하는 방식
 보안 방침
 보안이 유지되는 안전한 플레이어 경험을 보장하도록 돕기 위해, 당사는 권한 없는 접근이나 정보의 분실, 오용 또는 변조로부터 귀하의 정보를 보호하기 위한 행정적, 기술적 및 물리적 보안 조치를 지속적으로 개발하고 시행합니다.
@@ -517,52 +397,126 @@
 아동
 당사는 아동의 온라인 개인정보 보호를 매우 중시합니다. 일반적으로, 당사의 서비스는 13세(또는 현지 법률이 정하는 연령) 미만의 아동을 대상으로 하지 않으며, 당사의 서비스는 다음 문항에 기술된 경우를 제외하고 아동으로부터 고의로 개인정보를 수집하지 않습니다.
 아동을 대상으로 하지 않음에도 불구하고 아동의 흥미를 끌 수도 있는 게임의 경우, 당사는 플레이어의 연령에 기초해 이러한 서비스에 대한 이용을 제한하기 위한 추가 조치를 취합니다. 이러한 서비스에 대해, 플레이어가 자신이 13세(또는 해당 국가에서 정한 연령) 미만이라고 표시하는 경우, 당사는 해당 플레이어의 이용 범위를 소셜 미디어 및 채팅 기능 등 소정의 기능과 소정 유형의 알림 경보로 제한할 것입니다. 아울러, 당사는 해당 개인정보의 처리를 오로지 당사 서비스의 내부적 운영을 지원하기 위해 필요한 용도로만 제한합니다.
-귀하가 부모 또는 후견인이고, 귀하의 자녀로부터 수집된 개인정보를 살펴보거나, 해당 정보를 수정 또는 삭제시키고자 하는 경우, 위에 기술된 바에 따라 당사에 연락하십시오. 아동이 위에 기술된 내용에 상반되게 개인정보를 당사에 제공했음을 당사가 인지하게 되는 경우, 당사는 해당 정보를 유지해야 할 법적 의무가 없는 한, 당사가 수집한 개인정보를 삭제할 것이며, 해당하는 바에 따라, 해당 아동의 계정을 종료시키거나 미성년자용 서비스로 복귀시킬 것입니다.
-캘리포니아 주 거주자의 경우
-캘리포니아 주 거주자에 관한 특별 고지 사항에 대해서는 Powersource Studio.com/en/disclosure-california-residents 을(를) 방문하시기 바랍니다.
-개인정보 관련 문의 (한국 국내 대리인)
-국내 대리인: QROAD Inc. (대표: 길호웅)
-주소: (Hanyang bldg 6F) 18, Gukhoe-daero 70-gil, Yeongdeungpo-gu, Seoul, Korea
-전화번호: +82-2-6196-6336
-이메일: sc_official@qroad.net
-업무시간: (공휴일 제외) 월~금요일, 11:00~17:00 (점심 시간: 13:00~14:00)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameUI_PrivacyPolicyFullOne</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameUI_PrivacyPolicyFullTwo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISCLOSURE FOR CALIFORNIA RESIDENTS
-The following section applies to only to residents of California.
-1) DATA COLLECTION
-The categories of personal data we have collected in the preceding 12 months, and the sources of said data, are described in the section “THE DATA WE COLLECT” in the global privacy policy.
-2) DATA USE
-The business or commercial purposes for collecting your personal data are described in the section “WHY DO WE COLLECT YOUR DATA” in the global privacy policy.
-3) DATA DISCLOSURE AND/OR SALE
-We do not “sell” your personal data with third parties as most people would understand that term. However, we may share your cookie information and advertising identifiers with our third-party advertising platforms to deliver interest-based advertisements, attribute installs and optimize campaign performance. To the extent that practice is considered a “sale” under the CCPA, you may opt out of said sharing by following the steps described in “Opt-out of targeted advertising” in the global privacy policy.
-We do not have actual knowledge of any sale of personal data of minors under 16 years of age, as the term “sale” is defined under the CCPA.
-In the preceding 12 months, we have disclosed the following categories of personal data as part of our Services:
-Category of Personal Data Collected Examples of Data Collected by Supercell Categories Of Third Parties Who May Receive Personal Data For A Business Purpose
-Identifiers. A real name, alias, unique personal identifier, online identifier, Internet Protocol address, email address, account name, or other similar identifiers. Other Players (username and profile only)
-Service Providers
-Business Partners
-Advertising Networks (Advertising identifier and IP address only)
-Personal data categories listed in the California Customer Records statute (Cal. Civ. Code § 1798.80(e)). A name or telephone number. Service Providers
-Protected classification characteristics under California or federal law. Age. Service Providers
-Advertising Networks (for compliance purposes only)
-Commercial information. Records of products or services purchased, obtained, or considered, or other purchasing or consuming histories or tendencies. Service Providers
-Advertising Networks
-Internet or other electronic network activity. Browsing history, information on a consumer's interaction with an internet website, application, or advertisement. Service Providers
-Advertising Networks
-Inferences drawn from other personal data to create a profile about a consumer. Profile reflecting a consumer's preferences, characteristics and behavior. Service Providers
-In addition to the sharing described above, we may share any information we collect about you with our affiliates, to protect us or others, or in the event of a merger, sale, or other asset transfer. See the section “WHO CAN SEE YOUR DATA” in the global privacy policy for more information.
-4) YOUR RIGHTS
-Your rights under California law are described in the section “Your Rights and Options” in the global privacy policy.</t>
+귀하가 부모 또는 후견인이고, 귀하의 자녀로부터 수집된 개인정보를 살펴보거나, 해당 정보를 수정 또는 삭제시키고자 하는 경우, 위에 기술된 바에 따라 당사에 연락하십시오. 아동이 위에 기술된 내용에 상반되게 개인정보를 당사에 제공했음을 당사가 인지하게 되는 경우, 당사는 해당 정보를 유지해야 할 법적 의무가 없는 한, 당사가 수집한 개인정보를 삭제할 것이며, 해당하는 바에 따라, 해당 아동의 계정을 종료시키거나 미성년자용 서비스로 복귀시킬 것입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effective Date: November 2, 2020
+Thank you for playing our games! This Privacy Policy describes:
+- The ways we collect personal data about you and why we do so
+- How we use your personal data, and
+- The choices you have about your personal data.
+This Privacy Policy applies to Powersource's  games, websites and related services, which we here collectively call the Service. We may periodically update this Privacy Policy by posting a new version on Powersource.com. If we make any material changes, we will notify you as required under applicable law, including by posting a notice in the Service prior to the change becoming effective. Your continued use of the Service after the effective date will be subject to the new Privacy Policy.
+CONTACT US
+If you have questions about data protection, or if you have any requests for resolving issues with your personal data, we encourage you to primarily contact us through the support features within each Powersource game, so we can reply to you more quickly. Alternatively, you may contact:
+Name of the controller: Powersource
+Address: Imae-ro 35 Bundang-gu Seongnam-si Gyeonggi, Korea Attn: Privacy
+email: powersourcelegalrequests@gmail.com
+THE DATA WE COLLECT
+The categories of personal data we collect depend on the Services you use, and the requirements of applicable law.
+Data you provide us directly.
+- Contact information (such as name and email address or phone numbers)
+- Player name or tag and password
+- Profile information (such as profile photo)
+- Your messages to the Service (such as chat logs and player support tickets)
+- Other data you choose to give us (such as data to identify a lost account or data you provide to participate in survey or promotional programs)
+Data we collect automatically.
+- Data about your account and game progress, including in most cases an automatically created internal account ID
+- Your IP address and mobile device identifiers (such as your device or advertising ID)
+- Data about your device, such as device name and operating system, browser type and language, internet service provider, and mobile carrier
+- Data we collect with cookies and similar technologies (see more below)
+- Approximate location data (as derived from IP address)
+- Data about your use of the Service, such as gameplay data and your interactions with other players inside the Service
+Data we collect from our partners.
+We also use third-party partners, such as social networking sites, data analytics providers and advertising networks to supplement information we have about you, such as:
+- Data we receive if you link a third party tool with the Service (such as Facebook, WeChat or Google)
+- Demographic data (such as to determine the coarse location of your IP address)
+- Data to fight fraud (such as refund abuse in games or click fraud in advertising)
+- Data from platforms that the games run on (such as to verify payment)
+- Data for advertising and analytics purposes, so we can provide you a better Service
+- Data that you have made available to us from a third party service (such as LINE, WeChat, Google or Facebook) via your privacy settings
+WHY DO WE COLLECT YOUR DATA
+We use your data for a variety of business purposes, such as:
+To make the Service work.
+To perform the contract, we process data necessary to
+- Create accounts and allow you to play our games and use our Service
+- Operate the Service
+- Verify and confirm payments
+- Provide and deliver products and services you request
+- Send you Service-related communications
+To make the Service more suitable for our players.
+To provide a great Service to our players, we have a legitimate interest to collect and process necessary data to
+- Update and develop player profiles
+- Develop and improve the Service and player experience
+- Manage our relationship with you
+- Provide social features as part of the Service
+- Customize your Service experience
+- Respond to your comments and questions and provide player support
+- Provide you Powersource offers in the Service as well as in other websites and services, and by email
+- Send you related information, such as updates, security alerts, and support messages
+- Enable you to communicate with other players
+To show personalized advertisements.
+To show you personalized advertisements in the Service as well as in other websites and services (including email) we have a legitimate interest to process necessary data to
+- Track the content you access in connection with the Service and your online behavior
+- Deliver, target and improve our advertising and the Service
+For information on how to opt-out from personalized advertisements, see section 'Your Rights and Options' below.
+To keep the Service safe and fair.
+Ensuring a level playing field in the Service is a top priority for us. For more information on our acceptable use policy, see the Powersource Terms of Service.
+In order to keep the Service and its social features safe and fair, to fight fraud and ensure acceptable use otherwise, we have a legitimate interest to process necessary data to
+- Analyze and monitor use of the Service and its social features
+- Moderate chats either automatically or manually
+- Take action against fraudulent or misbehaving players
+To analyze, profile, and segment.
+In all of the above cases and purposes, we may analyze, profile and segment all collected data.
+With your consent.
+With your consent, we may process your data for additional purposes.
+WHO CAN SEE YOUR DATA
+Apart from Powersource, your data can be accessed by others in the following situations:
+OTHER PLAYERS AND USERS.
+Social features are a core component of our games. Other players and users may, for example, see your profile data, in-game activities and read the messages you have posted.
+OUR SERVICE PROVIDERS.
+Powersource has vendors to us provide the Services. These vendors process your data only at and according to Powersource´s instructions to provide the Service, and perform tasks such as hosting, player support, advertising, analytics and fraud prevention.
+Other companies and public authorities.
+In order to combat fraud and illegal activity, we may process and disclose data with other companies and organizations and provide it to public authorities in response to lawful requests.
+We may also disclose your data based on your consent, to comply with the law or to protect the rights, property or safety of us, our players or others.
+Advertising and Social Media partners.
+The Service includes features from our partners, such as social media interaction tools, functionalities through application programming interfaces (APIs) or software development kits (SDKs) and in-game advertising.
+These partners may access data regarding your activities and your device (such as your IP address, mobile identifiers, page(s) visited, location, time of day). We may also combine and share data we have collected about you with third-party advertising partners. These advertising partners may use this data (and similar data collected from other websites) for purposes of delivering targeted advertisements to you when you visit third-party services within their networks. These partners may operate under their own privacy policies. This practice is commonly referred to as “interest-based advertising” or “online behavioral advertising.” If you prefer not to share your personal data with third-party advertising partners, you may follow the instructions in “Your Rights and Options” below.
+INTERNATIONAL DATA TRANSFERS
+Our Service is global by nature and your data can therefore be transferred to anywhere in the world. Because different countries may have different data protection laws than your own country, we take steps to ensure adequate safeguards are in place to protect your data as explained in this Policy. Adequate safeguards that we may use include standard contractual clauses approved by EU Commission and other lawful safeguards.
+YOUR RIGHTS AND OPTIONS
+Opt-out of marketing emails and other direct marketing.
+You may opt-out of receiving promotional communications, such as marketing emails from us by following the instructions in such communications, or by changing your in-game settings. The updated settings may not be effective immediately. Note that you may still continue to receive non-promotional emails from us, such as communications regarding the Service or updates to our Terms of Service or this Privacy Policy.
+Push Notifications
+We may send you push notifications through our mobile applications. You may at any time opt-out from receiving these types of communications by changing the settings on your mobile device.
+Opt-out of targeted advertising.
+You can opt-out of interest-based advertising on mobile applications by checking the privacy settings of your Android or iOS device and selecting "Limit Ad Tracking" (Apple iOS) or "Opt-out of Interest Based Ads" (Android).
+You can also opt out from personalized in-game offers through the options provided in the game settings.
+Access the personal data we hold about you.
+If you request, we will provide you a copy of your personal data in an electronic format.
+Your other rights.
+You also have the right to correct your data, have your data deleted, object how we use or share your data, and restrict how we use or share your data. You can always withdraw your consent.
+We will respond to all requests within a reasonable timeframe.  If you have an unresolved privacy or data use concern that we have not addressed satisfactorily, please contact our U.S.-based third-party dispute resolution provider (free of charge). You may also contact your local data protection authority within the European Economic Area, Switzerland or UK for unresolved complaints.
+If you wish to exercise any of your data subject rights described above, please use the support options described in “Contact Us” above. We will respond to all requests in accordance with applicable laws. To protect your privacy, we may also take additional steps to verify your identity before fulfilling your request, such as by requesting you provide us a purchase receipt or other account information, asking you to link your email address with your game account (for example through Powersource ID), or asking you to answer questions regarding your activities on our Services. Once you have verified your identity, you may also designate an authorized agent to exercise your rights on your behalf by providing the agent’s contact information to our customer support staff, as required by applicable law.
+You may have a right not to receive discriminatory treatment as a result of your exercise of these rights.
+COOKIES AND SIMILAR TECHNOLOGIES
+Like most online services, we and our partners use cookies and similar technologies to provide and personalize the Service, analyse use, target advertisements and prevent fraud. Cookies and similar technologies allow us and our partners to store their preferences and track your activities within the Service. Note that our partners may operate under their own privacy policies.
+We and our partners collect and store information about users' interactions with unaffiliated websites and applications that use our technologies, including cookies and similar tracking technologies. This allows us to infer the presence of a common user or household behind multiple devices or browsers, for instance, and then link those browsers and devices into a device graph. We do so in order to
+- detect and prevent fraud;
+- allow users to use the Service on one device and pick up seamlessly where they left off on another device;
+- analytics, personalization and attribution;
+- limit the number of times a user is shown the same advertisement, across all known or inferred devices; and/or
+- provide personalized advertising on each device that is inferred from the browsing patterns on all of the devices.
+HOW DO WE PROTECT YOUR DATA
+Security Safeguards.
+In order to help ensure a secure and safe player experience, we are continuously developing and implementing administrative, technical and physical security measures to protect your data from unauthorized access or against loss, misuse or alteration.
+Data retention.
+We retain your data for as long as your account is active or as needed to provide you the Service. We may for example periodically de-identify unused game accounts, and we may regularly review and de-identify unnecessary data.
+Note that if you ask us to remove your personal data, we will retain your data as necessary for our legitimate business interests, such as to comply with our legal obligations, resolve disputes, and enforce our agreements.
+CHILDREN
+Protecting children’s privacy online is very important to us. Generally, our Services are not directed to children under 13 (or other age as required by local law), and the Services do not knowingly collect personal data from children, except as described in the following paragraph.
+For games that are not directed at children but nonetheless may appeal to them, we take additional steps to limit access to these Services based on the player’s age. For these Services, when a player indicates they are under 13 (or the applicable age in their territory), we will limit their access to certain features, such as social media and chat features, as well as certain types of notification alerts. We also limit the processing of personal data to only what is necessary to support the internal operations of our Services.
+If you are a parent or guardian and wish to review personal data collected from your child, or have that information modified or deleted, you may contact us as described above. If we become aware that a child has provided us with personal data contrary to the above, we will delete any personal data we have collected, unless we have a legal obligation to keep it, and terminate the child’s account and/or revert them to the underage experience, as applicable.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,11 +884,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292B9CE2-FE29-4B86-8E94-C68B2B5D6E10}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -947,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -969,7 +921,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -977,24 +929,13 @@
     </row>
     <row r="4" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StringTerms.xlsx
+++ b/Excel/StringTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ECA93D-6BAF-4D1A-9231-93CEB467D4AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10649B4A-6080-41AF-830A-689AA7E11BFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9020BB33-0B2F-43C5-8091-327AC8D50A2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9020BB33-0B2F-43C5-8091-327AC8D50A2F}"/>
   </bookViews>
   <sheets>
     <sheet name="StringTermsTable" sheetId="1" r:id="rId1"/>
@@ -54,183 +54,6 @@
   </si>
   <si>
     <t>kor|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">발효일 : 2020년 11월 6일
-본 약관(이하 "서비스 약관")은 귀하와 경기 성남시 분당구 이매로 35에 사무소를 가진 회사인 Powersource Studio (이하 "Powersource Studio" 또는 "당사") 사이에 있어서 귀하가 Powersource Studio의 게임, 웹사이트 및 관련 서비스(이하 "서비스")를 이용하는 것에 관하여 적용됩니다. 또한 서비스의 이용에는 Powersource Studio의 개인정보 보호정책과 기타 관련 정책들이 적용되는데, 이는 본 약관에 참조 형식으로 포함됩니다.
-서비스에 접속하거나 이를 이용(Powersource Studio의 웹사이트를 방문하거나 게임에 접속하는 행위를 포함)하기 전에, 귀하는 본 서비스 약관과 개인정보 보호정책에 동의하여야 합니다. 또한 귀하는 서비스 계정(이하 "계정")을 등록할 필요가 있습니다. 계정을 등록하거나 서비스를 이용함으로써, 귀하는 귀하가 거주하는 국가의 미성년자가 아님을 표시하는 것입니다. 만일 귀하가 미성년자일 경우에는 귀하가 계정을 등록하거나 또는 서비스를 이용함으로써 귀하는 귀하의 법정 대리인이 본 약관을 검토하고 동의하였다는 의사표시를 한 것입니다. 만일 귀하가 Google과 같은 소셜 네트워크 서비스(이하 "SNS")를 통하여 서비스에 접속하였다면, 귀하는 본 서비스 약관뿐만 아니라 SNS의 서비스 약관까지 준수해야 합니다.
-귀하가 서비스를 설치∙이용 또는 서비스에 접속함으로써, 귀하는 본 서비스 약관에 동의한 것입니다. 만일 귀하가 본 서비스 약관에 동의하지 않는다면, 서비스에의 접속 또는 서비스의 설치 또는 이용을 하지 않으시길 바랍니다. 서비스가 금지되는 경우 서비스의 이용은 무효입니다.
-Powersource Studio는 관련 법령에 따라 Powersource Studio의 서비스상에 변경된 조건들을 게재함으로써 본 서비스 약관과 당사의 개인정보 보호정책과 기타 관련 Powersource Studio 정책들의 일부를 재량에 따라 변경∙수정∙추가 또는 제거할 권리를 가집니다. Powersource Studio가 약관 및 개인정보보호정책을 변경할 경우, 변경된 내용은 Powersource Studio가 고지한 적용일자에 효력을 발생합니다. Powersource Studio는 적용일자로부터 최소한 7일 이전(이용자의 권리 및 의무에 중대하게 불리한 경우에는 30일 이전)에 적용일, 변경내용, 변경사유 등을 명시하여 Powersource Studio의 웹사이트 또는 서비스 화면에 고지합니다. 귀하는 이에 대하여 거부의사를 표시할 수 있고, 거부의사의 표시 없이 서비스를 계속해서 이용하는 것은 그러한 변경을 수용하는 것으로 간주될 것입니다. 만일 귀하가 귀하의 서비스 이용과 관련된 당사의 현재 버전의 서비스 약관, 개인정보 보호정책, 또는 그 밖에 어떠한 정책, 규칙 또는 행동강령의 어느 한 부분에라도 동의하지 않는다면, 서비스를 이용할 수 있는 귀하의 라이선스는 즉시 종료되어야 하고, 귀하는 즉시 서비스의 이용을 중단해야 합니다.
-1. 라이선스
-1.1. 서비스 이용에 관한 제한적 라이선스의 허여
-본 서비스 약관과 그 밖에 관련된 Powersource Studio의 정책들에 대한 귀하의 동의 및 지속적인 준수에 따라, Powersource Studio는 귀하에게 양도 불가능하고, 비독점적이고, 2차 라이선스 허여가 불가능하고, 취소 가능하고, 귀하 자신의 비상업적∙오락적 목적으로의 접속과 이용에 한정되며, 제한된 라이선스를 허여합니다. 귀하는 그 밖의 다른 목적으로 서비스를 이용하지 않을 것에 동의합니다.
-이하의 제한들은 서비스의 이용에 적용됩니다.
-- 미성년자가 법정대리인의 동의를 받지 않고 의무부담행위를 한 경우(예를 들면, 유료서비스 결제), 미성년자 또는 그 미성년자의 법정대리인은 해당계약을 취소할 수 있습니다.
-- 귀하는 귀하의 계정을 구매, 판매, 대여, 양도(혹은 이를 시도)하지 않고 거짓 신원 혹은 정보로 또는 타인을 대신하여 계정을 생성하지 않아야 합니다; 귀하가 사전에 Powersource Studio에 의해 제명되었거나 다른 Powersource Studio 게임의 플레이가 금지되었을 경우 서비스를 이용할 수 없습니다.
-- 귀하는 오로지 비상업적인 목적으로만 귀하의 계정을 이용하여야 합니다. 귀하는 광고, 호객행위, 상업적 광고들의 전송(행운의 편지, 스팸메일 또는 누군가에 대한 반복적이거나 허위의 메시지 전송을 포함) 목적으로 서비스를 이용할 수 없습니다.
-로그인 정보 및 계정
-귀하는 귀하의 계정에 대한 암호를 선택할 것을 요구 받게 되거나 계정 접속을 위해 다른 비밀 정보를 사용할 수도 있습니다(이하 "로그인 정보"). 귀하는 계정 또는 로그인 정보를 타인과 공유할 수 없고, 타인으로 하여금 귀하의 계정에 접근하거나 그 밖에 귀하의 계정의 보안을 위협하는 어떠한 행위를 하도록 허락할 수 없습니다. 귀하가 보안사고를 알게 되거나 합리적으로 보안사고를 의심할만한 상황을 인지하게 될 경우(로그인 정보의 손실, 도난 또는 무단 공개를 포함하나, 이에 한정되지 아니함), 귀하는 즉시 Powersource Studio에 해당 사실을 통지하고 귀하의 로그인 정보를 수정하여야 합니다. 귀하의 로그인 정보의 비밀유지는 전적으로 귀하가 책임져야 하고, 귀하는 귀하의 로그인 정보에 관한 모든 이용행위(구매행위를 포함하며, 귀하의 승인을 받았는지 여부는 불문함)에 대하여 책임을 부담합니다. 귀하는 귀하의 계정을 통하여 발생하는 모든 사안에 대하여 책임을 부담합니다.
-Powersource Studio는 언제든지, 그리고 어떠한 이유로든지(어떠한 이용자명이 제3자의 권리를 침해하였다는 제3자의 주장을 포함하나, 이에 한정되지 아니함), 어떠한 이용자명도 제거하거나 회수할 권리를 가집니다.
-본 서비스는 지원기기의 게임당 하나의 계정만을 지원합니다.
-라이선스의 제한
-본 라이선스의 제한을 위반한 상태에서의 모든 서비스의 이용은 엄격하게 금지되고, 귀하의 제한된 라이선스는 즉시 취소될 수 있으며, 귀하는 위법행위에 대하여 책임을 져야 할 수도 있습니다.
-귀하는 어떤 상황에서도 다음과 같은 행위를 하지 않을 것에 동의합니다.
-- Powersource Studio의 서비스 정신 또는 서비스 의도에 반하는 것으로 Powersource Studio가 간주하는 행위 또는 Powersource Studio의 지원 서비스를 부적절하게 이용하는 행위
-- Powersource Studio의 게임 또는 게임경력을 변경하거나 방해하도록 설계된 치트, 엑스플로잇, 자동화 소프트웨어, 에뮬레이터, 보트, 해킹 프로그램, 유저제작게임 또는 그 밖에 승인되지 않은 제3자 소프트웨어를 이용 혹은 이용(직, 간접적)에 참여하거나, 서비스 또는 Powersource Studio 게임의 일부 파일을 변경하거나 변경하도록 하는 행위
-- 서비스의 일반적인 흐름에 지장을 주거나 방해 또는 이에 부정적인 영향을 주는 행위나 서비스의 이용이나 Powersource Studio의 게임 플레이에서 다른 사용자의 경험에 부정적인 영향을 주는 방식의 행동. 이는 몰아주기와 같은 순위 조작과 관련된 모든 행동, 서비스 오류를 통해 다른 플레이어들로부터 부당한 이득을 얻는 행동, 서비스 내용에 대한 의도적인 악용 및 이에 반하는 행동들을 포함합니다.
-- 서비스 또는 Powersource Studio의 게임 환경을 제공하거나 지원하는 데에 사용되는 컴퓨터 또는 서버(이하 "서버")에 과부하를 걸거나 방해를 주거나 또는 이러한 과부하 또는 방해행위를 지원하는 행위
-- 공격행위(바이러스의 배포, 서비스에 대한 거부 공격, 또는 그 밖에 서비스 또는 제3자의 서비스 이용을 방해하고자 하는 행위를 포함하나, 이에 한정되지 아니함)를 개시하거나, 지원하거나, 또는 그에 관여하는 행위
-- 서비스, 타인 또는 다른 컴퓨터에 등록된 계정, 서버 또는 서비스에 연결된 네트워크에 대해 Powersource Studio로부터 제공된 이용자 인터페이스가 아닌 다른 수단을 통해 승인되지 않은 접속을 시도하는 행위(서비스의 일부분인 보안, 기술, 기기 또는 소프트웨어를 변경 또는 우회하거나 그러한 시도를 하는 행위 또는 그러한 변경이나 우회를 하는 누군가를 지원하거나 방조하는 행위를 포함하나, 이에 한정되지 아니함)
-- 권리남용적이거나 위협적이거나 음란하거나 타인의 명예를 훼손하거나 비방하거나 인종∙성별∙종교적 또는 그 밖의 이유로 부당하거나 불쾌한 정보를 게시하는 행위 또는 원치 않는 모든 사람들에게 반복적으로 정보를 게시하는 것과 같이 지속적인 이러한 해독행위들에 관여하는 것
-- 나체, 과도한 폭력 또는 불쾌한 주제를 포함한 정보 또는 그러한 내용에 관한 링크를 게시하는 행위
-- Powersource Studio의 고객 서비스 대리인을 포함하여 Powersource Studio의 피용자를 포함한 타인이나 그룹을 희롱하거나 괴롭히거나 해를 끼치는 행위 또는 그러한 희롱 또는 가해를 시도하거나 조장하는 행위
-- 서비스를 통하여 타인인 개인 또는 법인의 저작권, 상표, 특허, 영업비밀, 프라이버시권, 퍼블리시티권 또는 기타 권리를 침해하거나 타인(Powersource Studio의 피용자를 포함하나, 이에 한정되지 아니함)을 사칭하는 자료 또는 정보를 사용할 수 있도록 하는 행위
-- 서비스 또는 Powersource Studio의 게임을 제공하기 위하여 사용된 근본 소프트웨어 또는 다른 지적 재산권의 소스 코드를 추출하기 위하여, 또는 Powersource Studio가 명시적으로 허용하지 않은 방법을 사용하여 서비스 또는 Powersource Studio 게임으로부터 정보를 얻기 위하여 역설계, 역컴파일, 역어셈블, 해독행위 또는 기타 이를 위한 시도를 하는 행위
-- 서비스 또는 Powersource Studio 게임의 다른 이용자로부터 로그인 정보나 기타 로그인을 위한 비밀 정보 또는 개인정보를 구하거나 구하려는 시도를 하는 행위
-- 서비스를 통하여 누군가의 사적인 정보{개인신원정보(문자, 이미지, 또는 비디오와 같은 형태 불문함), 신원확인 문서, 또는 재무정보를 포함}를 수집하거나 게시하는 행위
-수수료 또는 판돈의 개입 여부를 불문하고, 귀하가 플레이어로서 참가하는 경기의 결과에 대해 배팅하는 행위를 포함해 도박, 배팅 또는 (직접적 또는 간접적으로) 상 또는 보상이 획득될 수 있는 유사한 활동을 위해 Powersource Studio 게임을 이용하는 행위
-Powersource Studio는 어떠한 행위가 이용규칙 위반에 해당되거나 본 서비스 약관 및 본 서비스 약관의 의도 또는 정신을 이탈하는 것인지 여부를 결정할 권리를 가집니다. Powersource Studio는 그 결정의 결과로서 조치를 취할 권리를 가지며 여기에는 귀하의 계정을 종료시키고 귀하의 서비스 이용을 전부 또는 일부를 금지하는 것이 포함됩니다.
-1.2. 계정과 서비스의 중단 및 종료
-만일 귀하가 본 서비스 약관을 준수하지 않거나 또는 서비스를 불법으로 또는 부적절하게 이용하거나, 또는 Powersource Studio가 귀하의 약관 미준수, 위법하거나 부적절한 이용행위를 의심할만한 사정이 있는 경우(이하 총칭하여 "이용자 의무위반 행위")에는, Powersource Studio는 귀하에게 통지하고 귀하의 서비스 또는 그 일부에 대한 접속 또는 귀하의 계정을 제한∙중단∙변경∙삭제(이하 "이용제한 조치")할 수 있습니다. Powersource Studio는 이용자 의무위반 행위에 대하여 위반행위의 내용, 정도, 횟수, 결과 등 제반 사정을 고려하여 차등하여 서비스 이용제한 조치를 취할 수 있고, 이는 Powersource Studio의 다른 권리구제수단을 제한하지 않습니다. 계정종료 또는 제한의 결과로, 귀하는 귀하의 서비스 이용과 관련된 이익, 특권, 획득한 아이템들과 구매한 아이템들뿐만 아니라 귀하의 서비스 내 이용자명과 캐릭터를 상실할 수 있고, Powersource Studio는 이러한 손해 또는 결과에 관하여 귀하에게 배상할 책임이 없습니다.
-당사는 이용자가 위험 또는 법률상 책임을 창출하거나, 제3자의 지적재산권을 침해하거나, 또는 당사의 약관이나 정책의 문언 또는 정신에 반하는 행위를 하는 것으로 판단될 경우에는 서비스와 이용자 계정 또는 그 일부분을 제한∙중단 또는 해지할 수 있고, 당사의 게임∙사이트 및 그 콘텐츠∙서비스∙툴에의 접속을 금지할 수 있으며, 제공되는 콘텐츠를 제거하거나 지연시킬 수 있고, 해당 이용자의 서비스 접속을 막기 위한 기술적∙법률적 조치를 취할 수 있습니다(이는 Powersource Studio의 다른 권리구제수단을 제한하지 않음). 또한, 당사는 적절한 상황 하에서 전적으로 당사의 재량에 따라, 제3자의 지적재산권을 반복적으로 침해할 여지가 있는 이용자의 계정을 중단하거나 해지시킬 수 있습니다.
-Powersource Studio는 180일 이상 휴면 중인 계정을 해지시킬 권리를 가집니다.
-Powersource Studio는 언제든지 서비스 또는 특정 게임 또는 서비스 일부의 제공 및/또는 지원을 중단할 권리를 가지고, 그와 동시에 서비스 또는 그 일부를 이용할 수 있는 귀하의 라이선스는 자동으로 종료됩니다. 이러한 경우, Powersource Studio는 이용자에 대하여 서비스의 중단으로 인한 환불∙보상∙배상을 할 책임을 부담하지 않습니다. 귀하의 계정의 해지에는 서비스 또는 그 일부(귀하 또는 타인이 제출한 콘텐츠를 포함)에 대한 귀하의 접속을 불가능하게 하는 것도 포함될 수 있습니다.
-2. 소유권
-2.1. 게임과 서비스
-서비스에 관한 모든 권리, 소유권, 이익(게임, 출판물, 컴퓨터 코드, 테마, 물건, 캐릭터, 캐릭터명, 스토리, 다이얼로그, 캐치프레이즈, 콘셉트, 삽화, 애니메이션, 음향, 음악구성형식, 시청각적 효과, 작동방법, 저작인격권, 서류, 게임상의 채팅기록, 캐릭터 프로필 정보, Powersource Studio의 게임 클라이언트를 이용한 게임 플레이 기록, Powersource Studio의 게임 클라이언트와 서버 소프트웨어를 포함하나, 이에 한정되지 아니함)은 Powersource Studio가 소유합니다. Powersource Studio는 당사의 게임 및 서비스에 관한 모든 권리(지적재산권 또는 그 밖의 소유권을 포함하나, 이에 한정되지 아니함)를 가집니다.
-2.2. 계정
-어떠한 경우에도, 귀하는 귀하가 계정에 대한 소유권 또는 그 밖의 재산상 이익을 가지지 않음을 인정하고 동의하며, 나아가, 귀하는 계정상의 또는 계정에 대한 모든 권리는 영구적으로 Powersource Studio가 소유하고 Powersource Studio의 이익을 위하여만 유효함을 인정하고 동의합니다.
-2.3. 가상 아이템들
-Powersource Studio는 Powersource Studio의 게임 또는 서비스상의 모든 콘텐츠를 소유하고, 라이선스를 허여하며 기타 이를 이용할 권리를 가집니다. 어떠한 경우에도, 귀하는 서비스상의 어떠한 콘텐츠(Powersource Studio의 게임에서 발생하거나 나타나는 가상의 물품 또는 통화(게임상에서 획득하였거나 Powersource Studio로부터 구매하였는지 여부를 불문함) 또는 계정과 결부되거나 서비스상에 저장된 부수물을 포함하나, 이에 한정되지 아니함)에 대하여 아무런 권리 또는 소유권을 가지지 않음에 동의합니다.
-3. 이용자 콘텐츠
-3.1 이용자 콘텐츠 개진
-"이용자 콘텐츠"는 의사소통, 이미지, 음향, 그리고 모든 자료, 데이터, 그리고 귀하 또는 다른 이용자들이 Powersource Studio 게임 클라이언트 또는 서비스를 통하여 업로드하거나 전송한 정보(채팅 텍스트를 포함하나, 이에 한정되지 아니함)를 의미합니다. 서비스를 이용하는 동안 어떠한 이용자 콘텐츠를 전송 또는 제출함으로써, 귀하는 그러한 전송 또는 제출행위가 (a)정확하고, 비밀이 아니며, (b) 법률 또는 계약상의 제한 또는 그 밖의 제3자의 권리를 위반하지 아니하고, 또한 귀하가 이용자 콘텐츠를 구성하는 개인정보 또는 지적재산권의 소유자인 제3자로부터 허락을 받았으며, (c) 바이러스, 애드웨어, 스파이웨어, 웜 바이러스 또는 그 밖의 악성코드가 없다는 것을 확인하고 진술 및 보증하며, (d) 그러한 콘텐츠 내의 귀하의 개인정보는 언제나 Powersource Studio의 개인정보 보호정책에 따라 처리됨을 인정하고 이에 동의합니다.
-3.2. 콘텐츠 심사
-Powersource Studio는 이용자 콘텐츠를 제출하는 이용자의 행위에 대하여 어떠한 책임도 지지 않고, 부적절한 콘텐츠 또는 행위에 대하여 서비스를 감시할 어떠한 책임도 지지 않습니다. 당사는 모든 이용자 콘텐츠를 사전에 심사하거나 감시할 수 없고 심사 또는 감시하지도 않습니다. 귀하의 서비스 이용에 따른 위험은 귀하 자신이 부담합니다. 서비스를 이용함으로써 귀하는 불쾌하고, 외설적이거나 귀하의 기대에 부응하지 않는 이용자 콘텐츠에 노출될 수 있습니다. 귀하는 서비스와 연결되어 사용 가능한 모든 이용자 콘텐츠의 사용과 관련된 일체의 위험을 부담합니다. 당사의 재량에 따라, 귀하의 서비스 이용 시 당사의 대리인 또는 당사의 기술에 의하여 귀하의 서비스와의 상호작용 또는 의사소통(채팅 텍스트를 포함하나 이에 한정되지 아니함)을 관찰 및/또는 기록할 수 있습니다.
-본 서비스 약관을 체결함으로써 귀하는 이러한 관찰과 기록에 대하여 취소할 수 없는 동의를 하는 것입니다. 귀하는 채팅 텍스트 또는 음성 의사소통을 포함하여 이용자 콘텐츠의 전송과 관련하여 프라이버시를 기대하지 않음을 인정하고 동의합니다.
-Powersource Studio는 어떠한 근거에 대한 공지 없이 혹은 언제든지 별다른 이유 없이 재량으로 사용자 콘텐츠(귀하의 사용자 콘텐츠에 대한 제한 없이 이를 포함하여)에 대한 검토, 관찰, 금지, 편집, 삭제, 접속 금지 또는 이를 이용할 수 없도록 할 권한을 갖습니다. Powersource Studio가 전적으로 당사의 재량에 따라 서비스를 관찰하기로 결정한 경우에도, Powersource Studio는 이용자 콘텐츠에 대하여 어떠한 책임도 부담하지 아니하고, 부적절한 이용자 콘텐츠를 수정 또는 제거할 의무를 부담하지도 않습니다. 당사는 당사의 전적인 재량 하에 이용자 콘텐츠를 편집하고, 전송을 거부하거나 제거할 권리를 가지고 있으나, 그러한 의무를 부담하지는 않습니다.
-3.2. 서비스의 다른 이용자들에 의한 정보 이용
-3.2.1. 공시
-지정된 주제에 관한 귀하의 논평과 언급을 포함하여 귀하가 이용자 콘텐츠를 게시할 수 있는 다양한 포럼, 블로그, 그리고 채팅 기능이 서비스에 포함될 수 있습니다. Powersource Studio는 귀하가 공유하는 아이디어와 정보를 다른 이용자들이 이용하지 않으리라는 점을 보증하지 않습니다. 따라서 만일 귀하가 비밀을 유지하고자 하는 정보 또는 아이디어를 가지고 있고 또는/그리고 다른 사람들이 이를 이용하지 않기를 바란다면, 이를 서비스에 게시하지 마십시오. Powersource Studio는 귀하가 제출하기로 결정한 아이디어 또는 정보를 평가하거나 이용하거나 그와 관련하여 귀하에게 배상할 책임을 지지 않습니다.
-3.2.2. 귀하 소유의 콘텐츠에 대한 책임
-귀하는 귀하가 서비스상에 또는 서비스를 통하여 또는 서비스와 관련하여 게시하거나 또는 타인에게 제공한 정보에 대하여 전적으로 책임을 집니다. Powersource Studio는 어떠한 이유로든지 또는 아무 이유 없이도 이용자 콘텐츠(Powersource Studio의 전적인 판단에 따랐을 때 본 서비스 약관을 위반하는 이용자 콘텐츠를 포함하나, 이에 한정되지 아니함)를 거절하거나 게시를 거부하거나 이를 삭제할 수 있습니다.
-3.3. Powersource Studio에 대한 귀하의 라이선스
-귀하는 이로써 Powersource Studio에 대하여 취소할 수 없고, 영구적이며, 이전 가능하며, 전액 완납된, 로열티가 부과되지 않는, 전 세계적인 라이선스(2차 라이선스권과 제3자에 대한 양도권을 포함)와, 당사의 서비스 제공과 관련된 귀하의 이용자 콘텐츠뿐만 아니라 그에 관한 모든 변경되고 파생된 가공물을 복사∙복제∙재생성∙수리∙조정∙변경∙2차적저작물 생성∙제조∙상업화∙퍼블리싱∙배포∙판매∙라이선스∙2차 라이선스∙이전∙리스∙전송∙공개적인 전시∙공개적인 공연∙전자적 접속의 제공∙방송∙전기통신에 의한 대중과의 의사소통∙전시∙공연∙컴퓨터 메모리에의 입력, 그리고 어떠한 방식으로든지 이용 및 실행(서비스의 마케팅과 프로모션을 포함)할 권리를 허여합니다. 또한 귀하는 Powersource Studio가 본 서비스 약관에 따라 Powersource Studio에게 허여된 권리를 행사할 권한을 타인에게 부여할 수 있음을 허여합니다. 나아가 귀하는 Powersource Studio에게, 귀하에 대하여 어떠한 의무도 부담함이 없이, 귀하의 성명, 초상, 그리고 그 밖에 이용자 콘텐츠에 포함되거나 그와 연관된 정보 또는 자료를 이용하고 활용할 무조건적이고 취소 불가능한 권리를 허여합니다. 법률에 의하여 금지되지 않는 한, 귀하의 이용자 콘텐츠가 어떠한 방식으로 수정 또는 변경되건 간에, 귀하는 귀하의 이용자 콘텐츠에 대하여 귀하가 가질 수 있는 모든 소유권 및/또는 저작인격권을 포기합니다. Powersource Studio는 귀하의 이용자 콘텐츠에 대하여 어떠한 소유권도 주장하지 않고 본 서비스 약관은 귀하가 귀하의 이용자 콘텐츠를 이용하고 활용할 권리를 제한하지 않습니다. Powersource Studio는 귀하의 이용자 콘텐츠에 대한 귀하의 지적 재산권을 감시하거나 집행할 의무를 부담하지 않습니다
-3.4. 이용자 상호작용
-귀하는 서비스의 다른 이용자들 및 서비스 및/또는 Powersource Studio 게임을 통하여 귀하가 상호작용하는 다른 당사자들과의 상호작용에 대하여 전적으로 책임을 부담합니다. Powersource Studio는 이러한 분쟁에 관여할 권리를 가지지만 그러한 의무는 부담하지 않습니다. 위법하거나 사기적이거나 또는 부적합하다고 의심받는 활동에 관한 Powersource Studio의 조사에 귀하는 전적으로 협력(Powersource Studio가 귀하의 계정의 암호로 보호받는 부분에 접속하는 것을 승인하는 것을 포함하나, 이에 한정되지 아니함)합니다.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Effective Date: November 6, 2020
-The terms of this agreement ("Terms of Service") govern the relationship between you and Powersource, a Korean company having its registered office at Imae-ro 35 Bundang-gu Seongnam-si Gyeonggi, Korea, (hereinafter "Powersource" or "Us" or "We") regarding your use of Powersource's games, websites and related services (the "Service"). Use of the Service is also governed by Powersource's Privacy Policy and other relevant policies, which are incorporated herein by reference.
-Before accessing or using the Service, including browsing any Powersource website or accessing a game, you must agree to these Terms of Service and the Privacy Policy. You may also be required to register an account on the Service (an "Account"). By registering for an Account or otherwise using the Service, you affirm that you are the legal age of majority in your country of residence. If you are not, your legal guardian must review and agree to these Terms. If you access the Service from a Social Networking Site ("SNS"), such as Google, you shall comply with its terms of service/use as well as these Terms of Service.
-BY INSTALLING, USING OR OTHERWISE ACCESSING THE SERVICE, YOU AGREE TO THESE TERMS OF SERVICE. IF YOU DO NOT AGREE TO THESE TERMS OF SERVICE, PLEASE DO NOT INSTALL, USE OR OTHERWISE ACCESS THE SERVICE. USE OF THE SERVICE IS VOID WHERE PROHIBITED.
-Powersource reserves the right, at its discretion, to change, modify, add or remove portions of these Terms of Service, its Privacy Policy and other relevant Powersource policies at any time by posting the amended terms on the Powersource Service. You will be deemed to have accepted such changes by continuing to use the Service. If at any point you do not agree to any portion of the then-current version of our Terms of Service, the Powersource Privacy Policy, or any other Powersource policy, rules or codes of conduct relating to your use of the Service, your license to use the Service shall immediately terminate, and you must immediately stop using the Service.
-1. License
-1.1. Grant of a Limited License to Use the Service
-Subject to your agreement and continuing compliance with these Terms of Service and any other relevant Powersource policies, Powersource grants you a non-exclusive, non-transferable, non-sublicensable, revocable and limited license to access and use the Service for your own non-commercial entertainment purposes. You agree not to use the Service for any other purpose.
-The following restrictions apply to the use of the Service:
-- You accept full responsibility for any unauthorized use of the Service by minors. You are responsible for any use of your credit card or other payment instrument (e.g. paypal) by minors.
-- You shall not (or attempt to) purchase, sell, rent or give away your Account, create an Account using a false identity or information, or on behalf of someone other than yourself; You shall not use the Service if you have previously been removed by Powersource, or previously been banned from playing any Powersource game.
-- You shall use your Account only for non-commercial purposes; You shall not use the Service to advertise, or solicit, or transmit any commercial advertisements, including chain letters, junk or spam e-mail or repetitive or misleading messages to anyone.
-Login information and Your Account
-You may be required to select a password for your Account or you may also use other credentials to access the Account ("Login Information"). You shall not share the Account or the Login Information, nor let anyone else access your Account or do anything else that might jeopardize the security of your Account. In the event you become aware of or reasonably suspect any breach of security, including without limitation any loss, theft, or unauthorized disclosure of the Login Information, you must immediately notify Powersource and modify your Login Information. You are solely responsible for maintaining the confidentiality of the Login Information, and you will be responsible for all uses of the Login Information, including purchases, whether or not authorized by you. You are responsible for anything that happens through your Account.
-Powersource reserves the right to remove or reclaim any usernames at any time and for any reason, including but not limited to claims by a third party that a username violates the third party's rights.
-The Service supports only one Account per game on a supported device.
-License Limitations
-Any use of the Service in violation of these License Limitations is strictly prohibited, can result in the immediate revocation of your limited license and may subject you to liability for violations of law.
-You agree that you will not, under any circumstances:
-- Engage in any act that Powersource deems to be in conflict with the spirit or intent of the Service or make improper use of Powersource's support services.
-- Use or take part (directly or indirectly) in the use of cheats, exploits, automation software, emulators, bots, hacks, mods or any unauthorized third-party software designed to modify or interfere with the Service, any Powersource game or any Powersource game experience.
-- Modify or cause to be modified any files that are a part of the Service or any Powersource game without Powersource's express written consent.
-- Disrupt, interfere with or otherwise adversely affect the normal flow of the Service or otherwise act in a manner that may negatively affect other users' experience when using the Service or playing Powersource's games. This includes win trading and any other kind of manipulation of rankings, taking advantage of errors in the Service to gain an unfair edge over other players and any other act that intentionally abuses or goes against the design of the Service.
-- Disrupt, overburden, or aid or assist in the disruption or overburdening of any computer or server ("Server") used to offer or support the Service or any Powersource game environment.
-Institute, assist, or become involved in any type of attack, including without limitation distribution of a virus, denial of service attacks upon the Service, or other attempts to disrupt the Service or any other person's use or enjoyment of the Service.
-- Attempt to gain unauthorized access to the Service, Accounts registered to others or to the computers, Servers, or networks connected to the Service by any means other than the user interface provided by Powersource, including but not limited to, by circumventing or modifying, attempting to circumvent or modify, or encouraging or assisting any other person to circumvent or modify, any security, technology, device, or software that is part of the Service.
-Post any information that is abusive, threatening, obscene, defamatory, libelous, or racially, sexually, religiously, or otherwise objectionable or offensive or engage in ongoing toxic behavior, such as by repeatedly posting information on an unsolicited basis.
-- Post any information that contains nudity, excessive violence, or offensive subject matter or that contains a link to such content.
-- Attempt to, or harass, abuse, or harm, or advocate or incite harassment, abuse, or harm of another person, group, including Powersource employees, including Powersource's customer service representatives.
-- Make available through the Service any material or information that infringes any copyright, trademark, patent, trade secret, right of privacy, right of publicity, or other right of any person or entity or impersonates any other person, including without limitation a Powersource employee.
-- Reverse engineer, decompile, disassemble, decipher or otherwise attempt to derive the source code for any underlying software or other intellectual property used to provide the Service or any Powersource game, or to obtain any information from the Service or any Powersource game using any method not expressly permitted by Powersource.
-- Solicit or attempt to solicit Login Information or any other login credentials or personal information from other users of the Service or any Powersource game.
-- Collect or post anyone's private information, including personally identifiable information (whether in text, image or video form), identification documents, or financial information through the Service.
-- Use any Powersource game for gambling, betting or any similar activity in which prizes or rewards can be won (directly or indirectly), including betting on the outcome of matches in which you participate as a player, irrespective of whether or not there is a fee or stake involved.
-Powersource reserves the right to determine what conduct it considers to be in violation of the rules of use or otherwise outside the intent or spirit of these Terms of Service or the Service itself. Powersource reserves the right to take action as a result, which may include terminating your Account and prohibiting you from using the Service in whole or in part.
-1.2. Suspension and Termination of Account and Service
-WITHOUT LIMITING ANY OTHER REMEDIES, Powersource MAY LIMIT, SUSPEND, TERMINATE, MODIFY, OR DELETE ACCOUNTS OR ACCESS TO THE SERVICE OR PORTIONS THEREOF IF YOU ARE, OR Powersource SUSPECTS THAT YOU ARE, FAILING TO COMPLY WITH ANY OF THESE TERMS OF SERVICE OR FOR ANY ACTUAL OR SUSPECTED ILLEGAL OR IMPROPER USE OF THE SERVICE, WITH OR WITHOUT NOTICE TO YOU. YOU CAN LOSE YOUR USER NAME AND PERSONA IN THE SERVICE AS A RESULT OF ACCOUNT TERMINATION OR LIMITATION, AS WELL AS ANY BENEFITS, PRIVILEGES, EARNED ITEMS AND PURCHASED ITEMS ASSOCIATED WITH YOUR USE OF THE SERVICE, AND Powersource IS UNDER NO OBLIGATION TO COMPENSATE YOU FOR ANY SUCH LOSSES OR RESULTS.
-WITHOUT LIMITING OUR OTHER REMEDIES, WE MAY LIMIT, SUSPEND OR TERMINATE THE SERVICE AND USER ACCOUNTS OR PORTIONS THEREOF, PROHIBIT ACCESS TO OUR GAMES AND SITES, AND THEIR CONTENT, SERVICES AND TOOLS, DELAY OR REMOVE HOSTED CONTENT, AND TAKE TECHNICAL AND LEGAL STEPS TO PREVENT USERS FROM ACCESSING THE SERVICE IF WE BELIEVE THAT THEY ARE CREATING RISK OR POSSIBLE LEGAL LIABILITIES, INFRINGING THE INTELLECTUAL PROPERTY RIGHTS OF THIRD PARTIES, OR ACTING INCONSISTENTLY WITH THE LETTER OR SPIRIT OF OUR TERMS OR   POLICIES. ADDITIONALLY, WE MAY, IN APPROPRIATE CIRCUMSTANCES AND AT OUR SOLE DISCRETION, SUSPEND OR TERMINATE ACCOUNTS OF USERS WHO MAY BE REPEAT INFRINGERS OF THIRD PARTY INTELLECTUAL PROPERTY RIGHTS.
-Powersource RESERVES THE RIGHT TO TERMINATE ANY ACCOUNT THAT HAS BEEN INACTIVE FOR 180 DAYS.
-Powersource reserves the right to stop offering and/or supporting the Service or a particular game or part of the Service at any time, at which point your license to use the Service or a part thereof will be automatically terminated. In such event, Powersource shall not be required to provide refunds, benefits or other compensation to users in connection with such discontinued Service. Termination of your Account can include disabling your access to the Service or any part thereof including any content you submitted or others submitted.
-2. Ownership
-2.1. Games and Service
-All rights, title and interest in and to the Service (including without limitation any games, titles, computer code, themes, objects, characters, character names, stories, dialogue, catch phrases, concepts, artwork, animations, sounds, musical compositions, audio-visual effects, methods of operation, moral rights, documentation, in-game chat transcripts, character profile information, recordings of games played using a Powersource game client, and the Powersource game clients and server software) are owned by Powersource. Powersource reserves all rights, including without limitation, all intellectual property rights or other proprietary rights, in connection with its games and the Service.
-2.2. Accounts
-NOTWITHSTANDING ANYTHING TO THE CONTRARY HEREIN, YOU ACKNOWLEDGE AND AGREE THAT YOU SHALL HAVE NO OWNERSHIP OR OTHER PROPERTY INTEREST IN THE ACCOUNT, AND YOU FURTHER ACKNOWLEDGE AND AGREE THAT ALL RIGHTS IN AND TO THE ACCOUNT ARE AND SHALL FOREVER BE OWNED BY AND INURE TO THE BENEFIT OF Powersource.
-2.3. Virtual Items
-Powersource owns, has licensed, or otherwise has rights to use all of the content that appears in the Service or in Powersource games. Notwithstanding any provision to the contrary herein, you agree that you have no right or title in or to any content that appears in the Service, including without limitation the virtual goods or currency appearing or originating in any Powersource game, whether earned in a game or purchased from Powersource, or any other attributes associated with an Account or stored on the Service.
-3. User Content
-3.1. Submission of User Content
-"User Content" means any communications, images, sounds, and all the material, data, and information that you upload or transmit through a Powersource game client or the Service, or that other users upload or transmit, including without limitation any chat text. By transmitting or submitting any User Content while using the Service, you affirm, represent and warrant that such transmission or submission is (a) accurate and not confidential or misleading; (b) not in violation of any laws, contractual restrictions or other third party rights, and that you have permission from any third party whose personal information or intellectual property is comprised in the User Content; (c) free of viruses, adware, spyware, worms or other malicious code; and (d) you acknowledge and agree that any of your personal information within such content will at all times be processed by Powersource in accordance with its Privacy Policy.
-3.1.1. Content Screening
-Powersource assumes no responsibility for the conduct of any user submitting any User Content, and assumes no responsibility for monitoring the Service for inappropriate content or conduct. We do not, and cannot, pre-screen or monitor all User Content. Your use of the Service is at your own risk. By using the Service, you may be exposed to User Content that is offensive, indecent or otherwise not in line with your expectations. You bear all risks associated with the use of any User Content available in connection with the Service. At our discretion, our representatives or technology may monitor and/or record your interaction with the Service or communications (including without limitation chat text) when you are using the Service.
-By entering into these Terms of Service, you hereby provide your irrevocable consent to such monitoring and recording. You acknowledge and agree that you have no expectation of privacy concerning the transmission of any User Content, including without limitation chat text or voice communications.
-Powersource reserves the right in its sole discretion to review, monitor, prohibit, edit, delete, disable access to or otherwise make unavailable any User Content (including without limitation your User Content) without notice for any reason or for no reason at any time. If at any time Powersource chooses, in its sole discretion, to monitor the Service, Powersource nonetheless assumes no responsibility for User Content and assumes no obligation to modify or remove any inappropriate User Content. We have the right, but not the obligation, in our sole discretion to edit, refuse to post, or remove any User Content.
-3.2. Information Use by Other Members of the Service
-3.2.1. Public Discourse
-The Service may include various forums, blogs and chat features where you can post User Content, including your observations and comments on designated topics. Powersource cannot guarantee that other members will not use the ideas and information that you share. Therefore, if you have an idea or information that you would like to keep confidential and/or don't want others to use, do not post it on the Service. Powersource shall have no responsibility to evaluate, use or compensate you for any ideas or information you may choose to submit.
-3.2.2. Responsible For Your Own Content
-You are solely responsible for the information that you post on, through or in connection with the Service and that you provide to others. Powersource may reject, refuse to post or delete any User Content for any or no reason, including, but not limited to, User Content that in the sole judgment of Powersource violates these Terms of Service.
-3.2.3. Your License to Powersource
-You hereby grant to Powersource an irrevocable, perpetual, transferable, fully paid-up, royalty-free, worldwide license (including the right to sublicense and assign to third party) and right to copy, reproduce, fix, adapt, modify, create derivative works from, manufacture, commercialize, publish, distribute, sell, license, sublicense, transfer, lease, transmit, publicly display, publicly perform, or provide access to electronically, broadcast, communicate to the public by telecommunication, display, perform, enter into computer memory, and use and practice, in any way, your User Content as well as all modified and derivative works thereof in connection with our provision of the Service, including marketing and promotions of the Service. You also hereby grant to Powersource the right to authorize others to exercise any of the rights granted to Powersource under these Terms of Service. You further hereby grant to Powersource the unconditional, irrevocable right to use and exploit your name, likeness and any other information or material included in any User Content and in connection with any User Content, without any obligation to you. Except as prohibited by law, you waive any rights of attribution and/or any moral rights you may have in your User Content, regardless of whether your User Content is altered or changed in any manner. Powersource does not claim any ownership rights in your User Content and nothing in these Terms of Service is intended to restrict any rights that you may have to use and exploit your User Content. Powersource has no obligation to monitor or enforce your intellectual property rights in or to your User Content.
-3.3. User Interactions
-You are solely responsible for your interactions with other users of the Service and any other parties with whom you interact through the Service and/or Powersource games. Powersource reserves the right, but has no obligation, to become involved in any way with these disputes. You will fully cooperate with Powersource to investigate any suspected unlawful, fraudulent or improper activity, including, without limitation, granting Powersource access to any password-protected portions of your Account.
-If you have a dispute with one or more users, you release us (and our officers, directors, agents, subsidiaries, joint ventures and employees) from claims, demands and damages (actual and consequential) of every kind and nature, known and unknown, arising out of or in any way connected with such disputes.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. Fees and Purchase Terms
-4.1.Purchases
-In the Service you may purchase, with "real world" money, a limited, personal, non-transferable, non-sublicensable, revocable license to use (a) "virtual currency", including but not limited to virtual cash or diamonds, all for use in Powersource games; (b) "virtual in-game items" (together with "virtual currency", "Virtual Items"); and (c) other goods or services ("Merchandise"). You are only allowed to purchase Virtual Items from us or our authorised partners through the Service, and not in any other way.
-Powersource may manage, regulate, control, modify or eliminate Virtual Items and/or Merchandise at any time, with or without notice. Powersource shall have no liability to you or any third party in the event that Powersource exercises any such rights.
-The transfer of Virtual Items and Merchandise is prohibited except where expressly authorized in the Service. Other than as expressly authorized in the Service, you shall not sell, purchase, redeem or otherwise transfer Virtual Items or Merchandise to any person or entity or attempt any of the aforesaid, including but not limited to Powersource, another user or any third party.
-ALL PURCHASES AND REDEMPTIONS OF VIRTUAL ITEMS MADE THROUGH THE SERVICE ARE FINAL AND NON-REFUNDABLE.
-The provision of Virtual Items for use in Powersource games is a service provided by Powersource that commences immediately upon acceptance by Powersource of your purchase.
-4.2. Payment of Fees
-You agree to pay all fees and applicable taxes incurred by you or anyone using an Account registered to you. Powersource may revise the pricing for the goods and services offered through the Service at any time. YOU ACKNOWLEDGE THAT Powersource IS NOT REQUIRED TO PROVIDE A REFUND FOR ANY REASON, AND THAT YOU WILL NOT RECEIVE MONEY OR OTHER COMPENSATION FOR UNUSED VIRTUAL ITEMS WHEN AN ACCOUNT IS CLOSED, WHETHER SUCH CLOSURE WAS VOLUNTARY OR INVOLUNTARY.
-5. Updates to the Service
-You understand that the Service is an evolving one. Powersource may require that you accept updates to the Service and to Powersource's games you have installed on your device or computer. You acknowledge and agree that Powersource may update the Service and Powersource games, with or without notifying you. You may need to update third party software from time to time in order to receive the Service and play Powersource games.
-6. Disclaimer of Warranties
-WITHOUT LIMITING Powersource'S LIABILITY UNDER SECTION 7 BELOW, THE SERVICE IS PROVIDED ON AN "AS IS" AND "AS AVAILABLE" BASIS FOR YOUR USE, WITHOUT WARRANTIES OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING WITHOUT LIMITATION THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE, NON-INFRINGEMENT, AND THOSE ARISING FROM COURSE OF DEALING OR USAGE OF TRADE. Powersource DOES NOT WARRANT THAT YOU WILL BE ABLE TO ACCESS OR USE      THE SERVICE AT THE TIMES OR LOCATIONS OF YOUR CHOOSING; THAT THE SERVICE WILL BE UNINTERRUPTED OR ERROR-FREE; THAT DEFECTS WILL BE CORRECTED; OR THAT THE GAME OR THE SERVICE ARE FREE OF VIRUSES OR OTHER HARMFUL COMPONENTS.
-Some jurisdictions do not allow the exclusion of certain warranties. Accordingly, some of the above disclaimers may not apply to you.
-7. Limitation of Liability; Sole and Exclusive Remedy; Indemnification
-TO THE MAXIMUM EXTENT PERMITTED BY LAW, Powersource SHALL NOT BE LIABLE TO YOU FOR ANY INDIRECT, INCIDENTAL, CONSEQUENTIAL, SPECIAL, PUNITIVE OR OTHER SIMILAR DAMAGES, INCLUDING BUT NOT LIMITED TO LOSS OF REVENUES, LOST PROFITS, LOST DATA OR BUSINESS INTERRUPTION OR OTHER INTANGIBLE LOSSES (HOWEVER SUCH LOSSES ARE QUALIFIED), ARISING OUT OF OR RELATING IN ANY WAY TO THESE TERMS OF SERVICE OR THE SERVICE ITSELF, WHETHER BASED ON CONTRACT, TORT OR ANY OTHER LEGAL THEORY, AND WHETHER OR NOT Powersource HAS BEEN ADVISED OF THE POSSIBILITY OF SUCH DAMAGES. TO THE EXTENT NOT PROHIBITED BY LAW, Powersource SHALL NOT BE LIABLE TO YOU FOR MORE THAN THE AMOUNT YOU HAVE PAID TO Powersource IN ACCORDANCE WITH THESE TERMS OF SERVICE IN THE SIX (6) MONTHS IMMEDIATELY PRECEDING THE DATE ON WHICH YOU FIRST ASSERT A CLAIM. YOU ACKNOWLEDGE AND AGREE THAT IF YOU HAVE NOT PAID ANYTHING TO Powersource DURING SUCH TIME PERIOD, YOUR SOLE REMEDY (AND Powersource'S EXCLUSIVE LIABILITY) FOR ANY DISPUTE WITH Powersource IS TO STOP USING THE SERVICE AND TO CANCEL YOUR ACCOUNT.
-NOTHING IN THESE TERMS OF SERVICE SHALL AFFECT THE STATUTORY RIGHTS OF ANY CONSUMER OR EXCLUDE OR RESTRICT ANY LIABILITY RESULTING FROM GROSS NEGLIGENCE OR WILLFUL MISCONDUCT OF Powersource OR FOR DEATH OR PERSONAL INJURY ARISING FROM ANY NEGLIGENCE OR FRAUD OF Powersource.
-You agree to indemnify, defend and hold Powersource (and our officers, directors, agents, subsidiaries, joint ventures and employees) harmless from any claim, demand, damages or other losses, including reasonable attorneys' fees, asserted by any third-party resulting from or arising out of your use of the Service, or any breach by you of these Terms of Service, however the foregoing does not apply if the infringement of rights is not attributable to your intentional or negligent behavior.
-8. Dispute Resolution and Law
-If a dispute arises between you and Powersource, we strongly encourage you to first contact us directly to seek a resolution by going to our in-game inquiry. If you are a resident of the United States, these Terms of Service and any dispute arising out of or related to it or Privacy Policy or the Service shall be governed in all respects by California law, without regard to conflict of law provisions. You agree that any claim or dispute you may have against Powersource must be resolved exclusively by a court located in San Francisco, California. If you are a resident outside of the United States, you agree that all disputes between you and Powersource shall be governed by the laws of Finland, without regard to conflict of law provisions. You agree that any claim or dispute you may have against Powersource must be resolved exclusively by a court located in Korea.
-9. Severability
-You and Powersource agree that if any portion of these Terms of Service or of the Powersource Privacy Policy is found illegal or unenforceable, in whole or in part by any court of competent jurisdiction, such provision shall, as to such jurisdiction, be ineffective solely to the extent of such determination of invalidity or unenforceability without affecting the validity or enforceability thereof in any other manner or jurisdiction and without affecting the remaining provisions of the terms, which shall continue to be in full force and effect.
-10. General Provisions
-10.1. Assignment
-Powersource may assign or delegate these Terms of Service and/or the Powersource Privacy Policy, in whole or in part, to any person or entity at any time with or without your consent. You may not assign or delegate any rights or obligations under the Terms of Service or Privacy Policy without Powersource's prior written consent, and any unauthorized assignment and delegation by you is ineffective.
-10.2. Supplemental Policies
-Powersource may publish additional policies related to specific services such as forums, contests or loyalty programs. Your right to use such services is subject to those specific policies and these Terms of Service.
-10.3. Entire Agreement
-These Terms of Service, any supplemental policies and any documents expressly incorporated by reference herein (including the Powersource Privacy Policy), contain the entire understanding of you and Powersource, and supersede all prior understandings of the parties hereto relating to the subject matter hereof, whether electronic, oral or written, or whether established by custom, practice, policy or precedent, between you and us with respect to the Service.
-10.4. No Waiver
-The failure of Powersource to require or enforce strict performance by you of any provision of these Terms of Service or the Powersource Privacy Policy or failure to exercise any right under them shall not be construed as a waiver or relinquishment of Powersource's right to assert or rely upon any such provision or right in that or any other instance.
-The express waiver by Powersource of any provision, condition, or requirement of these Terms of Service or the Powersource Privacy Policy shall not constitute a waiver of any future obligation to comply with such provision, condition or requirement.
-Except as expressly and specifically set forth in this these Terms of Service, no representations, statements, consents, waivers, or other acts or omissions by Powersource shall be deemed a modification of these Terms of Service nor legally binding, unless documented in physical writing, hand signed by You and a duly appointed officer of Powersource.
-10.5. Notices
-We may notify you via e-mail or any other communications means to contact information you provide to us. All notices given by you or required from you under these Terms of Service or the Powersource Privacy Policy shall be addressed to the following email: powersourcelegalrequests@gmail.com. Any notices that you provide without compliance with this Section on Notices shall have no legal effect.
-10.6. Equitable Remedies
-You acknowledge that the rights granted and obligations made under these Terms of Service to Powersource are of a unique and irreplaceable nature, the loss of which shall irreparably harm Powersource and which cannot be replaced by monetary damages alone so that Powersource shall be entitled to injunctive or other equitable relief (without the obligations of posting any bond or surety or proof of damages) in the event of any breach or anticipatory breach by you.
-You irrevocably waive all rights to seek injunctive or other equitable relief, or to enjoin or restrain the operation of the Service or any Powersource game, exploitation of any advertising or other materials issued in connection therewith, or exploitation of the Service or any content or other material used or displayed through the Service and agree to limit your claims to claims for monetary damages, limited by Section 7 (if any).
-10.7. Force Majeure
-Powersource shall not be liable for any delay or failure to perform resulting from causes outside the reasonable control of Powersource, including without limitation any failure to perform hereunder due to unforeseen circumstances or cause beyond Powersource's control such as acts of God, war, terrorism, riots, embargoes, acts of civil or military authorities, fire, floods, accidents, strikes, or shortages of transportation facilities, fuel, energy, labor or materials.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -517,6 +340,185 @@
 Protecting children’s privacy online is very important to us. Generally, our Services are not directed to children under 13 (or other age as required by local law), and the Services do not knowingly collect personal data from children, except as described in the following paragraph.
 For games that are not directed at children but nonetheless may appeal to them, we take additional steps to limit access to these Services based on the player’s age. For these Services, when a player indicates they are under 13 (or the applicable age in their territory), we will limit their access to certain features, such as social media and chat features, as well as certain types of notification alerts. We also limit the processing of personal data to only what is necessary to support the internal operations of our Services.
 If you are a parent or guardian and wish to review personal data collected from your child, or have that information modified or deleted, you may contact us as described above. If we become aware that a child has provided us with personal data contrary to the above, we will delete any personal data we have collected, unless we have a legal obligation to keep it, and terminate the child’s account and/or revert them to the underage experience, as applicable.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. Fees and Purchase Terms
+4.1.Purchases
+In the Service you may purchase, with "real world" money, a limited, personal, non-transferable, non-sublicensable, revocable license to use (a) "virtual currency", including but not limited to virtual cash or diamonds, all for use in Powersource games; (b) "virtual in-game items" (together with "virtual currency", "Virtual Items"); and (c) other goods or services ("Merchandise"). You are only allowed to purchase Virtual Items from us or our authorised partners through the Service, and not in any other way.
+Powersource may manage, regulate, control, modify or eliminate Virtual Items and/or Merchandise at any time, with or without notice. Powersource shall have no liability to you or any third party in the event that Powersource exercises any such rights.
+The transfer of Virtual Items and Merchandise is prohibited except where expressly authorized in the Service. Other than as expressly authorized in the Service, you shall not sell, purchase, redeem or otherwise transfer Virtual Items or Merchandise to any person or entity or attempt any of the aforesaid, including but not limited to Powersource, another user or any third party.
+ALL PURCHASES AND REDEMPTIONS OF VIRTUAL ITEMS MADE THROUGH THE SERVICE ARE FINAL AND NON-REFUNDABLE.
+The provision of Virtual Items for use in Powersource games is a service provided by Powersource that commences immediately upon acceptance by Powersource of your purchase.
+4.2. Payment of Fees
+You agree to pay all fees and applicable taxes incurred by you or anyone using an Account registered to you. Powersource may revise the pricing for the goods and services offered through the Service at any time. YOU ACKNOWLEDGE THAT POWERSOURCE IS NOT REQUIRED TO PROVIDE A REFUND FOR ANY REASON, AND THAT YOU WILL NOT RECEIVE MONEY OR OTHER COMPENSATION FOR UNUSED VIRTUAL ITEMS WHEN AN ACCOUNT IS CLOSED, WHETHER SUCH CLOSURE WAS VOLUNTARY OR INVOLUNTARY.
+5. Updates to the Service
+You understand that the Service is an evolving one. Powersource may require that you accept updates to the Service and to Powersource's games you have installed on your device or computer. You acknowledge and agree that Powersource may update the Service and Powersource games, with or without notifying you. You may need to update third party software from time to time in order to receive the Service and play Powersource games.
+6. Disclaimer of Warranties
+WITHOUT LIMITING POWERSOURCE'S LIABILITY UNDER SECTION 7 BELOW, THE SERVICE IS PROVIDED ON AN "AS IS" AND "AS AVAILABLE" BASIS FOR YOUR USE, WITHOUT WARRANTIES OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING WITHOUT LIMITATION THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE, NON-INFRINGEMENT, AND THOSE ARISING FROM COURSE OF DEALING OR USAGE OF TRADE. POWERSOURCE DOES NOT WARRANT THAT YOU WILL BE ABLE TO ACCESS OR USE THE SERVICE AT THE TIMES OR LOCATIONS OF YOUR CHOOSING; THAT THE SERVICE WILL BE UNINTERRUPTED OR ERROR-FREE; THAT DEFECTS WILL BE CORRECTED; OR THAT THE GAME OR THE SERVICE ARE FREE OF VIRUSES OR OTHER HARMFUL COMPONENTS.
+Some jurisdictions do not allow the exclusion of certain warranties. Accordingly, some of the above disclaimers may not apply to you.
+7. Limitation of Liability; Sole and Exclusive Remedy; Indemnification
+TO THE MAXIMUM EXTENT PERMITTED BY LAW, POWERSOURCE SHALL NOT BE LIABLE TO YOU FOR ANY INDIRECT, INCIDENTAL, CONSEQUENTIAL, SPECIAL, PUNITIVE OR OTHER SIMILAR DAMAGES, INCLUDING BUT NOT LIMITED TO LOSS OF REVENUES, LOST PROFITS, LOST DATA OR BUSINESS INTERRUPTION OR OTHER INTANGIBLE LOSSES (HOWEVER SUCH LOSSES ARE QUALIFIED), ARISING OUT OF OR RELATING IN ANY WAY TO THESE TERMS OF SERVICE OR THE SERVICE ITSELF, WHETHER BASED ON CONTRACT, TORT OR ANY OTHER LEGAL THEORY, AND WHETHER OR NOT POWERSOURCE HAS BEEN ADVISED OF THE POSSIBILITY OF SUCH DAMAGES. TO THE EXTENT NOT PROHIBITED BY LAW, POWERSOURCE SHALL NOT BE LIABLE TO YOU FOR MORE THAN THE AMOUNT YOU HAVE PAID TO POWERSOURCE IN ACCORDANCE WITH THESE TERMS OF SERVICE IN THE SIX (6) MONTHS IMMEDIATELY PRECEDING THE DATE ON WHICH YOU FIRST ASSERT A CLAIM. YOU ACKNOWLEDGE AND AGREE THAT IF YOU HAVE NOT PAID ANYTHING TO POWERSOURCE DURING SUCH TIME PERIOD, YOUR SOLE REMEDY (AND POWERSOURCE'S EXCLUSIVE LIABILITY) FOR ANY DISPUTE WITH POWERSOURCE IS TO STOP USING THE SERVICE AND TO CANCEL YOUR ACCOUNT.
+NOTHING IN THESE TERMS OF SERVICE SHALL AFFECT THE STATUTORY RIGHTS OF ANY CONSUMER OR EXCLUDE OR RESTRICT ANY LIABILITY RESULTING FROM GROSS NEGLIGENCE OR WILLFUL MISCONDUCT OF POWERSOURCE OR FOR DEATH OR PERSONAL INJURY ARISING FROM ANY NEGLIGENCE OR FRAUD OF POWERSOURCE.
+You agree to indemnify, defend and hold Powersource (and our officers, directors, agents, subsidiaries, joint ventures and employees) harmless from any claim, demand, damages or other losses, including reasonable attorneys' fees, asserted by any third-party resulting from or arising out of your use of the Service, or any breach by you of these Terms of Service, however the foregoing does not apply if the infringement of rights is not attributable to your intentional or negligent behavior.
+8. Dispute Resolution and Law
+If a dispute arises between you and Powersource, we strongly encourage you to first contact us directly to seek a resolution by going to our in-game inquiry. If you are a resident of the United States, these Terms of Service and any dispute arising out of or related to it or Privacy Policy or the Service shall be governed in all respects by California law, without regard to conflict of law provisions. You agree that any claim or dispute you may have against Powersource must be resolved exclusively by a court located in San Francisco, California. If you are a resident outside of the United States, you agree that all disputes between you and Powersource shall be governed by the laws of Finland, without regard to conflict of law provisions. You agree that any claim or dispute you may have against Powersource must be resolved exclusively by a court located in Korea.
+9. Severability
+You and Powersource agree that if any portion of these Terms of Service or of the Powersource Privacy Policy is found illegal or unenforceable, in whole or in part by any court of competent jurisdiction, such provision shall, as to such jurisdiction, be ineffective solely to the extent of such determination of invalidity or unenforceability without affecting the validity or enforceability thereof in any other manner or jurisdiction and without affecting the remaining provisions of the terms, which shall continue to be in full force and effect.
+10. General Provisions
+10.1. Assignment
+Powersource may assign or delegate these Terms of Service and/or the Powersource Privacy Policy, in whole or in part, to any person or entity at any time with or without your consent. You may not assign or delegate any rights or obligations under the Terms of Service or Privacy Policy without Powersource's prior written consent, and any unauthorized assignment and delegation by you is ineffective.
+10.2. Supplemental Policies
+Powersource may publish additional policies related to specific services such as forums, contests or loyalty programs. Your right to use such services is subject to those specific policies and these Terms of Service.
+10.3. Entire Agreement
+These Terms of Service, any supplemental policies and any documents expressly incorporated by reference herein (including the Powersource Privacy Policy), contain the entire understanding of you and Powersource, and supersede all prior understandings of the parties hereto relating to the subject matter hereof, whether electronic, oral or written, or whether established by custom, practice, policy or precedent, between you and us with respect to the Service.
+10.4. No Waiver
+The failure of Powersource to require or enforce strict performance by you of any provision of these Terms of Service or the Powersource Privacy Policy or failure to exercise any right under them shall not be construed as a waiver or relinquishment of Powersource's right to assert or rely upon any such provision or right in that or any other instance.
+The express waiver by Powersource of any provision, condition, or requirement of these Terms of Service or the Powersource Privacy Policy shall not constitute a waiver of any future obligation to comply with such provision, condition or requirement.
+Except as expressly and specifically set forth in this these Terms of Service, no representations, statements, consents, waivers, or other acts or omissions by Powersource shall be deemed a modification of these Terms of Service nor legally binding, unless documented in physical writing, hand signed by You and a duly appointed officer of Powersource.
+10.5. Notices
+We may notify you via e-mail or any other communications means to contact information you provide to us. All notices given by you or required from you under these Terms of Service or the Powersource Privacy Policy shall be addressed to the following email: powersourcelegalrequests@gmail.com. Any notices that you provide without compliance with this Section on Notices shall have no legal effect.
+10.6. Equitable Remedies
+You acknowledge that the rights granted and obligations made under these Terms of Service to Powersource are of a unique and irreplaceable nature, the loss of which shall irreparably harm Powersource and which cannot be replaced by monetary damages alone so that Powersource shall be entitled to injunctive or other equitable relief (without the obligations of posting any bond or surety or proof of damages) in the event of any breach or anticipatory breach by you.
+You irrevocably waive all rights to seek injunctive or other equitable relief, or to enjoin or restrain the operation of the Service or any Powersource game, exploitation of any advertising or other materials issued in connection therewith, or exploitation of the Service or any content or other material used or displayed through the Service and agree to limit your claims to claims for monetary damages, limited by Section 7 (if any).
+10.7. Force Majeure
+Powersource shall not be liable for any delay or failure to perform resulting from causes outside the reasonable control of Powersource, including without limitation any failure to perform hereunder due to unforeseen circumstances or cause beyond Powersource's control such as acts of God, war, terrorism, riots, embargoes, acts of civil or military authorities, fire, floods, accidents, strikes, or shortages of transportation facilities, fuel, energy, labor or materials.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">발효일 : 2020년 11월 6일
+본 약관(이하 "서비스 약관")은 귀하와 경기 성남시 분당구 이매로 35에 사무소를 가진 회사인 Powersource Studio (이하 "Powersource Studio" 또는 "당사") 사이에 있어서 귀하가 Powersource Studio의 게임, 웹사이트 및 관련 서비스(이하 "서비스")를 이용하는 것에 관하여 적용됩니다. 또한 서비스의 이용에는 Powersource Studio의 개인정보 보호정책과 기타 관련 정책들이 적용되는데, 이는 본 약관에 참조 형식으로 포함됩니다.
+서비스에 접속하거나 이를 이용(Powersource Studio의 웹사이트를 방문하거나 게임에 접속하는 행위를 포함)하기 전에, 귀하는 본 서비스 약관과 개인정보 보호정책에 동의하여야 합니다. 또한 귀하는 서비스 계정(이하 "계정")을 등록할 필요가 있습니다. 계정을 등록하거나 서비스를 이용함으로써, 귀하는 귀하가 거주하는 국가의 미성년자가 아님을 표시하는 것입니다. 만일 귀하가 미성년자일 경우에는 귀하가 계정을 등록하거나 또는 서비스를 이용함으로써 귀하는 귀하의 법정 대리인이 본 약관을 검토하고 동의하였다는 의사표시를 한 것입니다. 만일 귀하가 Google과 같은 소셜 네트워크 서비스(이하 "SNS")를 통하여 서비스에 접속하였다면, 귀하는 본 서비스 약관뿐만 아니라 SNS의 서비스 약관까지 준수해야 합니다.
+귀하가 서비스를 설치∙이용 또는 서비스에 접속함으로써, 귀하는 본 서비스 약관에 동의한 것입니다. 만일 귀하가 본 서비스 약관에 동의하지 않는다면, 서비스에의 접속 또는 서비스의 설치 또는 이용을 하지 않으시길 바랍니다. 서비스가 금지되는 경우 서비스의 이용은 무효입니다.
+Powersource Studio는 관련 법령에 따라 Powersource Studio의 서비스상에 변경된 조건들을 게재함으로써 본 서비스 약관과 당사의 개인정보 보호정책과 기타 관련 Powersource Studio 정책들의 일부를 재량에 따라 변경∙수정∙추가 또는 제거할 권리를 가집니다. Powersource Studio가 약관 및 개인정보보호정책을 변경할 경우, 변경된 내용은 Powersource Studio가 고지한 적용일자에 효력을 발생합니다. Powersource Studio는 적용일자로부터 최소한 7일 이전(이용자의 권리 및 의무에 중대하게 불리한 경우에는 30일 이전)에 적용일, 변경내용, 변경사유 등을 명시하여 Powersource Studio의 웹사이트 또는 서비스 화면에 고지합니다. 귀하는 이에 대하여 거부의사를 표시할 수 있고, 거부의사의 표시 없이 서비스를 계속해서 이용하는 것은 그러한 변경을 수용하는 것으로 간주될 것입니다. 만일 귀하가 귀하의 서비스 이용과 관련된 당사의 현재 버전의 서비스 약관, 개인정보 보호정책, 또는 그 밖에 어떠한 정책, 규칙 또는 행동강령의 어느 한 부분에라도 동의하지 않는다면, 서비스를 이용할 수 있는 귀하의 라이선스는 즉시 종료되어야 하고, 귀하는 즉시 서비스의 이용을 중단해야 합니다.
+1. 라이선스
+1.1. 서비스 이용에 관한 제한적 라이선스의 허여
+본 서비스 약관과 그 밖에 관련된 Powersource Studio의 정책들에 대한 귀하의 동의 및 지속적인 준수에 따라, Powersource Studio는 귀하에게 양도 불가능하고, 비독점적이고, 2차 라이선스 허여가 불가능하고, 취소 가능하고, 귀하 자신의 비상업적∙오락적 목적으로의 접속과 이용에 한정되며, 제한된 라이선스를 허여합니다. 귀하는 그 밖의 다른 목적으로 서비스를 이용하지 않을 것에 동의합니다.
+이하의 제한들은 서비스의 이용에 적용됩니다.
+- 미성년자가 법정대리인의 동의를 받지 않고 의무부담행위를 한 경우(예를 들면, 유료서비스 결제), 미성년자 또는 그 미성년자의 법정대리인은 해당계약을 취소할 수 있습니다.
+- 귀하는 귀하의 계정을 구매, 판매, 대여, 양도(혹은 이를 시도)하지 않고 거짓 신원 혹은 정보로 또는 타인을 대신하여 계정을 생성하지 않아야 합니다; 귀하가 사전에 Powersource Studio에 의해 제명되었거나 다른 Powersource Studio 게임의 플레이가 금지되었을 경우 서비스를 이용할 수 없습니다.
+- 귀하는 오로지 비상업적인 목적으로만 귀하의 계정을 이용하여야 합니다. 귀하는 광고, 호객행위, 상업적 광고들의 전송(행운의 편지, 스팸메일 또는 누군가에 대한 반복적이거나 허위의 메시지 전송을 포함) 목적으로 서비스를 이용할 수 없습니다.
+로그인 정보 및 계정
+귀하는 귀하의 계정에 대한 암호를 선택할 것을 요구 받게 되거나 계정 접속을 위해 다른 비밀 정보를 사용할 수도 있습니다(이하 "로그인 정보"). 귀하는 계정 또는 로그인 정보를 타인과 공유할 수 없고, 타인으로 하여금 귀하의 계정에 접근하거나 그 밖에 귀하의 계정의 보안을 위협하는 어떠한 행위를 하도록 허락할 수 없습니다. 귀하가 보안사고를 알게 되거나 합리적으로 보안사고를 의심할만한 상황을 인지하게 될 경우(로그인 정보의 손실, 도난 또는 무단 공개를 포함하나, 이에 한정되지 아니함), 귀하는 즉시 Powersource Studio에 해당 사실을 통지하고 귀하의 로그인 정보를 수정하여야 합니다. 귀하의 로그인 정보의 비밀유지는 전적으로 귀하가 책임져야 하고, 귀하는 귀하의 로그인 정보에 관한 모든 이용행위(구매행위를 포함하며, 귀하의 승인을 받았는지 여부는 불문함)에 대하여 책임을 부담합니다. 귀하는 귀하의 계정을 통하여 발생하는 모든 사안에 대하여 책임을 부담합니다.
+Powersource Studio는 언제든지, 그리고 어떠한 이유로든지(어떠한 이용자명이 제3자의 권리를 침해하였다는 제3자의 주장을 포함하나, 이에 한정되지 아니함), 어떠한 이용자명도 제거하거나 회수할 권리를 가집니다.
+본 서비스는 지원기기의 게임당 하나의 계정만을 지원합니다.
+라이선스의 제한
+본 라이선스의 제한을 위반한 상태에서의 모든 서비스의 이용은 엄격하게 금지되고, 귀하의 제한된 라이선스는 즉시 취소될 수 있으며, 귀하는 위법행위에 대하여 책임을 져야 할 수도 있습니다.
+귀하는 어떤 상황에서도 다음과 같은 행위를 하지 않을 것에 동의합니다.
+- Powersource Studio의 서비스 정신 또는 서비스 의도에 반하는 것으로 Powersource Studio가 간주하는 행위 또는 Powersource Studio의 지원 서비스를 부적절하게 이용하는 행위
+- Powersource Studio의 게임 또는 게임경력을 변경하거나 방해하도록 설계된 치트, 엑스플로잇, 자동화 소프트웨어, 에뮬레이터, 보트, 해킹 프로그램, 유저제작게임 또는 그 밖에 승인되지 않은 제3자 소프트웨어를 이용 혹은 이용(직, 간접적)에 참여하거나, 서비스 또는 Powersource Studio 게임의 일부 파일을 변경하거나 변경하도록 하는 행위
+- 중복 로그인 등 비정상적인 방법으로 Powersource Studio의 게임에 부정적인 영향을 주는 행위
+- 서비스의 일반적인 흐름에 지장을 주거나 방해 또는 이에 부정적인 영향을 주는 행위나 서비스의 이용이나 Powersource Studio의 게임 플레이에서 다른 사용자의 경험에 부정적인 영향을 주는 방식의 행동. 이는 몰아주기와 같은 순위 조작과 관련된 모든 행동, 서비스 오류를 통해 다른 플레이어들로부터 부당한 이득을 얻는 행동, 서비스 내용에 대한 의도적인 악용 및 이에 반하는 행동들을 포함합니다.
+- 서비스 또는 Powersource Studio의 게임 환경을 제공하거나 지원하는 데에 사용되는 컴퓨터 또는 서버(이하 "서버")에 과부하를 걸거나 방해를 주거나 또는 이러한 과부하 또는 방해행위를 지원하는 행위
+- 공격행위(바이러스의 배포, 서비스에 대한 거부 공격, 또는 그 밖에 서비스 또는 제3자의 서비스 이용을 방해하고자 하는 행위를 포함하나, 이에 한정되지 아니함)를 개시하거나, 지원하거나, 또는 그에 관여하는 행위
+- 서비스, 타인 또는 다른 컴퓨터에 등록된 계정, 서버 또는 서비스에 연결된 네트워크에 대해 Powersource Studio로부터 제공된 이용자 인터페이스가 아닌 다른 수단을 통해 승인되지 않은 접속을 시도하는 행위(서비스의 일부분인 보안, 기술, 기기 또는 소프트웨어를 변경 또는 우회하거나 그러한 시도를 하는 행위 또는 그러한 변경이나 우회를 하는 누군가를 지원하거나 방조하는 행위를 포함하나, 이에 한정되지 아니함)
+- 권리남용적이거나 위협적이거나 음란하거나 타인의 명예를 훼손하거나 비방하거나 인종∙성별∙종교적 또는 그 밖의 이유로 부당하거나 불쾌한 정보를 게시하는 행위 또는 원치 않는 모든 사람들에게 반복적으로 정보를 게시하는 것과 같이 지속적인 이러한 해독행위들에 관여하는 것
+- 나체, 과도한 폭력 또는 불쾌한 주제를 포함한 정보 또는 그러한 내용에 관한 링크를 게시하는 행위
+- Powersource Studio의 고객 서비스 대리인을 포함하여 Powersource Studio의 피용자를 포함한 타인이나 그룹을 희롱하거나 괴롭히거나 해를 끼치는 행위 또는 그러한 희롱 또는 가해를 시도하거나 조장하는 행위
+- 서비스를 통하여 타인인 개인 또는 법인의 저작권, 상표, 특허, 영업비밀, 프라이버시권, 퍼블리시티권 또는 기타 권리를 침해하거나 타인(Powersource Studio의 피용자를 포함하나, 이에 한정되지 아니함)을 사칭하는 자료 또는 정보를 사용할 수 있도록 하는 행위
+- 서비스 또는 Powersource Studio의 게임을 제공하기 위하여 사용된 근본 소프트웨어 또는 다른 지적 재산권의 소스 코드를 추출하기 위하여, 또는 Powersource Studio가 명시적으로 허용하지 않은 방법을 사용하여 서비스 또는 Powersource Studio 게임으로부터 정보를 얻기 위하여 역설계, 역컴파일, 역어셈블, 해독행위 또는 기타 이를 위한 시도를 하는 행위
+- 서비스 또는 Powersource Studio 게임의 다른 이용자로부터 로그인 정보나 기타 로그인을 위한 비밀 정보 또는 개인정보를 구하거나 구하려는 시도를 하는 행위
+- 서비스를 통하여 누군가의 사적인 정보{개인신원정보(문자, 이미지, 또는 비디오와 같은 형태 불문함), 신원확인 문서, 또는 재무정보를 포함}를 수집하거나 게시하는 행위
+수수료 또는 판돈의 개입 여부를 불문하고, 귀하가 플레이어로서 참가하는 경기의 결과에 대해 배팅하는 행위를 포함해 도박, 배팅 또는 (직접적 또는 간접적으로) 상 또는 보상이 획득될 수 있는 유사한 활동을 위해 Powersource Studio 게임을 이용하는 행위
+Powersource Studio는 어떠한 행위가 이용규칙 위반에 해당되거나 본 서비스 약관 및 본 서비스 약관의 의도 또는 정신을 이탈하는 것인지 여부를 결정할 권리를 가집니다. Powersource Studio는 그 결정의 결과로서 조치를 취할 권리를 가지며 여기에는 귀하의 계정을 종료시키고 귀하의 서비스 이용을 전부 또는 일부를 금지하는 것이 포함됩니다.
+1.2. 계정과 서비스의 중단 및 종료
+만일 귀하가 본 서비스 약관을 준수하지 않거나 또는 서비스를 불법으로 또는 부적절하게 이용하거나, 또는 Powersource Studio가 귀하의 약관 미준수, 위법하거나 부적절한 이용행위를 의심할만한 사정이 있는 경우(이하 총칭하여 "이용자 의무위반 행위")에는, Powersource Studio는 귀하에게 통지하고 귀하의 서비스 또는 그 일부에 대한 접속 또는 귀하의 계정을 제한∙중단∙변경∙삭제(이하 "이용제한 조치")할 수 있습니다. Powersource Studio는 이용자 의무위반 행위에 대하여 위반행위의 내용, 정도, 횟수, 결과 등 제반 사정을 고려하여 차등하여 서비스 이용제한 조치를 취할 수 있고, 이는 Powersource Studio의 다른 권리구제수단을 제한하지 않습니다. 계정종료 또는 제한의 결과로, 귀하는 귀하의 서비스 이용과 관련된 이익, 특권, 획득한 아이템들과 구매한 아이템들뿐만 아니라 귀하의 서비스 내 이용자명과 캐릭터를 상실할 수 있고, Powersource Studio는 이러한 손해 또는 결과에 관하여 귀하에게 배상할 책임이 없습니다.
+당사는 이용자가 위험 또는 법률상 책임을 창출하거나, 제3자의 지적재산권을 침해하거나, 또는 당사의 약관이나 정책의 문언 또는 정신에 반하는 행위를 하는 것으로 판단될 경우에는 서비스와 이용자 계정 또는 그 일부분을 제한∙중단 또는 해지할 수 있고, 당사의 게임∙사이트 및 그 콘텐츠∙서비스∙툴에의 접속을 금지할 수 있으며, 제공되는 콘텐츠를 제거하거나 지연시킬 수 있고, 해당 이용자의 서비스 접속을 막기 위한 기술적∙법률적 조치를 취할 수 있습니다(이는 Powersource Studio의 다른 권리구제수단을 제한하지 않음). 또한, 당사는 적절한 상황 하에서 전적으로 당사의 재량에 따라, 제3자의 지적재산권을 반복적으로 침해할 여지가 있는 이용자의 계정을 중단하거나 해지시킬 수 있습니다.
+Powersource Studio는 180일 이상 휴면 중인 계정을 해지시킬 권리를 가집니다.
+Powersource Studio는 언제든지 서비스 또는 특정 게임 또는 서비스 일부의 제공 및/또는 지원을 중단할 권리를 가지고, 그와 동시에 서비스 또는 그 일부를 이용할 수 있는 귀하의 라이선스는 자동으로 종료됩니다. 이러한 경우, Powersource Studio는 이용자에 대하여 서비스의 중단으로 인한 환불∙보상∙배상을 할 책임을 부담하지 않습니다. 귀하의 계정의 해지에는 서비스 또는 그 일부(귀하 또는 타인이 제출한 콘텐츠를 포함)에 대한 귀하의 접속을 불가능하게 하는 것도 포함될 수 있습니다.
+2. 소유권
+2.1. 게임과 서비스
+서비스에 관한 모든 권리, 소유권, 이익(게임, 출판물, 컴퓨터 코드, 테마, 물건, 캐릭터, 캐릭터명, 스토리, 다이얼로그, 캐치프레이즈, 콘셉트, 삽화, 애니메이션, 음향, 음악구성형식, 시청각적 효과, 작동방법, 저작인격권, 서류, 게임상의 채팅기록, 캐릭터 프로필 정보, Powersource Studio의 게임 클라이언트를 이용한 게임 플레이 기록, Powersource Studio의 게임 클라이언트와 서버 소프트웨어를 포함하나, 이에 한정되지 아니함)은 Powersource Studio가 소유합니다. Powersource Studio는 당사의 게임 및 서비스에 관한 모든 권리(지적재산권 또는 그 밖의 소유권을 포함하나, 이에 한정되지 아니함)를 가집니다.
+2.2. 계정
+어떠한 경우에도, 귀하는 귀하가 계정에 대한 소유권 또는 그 밖의 재산상 이익을 가지지 않음을 인정하고 동의하며, 나아가, 귀하는 계정상의 또는 계정에 대한 모든 권리는 영구적으로 Powersource Studio가 소유하고 Powersource Studio의 이익을 위하여만 유효함을 인정하고 동의합니다.
+2.3. 가상 아이템들
+Powersource Studio는 Powersource Studio의 게임 또는 서비스상의 모든 콘텐츠를 소유하고, 라이선스를 허여하며 기타 이를 이용할 권리를 가집니다. 어떠한 경우에도, 귀하는 서비스상의 어떠한 콘텐츠(Powersource Studio의 게임에서 발생하거나 나타나는 가상의 물품 또는 통화(게임상에서 획득하였거나 Powersource Studio로부터 구매하였는지 여부를 불문함) 또는 계정과 결부되거나 서비스상에 저장된 부수물을 포함하나, 이에 한정되지 아니함)에 대하여 아무런 권리 또는 소유권을 가지지 않음에 동의합니다.
+3. 이용자 콘텐츠
+3.1 이용자 콘텐츠 개진
+"이용자 콘텐츠"는 의사소통, 이미지, 음향, 그리고 모든 자료, 데이터, 그리고 귀하 또는 다른 이용자들이 Powersource Studio 게임 클라이언트 또는 서비스를 통하여 업로드하거나 전송한 정보(채팅 텍스트를 포함하나, 이에 한정되지 아니함)를 의미합니다. 서비스를 이용하는 동안 어떠한 이용자 콘텐츠를 전송 또는 제출함으로써, 귀하는 그러한 전송 또는 제출행위가 (a)정확하고, 비밀이 아니며, (b) 법률 또는 계약상의 제한 또는 그 밖의 제3자의 권리를 위반하지 아니하고, 또한 귀하가 이용자 콘텐츠를 구성하는 개인정보 또는 지적재산권의 소유자인 제3자로부터 허락을 받았으며, (c) 바이러스, 애드웨어, 스파이웨어, 웜 바이러스 또는 그 밖의 악성코드가 없다는 것을 확인하고 진술 및 보증하며, (d) 그러한 콘텐츠 내의 귀하의 개인정보는 언제나 Powersource Studio의 개인정보 보호정책에 따라 처리됨을 인정하고 이에 동의합니다.
+3.2. 콘텐츠 심사
+Powersource Studio는 이용자 콘텐츠를 제출하는 이용자의 행위에 대하여 어떠한 책임도 지지 않고, 부적절한 콘텐츠 또는 행위에 대하여 서비스를 감시할 어떠한 책임도 지지 않습니다. 당사는 모든 이용자 콘텐츠를 사전에 심사하거나 감시할 수 없고 심사 또는 감시하지도 않습니다. 귀하의 서비스 이용에 따른 위험은 귀하 자신이 부담합니다. 서비스를 이용함으로써 귀하는 불쾌하고, 외설적이거나 귀하의 기대에 부응하지 않는 이용자 콘텐츠에 노출될 수 있습니다. 귀하는 서비스와 연결되어 사용 가능한 모든 이용자 콘텐츠의 사용과 관련된 일체의 위험을 부담합니다. 당사의 재량에 따라, 귀하의 서비스 이용 시 당사의 대리인 또는 당사의 기술에 의하여 귀하의 서비스와의 상호작용 또는 의사소통(채팅 텍스트를 포함하나 이에 한정되지 아니함)을 관찰 및/또는 기록할 수 있습니다.
+본 서비스 약관을 체결함으로써 귀하는 이러한 관찰과 기록에 대하여 취소할 수 없는 동의를 하는 것입니다. 귀하는 채팅 텍스트 또는 음성 의사소통을 포함하여 이용자 콘텐츠의 전송과 관련하여 프라이버시를 기대하지 않음을 인정하고 동의합니다.
+Powersource Studio는 어떠한 근거에 대한 공지 없이 혹은 언제든지 별다른 이유 없이 재량으로 사용자 콘텐츠(귀하의 사용자 콘텐츠에 대한 제한 없이 이를 포함하여)에 대한 검토, 관찰, 금지, 편집, 삭제, 접속 금지 또는 이를 이용할 수 없도록 할 권한을 갖습니다. Powersource Studio가 전적으로 당사의 재량에 따라 서비스를 관찰하기로 결정한 경우에도, Powersource Studio는 이용자 콘텐츠에 대하여 어떠한 책임도 부담하지 아니하고, 부적절한 이용자 콘텐츠를 수정 또는 제거할 의무를 부담하지도 않습니다. 당사는 당사의 전적인 재량 하에 이용자 콘텐츠를 편집하고, 전송을 거부하거나 제거할 권리를 가지고 있으나, 그러한 의무를 부담하지는 않습니다.
+3.2. 서비스의 다른 이용자들에 의한 정보 이용
+3.2.1. 공시
+지정된 주제에 관한 귀하의 논평과 언급을 포함하여 귀하가 이용자 콘텐츠를 게시할 수 있는 다양한 포럼, 블로그, 그리고 채팅 기능이 서비스에 포함될 수 있습니다. Powersource Studio는 귀하가 공유하는 아이디어와 정보를 다른 이용자들이 이용하지 않으리라는 점을 보증하지 않습니다. 따라서 만일 귀하가 비밀을 유지하고자 하는 정보 또는 아이디어를 가지고 있고 또는/그리고 다른 사람들이 이를 이용하지 않기를 바란다면, 이를 서비스에 게시하지 마십시오. Powersource Studio는 귀하가 제출하기로 결정한 아이디어 또는 정보를 평가하거나 이용하거나 그와 관련하여 귀하에게 배상할 책임을 지지 않습니다.
+3.2.2. 귀하 소유의 콘텐츠에 대한 책임
+귀하는 귀하가 서비스상에 또는 서비스를 통하여 또는 서비스와 관련하여 게시하거나 또는 타인에게 제공한 정보에 대하여 전적으로 책임을 집니다. Powersource Studio는 어떠한 이유로든지 또는 아무 이유 없이도 이용자 콘텐츠(Powersource Studio의 전적인 판단에 따랐을 때 본 서비스 약관을 위반하는 이용자 콘텐츠를 포함하나, 이에 한정되지 아니함)를 거절하거나 게시를 거부하거나 이를 삭제할 수 있습니다.
+3.3. Powersource Studio에 대한 귀하의 라이선스
+귀하는 이로써 Powersource Studio에 대하여 취소할 수 없고, 영구적이며, 이전 가능하며, 전액 완납된, 로열티가 부과되지 않는, 전 세계적인 라이선스(2차 라이선스권과 제3자에 대한 양도권을 포함)와, 당사의 서비스 제공과 관련된 귀하의 이용자 콘텐츠뿐만 아니라 그에 관한 모든 변경되고 파생된 가공물을 복사∙복제∙재생성∙수리∙조정∙변경∙2차적저작물 생성∙제조∙상업화∙퍼블리싱∙배포∙판매∙라이선스∙2차 라이선스∙이전∙리스∙전송∙공개적인 전시∙공개적인 공연∙전자적 접속의 제공∙방송∙전기통신에 의한 대중과의 의사소통∙전시∙공연∙컴퓨터 메모리에의 입력, 그리고 어떠한 방식으로든지 이용 및 실행(서비스의 마케팅과 프로모션을 포함)할 권리를 허여합니다. 또한 귀하는 Powersource Studio가 본 서비스 약관에 따라 Powersource Studio에게 허여된 권리를 행사할 권한을 타인에게 부여할 수 있음을 허여합니다. 나아가 귀하는 Powersource Studio에게, 귀하에 대하여 어떠한 의무도 부담함이 없이, 귀하의 성명, 초상, 그리고 그 밖에 이용자 콘텐츠에 포함되거나 그와 연관된 정보 또는 자료를 이용하고 활용할 무조건적이고 취소 불가능한 권리를 허여합니다. 법률에 의하여 금지되지 않는 한, 귀하의 이용자 콘텐츠가 어떠한 방식으로 수정 또는 변경되건 간에, 귀하는 귀하의 이용자 콘텐츠에 대하여 귀하가 가질 수 있는 모든 소유권 및/또는 저작인격권을 포기합니다. Powersource Studio는 귀하의 이용자 콘텐츠에 대하여 어떠한 소유권도 주장하지 않고 본 서비스 약관은 귀하가 귀하의 이용자 콘텐츠를 이용하고 활용할 권리를 제한하지 않습니다. Powersource Studio는 귀하의 이용자 콘텐츠에 대한 귀하의 지적 재산권을 감시하거나 집행할 의무를 부담하지 않습니다
+3.4. 이용자 상호작용
+귀하는 서비스의 다른 이용자들 및 서비스 및/또는 Powersource Studio 게임을 통하여 귀하가 상호작용하는 다른 당사자들과의 상호작용에 대하여 전적으로 책임을 부담합니다. Powersource Studio는 이러한 분쟁에 관여할 권리를 가지지만 그러한 의무는 부담하지 않습니다. 위법하거나 사기적이거나 또는 부적합하다고 의심받는 활동에 관한 Powersource Studio의 조사에 귀하는 전적으로 협력(Powersource Studio가 귀하의 계정의 암호로 보호받는 부분에 접속하는 것을 승인하는 것을 포함하나, 이에 한정되지 아니함)합니다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Effective Date: November 6, 2020
+The terms of this agreement ("Terms of Service") govern the relationship between you and Powersource, a Korean company having its registered office at Imae-ro 35 Bundang-gu Seongnam-si Gyeonggi, Korea, (hereinafter "Powersource" or "Us" or "We") regarding your use of Powersource's games, websites and related services (the "Service"). Use of the Service is also governed by Powersource's Privacy Policy and other relevant policies, which are incorporated herein by reference.
+Before accessing or using the Service, including browsing any Powersource website or accessing a game, you must agree to these Terms of Service and the Privacy Policy. You may also be required to register an account on the Service (an "Account"). By registering for an Account or otherwise using the Service, you affirm that you are the legal age of majority in your country of residence. If you are not, your legal guardian must review and agree to these Terms. If you access the Service from a Social Networking Site ("SNS"), such as Google, you shall comply with its terms of service/use as well as these Terms of Service.
+BY INSTALLING, USING OR OTHERWISE ACCESSING THE SERVICE, YOU AGREE TO THESE TERMS OF SERVICE. IF YOU DO NOT AGREE TO THESE TERMS OF SERVICE, PLEASE DO NOT INSTALL, USE OR OTHERWISE ACCESS THE SERVICE. USE OF THE SERVICE IS VOID WHERE PROHIBITED.
+Powersource reserves the right, at its discretion, to change, modify, add or remove portions of these Terms of Service, its Privacy Policy and other relevant Powersource policies at any time by posting the amended terms on the Powersource Service. You will be deemed to have accepted such changes by continuing to use the Service. If at any point you do not agree to any portion of the then-current version of our Terms of Service, the Powersource Privacy Policy, or any other Powersource policy, rules or codes of conduct relating to your use of the Service, your license to use the Service shall immediately terminate, and you must immediately stop using the Service.
+1. License
+1.1. Grant of a Limited License to Use the Service
+Subject to your agreement and continuing compliance with these Terms of Service and any other relevant Powersource policies, Powersource grants you a non-exclusive, non-transferable, non-sublicensable, revocable and limited license to access and use the Service for your own non-commercial entertainment purposes. You agree not to use the Service for any other purpose.
+The following restrictions apply to the use of the Service:
+- You accept full responsibility for any unauthorized use of the Service by minors. You are responsible for any use of your credit card or other payment instrument (e.g. paypal) by minors.
+- You shall not (or attempt to) purchase, sell, rent or give away your Account, create an Account using a false identity or information, or on behalf of someone other than yourself; You shall not use the Service if you have previously been removed by Powersource, or previously been banned from playing any Powersource game.
+- You shall use your Account only for non-commercial purposes; You shall not use the Service to advertise, or solicit, or transmit any commercial advertisements, including chain letters, junk or spam e-mail or repetitive or misleading messages to anyone.
+Login information and Your Account
+You may be required to select a password for your Account or you may also use other credentials to access the Account ("Login Information"). You shall not share the Account or the Login Information, nor let anyone else access your Account or do anything else that might jeopardize the security of your Account. In the event you become aware of or reasonably suspect any breach of security, including without limitation any loss, theft, or unauthorized disclosure of the Login Information, you must immediately notify Powersource and modify your Login Information. You are solely responsible for maintaining the confidentiality of the Login Information, and you will be responsible for all uses of the Login Information, including purchases, whether or not authorized by you. You are responsible for anything that happens through your Account.
+Powersource reserves the right to remove or reclaim any usernames at any time and for any reason, including but not limited to claims by a third party that a username violates the third party's rights.
+The Service supports only one Account per game on a supported device.
+License Limitations
+Any use of the Service in violation of these License Limitations is strictly prohibited, can result in the immediate revocation of your limited license and may subject you to liability for violations of law.
+You agree that you will not, under any circumstances:
+- Engage in any act that Powersource deems to be in conflict with the spirit or intent of the Service or make improper use of Powersource's support services.
+- Use or take part (directly or indirectly) in the use of cheats, exploits, automation software, emulators, bots, hacks, mods or any unauthorized third-party software designed to modify or interfere with the Service, any Powersource game or any Powersource game experience.
+- Engage in any act that negatively affects any Powersource game through abnormal methods such as duplicate login.
+- Modify or cause to be modified any files that are a part of the Service or any Powersource game without Powersource's express written consent.
+- Disrupt, interfere with or otherwise adversely affect the normal flow of the Service or otherwise act in a manner that may negatively affect other users' experience when using the Service or playing Powersource's games. This includes win trading and any other kind of manipulation of rankings, taking advantage of errors in the Service to gain an unfair edge over other players and any other act that intentionally abuses or goes against the design of the Service.
+- Disrupt, overburden, or aid or assist in the disruption or overburdening of any computer or server ("Server") used to offer or support the Service or any Powersource game environment.
+Institute, assist, or become involved in any type of attack, including without limitation distribution of a virus, denial of service attacks upon the Service, or other attempts to disrupt the Service or any other person's use or enjoyment of the Service.
+- Attempt to gain unauthorized access to the Service, Accounts registered to others or to the computers, Servers, or networks connected to the Service by any means other than the user interface provided by Powersource, including but not limited to, by circumventing or modifying, attempting to circumvent or modify, or encouraging or assisting any other person to circumvent or modify, any security, technology, device, or software that is part of the Service.
+Post any information that is abusive, threatening, obscene, defamatory, libelous, or racially, sexually, religiously, or otherwise objectionable or offensive or engage in ongoing toxic behavior, such as by repeatedly posting information on an unsolicited basis.
+- Post any information that contains nudity, excessive violence, or offensive subject matter or that contains a link to such content.
+- Attempt to, or harass, abuse, or harm, or advocate or incite harassment, abuse, or harm of another person, group, including Powersource employees, including Powersource's customer service representatives.
+- Make available through the Service any material or information that infringes any copyright, trademark, patent, trade secret, right of privacy, right of publicity, or other right of any person or entity or impersonates any other person, including without limitation a Powersource employee.
+- Reverse engineer, decompile, disassemble, decipher or otherwise attempt to derive the source code for any underlying software or other intellectual property used to provide the Service or any Powersource game, or to obtain any information from the Service or any Powersource game using any method not expressly permitted by Powersource.
+- Solicit or attempt to solicit Login Information or any other login credentials or personal information from other users of the Service or any Powersource game.
+- Collect or post anyone's private information, including personally identifiable information (whether in text, image or video form), identification documents, or financial information through the Service.
+- Use any Powersource game for gambling, betting or any similar activity in which prizes or rewards can be won (directly or indirectly), including betting on the outcome of matches in which you participate as a player, irrespective of whether or not there is a fee or stake involved.
+Powersource reserves the right to determine what conduct it considers to be in violation of the rules of use or otherwise outside the intent or spirit of these Terms of Service or the Service itself. Powersource reserves the right to take action as a result, which may include terminating your Account and prohibiting you from using the Service in whole or in part.
+1.2. Suspension and Termination of Account and Service
+WITHOUT LIMITING ANY OTHER REMEDIES, POWERSOURCE MAY LIMIT, SUSPEND, TERMINATE, MODIFY, OR DELETE ACCOUNTS OR ACCESS TO THE SERVICE OR PORTIONS THEREOF IF YOU ARE, OR POWERSOURCE SUSPECTS THAT YOU ARE, FAILING TO COMPLY WITH ANY OF THESE TERMS OF SERVICE OR FOR ANY ACTUAL OR SUSPECTED ILLEGAL OR IMPROPER USE OF THE SERVICE, WITH OR WITHOUT NOTICE TO YOU. YOU CAN LOSE YOUR USER NAME AND PERSONA IN THE SERVICE AS A RESULT OF ACCOUNT TERMINATION OR LIMITATION, AS WELL AS ANY BENEFITS, PRIVILEGES, EARNED ITEMS AND PURCHASED ITEMS ASSOCIATED WITH YOUR USE OF THE SERVICE, AND POWERSOURCE IS UNDER NO OBLIGATION TO COMPENSATE YOU FOR ANY SUCH LOSSES OR RESULTS.
+WITHOUT LIMITING OUR OTHER REMEDIES, WE MAY LIMIT, SUSPEND OR TERMINATE THE SERVICE AND USER ACCOUNTS OR PORTIONS THEREOF, PROHIBIT ACCESS TO OUR GAMES AND SITES, AND THEIR CONTENT, SERVICES AND TOOLS, DELAY OR REMOVE HOSTED CONTENT, AND TAKE TECHNICAL AND LEGAL STEPS TO PREVENT USERS FROM ACCESSING THE SERVICE IF WE BELIEVE THAT THEY ARE CREATING RISK OR POSSIBLE LEGAL LIABILITIES, INFRINGING THE INTELLECTUAL PROPERTY RIGHTS OF THIRD PARTIES, OR ACTING INCONSISTENTLY WITH THE LETTER OR SPIRIT OF OUR TERMS OR   POLICIES. ADDITIONALLY, WE MAY, IN APPROPRIATE CIRCUMSTANCES AND AT OUR SOLE DISCRETION, SUSPEND OR TERMINATE ACCOUNTS OF USERS WHO MAY BE REPEAT INFRINGERS OF THIRD PARTY INTELLECTUAL PROPERTY RIGHTS.
+POWERSOURCE RESERVES THE RIGHT TO TERMINATE ANY ACCOUNT THAT HAS BEEN INACTIVE FOR 180 DAYS.
+Powersource reserves the right to stop offering and/or supporting the Service or a particular game or part of the Service at any time, at which point your license to use the Service or a part thereof will be automatically terminated. In such event, Powersource shall not be required to provide refunds, benefits or other compensation to users in connection with such discontinued Service. Termination of your Account can include disabling your access to the Service or any part thereof including any content you submitted or others submitted.
+2. Ownership
+2.1. Games and Service
+All rights, title and interest in and to the Service (including without limitation any games, titles, computer code, themes, objects, characters, character names, stories, dialogue, catch phrases, concepts, artwork, animations, sounds, musical compositions, audio-visual effects, methods of operation, moral rights, documentation, in-game chat transcripts, character profile information, recordings of games played using a Powersource game client, and the Powersource game clients and server software) are owned by Powersource. Powersource reserves all rights, including without limitation, all intellectual property rights or other proprietary rights, in connection with its games and the Service.
+2.2. Accounts
+NOTWITHSTANDING ANYTHING TO THE CONTRARY HEREIN, YOU ACKNOWLEDGE AND AGREE THAT YOU SHALL HAVE NO OWNERSHIP OR OTHER PROPERTY INTEREST IN THE ACCOUNT, AND YOU FURTHER ACKNOWLEDGE AND AGREE THAT ALL RIGHTS IN AND TO THE ACCOUNT ARE AND SHALL FOREVER BE OWNED BY AND INURE TO THE BENEFIT OF POWERSOURCE.
+2.3. Virtual Items
+Powersource owns, has licensed, or otherwise has rights to use all of the content that appears in the Service or in Powersource games. Notwithstanding any provision to the contrary herein, you agree that you have no right or title in or to any content that appears in the Service, including without limitation the virtual goods or currency appearing or originating in any Powersource game, whether earned in a game or purchased from Powersource, or any other attributes associated with an Account or stored on the Service.
+3. User Content
+3.1. Submission of User Content
+"User Content" means any communications, images, sounds, and all the material, data, and information that you upload or transmit through a Powersource game client or the Service, or that other users upload or transmit, including without limitation any chat text. By transmitting or submitting any User Content while using the Service, you affirm, represent and warrant that such transmission or submission is (a) accurate and not confidential or misleading; (b) not in violation of any laws, contractual restrictions or other third party rights, and that you have permission from any third party whose personal information or intellectual property is comprised in the User Content; (c) free of viruses, adware, spyware, worms or other malicious code; and (d) you acknowledge and agree that any of your personal information within such content will at all times be processed by Powersource in accordance with its Privacy Policy.
+3.1.1. Content Screening
+Powersource assumes no responsibility for the conduct of any user submitting any User Content, and assumes no responsibility for monitoring the Service for inappropriate content or conduct. We do not, and cannot, pre-screen or monitor all User Content. Your use of the Service is at your own risk. By using the Service, you may be exposed to User Content that is offensive, indecent or otherwise not in line with your expectations. You bear all risks associated with the use of any User Content available in connection with the Service. At our discretion, our representatives or technology may monitor and/or record your interaction with the Service or communications (including without limitation chat text) when you are using the Service.
+By entering into these Terms of Service, you hereby provide your irrevocable consent to such monitoring and recording. You acknowledge and agree that you have no expectation of privacy concerning the transmission of any User Content, including without limitation chat text or voice communications.
+Powersource reserves the right in its sole discretion to review, monitor, prohibit, edit, delete, disable access to or otherwise make unavailable any User Content (including without limitation your User Content) without notice for any reason or for no reason at any time. If at any time Powersource chooses, in its sole discretion, to monitor the Service, Powersource nonetheless assumes no responsibility for User Content and assumes no obligation to modify or remove any inappropriate User Content. We have the right, but not the obligation, in our sole discretion to edit, refuse to post, or remove any User Content.
+3.2. Information Use by Other Members of the Service
+3.2.1. Public Discourse
+The Service may include various forums, blogs and chat features where you can post User Content, including your observations and comments on designated topics. Powersource cannot guarantee that other members will not use the ideas and information that you share. Therefore, if you have an idea or information that you would like to keep confidential and/or don't want others to use, do not post it on the Service. Powersource shall have no responsibility to evaluate, use or compensate you for any ideas or information you may choose to submit.
+3.2.2. Responsible For Your Own Content
+You are solely responsible for the information that you post on, through or in connection with the Service and that you provide to others. Powersource may reject, refuse to post or delete any User Content for any or no reason, including, but not limited to, User Content that in the sole judgment of Powersource violates these Terms of Service.
+3.2.3. Your License to Powersource
+You hereby grant to Powersource an irrevocable, perpetual, transferable, fully paid-up, royalty-free, worldwide license (including the right to sublicense and assign to third party) and right to copy, reproduce, fix, adapt, modify, create derivative works from, manufacture, commercialize, publish, distribute, sell, license, sublicense, transfer, lease, transmit, publicly display, publicly perform, or provide access to electronically, broadcast, communicate to the public by telecommunication, display, perform, enter into computer memory, and use and practice, in any way, your User Content as well as all modified and derivative works thereof in connection with our provision of the Service, including marketing and promotions of the Service. You also hereby grant to Powersource the right to authorize others to exercise any of the rights granted to Powersource under these Terms of Service. You further hereby grant to Powersource the unconditional, irrevocable right to use and exploit your name, likeness and any other information or material included in any User Content and in connection with any User Content, without any obligation to you. Except as prohibited by law, you waive any rights of attribution and/or any moral rights you may have in your User Content, regardless of whether your User Content is altered or changed in any manner. Powersource does not claim any ownership rights in your User Content and nothing in these Terms of Service is intended to restrict any rights that you may have to use and exploit your User Content. Powersource has no obligation to monitor or enforce your intellectual property rights in or to your User Content.
+3.3. User Interactions
+You are solely responsible for your interactions with other users of the Service and any other parties with whom you interact through the Service and/or Powersource games. Powersource reserves the right, but has no obligation, to become involved in any way with these disputes. You will fully cooperate with Powersource to investigate any suspected unlawful, fraudulent or improper activity, including, without limitation, granting Powersource access to any password-protected portions of your Account.
+If you have a dispute with one or more users, you release us (and our officers, directors, agents, subsidiaries, joint ventures and employees) from claims, demands and damages (actual and consequential) of every kind and nature, known and unknown, arising out of or in any way connected with such disputes.
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -886,7 +888,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292B9CE2-FE29-4B86-8E94-C68B2B5D6E10}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -910,10 +914,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
@@ -921,10 +925,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
@@ -932,10 +936,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StringTerms.xlsx
+++ b/Excel/StringTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10649B4A-6080-41AF-830A-689AA7E11BFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4D0448-75BC-428C-93F4-7155E0798DA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9020BB33-0B2F-43C5-8091-327AC8D50A2F}"/>
   </bookViews>
@@ -104,6 +104,185 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>4. Fees and Purchase Terms
+4.1.Purchases
+In the Service you may purchase, with "real world" money, a limited, personal, non-transferable, non-sublicensable, revocable license to use (a) "virtual currency", including but not limited to virtual cash or diamonds, all for use in Powersource games; (b) "virtual in-game items" (together with "virtual currency", "Virtual Items"); and (c) other goods or services ("Merchandise"). You are only allowed to purchase Virtual Items from us or our authorised partners through the Service, and not in any other way.
+Powersource may manage, regulate, control, modify or eliminate Virtual Items and/or Merchandise at any time, with or without notice. Powersource shall have no liability to you or any third party in the event that Powersource exercises any such rights.
+The transfer of Virtual Items and Merchandise is prohibited except where expressly authorized in the Service. Other than as expressly authorized in the Service, you shall not sell, purchase, redeem or otherwise transfer Virtual Items or Merchandise to any person or entity or attempt any of the aforesaid, including but not limited to Powersource, another user or any third party.
+ALL PURCHASES AND REDEMPTIONS OF VIRTUAL ITEMS MADE THROUGH THE SERVICE ARE FINAL AND NON-REFUNDABLE.
+The provision of Virtual Items for use in Powersource games is a service provided by Powersource that commences immediately upon acceptance by Powersource of your purchase.
+4.2. Payment of Fees
+You agree to pay all fees and applicable taxes incurred by you or anyone using an Account registered to you. Powersource may revise the pricing for the goods and services offered through the Service at any time. YOU ACKNOWLEDGE THAT POWERSOURCE IS NOT REQUIRED TO PROVIDE A REFUND FOR ANY REASON, AND THAT YOU WILL NOT RECEIVE MONEY OR OTHER COMPENSATION FOR UNUSED VIRTUAL ITEMS WHEN AN ACCOUNT IS CLOSED, WHETHER SUCH CLOSURE WAS VOLUNTARY OR INVOLUNTARY.
+5. Updates to the Service
+You understand that the Service is an evolving one. Powersource may require that you accept updates to the Service and to Powersource's games you have installed on your device or computer. You acknowledge and agree that Powersource may update the Service and Powersource games, with or without notifying you. You may need to update third party software from time to time in order to receive the Service and play Powersource games.
+6. Disclaimer of Warranties
+WITHOUT LIMITING POWERSOURCE'S LIABILITY UNDER SECTION 7 BELOW, THE SERVICE IS PROVIDED ON AN "AS IS" AND "AS AVAILABLE" BASIS FOR YOUR USE, WITHOUT WARRANTIES OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING WITHOUT LIMITATION THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE, NON-INFRINGEMENT, AND THOSE ARISING FROM COURSE OF DEALING OR USAGE OF TRADE. POWERSOURCE DOES NOT WARRANT THAT YOU WILL BE ABLE TO ACCESS OR USE THE SERVICE AT THE TIMES OR LOCATIONS OF YOUR CHOOSING; THAT THE SERVICE WILL BE UNINTERRUPTED OR ERROR-FREE; THAT DEFECTS WILL BE CORRECTED; OR THAT THE GAME OR THE SERVICE ARE FREE OF VIRUSES OR OTHER HARMFUL COMPONENTS.
+Some jurisdictions do not allow the exclusion of certain warranties. Accordingly, some of the above disclaimers may not apply to you.
+7. Limitation of Liability; Sole and Exclusive Remedy; Indemnification
+TO THE MAXIMUM EXTENT PERMITTED BY LAW, POWERSOURCE SHALL NOT BE LIABLE TO YOU FOR ANY INDIRECT, INCIDENTAL, CONSEQUENTIAL, SPECIAL, PUNITIVE OR OTHER SIMILAR DAMAGES, INCLUDING BUT NOT LIMITED TO LOSS OF REVENUES, LOST PROFITS, LOST DATA OR BUSINESS INTERRUPTION OR OTHER INTANGIBLE LOSSES (HOWEVER SUCH LOSSES ARE QUALIFIED), ARISING OUT OF OR RELATING IN ANY WAY TO THESE TERMS OF SERVICE OR THE SERVICE ITSELF, WHETHER BASED ON CONTRACT, TORT OR ANY OTHER LEGAL THEORY, AND WHETHER OR NOT POWERSOURCE HAS BEEN ADVISED OF THE POSSIBILITY OF SUCH DAMAGES. TO THE EXTENT NOT PROHIBITED BY LAW, POWERSOURCE SHALL NOT BE LIABLE TO YOU FOR MORE THAN THE AMOUNT YOU HAVE PAID TO POWERSOURCE IN ACCORDANCE WITH THESE TERMS OF SERVICE IN THE SIX (6) MONTHS IMMEDIATELY PRECEDING THE DATE ON WHICH YOU FIRST ASSERT A CLAIM. YOU ACKNOWLEDGE AND AGREE THAT IF YOU HAVE NOT PAID ANYTHING TO POWERSOURCE DURING SUCH TIME PERIOD, YOUR SOLE REMEDY (AND POWERSOURCE'S EXCLUSIVE LIABILITY) FOR ANY DISPUTE WITH POWERSOURCE IS TO STOP USING THE SERVICE AND TO CANCEL YOUR ACCOUNT.
+NOTHING IN THESE TERMS OF SERVICE SHALL AFFECT THE STATUTORY RIGHTS OF ANY CONSUMER OR EXCLUDE OR RESTRICT ANY LIABILITY RESULTING FROM GROSS NEGLIGENCE OR WILLFUL MISCONDUCT OF POWERSOURCE OR FOR DEATH OR PERSONAL INJURY ARISING FROM ANY NEGLIGENCE OR FRAUD OF POWERSOURCE.
+You agree to indemnify, defend and hold Powersource (and our officers, directors, agents, subsidiaries, joint ventures and employees) harmless from any claim, demand, damages or other losses, including reasonable attorneys' fees, asserted by any third-party resulting from or arising out of your use of the Service, or any breach by you of these Terms of Service, however the foregoing does not apply if the infringement of rights is not attributable to your intentional or negligent behavior.
+8. Dispute Resolution and Law
+If a dispute arises between you and Powersource, we strongly encourage you to first contact us directly to seek a resolution by going to our in-game inquiry. If you are a resident of the United States, these Terms of Service and any dispute arising out of or related to it or Privacy Policy or the Service shall be governed in all respects by California law, without regard to conflict of law provisions. You agree that any claim or dispute you may have against Powersource must be resolved exclusively by a court located in San Francisco, California. If you are a resident outside of the United States, you agree that all disputes between you and Powersource shall be governed by the laws of Finland, without regard to conflict of law provisions. You agree that any claim or dispute you may have against Powersource must be resolved exclusively by a court located in Korea.
+9. Severability
+You and Powersource agree that if any portion of these Terms of Service or of the Powersource Privacy Policy is found illegal or unenforceable, in whole or in part by any court of competent jurisdiction, such provision shall, as to such jurisdiction, be ineffective solely to the extent of such determination of invalidity or unenforceability without affecting the validity or enforceability thereof in any other manner or jurisdiction and without affecting the remaining provisions of the terms, which shall continue to be in full force and effect.
+10. General Provisions
+10.1. Assignment
+Powersource may assign or delegate these Terms of Service and/or the Powersource Privacy Policy, in whole or in part, to any person or entity at any time with or without your consent. You may not assign or delegate any rights or obligations under the Terms of Service or Privacy Policy without Powersource's prior written consent, and any unauthorized assignment and delegation by you is ineffective.
+10.2. Supplemental Policies
+Powersource may publish additional policies related to specific services such as forums, contests or loyalty programs. Your right to use such services is subject to those specific policies and these Terms of Service.
+10.3. Entire Agreement
+These Terms of Service, any supplemental policies and any documents expressly incorporated by reference herein (including the Powersource Privacy Policy), contain the entire understanding of you and Powersource, and supersede all prior understandings of the parties hereto relating to the subject matter hereof, whether electronic, oral or written, or whether established by custom, practice, policy or precedent, between you and us with respect to the Service.
+10.4. No Waiver
+The failure of Powersource to require or enforce strict performance by you of any provision of these Terms of Service or the Powersource Privacy Policy or failure to exercise any right under them shall not be construed as a waiver or relinquishment of Powersource's right to assert or rely upon any such provision or right in that or any other instance.
+The express waiver by Powersource of any provision, condition, or requirement of these Terms of Service or the Powersource Privacy Policy shall not constitute a waiver of any future obligation to comply with such provision, condition or requirement.
+Except as expressly and specifically set forth in this these Terms of Service, no representations, statements, consents, waivers, or other acts or omissions by Powersource shall be deemed a modification of these Terms of Service nor legally binding, unless documented in physical writing, hand signed by You and a duly appointed officer of Powersource.
+10.5. Notices
+We may notify you via e-mail or any other communications means to contact information you provide to us. All notices given by you or required from you under these Terms of Service or the Powersource Privacy Policy shall be addressed to the following email: powersourcelegalrequests@gmail.com. Any notices that you provide without compliance with this Section on Notices shall have no legal effect.
+10.6. Equitable Remedies
+You acknowledge that the rights granted and obligations made under these Terms of Service to Powersource are of a unique and irreplaceable nature, the loss of which shall irreparably harm Powersource and which cannot be replaced by monetary damages alone so that Powersource shall be entitled to injunctive or other equitable relief (without the obligations of posting any bond or surety or proof of damages) in the event of any breach or anticipatory breach by you.
+You irrevocably waive all rights to seek injunctive or other equitable relief, or to enjoin or restrain the operation of the Service or any Powersource game, exploitation of any advertising or other materials issued in connection therewith, or exploitation of the Service or any content or other material used or displayed through the Service and agree to limit your claims to claims for monetary damages, limited by Section 7 (if any).
+10.7. Force Majeure
+Powersource shall not be liable for any delay or failure to perform resulting from causes outside the reasonable control of Powersource, including without limitation any failure to perform hereunder due to unforeseen circumstances or cause beyond Powersource's control such as acts of God, war, terrorism, riots, embargoes, acts of civil or military authorities, fire, floods, accidents, strikes, or shortages of transportation facilities, fuel, energy, labor or materials.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">발효일 : 2020년 11월 6일
+본 약관(이하 "서비스 약관")은 귀하와 경기 성남시 분당구 이매로 45에 사무소를 가진 회사인 Powersource Studio (이하 "Powersource Studio" 또는 "당사") 사이에 있어서 귀하가 Powersource Studio의 게임, 웹사이트 및 관련 서비스(이하 "서비스")를 이용하는 것에 관하여 적용됩니다. 또한 서비스의 이용에는 Powersource Studio의 개인정보 보호정책과 기타 관련 정책들이 적용되는데, 이는 본 약관에 참조 형식으로 포함됩니다.
+서비스에 접속하거나 이를 이용(Powersource Studio의 웹사이트를 방문하거나 게임에 접속하는 행위를 포함)하기 전에, 귀하는 본 서비스 약관과 개인정보 보호정책에 동의하여야 합니다. 또한 귀하는 서비스 계정(이하 "계정")을 등록할 필요가 있습니다. 계정을 등록하거나 서비스를 이용함으로써, 귀하는 귀하가 거주하는 국가의 미성년자가 아님을 표시하는 것입니다. 만일 귀하가 미성년자일 경우에는 귀하가 계정을 등록하거나 또는 서비스를 이용함으로써 귀하는 귀하의 법정 대리인이 본 약관을 검토하고 동의하였다는 의사표시를 한 것입니다. 만일 귀하가 Google과 같은 소셜 네트워크 서비스(이하 "SNS")를 통하여 서비스에 접속하였다면, 귀하는 본 서비스 약관뿐만 아니라 SNS의 서비스 약관까지 준수해야 합니다.
+귀하가 서비스를 설치∙이용 또는 서비스에 접속함으로써, 귀하는 본 서비스 약관에 동의한 것입니다. 만일 귀하가 본 서비스 약관에 동의하지 않는다면, 서비스에의 접속 또는 서비스의 설치 또는 이용을 하지 않으시길 바랍니다. 서비스가 금지되는 경우 서비스의 이용은 무효입니다.
+Powersource Studio는 관련 법령에 따라 Powersource Studio의 서비스상에 변경된 조건들을 게재함으로써 본 서비스 약관과 당사의 개인정보 보호정책과 기타 관련 Powersource Studio 정책들의 일부를 재량에 따라 변경∙수정∙추가 또는 제거할 권리를 가집니다. Powersource Studio가 약관 및 개인정보보호정책을 변경할 경우, 변경된 내용은 Powersource Studio가 고지한 적용일자에 효력을 발생합니다. Powersource Studio는 적용일자로부터 최소한 7일 이전(이용자의 권리 및 의무에 중대하게 불리한 경우에는 30일 이전)에 적용일, 변경내용, 변경사유 등을 명시하여 Powersource Studio의 웹사이트 또는 서비스 화면에 고지합니다. 귀하는 이에 대하여 거부의사를 표시할 수 있고, 거부의사의 표시 없이 서비스를 계속해서 이용하는 것은 그러한 변경을 수용하는 것으로 간주될 것입니다. 만일 귀하가 귀하의 서비스 이용과 관련된 당사의 현재 버전의 서비스 약관, 개인정보 보호정책, 또는 그 밖에 어떠한 정책, 규칙 또는 행동강령의 어느 한 부분에라도 동의하지 않는다면, 서비스를 이용할 수 있는 귀하의 라이선스는 즉시 종료되어야 하고, 귀하는 즉시 서비스의 이용을 중단해야 합니다.
+1. 라이선스
+1.1. 서비스 이용에 관한 제한적 라이선스의 허여
+본 서비스 약관과 그 밖에 관련된 Powersource Studio의 정책들에 대한 귀하의 동의 및 지속적인 준수에 따라, Powersource Studio는 귀하에게 양도 불가능하고, 비독점적이고, 2차 라이선스 허여가 불가능하고, 취소 가능하고, 귀하 자신의 비상업적∙오락적 목적으로의 접속과 이용에 한정되며, 제한된 라이선스를 허여합니다. 귀하는 그 밖의 다른 목적으로 서비스를 이용하지 않을 것에 동의합니다.
+이하의 제한들은 서비스의 이용에 적용됩니다.
+- 미성년자가 법정대리인의 동의를 받지 않고 의무부담행위를 한 경우(예를 들면, 유료서비스 결제), 미성년자 또는 그 미성년자의 법정대리인은 해당계약을 취소할 수 있습니다.
+- 귀하는 귀하의 계정을 구매, 판매, 대여, 양도(혹은 이를 시도)하지 않고 거짓 신원 혹은 정보로 또는 타인을 대신하여 계정을 생성하지 않아야 합니다; 귀하가 사전에 Powersource Studio에 의해 제명되었거나 다른 Powersource Studio 게임의 플레이가 금지되었을 경우 서비스를 이용할 수 없습니다.
+- 귀하는 오로지 비상업적인 목적으로만 귀하의 계정을 이용하여야 합니다. 귀하는 광고, 호객행위, 상업적 광고들의 전송(행운의 편지, 스팸메일 또는 누군가에 대한 반복적이거나 허위의 메시지 전송을 포함) 목적으로 서비스를 이용할 수 없습니다.
+로그인 정보 및 계정
+귀하는 귀하의 계정에 대한 암호를 선택할 것을 요구 받게 되거나 계정 접속을 위해 다른 비밀 정보를 사용할 수도 있습니다(이하 "로그인 정보"). 귀하는 계정 또는 로그인 정보를 타인과 공유할 수 없고, 타인으로 하여금 귀하의 계정에 접근하거나 그 밖에 귀하의 계정의 보안을 위협하는 어떠한 행위를 하도록 허락할 수 없습니다. 귀하가 보안사고를 알게 되거나 합리적으로 보안사고를 의심할만한 상황을 인지하게 될 경우(로그인 정보의 손실, 도난 또는 무단 공개를 포함하나, 이에 한정되지 아니함), 귀하는 즉시 Powersource Studio에 해당 사실을 통지하고 귀하의 로그인 정보를 수정하여야 합니다. 귀하의 로그인 정보의 비밀유지는 전적으로 귀하가 책임져야 하고, 귀하는 귀하의 로그인 정보에 관한 모든 이용행위(구매행위를 포함하며, 귀하의 승인을 받았는지 여부는 불문함)에 대하여 책임을 부담합니다. 귀하는 귀하의 계정을 통하여 발생하는 모든 사안에 대하여 책임을 부담합니다.
+Powersource Studio는 언제든지, 그리고 어떠한 이유로든지(어떠한 이용자명이 제3자의 권리를 침해하였다는 제3자의 주장을 포함하나, 이에 한정되지 아니함), 어떠한 이용자명도 제거하거나 회수할 권리를 가집니다.
+본 서비스는 지원기기의 게임당 하나의 계정만을 지원합니다.
+라이선스의 제한
+본 라이선스의 제한을 위반한 상태에서의 모든 서비스의 이용은 엄격하게 금지되고, 귀하의 제한된 라이선스는 즉시 취소될 수 있으며, 귀하는 위법행위에 대하여 책임을 져야 할 수도 있습니다.
+귀하는 어떤 상황에서도 다음과 같은 행위를 하지 않을 것에 동의합니다.
+- Powersource Studio의 서비스 정신 또는 서비스 의도에 반하는 것으로 Powersource Studio가 간주하는 행위 또는 Powersource Studio의 지원 서비스를 부적절하게 이용하는 행위
+- Powersource Studio의 게임 또는 게임경력을 변경하거나 방해하도록 설계된 치트, 엑스플로잇, 자동화 소프트웨어, 에뮬레이터, 보트, 해킹 프로그램, 유저제작게임 또는 그 밖에 승인되지 않은 제3자 소프트웨어를 이용 혹은 이용(직, 간접적)에 참여하거나, 서비스 또는 Powersource Studio 게임의 일부 파일을 변경하거나 변경하도록 하는 행위
+- 중복 로그인 등 비정상적인 방법으로 Powersource Studio의 게임에 부정적인 영향을 주는 행위
+- 서비스의 일반적인 흐름에 지장을 주거나 방해 또는 이에 부정적인 영향을 주는 행위나 서비스의 이용이나 Powersource Studio의 게임 플레이에서 다른 사용자의 경험에 부정적인 영향을 주는 방식의 행동. 이는 몰아주기와 같은 순위 조작과 관련된 모든 행동, 서비스 오류를 통해 다른 플레이어들로부터 부당한 이득을 얻는 행동, 서비스 내용에 대한 의도적인 악용 및 이에 반하는 행동들을 포함합니다.
+- 서비스 또는 Powersource Studio의 게임 환경을 제공하거나 지원하는 데에 사용되는 컴퓨터 또는 서버(이하 "서버")에 과부하를 걸거나 방해를 주거나 또는 이러한 과부하 또는 방해행위를 지원하는 행위
+- 공격행위(바이러스의 배포, 서비스에 대한 거부 공격, 또는 그 밖에 서비스 또는 제3자의 서비스 이용을 방해하고자 하는 행위를 포함하나, 이에 한정되지 아니함)를 개시하거나, 지원하거나, 또는 그에 관여하는 행위
+- 서비스, 타인 또는 다른 컴퓨터에 등록된 계정, 서버 또는 서비스에 연결된 네트워크에 대해 Powersource Studio로부터 제공된 이용자 인터페이스가 아닌 다른 수단을 통해 승인되지 않은 접속을 시도하는 행위(서비스의 일부분인 보안, 기술, 기기 또는 소프트웨어를 변경 또는 우회하거나 그러한 시도를 하는 행위 또는 그러한 변경이나 우회를 하는 누군가를 지원하거나 방조하는 행위를 포함하나, 이에 한정되지 아니함)
+- 권리남용적이거나 위협적이거나 음란하거나 타인의 명예를 훼손하거나 비방하거나 인종∙성별∙종교적 또는 그 밖의 이유로 부당하거나 불쾌한 정보를 게시하는 행위 또는 원치 않는 모든 사람들에게 반복적으로 정보를 게시하는 것과 같이 지속적인 이러한 해독행위들에 관여하는 것
+- 나체, 과도한 폭력 또는 불쾌한 주제를 포함한 정보 또는 그러한 내용에 관한 링크를 게시하는 행위
+- Powersource Studio의 고객 서비스 대리인을 포함하여 Powersource Studio의 피용자를 포함한 타인이나 그룹을 희롱하거나 괴롭히거나 해를 끼치는 행위 또는 그러한 희롱 또는 가해를 시도하거나 조장하는 행위
+- 서비스를 통하여 타인인 개인 또는 법인의 저작권, 상표, 특허, 영업비밀, 프라이버시권, 퍼블리시티권 또는 기타 권리를 침해하거나 타인(Powersource Studio의 피용자를 포함하나, 이에 한정되지 아니함)을 사칭하는 자료 또는 정보를 사용할 수 있도록 하는 행위
+- 서비스 또는 Powersource Studio의 게임을 제공하기 위하여 사용된 근본 소프트웨어 또는 다른 지적 재산권의 소스 코드를 추출하기 위하여, 또는 Powersource Studio가 명시적으로 허용하지 않은 방법을 사용하여 서비스 또는 Powersource Studio 게임으로부터 정보를 얻기 위하여 역설계, 역컴파일, 역어셈블, 해독행위 또는 기타 이를 위한 시도를 하는 행위
+- 서비스 또는 Powersource Studio 게임의 다른 이용자로부터 로그인 정보나 기타 로그인을 위한 비밀 정보 또는 개인정보를 구하거나 구하려는 시도를 하는 행위
+- 서비스를 통하여 누군가의 사적인 정보{개인신원정보(문자, 이미지, 또는 비디오와 같은 형태 불문함), 신원확인 문서, 또는 재무정보를 포함}를 수집하거나 게시하는 행위
+수수료 또는 판돈의 개입 여부를 불문하고, 귀하가 플레이어로서 참가하는 경기의 결과에 대해 배팅하는 행위를 포함해 도박, 배팅 또는 (직접적 또는 간접적으로) 상 또는 보상이 획득될 수 있는 유사한 활동을 위해 Powersource Studio 게임을 이용하는 행위
+Powersource Studio는 어떠한 행위가 이용규칙 위반에 해당되거나 본 서비스 약관 및 본 서비스 약관의 의도 또는 정신을 이탈하는 것인지 여부를 결정할 권리를 가집니다. Powersource Studio는 그 결정의 결과로서 조치를 취할 권리를 가지며 여기에는 귀하의 계정을 종료시키고 귀하의 서비스 이용을 전부 또는 일부를 금지하는 것이 포함됩니다.
+1.2. 계정과 서비스의 중단 및 종료
+만일 귀하가 본 서비스 약관을 준수하지 않거나 또는 서비스를 불법으로 또는 부적절하게 이용하거나, 또는 Powersource Studio가 귀하의 약관 미준수, 위법하거나 부적절한 이용행위를 의심할만한 사정이 있는 경우(이하 총칭하여 "이용자 의무위반 행위")에는, Powersource Studio는 귀하에게 통지하고 귀하의 서비스 또는 그 일부에 대한 접속 또는 귀하의 계정을 제한∙중단∙변경∙삭제(이하 "이용제한 조치")할 수 있습니다. Powersource Studio는 이용자 의무위반 행위에 대하여 위반행위의 내용, 정도, 횟수, 결과 등 제반 사정을 고려하여 차등하여 서비스 이용제한 조치를 취할 수 있고, 이는 Powersource Studio의 다른 권리구제수단을 제한하지 않습니다. 계정종료 또는 제한의 결과로, 귀하는 귀하의 서비스 이용과 관련된 이익, 특권, 획득한 아이템들과 구매한 아이템들뿐만 아니라 귀하의 서비스 내 이용자명과 캐릭터를 상실할 수 있고, Powersource Studio는 이러한 손해 또는 결과에 관하여 귀하에게 배상할 책임이 없습니다.
+당사는 이용자가 위험 또는 법률상 책임을 창출하거나, 제3자의 지적재산권을 침해하거나, 또는 당사의 약관이나 정책의 문언 또는 정신에 반하는 행위를 하는 것으로 판단될 경우에는 서비스와 이용자 계정 또는 그 일부분을 제한∙중단 또는 해지할 수 있고, 당사의 게임∙사이트 및 그 콘텐츠∙서비스∙툴에의 접속을 금지할 수 있으며, 제공되는 콘텐츠를 제거하거나 지연시킬 수 있고, 해당 이용자의 서비스 접속을 막기 위한 기술적∙법률적 조치를 취할 수 있습니다(이는 Powersource Studio의 다른 권리구제수단을 제한하지 않음). 또한, 당사는 적절한 상황 하에서 전적으로 당사의 재량에 따라, 제3자의 지적재산권을 반복적으로 침해할 여지가 있는 이용자의 계정을 중단하거나 해지시킬 수 있습니다.
+Powersource Studio는 180일 이상 휴면 중인 계정을 해지시킬 권리를 가집니다.
+Powersource Studio는 언제든지 서비스 또는 특정 게임 또는 서비스 일부의 제공 및/또는 지원을 중단할 권리를 가지고, 그와 동시에 서비스 또는 그 일부를 이용할 수 있는 귀하의 라이선스는 자동으로 종료됩니다. 이러한 경우, Powersource Studio는 이용자에 대하여 서비스의 중단으로 인한 환불∙보상∙배상을 할 책임을 부담하지 않습니다. 귀하의 계정의 해지에는 서비스 또는 그 일부(귀하 또는 타인이 제출한 콘텐츠를 포함)에 대한 귀하의 접속을 불가능하게 하는 것도 포함될 수 있습니다.
+2. 소유권
+2.1. 게임과 서비스
+서비스에 관한 모든 권리, 소유권, 이익(게임, 출판물, 컴퓨터 코드, 테마, 물건, 캐릭터, 캐릭터명, 스토리, 다이얼로그, 캐치프레이즈, 콘셉트, 삽화, 애니메이션, 음향, 음악구성형식, 시청각적 효과, 작동방법, 저작인격권, 서류, 게임상의 채팅기록, 캐릭터 프로필 정보, Powersource Studio의 게임 클라이언트를 이용한 게임 플레이 기록, Powersource Studio의 게임 클라이언트와 서버 소프트웨어를 포함하나, 이에 한정되지 아니함)은 Powersource Studio가 소유합니다. Powersource Studio는 당사의 게임 및 서비스에 관한 모든 권리(지적재산권 또는 그 밖의 소유권을 포함하나, 이에 한정되지 아니함)를 가집니다.
+2.2. 계정
+어떠한 경우에도, 귀하는 귀하가 계정에 대한 소유권 또는 그 밖의 재산상 이익을 가지지 않음을 인정하고 동의하며, 나아가, 귀하는 계정상의 또는 계정에 대한 모든 권리는 영구적으로 Powersource Studio가 소유하고 Powersource Studio의 이익을 위하여만 유효함을 인정하고 동의합니다.
+2.3. 가상 아이템들
+Powersource Studio는 Powersource Studio의 게임 또는 서비스상의 모든 콘텐츠를 소유하고, 라이선스를 허여하며 기타 이를 이용할 권리를 가집니다. 어떠한 경우에도, 귀하는 서비스상의 어떠한 콘텐츠(Powersource Studio의 게임에서 발생하거나 나타나는 가상의 물품 또는 통화(게임상에서 획득하였거나 Powersource Studio로부터 구매하였는지 여부를 불문함) 또는 계정과 결부되거나 서비스상에 저장된 부수물을 포함하나, 이에 한정되지 아니함)에 대하여 아무런 권리 또는 소유권을 가지지 않음에 동의합니다.
+3. 이용자 콘텐츠
+3.1 이용자 콘텐츠 개진
+"이용자 콘텐츠"는 의사소통, 이미지, 음향, 그리고 모든 자료, 데이터, 그리고 귀하 또는 다른 이용자들이 Powersource Studio 게임 클라이언트 또는 서비스를 통하여 업로드하거나 전송한 정보(채팅 텍스트를 포함하나, 이에 한정되지 아니함)를 의미합니다. 서비스를 이용하는 동안 어떠한 이용자 콘텐츠를 전송 또는 제출함으로써, 귀하는 그러한 전송 또는 제출행위가 (a)정확하고, 비밀이 아니며, (b) 법률 또는 계약상의 제한 또는 그 밖의 제3자의 권리를 위반하지 아니하고, 또한 귀하가 이용자 콘텐츠를 구성하는 개인정보 또는 지적재산권의 소유자인 제3자로부터 허락을 받았으며, (c) 바이러스, 애드웨어, 스파이웨어, 웜 바이러스 또는 그 밖의 악성코드가 없다는 것을 확인하고 진술 및 보증하며, (d) 그러한 콘텐츠 내의 귀하의 개인정보는 언제나 Powersource Studio의 개인정보 보호정책에 따라 처리됨을 인정하고 이에 동의합니다.
+3.2. 콘텐츠 심사
+Powersource Studio는 이용자 콘텐츠를 제출하는 이용자의 행위에 대하여 어떠한 책임도 지지 않고, 부적절한 콘텐츠 또는 행위에 대하여 서비스를 감시할 어떠한 책임도 지지 않습니다. 당사는 모든 이용자 콘텐츠를 사전에 심사하거나 감시할 수 없고 심사 또는 감시하지도 않습니다. 귀하의 서비스 이용에 따른 위험은 귀하 자신이 부담합니다. 서비스를 이용함으로써 귀하는 불쾌하고, 외설적이거나 귀하의 기대에 부응하지 않는 이용자 콘텐츠에 노출될 수 있습니다. 귀하는 서비스와 연결되어 사용 가능한 모든 이용자 콘텐츠의 사용과 관련된 일체의 위험을 부담합니다. 당사의 재량에 따라, 귀하의 서비스 이용 시 당사의 대리인 또는 당사의 기술에 의하여 귀하의 서비스와의 상호작용 또는 의사소통(채팅 텍스트를 포함하나 이에 한정되지 아니함)을 관찰 및/또는 기록할 수 있습니다.
+본 서비스 약관을 체결함으로써 귀하는 이러한 관찰과 기록에 대하여 취소할 수 없는 동의를 하는 것입니다. 귀하는 채팅 텍스트 또는 음성 의사소통을 포함하여 이용자 콘텐츠의 전송과 관련하여 프라이버시를 기대하지 않음을 인정하고 동의합니다.
+Powersource Studio는 어떠한 근거에 대한 공지 없이 혹은 언제든지 별다른 이유 없이 재량으로 사용자 콘텐츠(귀하의 사용자 콘텐츠에 대한 제한 없이 이를 포함하여)에 대한 검토, 관찰, 금지, 편집, 삭제, 접속 금지 또는 이를 이용할 수 없도록 할 권한을 갖습니다. Powersource Studio가 전적으로 당사의 재량에 따라 서비스를 관찰하기로 결정한 경우에도, Powersource Studio는 이용자 콘텐츠에 대하여 어떠한 책임도 부담하지 아니하고, 부적절한 이용자 콘텐츠를 수정 또는 제거할 의무를 부담하지도 않습니다. 당사는 당사의 전적인 재량 하에 이용자 콘텐츠를 편집하고, 전송을 거부하거나 제거할 권리를 가지고 있으나, 그러한 의무를 부담하지는 않습니다.
+3.2. 서비스의 다른 이용자들에 의한 정보 이용
+3.2.1. 공시
+지정된 주제에 관한 귀하의 논평과 언급을 포함하여 귀하가 이용자 콘텐츠를 게시할 수 있는 다양한 포럼, 블로그, 그리고 채팅 기능이 서비스에 포함될 수 있습니다. Powersource Studio는 귀하가 공유하는 아이디어와 정보를 다른 이용자들이 이용하지 않으리라는 점을 보증하지 않습니다. 따라서 만일 귀하가 비밀을 유지하고자 하는 정보 또는 아이디어를 가지고 있고 또는/그리고 다른 사람들이 이를 이용하지 않기를 바란다면, 이를 서비스에 게시하지 마십시오. Powersource Studio는 귀하가 제출하기로 결정한 아이디어 또는 정보를 평가하거나 이용하거나 그와 관련하여 귀하에게 배상할 책임을 지지 않습니다.
+3.2.2. 귀하 소유의 콘텐츠에 대한 책임
+귀하는 귀하가 서비스상에 또는 서비스를 통하여 또는 서비스와 관련하여 게시하거나 또는 타인에게 제공한 정보에 대하여 전적으로 책임을 집니다. Powersource Studio는 어떠한 이유로든지 또는 아무 이유 없이도 이용자 콘텐츠(Powersource Studio의 전적인 판단에 따랐을 때 본 서비스 약관을 위반하는 이용자 콘텐츠를 포함하나, 이에 한정되지 아니함)를 거절하거나 게시를 거부하거나 이를 삭제할 수 있습니다.
+3.3. Powersource Studio에 대한 귀하의 라이선스
+귀하는 이로써 Powersource Studio에 대하여 취소할 수 없고, 영구적이며, 이전 가능하며, 전액 완납된, 로열티가 부과되지 않는, 전 세계적인 라이선스(2차 라이선스권과 제3자에 대한 양도권을 포함)와, 당사의 서비스 제공과 관련된 귀하의 이용자 콘텐츠뿐만 아니라 그에 관한 모든 변경되고 파생된 가공물을 복사∙복제∙재생성∙수리∙조정∙변경∙2차적저작물 생성∙제조∙상업화∙퍼블리싱∙배포∙판매∙라이선스∙2차 라이선스∙이전∙리스∙전송∙공개적인 전시∙공개적인 공연∙전자적 접속의 제공∙방송∙전기통신에 의한 대중과의 의사소통∙전시∙공연∙컴퓨터 메모리에의 입력, 그리고 어떠한 방식으로든지 이용 및 실행(서비스의 마케팅과 프로모션을 포함)할 권리를 허여합니다. 또한 귀하는 Powersource Studio가 본 서비스 약관에 따라 Powersource Studio에게 허여된 권리를 행사할 권한을 타인에게 부여할 수 있음을 허여합니다. 나아가 귀하는 Powersource Studio에게, 귀하에 대하여 어떠한 의무도 부담함이 없이, 귀하의 성명, 초상, 그리고 그 밖에 이용자 콘텐츠에 포함되거나 그와 연관된 정보 또는 자료를 이용하고 활용할 무조건적이고 취소 불가능한 권리를 허여합니다. 법률에 의하여 금지되지 않는 한, 귀하의 이용자 콘텐츠가 어떠한 방식으로 수정 또는 변경되건 간에, 귀하는 귀하의 이용자 콘텐츠에 대하여 귀하가 가질 수 있는 모든 소유권 및/또는 저작인격권을 포기합니다. Powersource Studio는 귀하의 이용자 콘텐츠에 대하여 어떠한 소유권도 주장하지 않고 본 서비스 약관은 귀하가 귀하의 이용자 콘텐츠를 이용하고 활용할 권리를 제한하지 않습니다. Powersource Studio는 귀하의 이용자 콘텐츠에 대한 귀하의 지적 재산권을 감시하거나 집행할 의무를 부담하지 않습니다
+3.4. 이용자 상호작용
+귀하는 서비스의 다른 이용자들 및 서비스 및/또는 Powersource Studio 게임을 통하여 귀하가 상호작용하는 다른 당사자들과의 상호작용에 대하여 전적으로 책임을 부담합니다. Powersource Studio는 이러한 분쟁에 관여할 권리를 가지지만 그러한 의무는 부담하지 않습니다. 위법하거나 사기적이거나 또는 부적합하다고 의심받는 활동에 관한 Powersource Studio의 조사에 귀하는 전적으로 협력(Powersource Studio가 귀하의 계정의 암호로 보호받는 부분에 접속하는 것을 승인하는 것을 포함하나, 이에 한정되지 아니함)합니다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Effective Date: November 6, 2020
+The terms of this agreement ("Terms of Service") govern the relationship between you and Powersource, a Korean company having its registered office at Imae-ro 45 Bundang-gu Seongnam-si Gyeonggi, Korea, (hereinafter "Powersource" or "Us" or "We") regarding your use of Powersource's games, websites and related services (the "Service"). Use of the Service is also governed by Powersource's Privacy Policy and other relevant policies, which are incorporated herein by reference.
+Before accessing or using the Service, including browsing any Powersource website or accessing a game, you must agree to these Terms of Service and the Privacy Policy. You may also be required to register an account on the Service (an "Account"). By registering for an Account or otherwise using the Service, you affirm that you are the legal age of majority in your country of residence. If you are not, your legal guardian must review and agree to these Terms. If you access the Service from a Social Networking Site ("SNS"), such as Google, you shall comply with its terms of service/use as well as these Terms of Service.
+BY INSTALLING, USING OR OTHERWISE ACCESSING THE SERVICE, YOU AGREE TO THESE TERMS OF SERVICE. IF YOU DO NOT AGREE TO THESE TERMS OF SERVICE, PLEASE DO NOT INSTALL, USE OR OTHERWISE ACCESS THE SERVICE. USE OF THE SERVICE IS VOID WHERE PROHIBITED.
+Powersource reserves the right, at its discretion, to change, modify, add or remove portions of these Terms of Service, its Privacy Policy and other relevant Powersource policies at any time by posting the amended terms on the Powersource Service. You will be deemed to have accepted such changes by continuing to use the Service. If at any point you do not agree to any portion of the then-current version of our Terms of Service, the Powersource Privacy Policy, or any other Powersource policy, rules or codes of conduct relating to your use of the Service, your license to use the Service shall immediately terminate, and you must immediately stop using the Service.
+1. License
+1.1. Grant of a Limited License to Use the Service
+Subject to your agreement and continuing compliance with these Terms of Service and any other relevant Powersource policies, Powersource grants you a non-exclusive, non-transferable, non-sublicensable, revocable and limited license to access and use the Service for your own non-commercial entertainment purposes. You agree not to use the Service for any other purpose.
+The following restrictions apply to the use of the Service:
+- You accept full responsibility for any unauthorized use of the Service by minors. You are responsible for any use of your credit card or other payment instrument (e.g. paypal) by minors.
+- You shall not (or attempt to) purchase, sell, rent or give away your Account, create an Account using a false identity or information, or on behalf of someone other than yourself; You shall not use the Service if you have previously been removed by Powersource, or previously been banned from playing any Powersource game.
+- You shall use your Account only for non-commercial purposes; You shall not use the Service to advertise, or solicit, or transmit any commercial advertisements, including chain letters, junk or spam e-mail or repetitive or misleading messages to anyone.
+Login information and Your Account
+You may be required to select a password for your Account or you may also use other credentials to access the Account ("Login Information"). You shall not share the Account or the Login Information, nor let anyone else access your Account or do anything else that might jeopardize the security of your Account. In the event you become aware of or reasonably suspect any breach of security, including without limitation any loss, theft, or unauthorized disclosure of the Login Information, you must immediately notify Powersource and modify your Login Information. You are solely responsible for maintaining the confidentiality of the Login Information, and you will be responsible for all uses of the Login Information, including purchases, whether or not authorized by you. You are responsible for anything that happens through your Account.
+Powersource reserves the right to remove or reclaim any usernames at any time and for any reason, including but not limited to claims by a third party that a username violates the third party's rights.
+The Service supports only one Account per game on a supported device.
+License Limitations
+Any use of the Service in violation of these License Limitations is strictly prohibited, can result in the immediate revocation of your limited license and may subject you to liability for violations of law.
+You agree that you will not, under any circumstances:
+- Engage in any act that Powersource deems to be in conflict with the spirit or intent of the Service or make improper use of Powersource's support services.
+- Use or take part (directly or indirectly) in the use of cheats, exploits, automation software, emulators, bots, hacks, mods or any unauthorized third-party software designed to modify or interfere with the Service, any Powersource game or any Powersource game experience.
+- Engage in any act that negatively affects any Powersource game through abnormal methods such as duplicate login.
+- Modify or cause to be modified any files that are a part of the Service or any Powersource game without Powersource's express written consent.
+- Disrupt, interfere with or otherwise adversely affect the normal flow of the Service or otherwise act in a manner that may negatively affect other users' experience when using the Service or playing Powersource's games. This includes win trading and any other kind of manipulation of rankings, taking advantage of errors in the Service to gain an unfair edge over other players and any other act that intentionally abuses or goes against the design of the Service.
+- Disrupt, overburden, or aid or assist in the disruption or overburdening of any computer or server ("Server") used to offer or support the Service or any Powersource game environment.
+Institute, assist, or become involved in any type of attack, including without limitation distribution of a virus, denial of service attacks upon the Service, or other attempts to disrupt the Service or any other person's use or enjoyment of the Service.
+- Attempt to gain unauthorized access to the Service, Accounts registered to others or to the computers, Servers, or networks connected to the Service by any means other than the user interface provided by Powersource, including but not limited to, by circumventing or modifying, attempting to circumvent or modify, or encouraging or assisting any other person to circumvent or modify, any security, technology, device, or software that is part of the Service.
+Post any information that is abusive, threatening, obscene, defamatory, libelous, or racially, sexually, religiously, or otherwise objectionable or offensive or engage in ongoing toxic behavior, such as by repeatedly posting information on an unsolicited basis.
+- Post any information that contains nudity, excessive violence, or offensive subject matter or that contains a link to such content.
+- Attempt to, or harass, abuse, or harm, or advocate or incite harassment, abuse, or harm of another person, group, including Powersource employees, including Powersource's customer service representatives.
+- Make available through the Service any material or information that infringes any copyright, trademark, patent, trade secret, right of privacy, right of publicity, or other right of any person or entity or impersonates any other person, including without limitation a Powersource employee.
+- Reverse engineer, decompile, disassemble, decipher or otherwise attempt to derive the source code for any underlying software or other intellectual property used to provide the Service or any Powersource game, or to obtain any information from the Service or any Powersource game using any method not expressly permitted by Powersource.
+- Solicit or attempt to solicit Login Information or any other login credentials or personal information from other users of the Service or any Powersource game.
+- Collect or post anyone's private information, including personally identifiable information (whether in text, image or video form), identification documents, or financial information through the Service.
+- Use any Powersource game for gambling, betting or any similar activity in which prizes or rewards can be won (directly or indirectly), including betting on the outcome of matches in which you participate as a player, irrespective of whether or not there is a fee or stake involved.
+Powersource reserves the right to determine what conduct it considers to be in violation of the rules of use or otherwise outside the intent or spirit of these Terms of Service or the Service itself. Powersource reserves the right to take action as a result, which may include terminating your Account and prohibiting you from using the Service in whole or in part.
+1.2. Suspension and Termination of Account and Service
+WITHOUT LIMITING ANY OTHER REMEDIES, POWERSOURCE MAY LIMIT, SUSPEND, TERMINATE, MODIFY, OR DELETE ACCOUNTS OR ACCESS TO THE SERVICE OR PORTIONS THEREOF IF YOU ARE, OR POWERSOURCE SUSPECTS THAT YOU ARE, FAILING TO COMPLY WITH ANY OF THESE TERMS OF SERVICE OR FOR ANY ACTUAL OR SUSPECTED ILLEGAL OR IMPROPER USE OF THE SERVICE, WITH OR WITHOUT NOTICE TO YOU. YOU CAN LOSE YOUR USER NAME AND PERSONA IN THE SERVICE AS A RESULT OF ACCOUNT TERMINATION OR LIMITATION, AS WELL AS ANY BENEFITS, PRIVILEGES, EARNED ITEMS AND PURCHASED ITEMS ASSOCIATED WITH YOUR USE OF THE SERVICE, AND POWERSOURCE IS UNDER NO OBLIGATION TO COMPENSATE YOU FOR ANY SUCH LOSSES OR RESULTS.
+WITHOUT LIMITING OUR OTHER REMEDIES, WE MAY LIMIT, SUSPEND OR TERMINATE THE SERVICE AND USER ACCOUNTS OR PORTIONS THEREOF, PROHIBIT ACCESS TO OUR GAMES AND SITES, AND THEIR CONTENT, SERVICES AND TOOLS, DELAY OR REMOVE HOSTED CONTENT, AND TAKE TECHNICAL AND LEGAL STEPS TO PREVENT USERS FROM ACCESSING THE SERVICE IF WE BELIEVE THAT THEY ARE CREATING RISK OR POSSIBLE LEGAL LIABILITIES, INFRINGING THE INTELLECTUAL PROPERTY RIGHTS OF THIRD PARTIES, OR ACTING INCONSISTENTLY WITH THE LETTER OR SPIRIT OF OUR TERMS OR   POLICIES. ADDITIONALLY, WE MAY, IN APPROPRIATE CIRCUMSTANCES AND AT OUR SOLE DISCRETION, SUSPEND OR TERMINATE ACCOUNTS OF USERS WHO MAY BE REPEAT INFRINGERS OF THIRD PARTY INTELLECTUAL PROPERTY RIGHTS.
+POWERSOURCE RESERVES THE RIGHT TO TERMINATE ANY ACCOUNT THAT HAS BEEN INACTIVE FOR 180 DAYS.
+Powersource reserves the right to stop offering and/or supporting the Service or a particular game or part of the Service at any time, at which point your license to use the Service or a part thereof will be automatically terminated. In such event, Powersource shall not be required to provide refunds, benefits or other compensation to users in connection with such discontinued Service. Termination of your Account can include disabling your access to the Service or any part thereof including any content you submitted or others submitted.
+2. Ownership
+2.1. Games and Service
+All rights, title and interest in and to the Service (including without limitation any games, titles, computer code, themes, objects, characters, character names, stories, dialogue, catch phrases, concepts, artwork, animations, sounds, musical compositions, audio-visual effects, methods of operation, moral rights, documentation, in-game chat transcripts, character profile information, recordings of games played using a Powersource game client, and the Powersource game clients and server software) are owned by Powersource. Powersource reserves all rights, including without limitation, all intellectual property rights or other proprietary rights, in connection with its games and the Service.
+2.2. Accounts
+NOTWITHSTANDING ANYTHING TO THE CONTRARY HEREIN, YOU ACKNOWLEDGE AND AGREE THAT YOU SHALL HAVE NO OWNERSHIP OR OTHER PROPERTY INTEREST IN THE ACCOUNT, AND YOU FURTHER ACKNOWLEDGE AND AGREE THAT ALL RIGHTS IN AND TO THE ACCOUNT ARE AND SHALL FOREVER BE OWNED BY AND INURE TO THE BENEFIT OF POWERSOURCE.
+2.3. Virtual Items
+Powersource owns, has licensed, or otherwise has rights to use all of the content that appears in the Service or in Powersource games. Notwithstanding any provision to the contrary herein, you agree that you have no right or title in or to any content that appears in the Service, including without limitation the virtual goods or currency appearing or originating in any Powersource game, whether earned in a game or purchased from Powersource, or any other attributes associated with an Account or stored on the Service.
+3. User Content
+3.1. Submission of User Content
+"User Content" means any communications, images, sounds, and all the material, data, and information that you upload or transmit through a Powersource game client or the Service, or that other users upload or transmit, including without limitation any chat text. By transmitting or submitting any User Content while using the Service, you affirm, represent and warrant that such transmission or submission is (a) accurate and not confidential or misleading; (b) not in violation of any laws, contractual restrictions or other third party rights, and that you have permission from any third party whose personal information or intellectual property is comprised in the User Content; (c) free of viruses, adware, spyware, worms or other malicious code; and (d) you acknowledge and agree that any of your personal information within such content will at all times be processed by Powersource in accordance with its Privacy Policy.
+3.1.1. Content Screening
+Powersource assumes no responsibility for the conduct of any user submitting any User Content, and assumes no responsibility for monitoring the Service for inappropriate content or conduct. We do not, and cannot, pre-screen or monitor all User Content. Your use of the Service is at your own risk. By using the Service, you may be exposed to User Content that is offensive, indecent or otherwise not in line with your expectations. You bear all risks associated with the use of any User Content available in connection with the Service. At our discretion, our representatives or technology may monitor and/or record your interaction with the Service or communications (including without limitation chat text) when you are using the Service.
+By entering into these Terms of Service, you hereby provide your irrevocable consent to such monitoring and recording. You acknowledge and agree that you have no expectation of privacy concerning the transmission of any User Content, including without limitation chat text or voice communications.
+Powersource reserves the right in its sole discretion to review, monitor, prohibit, edit, delete, disable access to or otherwise make unavailable any User Content (including without limitation your User Content) without notice for any reason or for no reason at any time. If at any time Powersource chooses, in its sole discretion, to monitor the Service, Powersource nonetheless assumes no responsibility for User Content and assumes no obligation to modify or remove any inappropriate User Content. We have the right, but not the obligation, in our sole discretion to edit, refuse to post, or remove any User Content.
+3.2. Information Use by Other Members of the Service
+3.2.1. Public Discourse
+The Service may include various forums, blogs and chat features where you can post User Content, including your observations and comments on designated topics. Powersource cannot guarantee that other members will not use the ideas and information that you share. Therefore, if you have an idea or information that you would like to keep confidential and/or don't want others to use, do not post it on the Service. Powersource shall have no responsibility to evaluate, use or compensate you for any ideas or information you may choose to submit.
+3.2.2. Responsible For Your Own Content
+You are solely responsible for the information that you post on, through or in connection with the Service and that you provide to others. Powersource may reject, refuse to post or delete any User Content for any or no reason, including, but not limited to, User Content that in the sole judgment of Powersource violates these Terms of Service.
+3.2.3. Your License to Powersource
+You hereby grant to Powersource an irrevocable, perpetual, transferable, fully paid-up, royalty-free, worldwide license (including the right to sublicense and assign to third party) and right to copy, reproduce, fix, adapt, modify, create derivative works from, manufacture, commercialize, publish, distribute, sell, license, sublicense, transfer, lease, transmit, publicly display, publicly perform, or provide access to electronically, broadcast, communicate to the public by telecommunication, display, perform, enter into computer memory, and use and practice, in any way, your User Content as well as all modified and derivative works thereof in connection with our provision of the Service, including marketing and promotions of the Service. You also hereby grant to Powersource the right to authorize others to exercise any of the rights granted to Powersource under these Terms of Service. You further hereby grant to Powersource the unconditional, irrevocable right to use and exploit your name, likeness and any other information or material included in any User Content and in connection with any User Content, without any obligation to you. Except as prohibited by law, you waive any rights of attribution and/or any moral rights you may have in your User Content, regardless of whether your User Content is altered or changed in any manner. Powersource does not claim any ownership rights in your User Content and nothing in these Terms of Service is intended to restrict any rights that you may have to use and exploit your User Content. Powersource has no obligation to monitor or enforce your intellectual property rights in or to your User Content.
+3.3. User Interactions
+You are solely responsible for your interactions with other users of the Service and any other parties with whom you interact through the Service and/or Powersource games. Powersource reserves the right, but has no obligation, to become involved in any way with these disputes. You will fully cooperate with Powersource to investigate any suspected unlawful, fraudulent or improper activity, including, without limitation, granting Powersource access to any password-protected portions of your Account.
+If you have a dispute with one or more users, you release us (and our officers, directors, agents, subsidiaries, joint ventures and employees) from claims, demands and damages (actual and consequential) of every kind and nature, known and unknown, arising out of or in any way connected with such disputes.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>발효일: 2020년 11월 2일
 당사의 게임을 즐겨 주셔서 감사합니다! 본 개인정보 보호정책에서는 다음 사항을 설명합니다.
 - 당사가 귀하에 관한 개인정보를 수집하는 방식 및 그 이유
@@ -113,7 +292,7 @@
 연락처
 개인정보 보호에 관한 문의 사항, 또는 귀하의 개인정보에 관한 문제를 해결하기 위한 요청 사항이 있는 경우, 일차적으로 각각의 Powersource Studio 게임 내에 존재하는 고객지원 기능을 통해 당사로 연락하시면 보다 신속하게 답변 받을 수 있습니다. 이 외에 다음 연락처를 통해 당사에 직접 연락하실 수도 있습니다.
 관리자 성명: 파워소스스튜디오
-주소: 경기 성남시 분당구 이매로 35 / 담당자: Privacy 팀
+주소: 경기 성남시 분당구 이매로 45 / 담당자: Privacy 팀
 이메일: powersourcelegalrequests@gmail.com
 당사가 수집하는 데이터
 당사가 수집하는 개인정보의 범주는 귀하가 사용하는 서비스 및 관련 법률의 요건에 따라 달라집니다.
@@ -233,7 +412,7 @@
 CONTACT US
 If you have questions about data protection, or if you have any requests for resolving issues with your personal data, we encourage you to primarily contact us through the support features within each Powersource game, so we can reply to you more quickly. Alternatively, you may contact:
 Name of the controller: Powersource
-Address: Imae-ro 35 Bundang-gu Seongnam-si Gyeonggi, Korea Attn: Privacy
+Address: Imae-ro 45 Bundang-gu Seongnam-si Gyeonggi, Korea Attn: Privacy
 email: powersourcelegalrequests@gmail.com
 THE DATA WE COLLECT
 The categories of personal data we collect depend on the Services you use, and the requirements of applicable law.
@@ -340,185 +519,6 @@
 Protecting children’s privacy online is very important to us. Generally, our Services are not directed to children under 13 (or other age as required by local law), and the Services do not knowingly collect personal data from children, except as described in the following paragraph.
 For games that are not directed at children but nonetheless may appeal to them, we take additional steps to limit access to these Services based on the player’s age. For these Services, when a player indicates they are under 13 (or the applicable age in their territory), we will limit their access to certain features, such as social media and chat features, as well as certain types of notification alerts. We also limit the processing of personal data to only what is necessary to support the internal operations of our Services.
 If you are a parent or guardian and wish to review personal data collected from your child, or have that information modified or deleted, you may contact us as described above. If we become aware that a child has provided us with personal data contrary to the above, we will delete any personal data we have collected, unless we have a legal obligation to keep it, and terminate the child’s account and/or revert them to the underage experience, as applicable.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. Fees and Purchase Terms
-4.1.Purchases
-In the Service you may purchase, with "real world" money, a limited, personal, non-transferable, non-sublicensable, revocable license to use (a) "virtual currency", including but not limited to virtual cash or diamonds, all for use in Powersource games; (b) "virtual in-game items" (together with "virtual currency", "Virtual Items"); and (c) other goods or services ("Merchandise"). You are only allowed to purchase Virtual Items from us or our authorised partners through the Service, and not in any other way.
-Powersource may manage, regulate, control, modify or eliminate Virtual Items and/or Merchandise at any time, with or without notice. Powersource shall have no liability to you or any third party in the event that Powersource exercises any such rights.
-The transfer of Virtual Items and Merchandise is prohibited except where expressly authorized in the Service. Other than as expressly authorized in the Service, you shall not sell, purchase, redeem or otherwise transfer Virtual Items or Merchandise to any person or entity or attempt any of the aforesaid, including but not limited to Powersource, another user or any third party.
-ALL PURCHASES AND REDEMPTIONS OF VIRTUAL ITEMS MADE THROUGH THE SERVICE ARE FINAL AND NON-REFUNDABLE.
-The provision of Virtual Items for use in Powersource games is a service provided by Powersource that commences immediately upon acceptance by Powersource of your purchase.
-4.2. Payment of Fees
-You agree to pay all fees and applicable taxes incurred by you or anyone using an Account registered to you. Powersource may revise the pricing for the goods and services offered through the Service at any time. YOU ACKNOWLEDGE THAT POWERSOURCE IS NOT REQUIRED TO PROVIDE A REFUND FOR ANY REASON, AND THAT YOU WILL NOT RECEIVE MONEY OR OTHER COMPENSATION FOR UNUSED VIRTUAL ITEMS WHEN AN ACCOUNT IS CLOSED, WHETHER SUCH CLOSURE WAS VOLUNTARY OR INVOLUNTARY.
-5. Updates to the Service
-You understand that the Service is an evolving one. Powersource may require that you accept updates to the Service and to Powersource's games you have installed on your device or computer. You acknowledge and agree that Powersource may update the Service and Powersource games, with or without notifying you. You may need to update third party software from time to time in order to receive the Service and play Powersource games.
-6. Disclaimer of Warranties
-WITHOUT LIMITING POWERSOURCE'S LIABILITY UNDER SECTION 7 BELOW, THE SERVICE IS PROVIDED ON AN "AS IS" AND "AS AVAILABLE" BASIS FOR YOUR USE, WITHOUT WARRANTIES OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING WITHOUT LIMITATION THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE, NON-INFRINGEMENT, AND THOSE ARISING FROM COURSE OF DEALING OR USAGE OF TRADE. POWERSOURCE DOES NOT WARRANT THAT YOU WILL BE ABLE TO ACCESS OR USE THE SERVICE AT THE TIMES OR LOCATIONS OF YOUR CHOOSING; THAT THE SERVICE WILL BE UNINTERRUPTED OR ERROR-FREE; THAT DEFECTS WILL BE CORRECTED; OR THAT THE GAME OR THE SERVICE ARE FREE OF VIRUSES OR OTHER HARMFUL COMPONENTS.
-Some jurisdictions do not allow the exclusion of certain warranties. Accordingly, some of the above disclaimers may not apply to you.
-7. Limitation of Liability; Sole and Exclusive Remedy; Indemnification
-TO THE MAXIMUM EXTENT PERMITTED BY LAW, POWERSOURCE SHALL NOT BE LIABLE TO YOU FOR ANY INDIRECT, INCIDENTAL, CONSEQUENTIAL, SPECIAL, PUNITIVE OR OTHER SIMILAR DAMAGES, INCLUDING BUT NOT LIMITED TO LOSS OF REVENUES, LOST PROFITS, LOST DATA OR BUSINESS INTERRUPTION OR OTHER INTANGIBLE LOSSES (HOWEVER SUCH LOSSES ARE QUALIFIED), ARISING OUT OF OR RELATING IN ANY WAY TO THESE TERMS OF SERVICE OR THE SERVICE ITSELF, WHETHER BASED ON CONTRACT, TORT OR ANY OTHER LEGAL THEORY, AND WHETHER OR NOT POWERSOURCE HAS BEEN ADVISED OF THE POSSIBILITY OF SUCH DAMAGES. TO THE EXTENT NOT PROHIBITED BY LAW, POWERSOURCE SHALL NOT BE LIABLE TO YOU FOR MORE THAN THE AMOUNT YOU HAVE PAID TO POWERSOURCE IN ACCORDANCE WITH THESE TERMS OF SERVICE IN THE SIX (6) MONTHS IMMEDIATELY PRECEDING THE DATE ON WHICH YOU FIRST ASSERT A CLAIM. YOU ACKNOWLEDGE AND AGREE THAT IF YOU HAVE NOT PAID ANYTHING TO POWERSOURCE DURING SUCH TIME PERIOD, YOUR SOLE REMEDY (AND POWERSOURCE'S EXCLUSIVE LIABILITY) FOR ANY DISPUTE WITH POWERSOURCE IS TO STOP USING THE SERVICE AND TO CANCEL YOUR ACCOUNT.
-NOTHING IN THESE TERMS OF SERVICE SHALL AFFECT THE STATUTORY RIGHTS OF ANY CONSUMER OR EXCLUDE OR RESTRICT ANY LIABILITY RESULTING FROM GROSS NEGLIGENCE OR WILLFUL MISCONDUCT OF POWERSOURCE OR FOR DEATH OR PERSONAL INJURY ARISING FROM ANY NEGLIGENCE OR FRAUD OF POWERSOURCE.
-You agree to indemnify, defend and hold Powersource (and our officers, directors, agents, subsidiaries, joint ventures and employees) harmless from any claim, demand, damages or other losses, including reasonable attorneys' fees, asserted by any third-party resulting from or arising out of your use of the Service, or any breach by you of these Terms of Service, however the foregoing does not apply if the infringement of rights is not attributable to your intentional or negligent behavior.
-8. Dispute Resolution and Law
-If a dispute arises between you and Powersource, we strongly encourage you to first contact us directly to seek a resolution by going to our in-game inquiry. If you are a resident of the United States, these Terms of Service and any dispute arising out of or related to it or Privacy Policy or the Service shall be governed in all respects by California law, without regard to conflict of law provisions. You agree that any claim or dispute you may have against Powersource must be resolved exclusively by a court located in San Francisco, California. If you are a resident outside of the United States, you agree that all disputes between you and Powersource shall be governed by the laws of Finland, without regard to conflict of law provisions. You agree that any claim or dispute you may have against Powersource must be resolved exclusively by a court located in Korea.
-9. Severability
-You and Powersource agree that if any portion of these Terms of Service or of the Powersource Privacy Policy is found illegal or unenforceable, in whole or in part by any court of competent jurisdiction, such provision shall, as to such jurisdiction, be ineffective solely to the extent of such determination of invalidity or unenforceability without affecting the validity or enforceability thereof in any other manner or jurisdiction and without affecting the remaining provisions of the terms, which shall continue to be in full force and effect.
-10. General Provisions
-10.1. Assignment
-Powersource may assign or delegate these Terms of Service and/or the Powersource Privacy Policy, in whole or in part, to any person or entity at any time with or without your consent. You may not assign or delegate any rights or obligations under the Terms of Service or Privacy Policy without Powersource's prior written consent, and any unauthorized assignment and delegation by you is ineffective.
-10.2. Supplemental Policies
-Powersource may publish additional policies related to specific services such as forums, contests or loyalty programs. Your right to use such services is subject to those specific policies and these Terms of Service.
-10.3. Entire Agreement
-These Terms of Service, any supplemental policies and any documents expressly incorporated by reference herein (including the Powersource Privacy Policy), contain the entire understanding of you and Powersource, and supersede all prior understandings of the parties hereto relating to the subject matter hereof, whether electronic, oral or written, or whether established by custom, practice, policy or precedent, between you and us with respect to the Service.
-10.4. No Waiver
-The failure of Powersource to require or enforce strict performance by you of any provision of these Terms of Service or the Powersource Privacy Policy or failure to exercise any right under them shall not be construed as a waiver or relinquishment of Powersource's right to assert or rely upon any such provision or right in that or any other instance.
-The express waiver by Powersource of any provision, condition, or requirement of these Terms of Service or the Powersource Privacy Policy shall not constitute a waiver of any future obligation to comply with such provision, condition or requirement.
-Except as expressly and specifically set forth in this these Terms of Service, no representations, statements, consents, waivers, or other acts or omissions by Powersource shall be deemed a modification of these Terms of Service nor legally binding, unless documented in physical writing, hand signed by You and a duly appointed officer of Powersource.
-10.5. Notices
-We may notify you via e-mail or any other communications means to contact information you provide to us. All notices given by you or required from you under these Terms of Service or the Powersource Privacy Policy shall be addressed to the following email: powersourcelegalrequests@gmail.com. Any notices that you provide without compliance with this Section on Notices shall have no legal effect.
-10.6. Equitable Remedies
-You acknowledge that the rights granted and obligations made under these Terms of Service to Powersource are of a unique and irreplaceable nature, the loss of which shall irreparably harm Powersource and which cannot be replaced by monetary damages alone so that Powersource shall be entitled to injunctive or other equitable relief (without the obligations of posting any bond or surety or proof of damages) in the event of any breach or anticipatory breach by you.
-You irrevocably waive all rights to seek injunctive or other equitable relief, or to enjoin or restrain the operation of the Service or any Powersource game, exploitation of any advertising or other materials issued in connection therewith, or exploitation of the Service or any content or other material used or displayed through the Service and agree to limit your claims to claims for monetary damages, limited by Section 7 (if any).
-10.7. Force Majeure
-Powersource shall not be liable for any delay or failure to perform resulting from causes outside the reasonable control of Powersource, including without limitation any failure to perform hereunder due to unforeseen circumstances or cause beyond Powersource's control such as acts of God, war, terrorism, riots, embargoes, acts of civil or military authorities, fire, floods, accidents, strikes, or shortages of transportation facilities, fuel, energy, labor or materials.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">발효일 : 2020년 11월 6일
-본 약관(이하 "서비스 약관")은 귀하와 경기 성남시 분당구 이매로 35에 사무소를 가진 회사인 Powersource Studio (이하 "Powersource Studio" 또는 "당사") 사이에 있어서 귀하가 Powersource Studio의 게임, 웹사이트 및 관련 서비스(이하 "서비스")를 이용하는 것에 관하여 적용됩니다. 또한 서비스의 이용에는 Powersource Studio의 개인정보 보호정책과 기타 관련 정책들이 적용되는데, 이는 본 약관에 참조 형식으로 포함됩니다.
-서비스에 접속하거나 이를 이용(Powersource Studio의 웹사이트를 방문하거나 게임에 접속하는 행위를 포함)하기 전에, 귀하는 본 서비스 약관과 개인정보 보호정책에 동의하여야 합니다. 또한 귀하는 서비스 계정(이하 "계정")을 등록할 필요가 있습니다. 계정을 등록하거나 서비스를 이용함으로써, 귀하는 귀하가 거주하는 국가의 미성년자가 아님을 표시하는 것입니다. 만일 귀하가 미성년자일 경우에는 귀하가 계정을 등록하거나 또는 서비스를 이용함으로써 귀하는 귀하의 법정 대리인이 본 약관을 검토하고 동의하였다는 의사표시를 한 것입니다. 만일 귀하가 Google과 같은 소셜 네트워크 서비스(이하 "SNS")를 통하여 서비스에 접속하였다면, 귀하는 본 서비스 약관뿐만 아니라 SNS의 서비스 약관까지 준수해야 합니다.
-귀하가 서비스를 설치∙이용 또는 서비스에 접속함으로써, 귀하는 본 서비스 약관에 동의한 것입니다. 만일 귀하가 본 서비스 약관에 동의하지 않는다면, 서비스에의 접속 또는 서비스의 설치 또는 이용을 하지 않으시길 바랍니다. 서비스가 금지되는 경우 서비스의 이용은 무효입니다.
-Powersource Studio는 관련 법령에 따라 Powersource Studio의 서비스상에 변경된 조건들을 게재함으로써 본 서비스 약관과 당사의 개인정보 보호정책과 기타 관련 Powersource Studio 정책들의 일부를 재량에 따라 변경∙수정∙추가 또는 제거할 권리를 가집니다. Powersource Studio가 약관 및 개인정보보호정책을 변경할 경우, 변경된 내용은 Powersource Studio가 고지한 적용일자에 효력을 발생합니다. Powersource Studio는 적용일자로부터 최소한 7일 이전(이용자의 권리 및 의무에 중대하게 불리한 경우에는 30일 이전)에 적용일, 변경내용, 변경사유 등을 명시하여 Powersource Studio의 웹사이트 또는 서비스 화면에 고지합니다. 귀하는 이에 대하여 거부의사를 표시할 수 있고, 거부의사의 표시 없이 서비스를 계속해서 이용하는 것은 그러한 변경을 수용하는 것으로 간주될 것입니다. 만일 귀하가 귀하의 서비스 이용과 관련된 당사의 현재 버전의 서비스 약관, 개인정보 보호정책, 또는 그 밖에 어떠한 정책, 규칙 또는 행동강령의 어느 한 부분에라도 동의하지 않는다면, 서비스를 이용할 수 있는 귀하의 라이선스는 즉시 종료되어야 하고, 귀하는 즉시 서비스의 이용을 중단해야 합니다.
-1. 라이선스
-1.1. 서비스 이용에 관한 제한적 라이선스의 허여
-본 서비스 약관과 그 밖에 관련된 Powersource Studio의 정책들에 대한 귀하의 동의 및 지속적인 준수에 따라, Powersource Studio는 귀하에게 양도 불가능하고, 비독점적이고, 2차 라이선스 허여가 불가능하고, 취소 가능하고, 귀하 자신의 비상업적∙오락적 목적으로의 접속과 이용에 한정되며, 제한된 라이선스를 허여합니다. 귀하는 그 밖의 다른 목적으로 서비스를 이용하지 않을 것에 동의합니다.
-이하의 제한들은 서비스의 이용에 적용됩니다.
-- 미성년자가 법정대리인의 동의를 받지 않고 의무부담행위를 한 경우(예를 들면, 유료서비스 결제), 미성년자 또는 그 미성년자의 법정대리인은 해당계약을 취소할 수 있습니다.
-- 귀하는 귀하의 계정을 구매, 판매, 대여, 양도(혹은 이를 시도)하지 않고 거짓 신원 혹은 정보로 또는 타인을 대신하여 계정을 생성하지 않아야 합니다; 귀하가 사전에 Powersource Studio에 의해 제명되었거나 다른 Powersource Studio 게임의 플레이가 금지되었을 경우 서비스를 이용할 수 없습니다.
-- 귀하는 오로지 비상업적인 목적으로만 귀하의 계정을 이용하여야 합니다. 귀하는 광고, 호객행위, 상업적 광고들의 전송(행운의 편지, 스팸메일 또는 누군가에 대한 반복적이거나 허위의 메시지 전송을 포함) 목적으로 서비스를 이용할 수 없습니다.
-로그인 정보 및 계정
-귀하는 귀하의 계정에 대한 암호를 선택할 것을 요구 받게 되거나 계정 접속을 위해 다른 비밀 정보를 사용할 수도 있습니다(이하 "로그인 정보"). 귀하는 계정 또는 로그인 정보를 타인과 공유할 수 없고, 타인으로 하여금 귀하의 계정에 접근하거나 그 밖에 귀하의 계정의 보안을 위협하는 어떠한 행위를 하도록 허락할 수 없습니다. 귀하가 보안사고를 알게 되거나 합리적으로 보안사고를 의심할만한 상황을 인지하게 될 경우(로그인 정보의 손실, 도난 또는 무단 공개를 포함하나, 이에 한정되지 아니함), 귀하는 즉시 Powersource Studio에 해당 사실을 통지하고 귀하의 로그인 정보를 수정하여야 합니다. 귀하의 로그인 정보의 비밀유지는 전적으로 귀하가 책임져야 하고, 귀하는 귀하의 로그인 정보에 관한 모든 이용행위(구매행위를 포함하며, 귀하의 승인을 받았는지 여부는 불문함)에 대하여 책임을 부담합니다. 귀하는 귀하의 계정을 통하여 발생하는 모든 사안에 대하여 책임을 부담합니다.
-Powersource Studio는 언제든지, 그리고 어떠한 이유로든지(어떠한 이용자명이 제3자의 권리를 침해하였다는 제3자의 주장을 포함하나, 이에 한정되지 아니함), 어떠한 이용자명도 제거하거나 회수할 권리를 가집니다.
-본 서비스는 지원기기의 게임당 하나의 계정만을 지원합니다.
-라이선스의 제한
-본 라이선스의 제한을 위반한 상태에서의 모든 서비스의 이용은 엄격하게 금지되고, 귀하의 제한된 라이선스는 즉시 취소될 수 있으며, 귀하는 위법행위에 대하여 책임을 져야 할 수도 있습니다.
-귀하는 어떤 상황에서도 다음과 같은 행위를 하지 않을 것에 동의합니다.
-- Powersource Studio의 서비스 정신 또는 서비스 의도에 반하는 것으로 Powersource Studio가 간주하는 행위 또는 Powersource Studio의 지원 서비스를 부적절하게 이용하는 행위
-- Powersource Studio의 게임 또는 게임경력을 변경하거나 방해하도록 설계된 치트, 엑스플로잇, 자동화 소프트웨어, 에뮬레이터, 보트, 해킹 프로그램, 유저제작게임 또는 그 밖에 승인되지 않은 제3자 소프트웨어를 이용 혹은 이용(직, 간접적)에 참여하거나, 서비스 또는 Powersource Studio 게임의 일부 파일을 변경하거나 변경하도록 하는 행위
-- 중복 로그인 등 비정상적인 방법으로 Powersource Studio의 게임에 부정적인 영향을 주는 행위
-- 서비스의 일반적인 흐름에 지장을 주거나 방해 또는 이에 부정적인 영향을 주는 행위나 서비스의 이용이나 Powersource Studio의 게임 플레이에서 다른 사용자의 경험에 부정적인 영향을 주는 방식의 행동. 이는 몰아주기와 같은 순위 조작과 관련된 모든 행동, 서비스 오류를 통해 다른 플레이어들로부터 부당한 이득을 얻는 행동, 서비스 내용에 대한 의도적인 악용 및 이에 반하는 행동들을 포함합니다.
-- 서비스 또는 Powersource Studio의 게임 환경을 제공하거나 지원하는 데에 사용되는 컴퓨터 또는 서버(이하 "서버")에 과부하를 걸거나 방해를 주거나 또는 이러한 과부하 또는 방해행위를 지원하는 행위
-- 공격행위(바이러스의 배포, 서비스에 대한 거부 공격, 또는 그 밖에 서비스 또는 제3자의 서비스 이용을 방해하고자 하는 행위를 포함하나, 이에 한정되지 아니함)를 개시하거나, 지원하거나, 또는 그에 관여하는 행위
-- 서비스, 타인 또는 다른 컴퓨터에 등록된 계정, 서버 또는 서비스에 연결된 네트워크에 대해 Powersource Studio로부터 제공된 이용자 인터페이스가 아닌 다른 수단을 통해 승인되지 않은 접속을 시도하는 행위(서비스의 일부분인 보안, 기술, 기기 또는 소프트웨어를 변경 또는 우회하거나 그러한 시도를 하는 행위 또는 그러한 변경이나 우회를 하는 누군가를 지원하거나 방조하는 행위를 포함하나, 이에 한정되지 아니함)
-- 권리남용적이거나 위협적이거나 음란하거나 타인의 명예를 훼손하거나 비방하거나 인종∙성별∙종교적 또는 그 밖의 이유로 부당하거나 불쾌한 정보를 게시하는 행위 또는 원치 않는 모든 사람들에게 반복적으로 정보를 게시하는 것과 같이 지속적인 이러한 해독행위들에 관여하는 것
-- 나체, 과도한 폭력 또는 불쾌한 주제를 포함한 정보 또는 그러한 내용에 관한 링크를 게시하는 행위
-- Powersource Studio의 고객 서비스 대리인을 포함하여 Powersource Studio의 피용자를 포함한 타인이나 그룹을 희롱하거나 괴롭히거나 해를 끼치는 행위 또는 그러한 희롱 또는 가해를 시도하거나 조장하는 행위
-- 서비스를 통하여 타인인 개인 또는 법인의 저작권, 상표, 특허, 영업비밀, 프라이버시권, 퍼블리시티권 또는 기타 권리를 침해하거나 타인(Powersource Studio의 피용자를 포함하나, 이에 한정되지 아니함)을 사칭하는 자료 또는 정보를 사용할 수 있도록 하는 행위
-- 서비스 또는 Powersource Studio의 게임을 제공하기 위하여 사용된 근본 소프트웨어 또는 다른 지적 재산권의 소스 코드를 추출하기 위하여, 또는 Powersource Studio가 명시적으로 허용하지 않은 방법을 사용하여 서비스 또는 Powersource Studio 게임으로부터 정보를 얻기 위하여 역설계, 역컴파일, 역어셈블, 해독행위 또는 기타 이를 위한 시도를 하는 행위
-- 서비스 또는 Powersource Studio 게임의 다른 이용자로부터 로그인 정보나 기타 로그인을 위한 비밀 정보 또는 개인정보를 구하거나 구하려는 시도를 하는 행위
-- 서비스를 통하여 누군가의 사적인 정보{개인신원정보(문자, 이미지, 또는 비디오와 같은 형태 불문함), 신원확인 문서, 또는 재무정보를 포함}를 수집하거나 게시하는 행위
-수수료 또는 판돈의 개입 여부를 불문하고, 귀하가 플레이어로서 참가하는 경기의 결과에 대해 배팅하는 행위를 포함해 도박, 배팅 또는 (직접적 또는 간접적으로) 상 또는 보상이 획득될 수 있는 유사한 활동을 위해 Powersource Studio 게임을 이용하는 행위
-Powersource Studio는 어떠한 행위가 이용규칙 위반에 해당되거나 본 서비스 약관 및 본 서비스 약관의 의도 또는 정신을 이탈하는 것인지 여부를 결정할 권리를 가집니다. Powersource Studio는 그 결정의 결과로서 조치를 취할 권리를 가지며 여기에는 귀하의 계정을 종료시키고 귀하의 서비스 이용을 전부 또는 일부를 금지하는 것이 포함됩니다.
-1.2. 계정과 서비스의 중단 및 종료
-만일 귀하가 본 서비스 약관을 준수하지 않거나 또는 서비스를 불법으로 또는 부적절하게 이용하거나, 또는 Powersource Studio가 귀하의 약관 미준수, 위법하거나 부적절한 이용행위를 의심할만한 사정이 있는 경우(이하 총칭하여 "이용자 의무위반 행위")에는, Powersource Studio는 귀하에게 통지하고 귀하의 서비스 또는 그 일부에 대한 접속 또는 귀하의 계정을 제한∙중단∙변경∙삭제(이하 "이용제한 조치")할 수 있습니다. Powersource Studio는 이용자 의무위반 행위에 대하여 위반행위의 내용, 정도, 횟수, 결과 등 제반 사정을 고려하여 차등하여 서비스 이용제한 조치를 취할 수 있고, 이는 Powersource Studio의 다른 권리구제수단을 제한하지 않습니다. 계정종료 또는 제한의 결과로, 귀하는 귀하의 서비스 이용과 관련된 이익, 특권, 획득한 아이템들과 구매한 아이템들뿐만 아니라 귀하의 서비스 내 이용자명과 캐릭터를 상실할 수 있고, Powersource Studio는 이러한 손해 또는 결과에 관하여 귀하에게 배상할 책임이 없습니다.
-당사는 이용자가 위험 또는 법률상 책임을 창출하거나, 제3자의 지적재산권을 침해하거나, 또는 당사의 약관이나 정책의 문언 또는 정신에 반하는 행위를 하는 것으로 판단될 경우에는 서비스와 이용자 계정 또는 그 일부분을 제한∙중단 또는 해지할 수 있고, 당사의 게임∙사이트 및 그 콘텐츠∙서비스∙툴에의 접속을 금지할 수 있으며, 제공되는 콘텐츠를 제거하거나 지연시킬 수 있고, 해당 이용자의 서비스 접속을 막기 위한 기술적∙법률적 조치를 취할 수 있습니다(이는 Powersource Studio의 다른 권리구제수단을 제한하지 않음). 또한, 당사는 적절한 상황 하에서 전적으로 당사의 재량에 따라, 제3자의 지적재산권을 반복적으로 침해할 여지가 있는 이용자의 계정을 중단하거나 해지시킬 수 있습니다.
-Powersource Studio는 180일 이상 휴면 중인 계정을 해지시킬 권리를 가집니다.
-Powersource Studio는 언제든지 서비스 또는 특정 게임 또는 서비스 일부의 제공 및/또는 지원을 중단할 권리를 가지고, 그와 동시에 서비스 또는 그 일부를 이용할 수 있는 귀하의 라이선스는 자동으로 종료됩니다. 이러한 경우, Powersource Studio는 이용자에 대하여 서비스의 중단으로 인한 환불∙보상∙배상을 할 책임을 부담하지 않습니다. 귀하의 계정의 해지에는 서비스 또는 그 일부(귀하 또는 타인이 제출한 콘텐츠를 포함)에 대한 귀하의 접속을 불가능하게 하는 것도 포함될 수 있습니다.
-2. 소유권
-2.1. 게임과 서비스
-서비스에 관한 모든 권리, 소유권, 이익(게임, 출판물, 컴퓨터 코드, 테마, 물건, 캐릭터, 캐릭터명, 스토리, 다이얼로그, 캐치프레이즈, 콘셉트, 삽화, 애니메이션, 음향, 음악구성형식, 시청각적 효과, 작동방법, 저작인격권, 서류, 게임상의 채팅기록, 캐릭터 프로필 정보, Powersource Studio의 게임 클라이언트를 이용한 게임 플레이 기록, Powersource Studio의 게임 클라이언트와 서버 소프트웨어를 포함하나, 이에 한정되지 아니함)은 Powersource Studio가 소유합니다. Powersource Studio는 당사의 게임 및 서비스에 관한 모든 권리(지적재산권 또는 그 밖의 소유권을 포함하나, 이에 한정되지 아니함)를 가집니다.
-2.2. 계정
-어떠한 경우에도, 귀하는 귀하가 계정에 대한 소유권 또는 그 밖의 재산상 이익을 가지지 않음을 인정하고 동의하며, 나아가, 귀하는 계정상의 또는 계정에 대한 모든 권리는 영구적으로 Powersource Studio가 소유하고 Powersource Studio의 이익을 위하여만 유효함을 인정하고 동의합니다.
-2.3. 가상 아이템들
-Powersource Studio는 Powersource Studio의 게임 또는 서비스상의 모든 콘텐츠를 소유하고, 라이선스를 허여하며 기타 이를 이용할 권리를 가집니다. 어떠한 경우에도, 귀하는 서비스상의 어떠한 콘텐츠(Powersource Studio의 게임에서 발생하거나 나타나는 가상의 물품 또는 통화(게임상에서 획득하였거나 Powersource Studio로부터 구매하였는지 여부를 불문함) 또는 계정과 결부되거나 서비스상에 저장된 부수물을 포함하나, 이에 한정되지 아니함)에 대하여 아무런 권리 또는 소유권을 가지지 않음에 동의합니다.
-3. 이용자 콘텐츠
-3.1 이용자 콘텐츠 개진
-"이용자 콘텐츠"는 의사소통, 이미지, 음향, 그리고 모든 자료, 데이터, 그리고 귀하 또는 다른 이용자들이 Powersource Studio 게임 클라이언트 또는 서비스를 통하여 업로드하거나 전송한 정보(채팅 텍스트를 포함하나, 이에 한정되지 아니함)를 의미합니다. 서비스를 이용하는 동안 어떠한 이용자 콘텐츠를 전송 또는 제출함으로써, 귀하는 그러한 전송 또는 제출행위가 (a)정확하고, 비밀이 아니며, (b) 법률 또는 계약상의 제한 또는 그 밖의 제3자의 권리를 위반하지 아니하고, 또한 귀하가 이용자 콘텐츠를 구성하는 개인정보 또는 지적재산권의 소유자인 제3자로부터 허락을 받았으며, (c) 바이러스, 애드웨어, 스파이웨어, 웜 바이러스 또는 그 밖의 악성코드가 없다는 것을 확인하고 진술 및 보증하며, (d) 그러한 콘텐츠 내의 귀하의 개인정보는 언제나 Powersource Studio의 개인정보 보호정책에 따라 처리됨을 인정하고 이에 동의합니다.
-3.2. 콘텐츠 심사
-Powersource Studio는 이용자 콘텐츠를 제출하는 이용자의 행위에 대하여 어떠한 책임도 지지 않고, 부적절한 콘텐츠 또는 행위에 대하여 서비스를 감시할 어떠한 책임도 지지 않습니다. 당사는 모든 이용자 콘텐츠를 사전에 심사하거나 감시할 수 없고 심사 또는 감시하지도 않습니다. 귀하의 서비스 이용에 따른 위험은 귀하 자신이 부담합니다. 서비스를 이용함으로써 귀하는 불쾌하고, 외설적이거나 귀하의 기대에 부응하지 않는 이용자 콘텐츠에 노출될 수 있습니다. 귀하는 서비스와 연결되어 사용 가능한 모든 이용자 콘텐츠의 사용과 관련된 일체의 위험을 부담합니다. 당사의 재량에 따라, 귀하의 서비스 이용 시 당사의 대리인 또는 당사의 기술에 의하여 귀하의 서비스와의 상호작용 또는 의사소통(채팅 텍스트를 포함하나 이에 한정되지 아니함)을 관찰 및/또는 기록할 수 있습니다.
-본 서비스 약관을 체결함으로써 귀하는 이러한 관찰과 기록에 대하여 취소할 수 없는 동의를 하는 것입니다. 귀하는 채팅 텍스트 또는 음성 의사소통을 포함하여 이용자 콘텐츠의 전송과 관련하여 프라이버시를 기대하지 않음을 인정하고 동의합니다.
-Powersource Studio는 어떠한 근거에 대한 공지 없이 혹은 언제든지 별다른 이유 없이 재량으로 사용자 콘텐츠(귀하의 사용자 콘텐츠에 대한 제한 없이 이를 포함하여)에 대한 검토, 관찰, 금지, 편집, 삭제, 접속 금지 또는 이를 이용할 수 없도록 할 권한을 갖습니다. Powersource Studio가 전적으로 당사의 재량에 따라 서비스를 관찰하기로 결정한 경우에도, Powersource Studio는 이용자 콘텐츠에 대하여 어떠한 책임도 부담하지 아니하고, 부적절한 이용자 콘텐츠를 수정 또는 제거할 의무를 부담하지도 않습니다. 당사는 당사의 전적인 재량 하에 이용자 콘텐츠를 편집하고, 전송을 거부하거나 제거할 권리를 가지고 있으나, 그러한 의무를 부담하지는 않습니다.
-3.2. 서비스의 다른 이용자들에 의한 정보 이용
-3.2.1. 공시
-지정된 주제에 관한 귀하의 논평과 언급을 포함하여 귀하가 이용자 콘텐츠를 게시할 수 있는 다양한 포럼, 블로그, 그리고 채팅 기능이 서비스에 포함될 수 있습니다. Powersource Studio는 귀하가 공유하는 아이디어와 정보를 다른 이용자들이 이용하지 않으리라는 점을 보증하지 않습니다. 따라서 만일 귀하가 비밀을 유지하고자 하는 정보 또는 아이디어를 가지고 있고 또는/그리고 다른 사람들이 이를 이용하지 않기를 바란다면, 이를 서비스에 게시하지 마십시오. Powersource Studio는 귀하가 제출하기로 결정한 아이디어 또는 정보를 평가하거나 이용하거나 그와 관련하여 귀하에게 배상할 책임을 지지 않습니다.
-3.2.2. 귀하 소유의 콘텐츠에 대한 책임
-귀하는 귀하가 서비스상에 또는 서비스를 통하여 또는 서비스와 관련하여 게시하거나 또는 타인에게 제공한 정보에 대하여 전적으로 책임을 집니다. Powersource Studio는 어떠한 이유로든지 또는 아무 이유 없이도 이용자 콘텐츠(Powersource Studio의 전적인 판단에 따랐을 때 본 서비스 약관을 위반하는 이용자 콘텐츠를 포함하나, 이에 한정되지 아니함)를 거절하거나 게시를 거부하거나 이를 삭제할 수 있습니다.
-3.3. Powersource Studio에 대한 귀하의 라이선스
-귀하는 이로써 Powersource Studio에 대하여 취소할 수 없고, 영구적이며, 이전 가능하며, 전액 완납된, 로열티가 부과되지 않는, 전 세계적인 라이선스(2차 라이선스권과 제3자에 대한 양도권을 포함)와, 당사의 서비스 제공과 관련된 귀하의 이용자 콘텐츠뿐만 아니라 그에 관한 모든 변경되고 파생된 가공물을 복사∙복제∙재생성∙수리∙조정∙변경∙2차적저작물 생성∙제조∙상업화∙퍼블리싱∙배포∙판매∙라이선스∙2차 라이선스∙이전∙리스∙전송∙공개적인 전시∙공개적인 공연∙전자적 접속의 제공∙방송∙전기통신에 의한 대중과의 의사소통∙전시∙공연∙컴퓨터 메모리에의 입력, 그리고 어떠한 방식으로든지 이용 및 실행(서비스의 마케팅과 프로모션을 포함)할 권리를 허여합니다. 또한 귀하는 Powersource Studio가 본 서비스 약관에 따라 Powersource Studio에게 허여된 권리를 행사할 권한을 타인에게 부여할 수 있음을 허여합니다. 나아가 귀하는 Powersource Studio에게, 귀하에 대하여 어떠한 의무도 부담함이 없이, 귀하의 성명, 초상, 그리고 그 밖에 이용자 콘텐츠에 포함되거나 그와 연관된 정보 또는 자료를 이용하고 활용할 무조건적이고 취소 불가능한 권리를 허여합니다. 법률에 의하여 금지되지 않는 한, 귀하의 이용자 콘텐츠가 어떠한 방식으로 수정 또는 변경되건 간에, 귀하는 귀하의 이용자 콘텐츠에 대하여 귀하가 가질 수 있는 모든 소유권 및/또는 저작인격권을 포기합니다. Powersource Studio는 귀하의 이용자 콘텐츠에 대하여 어떠한 소유권도 주장하지 않고 본 서비스 약관은 귀하가 귀하의 이용자 콘텐츠를 이용하고 활용할 권리를 제한하지 않습니다. Powersource Studio는 귀하의 이용자 콘텐츠에 대한 귀하의 지적 재산권을 감시하거나 집행할 의무를 부담하지 않습니다
-3.4. 이용자 상호작용
-귀하는 서비스의 다른 이용자들 및 서비스 및/또는 Powersource Studio 게임을 통하여 귀하가 상호작용하는 다른 당사자들과의 상호작용에 대하여 전적으로 책임을 부담합니다. Powersource Studio는 이러한 분쟁에 관여할 권리를 가지지만 그러한 의무는 부담하지 않습니다. 위법하거나 사기적이거나 또는 부적합하다고 의심받는 활동에 관한 Powersource Studio의 조사에 귀하는 전적으로 협력(Powersource Studio가 귀하의 계정의 암호로 보호받는 부분에 접속하는 것을 승인하는 것을 포함하나, 이에 한정되지 아니함)합니다.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Effective Date: November 6, 2020
-The terms of this agreement ("Terms of Service") govern the relationship between you and Powersource, a Korean company having its registered office at Imae-ro 35 Bundang-gu Seongnam-si Gyeonggi, Korea, (hereinafter "Powersource" or "Us" or "We") regarding your use of Powersource's games, websites and related services (the "Service"). Use of the Service is also governed by Powersource's Privacy Policy and other relevant policies, which are incorporated herein by reference.
-Before accessing or using the Service, including browsing any Powersource website or accessing a game, you must agree to these Terms of Service and the Privacy Policy. You may also be required to register an account on the Service (an "Account"). By registering for an Account or otherwise using the Service, you affirm that you are the legal age of majority in your country of residence. If you are not, your legal guardian must review and agree to these Terms. If you access the Service from a Social Networking Site ("SNS"), such as Google, you shall comply with its terms of service/use as well as these Terms of Service.
-BY INSTALLING, USING OR OTHERWISE ACCESSING THE SERVICE, YOU AGREE TO THESE TERMS OF SERVICE. IF YOU DO NOT AGREE TO THESE TERMS OF SERVICE, PLEASE DO NOT INSTALL, USE OR OTHERWISE ACCESS THE SERVICE. USE OF THE SERVICE IS VOID WHERE PROHIBITED.
-Powersource reserves the right, at its discretion, to change, modify, add or remove portions of these Terms of Service, its Privacy Policy and other relevant Powersource policies at any time by posting the amended terms on the Powersource Service. You will be deemed to have accepted such changes by continuing to use the Service. If at any point you do not agree to any portion of the then-current version of our Terms of Service, the Powersource Privacy Policy, or any other Powersource policy, rules or codes of conduct relating to your use of the Service, your license to use the Service shall immediately terminate, and you must immediately stop using the Service.
-1. License
-1.1. Grant of a Limited License to Use the Service
-Subject to your agreement and continuing compliance with these Terms of Service and any other relevant Powersource policies, Powersource grants you a non-exclusive, non-transferable, non-sublicensable, revocable and limited license to access and use the Service for your own non-commercial entertainment purposes. You agree not to use the Service for any other purpose.
-The following restrictions apply to the use of the Service:
-- You accept full responsibility for any unauthorized use of the Service by minors. You are responsible for any use of your credit card or other payment instrument (e.g. paypal) by minors.
-- You shall not (or attempt to) purchase, sell, rent or give away your Account, create an Account using a false identity or information, or on behalf of someone other than yourself; You shall not use the Service if you have previously been removed by Powersource, or previously been banned from playing any Powersource game.
-- You shall use your Account only for non-commercial purposes; You shall not use the Service to advertise, or solicit, or transmit any commercial advertisements, including chain letters, junk or spam e-mail or repetitive or misleading messages to anyone.
-Login information and Your Account
-You may be required to select a password for your Account or you may also use other credentials to access the Account ("Login Information"). You shall not share the Account or the Login Information, nor let anyone else access your Account or do anything else that might jeopardize the security of your Account. In the event you become aware of or reasonably suspect any breach of security, including without limitation any loss, theft, or unauthorized disclosure of the Login Information, you must immediately notify Powersource and modify your Login Information. You are solely responsible for maintaining the confidentiality of the Login Information, and you will be responsible for all uses of the Login Information, including purchases, whether or not authorized by you. You are responsible for anything that happens through your Account.
-Powersource reserves the right to remove or reclaim any usernames at any time and for any reason, including but not limited to claims by a third party that a username violates the third party's rights.
-The Service supports only one Account per game on a supported device.
-License Limitations
-Any use of the Service in violation of these License Limitations is strictly prohibited, can result in the immediate revocation of your limited license and may subject you to liability for violations of law.
-You agree that you will not, under any circumstances:
-- Engage in any act that Powersource deems to be in conflict with the spirit or intent of the Service or make improper use of Powersource's support services.
-- Use or take part (directly or indirectly) in the use of cheats, exploits, automation software, emulators, bots, hacks, mods or any unauthorized third-party software designed to modify or interfere with the Service, any Powersource game or any Powersource game experience.
-- Engage in any act that negatively affects any Powersource game through abnormal methods such as duplicate login.
-- Modify or cause to be modified any files that are a part of the Service or any Powersource game without Powersource's express written consent.
-- Disrupt, interfere with or otherwise adversely affect the normal flow of the Service or otherwise act in a manner that may negatively affect other users' experience when using the Service or playing Powersource's games. This includes win trading and any other kind of manipulation of rankings, taking advantage of errors in the Service to gain an unfair edge over other players and any other act that intentionally abuses or goes against the design of the Service.
-- Disrupt, overburden, or aid or assist in the disruption or overburdening of any computer or server ("Server") used to offer or support the Service or any Powersource game environment.
-Institute, assist, or become involved in any type of attack, including without limitation distribution of a virus, denial of service attacks upon the Service, or other attempts to disrupt the Service or any other person's use or enjoyment of the Service.
-- Attempt to gain unauthorized access to the Service, Accounts registered to others or to the computers, Servers, or networks connected to the Service by any means other than the user interface provided by Powersource, including but not limited to, by circumventing or modifying, attempting to circumvent or modify, or encouraging or assisting any other person to circumvent or modify, any security, technology, device, or software that is part of the Service.
-Post any information that is abusive, threatening, obscene, defamatory, libelous, or racially, sexually, religiously, or otherwise objectionable or offensive or engage in ongoing toxic behavior, such as by repeatedly posting information on an unsolicited basis.
-- Post any information that contains nudity, excessive violence, or offensive subject matter or that contains a link to such content.
-- Attempt to, or harass, abuse, or harm, or advocate or incite harassment, abuse, or harm of another person, group, including Powersource employees, including Powersource's customer service representatives.
-- Make available through the Service any material or information that infringes any copyright, trademark, patent, trade secret, right of privacy, right of publicity, or other right of any person or entity or impersonates any other person, including without limitation a Powersource employee.
-- Reverse engineer, decompile, disassemble, decipher or otherwise attempt to derive the source code for any underlying software or other intellectual property used to provide the Service or any Powersource game, or to obtain any information from the Service or any Powersource game using any method not expressly permitted by Powersource.
-- Solicit or attempt to solicit Login Information or any other login credentials or personal information from other users of the Service or any Powersource game.
-- Collect or post anyone's private information, including personally identifiable information (whether in text, image or video form), identification documents, or financial information through the Service.
-- Use any Powersource game for gambling, betting or any similar activity in which prizes or rewards can be won (directly or indirectly), including betting on the outcome of matches in which you participate as a player, irrespective of whether or not there is a fee or stake involved.
-Powersource reserves the right to determine what conduct it considers to be in violation of the rules of use or otherwise outside the intent or spirit of these Terms of Service or the Service itself. Powersource reserves the right to take action as a result, which may include terminating your Account and prohibiting you from using the Service in whole or in part.
-1.2. Suspension and Termination of Account and Service
-WITHOUT LIMITING ANY OTHER REMEDIES, POWERSOURCE MAY LIMIT, SUSPEND, TERMINATE, MODIFY, OR DELETE ACCOUNTS OR ACCESS TO THE SERVICE OR PORTIONS THEREOF IF YOU ARE, OR POWERSOURCE SUSPECTS THAT YOU ARE, FAILING TO COMPLY WITH ANY OF THESE TERMS OF SERVICE OR FOR ANY ACTUAL OR SUSPECTED ILLEGAL OR IMPROPER USE OF THE SERVICE, WITH OR WITHOUT NOTICE TO YOU. YOU CAN LOSE YOUR USER NAME AND PERSONA IN THE SERVICE AS A RESULT OF ACCOUNT TERMINATION OR LIMITATION, AS WELL AS ANY BENEFITS, PRIVILEGES, EARNED ITEMS AND PURCHASED ITEMS ASSOCIATED WITH YOUR USE OF THE SERVICE, AND POWERSOURCE IS UNDER NO OBLIGATION TO COMPENSATE YOU FOR ANY SUCH LOSSES OR RESULTS.
-WITHOUT LIMITING OUR OTHER REMEDIES, WE MAY LIMIT, SUSPEND OR TERMINATE THE SERVICE AND USER ACCOUNTS OR PORTIONS THEREOF, PROHIBIT ACCESS TO OUR GAMES AND SITES, AND THEIR CONTENT, SERVICES AND TOOLS, DELAY OR REMOVE HOSTED CONTENT, AND TAKE TECHNICAL AND LEGAL STEPS TO PREVENT USERS FROM ACCESSING THE SERVICE IF WE BELIEVE THAT THEY ARE CREATING RISK OR POSSIBLE LEGAL LIABILITIES, INFRINGING THE INTELLECTUAL PROPERTY RIGHTS OF THIRD PARTIES, OR ACTING INCONSISTENTLY WITH THE LETTER OR SPIRIT OF OUR TERMS OR   POLICIES. ADDITIONALLY, WE MAY, IN APPROPRIATE CIRCUMSTANCES AND AT OUR SOLE DISCRETION, SUSPEND OR TERMINATE ACCOUNTS OF USERS WHO MAY BE REPEAT INFRINGERS OF THIRD PARTY INTELLECTUAL PROPERTY RIGHTS.
-POWERSOURCE RESERVES THE RIGHT TO TERMINATE ANY ACCOUNT THAT HAS BEEN INACTIVE FOR 180 DAYS.
-Powersource reserves the right to stop offering and/or supporting the Service or a particular game or part of the Service at any time, at which point your license to use the Service or a part thereof will be automatically terminated. In such event, Powersource shall not be required to provide refunds, benefits or other compensation to users in connection with such discontinued Service. Termination of your Account can include disabling your access to the Service or any part thereof including any content you submitted or others submitted.
-2. Ownership
-2.1. Games and Service
-All rights, title and interest in and to the Service (including without limitation any games, titles, computer code, themes, objects, characters, character names, stories, dialogue, catch phrases, concepts, artwork, animations, sounds, musical compositions, audio-visual effects, methods of operation, moral rights, documentation, in-game chat transcripts, character profile information, recordings of games played using a Powersource game client, and the Powersource game clients and server software) are owned by Powersource. Powersource reserves all rights, including without limitation, all intellectual property rights or other proprietary rights, in connection with its games and the Service.
-2.2. Accounts
-NOTWITHSTANDING ANYTHING TO THE CONTRARY HEREIN, YOU ACKNOWLEDGE AND AGREE THAT YOU SHALL HAVE NO OWNERSHIP OR OTHER PROPERTY INTEREST IN THE ACCOUNT, AND YOU FURTHER ACKNOWLEDGE AND AGREE THAT ALL RIGHTS IN AND TO THE ACCOUNT ARE AND SHALL FOREVER BE OWNED BY AND INURE TO THE BENEFIT OF POWERSOURCE.
-2.3. Virtual Items
-Powersource owns, has licensed, or otherwise has rights to use all of the content that appears in the Service or in Powersource games. Notwithstanding any provision to the contrary herein, you agree that you have no right or title in or to any content that appears in the Service, including without limitation the virtual goods or currency appearing or originating in any Powersource game, whether earned in a game or purchased from Powersource, or any other attributes associated with an Account or stored on the Service.
-3. User Content
-3.1. Submission of User Content
-"User Content" means any communications, images, sounds, and all the material, data, and information that you upload or transmit through a Powersource game client or the Service, or that other users upload or transmit, including without limitation any chat text. By transmitting or submitting any User Content while using the Service, you affirm, represent and warrant that such transmission or submission is (a) accurate and not confidential or misleading; (b) not in violation of any laws, contractual restrictions or other third party rights, and that you have permission from any third party whose personal information or intellectual property is comprised in the User Content; (c) free of viruses, adware, spyware, worms or other malicious code; and (d) you acknowledge and agree that any of your personal information within such content will at all times be processed by Powersource in accordance with its Privacy Policy.
-3.1.1. Content Screening
-Powersource assumes no responsibility for the conduct of any user submitting any User Content, and assumes no responsibility for monitoring the Service for inappropriate content or conduct. We do not, and cannot, pre-screen or monitor all User Content. Your use of the Service is at your own risk. By using the Service, you may be exposed to User Content that is offensive, indecent or otherwise not in line with your expectations. You bear all risks associated with the use of any User Content available in connection with the Service. At our discretion, our representatives or technology may monitor and/or record your interaction with the Service or communications (including without limitation chat text) when you are using the Service.
-By entering into these Terms of Service, you hereby provide your irrevocable consent to such monitoring and recording. You acknowledge and agree that you have no expectation of privacy concerning the transmission of any User Content, including without limitation chat text or voice communications.
-Powersource reserves the right in its sole discretion to review, monitor, prohibit, edit, delete, disable access to or otherwise make unavailable any User Content (including without limitation your User Content) without notice for any reason or for no reason at any time. If at any time Powersource chooses, in its sole discretion, to monitor the Service, Powersource nonetheless assumes no responsibility for User Content and assumes no obligation to modify or remove any inappropriate User Content. We have the right, but not the obligation, in our sole discretion to edit, refuse to post, or remove any User Content.
-3.2. Information Use by Other Members of the Service
-3.2.1. Public Discourse
-The Service may include various forums, blogs and chat features where you can post User Content, including your observations and comments on designated topics. Powersource cannot guarantee that other members will not use the ideas and information that you share. Therefore, if you have an idea or information that you would like to keep confidential and/or don't want others to use, do not post it on the Service. Powersource shall have no responsibility to evaluate, use or compensate you for any ideas or information you may choose to submit.
-3.2.2. Responsible For Your Own Content
-You are solely responsible for the information that you post on, through or in connection with the Service and that you provide to others. Powersource may reject, refuse to post or delete any User Content for any or no reason, including, but not limited to, User Content that in the sole judgment of Powersource violates these Terms of Service.
-3.2.3. Your License to Powersource
-You hereby grant to Powersource an irrevocable, perpetual, transferable, fully paid-up, royalty-free, worldwide license (including the right to sublicense and assign to third party) and right to copy, reproduce, fix, adapt, modify, create derivative works from, manufacture, commercialize, publish, distribute, sell, license, sublicense, transfer, lease, transmit, publicly display, publicly perform, or provide access to electronically, broadcast, communicate to the public by telecommunication, display, perform, enter into computer memory, and use and practice, in any way, your User Content as well as all modified and derivative works thereof in connection with our provision of the Service, including marketing and promotions of the Service. You also hereby grant to Powersource the right to authorize others to exercise any of the rights granted to Powersource under these Terms of Service. You further hereby grant to Powersource the unconditional, irrevocable right to use and exploit your name, likeness and any other information or material included in any User Content and in connection with any User Content, without any obligation to you. Except as prohibited by law, you waive any rights of attribution and/or any moral rights you may have in your User Content, regardless of whether your User Content is altered or changed in any manner. Powersource does not claim any ownership rights in your User Content and nothing in these Terms of Service is intended to restrict any rights that you may have to use and exploit your User Content. Powersource has no obligation to monitor or enforce your intellectual property rights in or to your User Content.
-3.3. User Interactions
-You are solely responsible for your interactions with other users of the Service and any other parties with whom you interact through the Service and/or Powersource games. Powersource reserves the right, but has no obligation, to become involved in any way with these disputes. You will fully cooperate with Powersource to investigate any suspected unlawful, fraudulent or improper activity, including, without limitation, granting Powersource access to any password-protected portions of your Account.
-If you have a dispute with one or more users, you release us (and our officers, directors, agents, subsidiaries, joint ventures and employees) from claims, demands and damages (actual and consequential) of every kind and nature, known and unknown, arising out of or in any way connected with such disputes.
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -888,9 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292B9CE2-FE29-4B86-8E94-C68B2B5D6E10}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -914,10 +912,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
@@ -928,7 +926,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
@@ -936,10 +934,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StringTerms.xlsx
+++ b/Excel/StringTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4D0448-75BC-428C-93F4-7155E0798DA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755D60F7-5F39-4B5F-A4EA-8AD55A5C3EB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9020BB33-0B2F-43C5-8091-327AC8D50A2F}"/>
   </bookViews>
@@ -144,142 +144,6 @@
 You irrevocably waive all rights to seek injunctive or other equitable relief, or to enjoin or restrain the operation of the Service or any Powersource game, exploitation of any advertising or other materials issued in connection therewith, or exploitation of the Service or any content or other material used or displayed through the Service and agree to limit your claims to claims for monetary damages, limited by Section 7 (if any).
 10.7. Force Majeure
 Powersource shall not be liable for any delay or failure to perform resulting from causes outside the reasonable control of Powersource, including without limitation any failure to perform hereunder due to unforeseen circumstances or cause beyond Powersource's control such as acts of God, war, terrorism, riots, embargoes, acts of civil or military authorities, fire, floods, accidents, strikes, or shortages of transportation facilities, fuel, energy, labor or materials.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">발효일 : 2020년 11월 6일
-본 약관(이하 "서비스 약관")은 귀하와 경기 성남시 분당구 이매로 45에 사무소를 가진 회사인 Powersource Studio (이하 "Powersource Studio" 또는 "당사") 사이에 있어서 귀하가 Powersource Studio의 게임, 웹사이트 및 관련 서비스(이하 "서비스")를 이용하는 것에 관하여 적용됩니다. 또한 서비스의 이용에는 Powersource Studio의 개인정보 보호정책과 기타 관련 정책들이 적용되는데, 이는 본 약관에 참조 형식으로 포함됩니다.
-서비스에 접속하거나 이를 이용(Powersource Studio의 웹사이트를 방문하거나 게임에 접속하는 행위를 포함)하기 전에, 귀하는 본 서비스 약관과 개인정보 보호정책에 동의하여야 합니다. 또한 귀하는 서비스 계정(이하 "계정")을 등록할 필요가 있습니다. 계정을 등록하거나 서비스를 이용함으로써, 귀하는 귀하가 거주하는 국가의 미성년자가 아님을 표시하는 것입니다. 만일 귀하가 미성년자일 경우에는 귀하가 계정을 등록하거나 또는 서비스를 이용함으로써 귀하는 귀하의 법정 대리인이 본 약관을 검토하고 동의하였다는 의사표시를 한 것입니다. 만일 귀하가 Google과 같은 소셜 네트워크 서비스(이하 "SNS")를 통하여 서비스에 접속하였다면, 귀하는 본 서비스 약관뿐만 아니라 SNS의 서비스 약관까지 준수해야 합니다.
-귀하가 서비스를 설치∙이용 또는 서비스에 접속함으로써, 귀하는 본 서비스 약관에 동의한 것입니다. 만일 귀하가 본 서비스 약관에 동의하지 않는다면, 서비스에의 접속 또는 서비스의 설치 또는 이용을 하지 않으시길 바랍니다. 서비스가 금지되는 경우 서비스의 이용은 무효입니다.
-Powersource Studio는 관련 법령에 따라 Powersource Studio의 서비스상에 변경된 조건들을 게재함으로써 본 서비스 약관과 당사의 개인정보 보호정책과 기타 관련 Powersource Studio 정책들의 일부를 재량에 따라 변경∙수정∙추가 또는 제거할 권리를 가집니다. Powersource Studio가 약관 및 개인정보보호정책을 변경할 경우, 변경된 내용은 Powersource Studio가 고지한 적용일자에 효력을 발생합니다. Powersource Studio는 적용일자로부터 최소한 7일 이전(이용자의 권리 및 의무에 중대하게 불리한 경우에는 30일 이전)에 적용일, 변경내용, 변경사유 등을 명시하여 Powersource Studio의 웹사이트 또는 서비스 화면에 고지합니다. 귀하는 이에 대하여 거부의사를 표시할 수 있고, 거부의사의 표시 없이 서비스를 계속해서 이용하는 것은 그러한 변경을 수용하는 것으로 간주될 것입니다. 만일 귀하가 귀하의 서비스 이용과 관련된 당사의 현재 버전의 서비스 약관, 개인정보 보호정책, 또는 그 밖에 어떠한 정책, 규칙 또는 행동강령의 어느 한 부분에라도 동의하지 않는다면, 서비스를 이용할 수 있는 귀하의 라이선스는 즉시 종료되어야 하고, 귀하는 즉시 서비스의 이용을 중단해야 합니다.
-1. 라이선스
-1.1. 서비스 이용에 관한 제한적 라이선스의 허여
-본 서비스 약관과 그 밖에 관련된 Powersource Studio의 정책들에 대한 귀하의 동의 및 지속적인 준수에 따라, Powersource Studio는 귀하에게 양도 불가능하고, 비독점적이고, 2차 라이선스 허여가 불가능하고, 취소 가능하고, 귀하 자신의 비상업적∙오락적 목적으로의 접속과 이용에 한정되며, 제한된 라이선스를 허여합니다. 귀하는 그 밖의 다른 목적으로 서비스를 이용하지 않을 것에 동의합니다.
-이하의 제한들은 서비스의 이용에 적용됩니다.
-- 미성년자가 법정대리인의 동의를 받지 않고 의무부담행위를 한 경우(예를 들면, 유료서비스 결제), 미성년자 또는 그 미성년자의 법정대리인은 해당계약을 취소할 수 있습니다.
-- 귀하는 귀하의 계정을 구매, 판매, 대여, 양도(혹은 이를 시도)하지 않고 거짓 신원 혹은 정보로 또는 타인을 대신하여 계정을 생성하지 않아야 합니다; 귀하가 사전에 Powersource Studio에 의해 제명되었거나 다른 Powersource Studio 게임의 플레이가 금지되었을 경우 서비스를 이용할 수 없습니다.
-- 귀하는 오로지 비상업적인 목적으로만 귀하의 계정을 이용하여야 합니다. 귀하는 광고, 호객행위, 상업적 광고들의 전송(행운의 편지, 스팸메일 또는 누군가에 대한 반복적이거나 허위의 메시지 전송을 포함) 목적으로 서비스를 이용할 수 없습니다.
-로그인 정보 및 계정
-귀하는 귀하의 계정에 대한 암호를 선택할 것을 요구 받게 되거나 계정 접속을 위해 다른 비밀 정보를 사용할 수도 있습니다(이하 "로그인 정보"). 귀하는 계정 또는 로그인 정보를 타인과 공유할 수 없고, 타인으로 하여금 귀하의 계정에 접근하거나 그 밖에 귀하의 계정의 보안을 위협하는 어떠한 행위를 하도록 허락할 수 없습니다. 귀하가 보안사고를 알게 되거나 합리적으로 보안사고를 의심할만한 상황을 인지하게 될 경우(로그인 정보의 손실, 도난 또는 무단 공개를 포함하나, 이에 한정되지 아니함), 귀하는 즉시 Powersource Studio에 해당 사실을 통지하고 귀하의 로그인 정보를 수정하여야 합니다. 귀하의 로그인 정보의 비밀유지는 전적으로 귀하가 책임져야 하고, 귀하는 귀하의 로그인 정보에 관한 모든 이용행위(구매행위를 포함하며, 귀하의 승인을 받았는지 여부는 불문함)에 대하여 책임을 부담합니다. 귀하는 귀하의 계정을 통하여 발생하는 모든 사안에 대하여 책임을 부담합니다.
-Powersource Studio는 언제든지, 그리고 어떠한 이유로든지(어떠한 이용자명이 제3자의 권리를 침해하였다는 제3자의 주장을 포함하나, 이에 한정되지 아니함), 어떠한 이용자명도 제거하거나 회수할 권리를 가집니다.
-본 서비스는 지원기기의 게임당 하나의 계정만을 지원합니다.
-라이선스의 제한
-본 라이선스의 제한을 위반한 상태에서의 모든 서비스의 이용은 엄격하게 금지되고, 귀하의 제한된 라이선스는 즉시 취소될 수 있으며, 귀하는 위법행위에 대하여 책임을 져야 할 수도 있습니다.
-귀하는 어떤 상황에서도 다음과 같은 행위를 하지 않을 것에 동의합니다.
-- Powersource Studio의 서비스 정신 또는 서비스 의도에 반하는 것으로 Powersource Studio가 간주하는 행위 또는 Powersource Studio의 지원 서비스를 부적절하게 이용하는 행위
-- Powersource Studio의 게임 또는 게임경력을 변경하거나 방해하도록 설계된 치트, 엑스플로잇, 자동화 소프트웨어, 에뮬레이터, 보트, 해킹 프로그램, 유저제작게임 또는 그 밖에 승인되지 않은 제3자 소프트웨어를 이용 혹은 이용(직, 간접적)에 참여하거나, 서비스 또는 Powersource Studio 게임의 일부 파일을 변경하거나 변경하도록 하는 행위
-- 중복 로그인 등 비정상적인 방법으로 Powersource Studio의 게임에 부정적인 영향을 주는 행위
-- 서비스의 일반적인 흐름에 지장을 주거나 방해 또는 이에 부정적인 영향을 주는 행위나 서비스의 이용이나 Powersource Studio의 게임 플레이에서 다른 사용자의 경험에 부정적인 영향을 주는 방식의 행동. 이는 몰아주기와 같은 순위 조작과 관련된 모든 행동, 서비스 오류를 통해 다른 플레이어들로부터 부당한 이득을 얻는 행동, 서비스 내용에 대한 의도적인 악용 및 이에 반하는 행동들을 포함합니다.
-- 서비스 또는 Powersource Studio의 게임 환경을 제공하거나 지원하는 데에 사용되는 컴퓨터 또는 서버(이하 "서버")에 과부하를 걸거나 방해를 주거나 또는 이러한 과부하 또는 방해행위를 지원하는 행위
-- 공격행위(바이러스의 배포, 서비스에 대한 거부 공격, 또는 그 밖에 서비스 또는 제3자의 서비스 이용을 방해하고자 하는 행위를 포함하나, 이에 한정되지 아니함)를 개시하거나, 지원하거나, 또는 그에 관여하는 행위
-- 서비스, 타인 또는 다른 컴퓨터에 등록된 계정, 서버 또는 서비스에 연결된 네트워크에 대해 Powersource Studio로부터 제공된 이용자 인터페이스가 아닌 다른 수단을 통해 승인되지 않은 접속을 시도하는 행위(서비스의 일부분인 보안, 기술, 기기 또는 소프트웨어를 변경 또는 우회하거나 그러한 시도를 하는 행위 또는 그러한 변경이나 우회를 하는 누군가를 지원하거나 방조하는 행위를 포함하나, 이에 한정되지 아니함)
-- 권리남용적이거나 위협적이거나 음란하거나 타인의 명예를 훼손하거나 비방하거나 인종∙성별∙종교적 또는 그 밖의 이유로 부당하거나 불쾌한 정보를 게시하는 행위 또는 원치 않는 모든 사람들에게 반복적으로 정보를 게시하는 것과 같이 지속적인 이러한 해독행위들에 관여하는 것
-- 나체, 과도한 폭력 또는 불쾌한 주제를 포함한 정보 또는 그러한 내용에 관한 링크를 게시하는 행위
-- Powersource Studio의 고객 서비스 대리인을 포함하여 Powersource Studio의 피용자를 포함한 타인이나 그룹을 희롱하거나 괴롭히거나 해를 끼치는 행위 또는 그러한 희롱 또는 가해를 시도하거나 조장하는 행위
-- 서비스를 통하여 타인인 개인 또는 법인의 저작권, 상표, 특허, 영업비밀, 프라이버시권, 퍼블리시티권 또는 기타 권리를 침해하거나 타인(Powersource Studio의 피용자를 포함하나, 이에 한정되지 아니함)을 사칭하는 자료 또는 정보를 사용할 수 있도록 하는 행위
-- 서비스 또는 Powersource Studio의 게임을 제공하기 위하여 사용된 근본 소프트웨어 또는 다른 지적 재산권의 소스 코드를 추출하기 위하여, 또는 Powersource Studio가 명시적으로 허용하지 않은 방법을 사용하여 서비스 또는 Powersource Studio 게임으로부터 정보를 얻기 위하여 역설계, 역컴파일, 역어셈블, 해독행위 또는 기타 이를 위한 시도를 하는 행위
-- 서비스 또는 Powersource Studio 게임의 다른 이용자로부터 로그인 정보나 기타 로그인을 위한 비밀 정보 또는 개인정보를 구하거나 구하려는 시도를 하는 행위
-- 서비스를 통하여 누군가의 사적인 정보{개인신원정보(문자, 이미지, 또는 비디오와 같은 형태 불문함), 신원확인 문서, 또는 재무정보를 포함}를 수집하거나 게시하는 행위
-수수료 또는 판돈의 개입 여부를 불문하고, 귀하가 플레이어로서 참가하는 경기의 결과에 대해 배팅하는 행위를 포함해 도박, 배팅 또는 (직접적 또는 간접적으로) 상 또는 보상이 획득될 수 있는 유사한 활동을 위해 Powersource Studio 게임을 이용하는 행위
-Powersource Studio는 어떠한 행위가 이용규칙 위반에 해당되거나 본 서비스 약관 및 본 서비스 약관의 의도 또는 정신을 이탈하는 것인지 여부를 결정할 권리를 가집니다. Powersource Studio는 그 결정의 결과로서 조치를 취할 권리를 가지며 여기에는 귀하의 계정을 종료시키고 귀하의 서비스 이용을 전부 또는 일부를 금지하는 것이 포함됩니다.
-1.2. 계정과 서비스의 중단 및 종료
-만일 귀하가 본 서비스 약관을 준수하지 않거나 또는 서비스를 불법으로 또는 부적절하게 이용하거나, 또는 Powersource Studio가 귀하의 약관 미준수, 위법하거나 부적절한 이용행위를 의심할만한 사정이 있는 경우(이하 총칭하여 "이용자 의무위반 행위")에는, Powersource Studio는 귀하에게 통지하고 귀하의 서비스 또는 그 일부에 대한 접속 또는 귀하의 계정을 제한∙중단∙변경∙삭제(이하 "이용제한 조치")할 수 있습니다. Powersource Studio는 이용자 의무위반 행위에 대하여 위반행위의 내용, 정도, 횟수, 결과 등 제반 사정을 고려하여 차등하여 서비스 이용제한 조치를 취할 수 있고, 이는 Powersource Studio의 다른 권리구제수단을 제한하지 않습니다. 계정종료 또는 제한의 결과로, 귀하는 귀하의 서비스 이용과 관련된 이익, 특권, 획득한 아이템들과 구매한 아이템들뿐만 아니라 귀하의 서비스 내 이용자명과 캐릭터를 상실할 수 있고, Powersource Studio는 이러한 손해 또는 결과에 관하여 귀하에게 배상할 책임이 없습니다.
-당사는 이용자가 위험 또는 법률상 책임을 창출하거나, 제3자의 지적재산권을 침해하거나, 또는 당사의 약관이나 정책의 문언 또는 정신에 반하는 행위를 하는 것으로 판단될 경우에는 서비스와 이용자 계정 또는 그 일부분을 제한∙중단 또는 해지할 수 있고, 당사의 게임∙사이트 및 그 콘텐츠∙서비스∙툴에의 접속을 금지할 수 있으며, 제공되는 콘텐츠를 제거하거나 지연시킬 수 있고, 해당 이용자의 서비스 접속을 막기 위한 기술적∙법률적 조치를 취할 수 있습니다(이는 Powersource Studio의 다른 권리구제수단을 제한하지 않음). 또한, 당사는 적절한 상황 하에서 전적으로 당사의 재량에 따라, 제3자의 지적재산권을 반복적으로 침해할 여지가 있는 이용자의 계정을 중단하거나 해지시킬 수 있습니다.
-Powersource Studio는 180일 이상 휴면 중인 계정을 해지시킬 권리를 가집니다.
-Powersource Studio는 언제든지 서비스 또는 특정 게임 또는 서비스 일부의 제공 및/또는 지원을 중단할 권리를 가지고, 그와 동시에 서비스 또는 그 일부를 이용할 수 있는 귀하의 라이선스는 자동으로 종료됩니다. 이러한 경우, Powersource Studio는 이용자에 대하여 서비스의 중단으로 인한 환불∙보상∙배상을 할 책임을 부담하지 않습니다. 귀하의 계정의 해지에는 서비스 또는 그 일부(귀하 또는 타인이 제출한 콘텐츠를 포함)에 대한 귀하의 접속을 불가능하게 하는 것도 포함될 수 있습니다.
-2. 소유권
-2.1. 게임과 서비스
-서비스에 관한 모든 권리, 소유권, 이익(게임, 출판물, 컴퓨터 코드, 테마, 물건, 캐릭터, 캐릭터명, 스토리, 다이얼로그, 캐치프레이즈, 콘셉트, 삽화, 애니메이션, 음향, 음악구성형식, 시청각적 효과, 작동방법, 저작인격권, 서류, 게임상의 채팅기록, 캐릭터 프로필 정보, Powersource Studio의 게임 클라이언트를 이용한 게임 플레이 기록, Powersource Studio의 게임 클라이언트와 서버 소프트웨어를 포함하나, 이에 한정되지 아니함)은 Powersource Studio가 소유합니다. Powersource Studio는 당사의 게임 및 서비스에 관한 모든 권리(지적재산권 또는 그 밖의 소유권을 포함하나, 이에 한정되지 아니함)를 가집니다.
-2.2. 계정
-어떠한 경우에도, 귀하는 귀하가 계정에 대한 소유권 또는 그 밖의 재산상 이익을 가지지 않음을 인정하고 동의하며, 나아가, 귀하는 계정상의 또는 계정에 대한 모든 권리는 영구적으로 Powersource Studio가 소유하고 Powersource Studio의 이익을 위하여만 유효함을 인정하고 동의합니다.
-2.3. 가상 아이템들
-Powersource Studio는 Powersource Studio의 게임 또는 서비스상의 모든 콘텐츠를 소유하고, 라이선스를 허여하며 기타 이를 이용할 권리를 가집니다. 어떠한 경우에도, 귀하는 서비스상의 어떠한 콘텐츠(Powersource Studio의 게임에서 발생하거나 나타나는 가상의 물품 또는 통화(게임상에서 획득하였거나 Powersource Studio로부터 구매하였는지 여부를 불문함) 또는 계정과 결부되거나 서비스상에 저장된 부수물을 포함하나, 이에 한정되지 아니함)에 대하여 아무런 권리 또는 소유권을 가지지 않음에 동의합니다.
-3. 이용자 콘텐츠
-3.1 이용자 콘텐츠 개진
-"이용자 콘텐츠"는 의사소통, 이미지, 음향, 그리고 모든 자료, 데이터, 그리고 귀하 또는 다른 이용자들이 Powersource Studio 게임 클라이언트 또는 서비스를 통하여 업로드하거나 전송한 정보(채팅 텍스트를 포함하나, 이에 한정되지 아니함)를 의미합니다. 서비스를 이용하는 동안 어떠한 이용자 콘텐츠를 전송 또는 제출함으로써, 귀하는 그러한 전송 또는 제출행위가 (a)정확하고, 비밀이 아니며, (b) 법률 또는 계약상의 제한 또는 그 밖의 제3자의 권리를 위반하지 아니하고, 또한 귀하가 이용자 콘텐츠를 구성하는 개인정보 또는 지적재산권의 소유자인 제3자로부터 허락을 받았으며, (c) 바이러스, 애드웨어, 스파이웨어, 웜 바이러스 또는 그 밖의 악성코드가 없다는 것을 확인하고 진술 및 보증하며, (d) 그러한 콘텐츠 내의 귀하의 개인정보는 언제나 Powersource Studio의 개인정보 보호정책에 따라 처리됨을 인정하고 이에 동의합니다.
-3.2. 콘텐츠 심사
-Powersource Studio는 이용자 콘텐츠를 제출하는 이용자의 행위에 대하여 어떠한 책임도 지지 않고, 부적절한 콘텐츠 또는 행위에 대하여 서비스를 감시할 어떠한 책임도 지지 않습니다. 당사는 모든 이용자 콘텐츠를 사전에 심사하거나 감시할 수 없고 심사 또는 감시하지도 않습니다. 귀하의 서비스 이용에 따른 위험은 귀하 자신이 부담합니다. 서비스를 이용함으로써 귀하는 불쾌하고, 외설적이거나 귀하의 기대에 부응하지 않는 이용자 콘텐츠에 노출될 수 있습니다. 귀하는 서비스와 연결되어 사용 가능한 모든 이용자 콘텐츠의 사용과 관련된 일체의 위험을 부담합니다. 당사의 재량에 따라, 귀하의 서비스 이용 시 당사의 대리인 또는 당사의 기술에 의하여 귀하의 서비스와의 상호작용 또는 의사소통(채팅 텍스트를 포함하나 이에 한정되지 아니함)을 관찰 및/또는 기록할 수 있습니다.
-본 서비스 약관을 체결함으로써 귀하는 이러한 관찰과 기록에 대하여 취소할 수 없는 동의를 하는 것입니다. 귀하는 채팅 텍스트 또는 음성 의사소통을 포함하여 이용자 콘텐츠의 전송과 관련하여 프라이버시를 기대하지 않음을 인정하고 동의합니다.
-Powersource Studio는 어떠한 근거에 대한 공지 없이 혹은 언제든지 별다른 이유 없이 재량으로 사용자 콘텐츠(귀하의 사용자 콘텐츠에 대한 제한 없이 이를 포함하여)에 대한 검토, 관찰, 금지, 편집, 삭제, 접속 금지 또는 이를 이용할 수 없도록 할 권한을 갖습니다. Powersource Studio가 전적으로 당사의 재량에 따라 서비스를 관찰하기로 결정한 경우에도, Powersource Studio는 이용자 콘텐츠에 대하여 어떠한 책임도 부담하지 아니하고, 부적절한 이용자 콘텐츠를 수정 또는 제거할 의무를 부담하지도 않습니다. 당사는 당사의 전적인 재량 하에 이용자 콘텐츠를 편집하고, 전송을 거부하거나 제거할 권리를 가지고 있으나, 그러한 의무를 부담하지는 않습니다.
-3.2. 서비스의 다른 이용자들에 의한 정보 이용
-3.2.1. 공시
-지정된 주제에 관한 귀하의 논평과 언급을 포함하여 귀하가 이용자 콘텐츠를 게시할 수 있는 다양한 포럼, 블로그, 그리고 채팅 기능이 서비스에 포함될 수 있습니다. Powersource Studio는 귀하가 공유하는 아이디어와 정보를 다른 이용자들이 이용하지 않으리라는 점을 보증하지 않습니다. 따라서 만일 귀하가 비밀을 유지하고자 하는 정보 또는 아이디어를 가지고 있고 또는/그리고 다른 사람들이 이를 이용하지 않기를 바란다면, 이를 서비스에 게시하지 마십시오. Powersource Studio는 귀하가 제출하기로 결정한 아이디어 또는 정보를 평가하거나 이용하거나 그와 관련하여 귀하에게 배상할 책임을 지지 않습니다.
-3.2.2. 귀하 소유의 콘텐츠에 대한 책임
-귀하는 귀하가 서비스상에 또는 서비스를 통하여 또는 서비스와 관련하여 게시하거나 또는 타인에게 제공한 정보에 대하여 전적으로 책임을 집니다. Powersource Studio는 어떠한 이유로든지 또는 아무 이유 없이도 이용자 콘텐츠(Powersource Studio의 전적인 판단에 따랐을 때 본 서비스 약관을 위반하는 이용자 콘텐츠를 포함하나, 이에 한정되지 아니함)를 거절하거나 게시를 거부하거나 이를 삭제할 수 있습니다.
-3.3. Powersource Studio에 대한 귀하의 라이선스
-귀하는 이로써 Powersource Studio에 대하여 취소할 수 없고, 영구적이며, 이전 가능하며, 전액 완납된, 로열티가 부과되지 않는, 전 세계적인 라이선스(2차 라이선스권과 제3자에 대한 양도권을 포함)와, 당사의 서비스 제공과 관련된 귀하의 이용자 콘텐츠뿐만 아니라 그에 관한 모든 변경되고 파생된 가공물을 복사∙복제∙재생성∙수리∙조정∙변경∙2차적저작물 생성∙제조∙상업화∙퍼블리싱∙배포∙판매∙라이선스∙2차 라이선스∙이전∙리스∙전송∙공개적인 전시∙공개적인 공연∙전자적 접속의 제공∙방송∙전기통신에 의한 대중과의 의사소통∙전시∙공연∙컴퓨터 메모리에의 입력, 그리고 어떠한 방식으로든지 이용 및 실행(서비스의 마케팅과 프로모션을 포함)할 권리를 허여합니다. 또한 귀하는 Powersource Studio가 본 서비스 약관에 따라 Powersource Studio에게 허여된 권리를 행사할 권한을 타인에게 부여할 수 있음을 허여합니다. 나아가 귀하는 Powersource Studio에게, 귀하에 대하여 어떠한 의무도 부담함이 없이, 귀하의 성명, 초상, 그리고 그 밖에 이용자 콘텐츠에 포함되거나 그와 연관된 정보 또는 자료를 이용하고 활용할 무조건적이고 취소 불가능한 권리를 허여합니다. 법률에 의하여 금지되지 않는 한, 귀하의 이용자 콘텐츠가 어떠한 방식으로 수정 또는 변경되건 간에, 귀하는 귀하의 이용자 콘텐츠에 대하여 귀하가 가질 수 있는 모든 소유권 및/또는 저작인격권을 포기합니다. Powersource Studio는 귀하의 이용자 콘텐츠에 대하여 어떠한 소유권도 주장하지 않고 본 서비스 약관은 귀하가 귀하의 이용자 콘텐츠를 이용하고 활용할 권리를 제한하지 않습니다. Powersource Studio는 귀하의 이용자 콘텐츠에 대한 귀하의 지적 재산권을 감시하거나 집행할 의무를 부담하지 않습니다
-3.4. 이용자 상호작용
-귀하는 서비스의 다른 이용자들 및 서비스 및/또는 Powersource Studio 게임을 통하여 귀하가 상호작용하는 다른 당사자들과의 상호작용에 대하여 전적으로 책임을 부담합니다. Powersource Studio는 이러한 분쟁에 관여할 권리를 가지지만 그러한 의무는 부담하지 않습니다. 위법하거나 사기적이거나 또는 부적합하다고 의심받는 활동에 관한 Powersource Studio의 조사에 귀하는 전적으로 협력(Powersource Studio가 귀하의 계정의 암호로 보호받는 부분에 접속하는 것을 승인하는 것을 포함하나, 이에 한정되지 아니함)합니다.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Effective Date: November 6, 2020
-The terms of this agreement ("Terms of Service") govern the relationship between you and Powersource, a Korean company having its registered office at Imae-ro 45 Bundang-gu Seongnam-si Gyeonggi, Korea, (hereinafter "Powersource" or "Us" or "We") regarding your use of Powersource's games, websites and related services (the "Service"). Use of the Service is also governed by Powersource's Privacy Policy and other relevant policies, which are incorporated herein by reference.
-Before accessing or using the Service, including browsing any Powersource website or accessing a game, you must agree to these Terms of Service and the Privacy Policy. You may also be required to register an account on the Service (an "Account"). By registering for an Account or otherwise using the Service, you affirm that you are the legal age of majority in your country of residence. If you are not, your legal guardian must review and agree to these Terms. If you access the Service from a Social Networking Site ("SNS"), such as Google, you shall comply with its terms of service/use as well as these Terms of Service.
-BY INSTALLING, USING OR OTHERWISE ACCESSING THE SERVICE, YOU AGREE TO THESE TERMS OF SERVICE. IF YOU DO NOT AGREE TO THESE TERMS OF SERVICE, PLEASE DO NOT INSTALL, USE OR OTHERWISE ACCESS THE SERVICE. USE OF THE SERVICE IS VOID WHERE PROHIBITED.
-Powersource reserves the right, at its discretion, to change, modify, add or remove portions of these Terms of Service, its Privacy Policy and other relevant Powersource policies at any time by posting the amended terms on the Powersource Service. You will be deemed to have accepted such changes by continuing to use the Service. If at any point you do not agree to any portion of the then-current version of our Terms of Service, the Powersource Privacy Policy, or any other Powersource policy, rules or codes of conduct relating to your use of the Service, your license to use the Service shall immediately terminate, and you must immediately stop using the Service.
-1. License
-1.1. Grant of a Limited License to Use the Service
-Subject to your agreement and continuing compliance with these Terms of Service and any other relevant Powersource policies, Powersource grants you a non-exclusive, non-transferable, non-sublicensable, revocable and limited license to access and use the Service for your own non-commercial entertainment purposes. You agree not to use the Service for any other purpose.
-The following restrictions apply to the use of the Service:
-- You accept full responsibility for any unauthorized use of the Service by minors. You are responsible for any use of your credit card or other payment instrument (e.g. paypal) by minors.
-- You shall not (or attempt to) purchase, sell, rent or give away your Account, create an Account using a false identity or information, or on behalf of someone other than yourself; You shall not use the Service if you have previously been removed by Powersource, or previously been banned from playing any Powersource game.
-- You shall use your Account only for non-commercial purposes; You shall not use the Service to advertise, or solicit, or transmit any commercial advertisements, including chain letters, junk or spam e-mail or repetitive or misleading messages to anyone.
-Login information and Your Account
-You may be required to select a password for your Account or you may also use other credentials to access the Account ("Login Information"). You shall not share the Account or the Login Information, nor let anyone else access your Account or do anything else that might jeopardize the security of your Account. In the event you become aware of or reasonably suspect any breach of security, including without limitation any loss, theft, or unauthorized disclosure of the Login Information, you must immediately notify Powersource and modify your Login Information. You are solely responsible for maintaining the confidentiality of the Login Information, and you will be responsible for all uses of the Login Information, including purchases, whether or not authorized by you. You are responsible for anything that happens through your Account.
-Powersource reserves the right to remove or reclaim any usernames at any time and for any reason, including but not limited to claims by a third party that a username violates the third party's rights.
-The Service supports only one Account per game on a supported device.
-License Limitations
-Any use of the Service in violation of these License Limitations is strictly prohibited, can result in the immediate revocation of your limited license and may subject you to liability for violations of law.
-You agree that you will not, under any circumstances:
-- Engage in any act that Powersource deems to be in conflict with the spirit or intent of the Service or make improper use of Powersource's support services.
-- Use or take part (directly or indirectly) in the use of cheats, exploits, automation software, emulators, bots, hacks, mods or any unauthorized third-party software designed to modify or interfere with the Service, any Powersource game or any Powersource game experience.
-- Engage in any act that negatively affects any Powersource game through abnormal methods such as duplicate login.
-- Modify or cause to be modified any files that are a part of the Service or any Powersource game without Powersource's express written consent.
-- Disrupt, interfere with or otherwise adversely affect the normal flow of the Service or otherwise act in a manner that may negatively affect other users' experience when using the Service or playing Powersource's games. This includes win trading and any other kind of manipulation of rankings, taking advantage of errors in the Service to gain an unfair edge over other players and any other act that intentionally abuses or goes against the design of the Service.
-- Disrupt, overburden, or aid or assist in the disruption or overburdening of any computer or server ("Server") used to offer or support the Service or any Powersource game environment.
-Institute, assist, or become involved in any type of attack, including without limitation distribution of a virus, denial of service attacks upon the Service, or other attempts to disrupt the Service or any other person's use or enjoyment of the Service.
-- Attempt to gain unauthorized access to the Service, Accounts registered to others or to the computers, Servers, or networks connected to the Service by any means other than the user interface provided by Powersource, including but not limited to, by circumventing or modifying, attempting to circumvent or modify, or encouraging or assisting any other person to circumvent or modify, any security, technology, device, or software that is part of the Service.
-Post any information that is abusive, threatening, obscene, defamatory, libelous, or racially, sexually, religiously, or otherwise objectionable or offensive or engage in ongoing toxic behavior, such as by repeatedly posting information on an unsolicited basis.
-- Post any information that contains nudity, excessive violence, or offensive subject matter or that contains a link to such content.
-- Attempt to, or harass, abuse, or harm, or advocate or incite harassment, abuse, or harm of another person, group, including Powersource employees, including Powersource's customer service representatives.
-- Make available through the Service any material or information that infringes any copyright, trademark, patent, trade secret, right of privacy, right of publicity, or other right of any person or entity or impersonates any other person, including without limitation a Powersource employee.
-- Reverse engineer, decompile, disassemble, decipher or otherwise attempt to derive the source code for any underlying software or other intellectual property used to provide the Service or any Powersource game, or to obtain any information from the Service or any Powersource game using any method not expressly permitted by Powersource.
-- Solicit or attempt to solicit Login Information or any other login credentials or personal information from other users of the Service or any Powersource game.
-- Collect or post anyone's private information, including personally identifiable information (whether in text, image or video form), identification documents, or financial information through the Service.
-- Use any Powersource game for gambling, betting or any similar activity in which prizes or rewards can be won (directly or indirectly), including betting on the outcome of matches in which you participate as a player, irrespective of whether or not there is a fee or stake involved.
-Powersource reserves the right to determine what conduct it considers to be in violation of the rules of use or otherwise outside the intent or spirit of these Terms of Service or the Service itself. Powersource reserves the right to take action as a result, which may include terminating your Account and prohibiting you from using the Service in whole or in part.
-1.2. Suspension and Termination of Account and Service
-WITHOUT LIMITING ANY OTHER REMEDIES, POWERSOURCE MAY LIMIT, SUSPEND, TERMINATE, MODIFY, OR DELETE ACCOUNTS OR ACCESS TO THE SERVICE OR PORTIONS THEREOF IF YOU ARE, OR POWERSOURCE SUSPECTS THAT YOU ARE, FAILING TO COMPLY WITH ANY OF THESE TERMS OF SERVICE OR FOR ANY ACTUAL OR SUSPECTED ILLEGAL OR IMPROPER USE OF THE SERVICE, WITH OR WITHOUT NOTICE TO YOU. YOU CAN LOSE YOUR USER NAME AND PERSONA IN THE SERVICE AS A RESULT OF ACCOUNT TERMINATION OR LIMITATION, AS WELL AS ANY BENEFITS, PRIVILEGES, EARNED ITEMS AND PURCHASED ITEMS ASSOCIATED WITH YOUR USE OF THE SERVICE, AND POWERSOURCE IS UNDER NO OBLIGATION TO COMPENSATE YOU FOR ANY SUCH LOSSES OR RESULTS.
-WITHOUT LIMITING OUR OTHER REMEDIES, WE MAY LIMIT, SUSPEND OR TERMINATE THE SERVICE AND USER ACCOUNTS OR PORTIONS THEREOF, PROHIBIT ACCESS TO OUR GAMES AND SITES, AND THEIR CONTENT, SERVICES AND TOOLS, DELAY OR REMOVE HOSTED CONTENT, AND TAKE TECHNICAL AND LEGAL STEPS TO PREVENT USERS FROM ACCESSING THE SERVICE IF WE BELIEVE THAT THEY ARE CREATING RISK OR POSSIBLE LEGAL LIABILITIES, INFRINGING THE INTELLECTUAL PROPERTY RIGHTS OF THIRD PARTIES, OR ACTING INCONSISTENTLY WITH THE LETTER OR SPIRIT OF OUR TERMS OR   POLICIES. ADDITIONALLY, WE MAY, IN APPROPRIATE CIRCUMSTANCES AND AT OUR SOLE DISCRETION, SUSPEND OR TERMINATE ACCOUNTS OF USERS WHO MAY BE REPEAT INFRINGERS OF THIRD PARTY INTELLECTUAL PROPERTY RIGHTS.
-POWERSOURCE RESERVES THE RIGHT TO TERMINATE ANY ACCOUNT THAT HAS BEEN INACTIVE FOR 180 DAYS.
-Powersource reserves the right to stop offering and/or supporting the Service or a particular game or part of the Service at any time, at which point your license to use the Service or a part thereof will be automatically terminated. In such event, Powersource shall not be required to provide refunds, benefits or other compensation to users in connection with such discontinued Service. Termination of your Account can include disabling your access to the Service or any part thereof including any content you submitted or others submitted.
-2. Ownership
-2.1. Games and Service
-All rights, title and interest in and to the Service (including without limitation any games, titles, computer code, themes, objects, characters, character names, stories, dialogue, catch phrases, concepts, artwork, animations, sounds, musical compositions, audio-visual effects, methods of operation, moral rights, documentation, in-game chat transcripts, character profile information, recordings of games played using a Powersource game client, and the Powersource game clients and server software) are owned by Powersource. Powersource reserves all rights, including without limitation, all intellectual property rights or other proprietary rights, in connection with its games and the Service.
-2.2. Accounts
-NOTWITHSTANDING ANYTHING TO THE CONTRARY HEREIN, YOU ACKNOWLEDGE AND AGREE THAT YOU SHALL HAVE NO OWNERSHIP OR OTHER PROPERTY INTEREST IN THE ACCOUNT, AND YOU FURTHER ACKNOWLEDGE AND AGREE THAT ALL RIGHTS IN AND TO THE ACCOUNT ARE AND SHALL FOREVER BE OWNED BY AND INURE TO THE BENEFIT OF POWERSOURCE.
-2.3. Virtual Items
-Powersource owns, has licensed, or otherwise has rights to use all of the content that appears in the Service or in Powersource games. Notwithstanding any provision to the contrary herein, you agree that you have no right or title in or to any content that appears in the Service, including without limitation the virtual goods or currency appearing or originating in any Powersource game, whether earned in a game or purchased from Powersource, or any other attributes associated with an Account or stored on the Service.
-3. User Content
-3.1. Submission of User Content
-"User Content" means any communications, images, sounds, and all the material, data, and information that you upload or transmit through a Powersource game client or the Service, or that other users upload or transmit, including without limitation any chat text. By transmitting or submitting any User Content while using the Service, you affirm, represent and warrant that such transmission or submission is (a) accurate and not confidential or misleading; (b) not in violation of any laws, contractual restrictions or other third party rights, and that you have permission from any third party whose personal information or intellectual property is comprised in the User Content; (c) free of viruses, adware, spyware, worms or other malicious code; and (d) you acknowledge and agree that any of your personal information within such content will at all times be processed by Powersource in accordance with its Privacy Policy.
-3.1.1. Content Screening
-Powersource assumes no responsibility for the conduct of any user submitting any User Content, and assumes no responsibility for monitoring the Service for inappropriate content or conduct. We do not, and cannot, pre-screen or monitor all User Content. Your use of the Service is at your own risk. By using the Service, you may be exposed to User Content that is offensive, indecent or otherwise not in line with your expectations. You bear all risks associated with the use of any User Content available in connection with the Service. At our discretion, our representatives or technology may monitor and/or record your interaction with the Service or communications (including without limitation chat text) when you are using the Service.
-By entering into these Terms of Service, you hereby provide your irrevocable consent to such monitoring and recording. You acknowledge and agree that you have no expectation of privacy concerning the transmission of any User Content, including without limitation chat text or voice communications.
-Powersource reserves the right in its sole discretion to review, monitor, prohibit, edit, delete, disable access to or otherwise make unavailable any User Content (including without limitation your User Content) without notice for any reason or for no reason at any time. If at any time Powersource chooses, in its sole discretion, to monitor the Service, Powersource nonetheless assumes no responsibility for User Content and assumes no obligation to modify or remove any inappropriate User Content. We have the right, but not the obligation, in our sole discretion to edit, refuse to post, or remove any User Content.
-3.2. Information Use by Other Members of the Service
-3.2.1. Public Discourse
-The Service may include various forums, blogs and chat features where you can post User Content, including your observations and comments on designated topics. Powersource cannot guarantee that other members will not use the ideas and information that you share. Therefore, if you have an idea or information that you would like to keep confidential and/or don't want others to use, do not post it on the Service. Powersource shall have no responsibility to evaluate, use or compensate you for any ideas or information you may choose to submit.
-3.2.2. Responsible For Your Own Content
-You are solely responsible for the information that you post on, through or in connection with the Service and that you provide to others. Powersource may reject, refuse to post or delete any User Content for any or no reason, including, but not limited to, User Content that in the sole judgment of Powersource violates these Terms of Service.
-3.2.3. Your License to Powersource
-You hereby grant to Powersource an irrevocable, perpetual, transferable, fully paid-up, royalty-free, worldwide license (including the right to sublicense and assign to third party) and right to copy, reproduce, fix, adapt, modify, create derivative works from, manufacture, commercialize, publish, distribute, sell, license, sublicense, transfer, lease, transmit, publicly display, publicly perform, or provide access to electronically, broadcast, communicate to the public by telecommunication, display, perform, enter into computer memory, and use and practice, in any way, your User Content as well as all modified and derivative works thereof in connection with our provision of the Service, including marketing and promotions of the Service. You also hereby grant to Powersource the right to authorize others to exercise any of the rights granted to Powersource under these Terms of Service. You further hereby grant to Powersource the unconditional, irrevocable right to use and exploit your name, likeness and any other information or material included in any User Content and in connection with any User Content, without any obligation to you. Except as prohibited by law, you waive any rights of attribution and/or any moral rights you may have in your User Content, regardless of whether your User Content is altered or changed in any manner. Powersource does not claim any ownership rights in your User Content and nothing in these Terms of Service is intended to restrict any rights that you may have to use and exploit your User Content. Powersource has no obligation to monitor or enforce your intellectual property rights in or to your User Content.
-3.3. User Interactions
-You are solely responsible for your interactions with other users of the Service and any other parties with whom you interact through the Service and/or Powersource games. Powersource reserves the right, but has no obligation, to become involved in any way with these disputes. You will fully cooperate with Powersource to investigate any suspected unlawful, fraudulent or improper activity, including, without limitation, granting Powersource access to any password-protected portions of your Account.
-If you have a dispute with one or more users, you release us (and our officers, directors, agents, subsidiaries, joint ventures and employees) from claims, demands and damages (actual and consequential) of every kind and nature, known and unknown, arising out of or in any way connected with such disputes.
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -519,6 +383,142 @@
 Protecting children’s privacy online is very important to us. Generally, our Services are not directed to children under 13 (or other age as required by local law), and the Services do not knowingly collect personal data from children, except as described in the following paragraph.
 For games that are not directed at children but nonetheless may appeal to them, we take additional steps to limit access to these Services based on the player’s age. For these Services, when a player indicates they are under 13 (or the applicable age in their territory), we will limit their access to certain features, such as social media and chat features, as well as certain types of notification alerts. We also limit the processing of personal data to only what is necessary to support the internal operations of our Services.
 If you are a parent or guardian and wish to review personal data collected from your child, or have that information modified or deleted, you may contact us as described above. If we become aware that a child has provided us with personal data contrary to the above, we will delete any personal data we have collected, unless we have a legal obligation to keep it, and terminate the child’s account and/or revert them to the underage experience, as applicable.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Effective Date: November 6, 2020
+The terms of this agreement ("Terms of Service") govern the relationship between you and Powersource, a Korean company (business ID 720-11-01531) having its registered office at Imae-ro 45 Bundang-gu Seongnam-si Gyeonggi, Korea, (hereinafter "Powersource" or "Us" or "We") regarding your use of Powersource's games, websites and related services (the "Service"). Use of the Service is also governed by Powersource's Privacy Policy and other relevant policies, which are incorporated herein by reference.
+Before accessing or using the Service, including browsing any Powersource website or accessing a game, you must agree to these Terms of Service and the Privacy Policy. You may also be required to register an account on the Service (an "Account"). By registering for an Account or otherwise using the Service, you affirm that you are the legal age of majority in your country of residence. If you are not, your legal guardian must review and agree to these Terms. If you access the Service from a Social Networking Site ("SNS"), such as Google, you shall comply with its terms of service/use as well as these Terms of Service.
+BY INSTALLING, USING OR OTHERWISE ACCESSING THE SERVICE, YOU AGREE TO THESE TERMS OF SERVICE. IF YOU DO NOT AGREE TO THESE TERMS OF SERVICE, PLEASE DO NOT INSTALL, USE OR OTHERWISE ACCESS THE SERVICE. USE OF THE SERVICE IS VOID WHERE PROHIBITED.
+Powersource reserves the right, at its discretion, to change, modify, add or remove portions of these Terms of Service, its Privacy Policy and other relevant Powersource policies at any time by posting the amended terms on the Powersource Service. You will be deemed to have accepted such changes by continuing to use the Service. If at any point you do not agree to any portion of the then-current version of our Terms of Service, the Powersource Privacy Policy, or any other Powersource policy, rules or codes of conduct relating to your use of the Service, your license to use the Service shall immediately terminate, and you must immediately stop using the Service.
+1. License
+1.1. Grant of a Limited License to Use the Service
+Subject to your agreement and continuing compliance with these Terms of Service and any other relevant Powersource policies, Powersource grants you a non-exclusive, non-transferable, non-sublicensable, revocable and limited license to access and use the Service for your own non-commercial entertainment purposes. You agree not to use the Service for any other purpose.
+The following restrictions apply to the use of the Service:
+- You accept full responsibility for any unauthorized use of the Service by minors. You are responsible for any use of your credit card or other payment instrument (e.g. paypal) by minors.
+- You shall not (or attempt to) purchase, sell, rent or give away your Account, create an Account using a false identity or information, or on behalf of someone other than yourself; You shall not use the Service if you have previously been removed by Powersource, or previously been banned from playing any Powersource game.
+- You shall use your Account only for non-commercial purposes; You shall not use the Service to advertise, or solicit, or transmit any commercial advertisements, including chain letters, junk or spam e-mail or repetitive or misleading messages to anyone.
+Login information and Your Account
+You may be required to select a password for your Account or you may also use other credentials to access the Account ("Login Information"). You shall not share the Account or the Login Information, nor let anyone else access your Account or do anything else that might jeopardize the security of your Account. In the event you become aware of or reasonably suspect any breach of security, including without limitation any loss, theft, or unauthorized disclosure of the Login Information, you must immediately notify Powersource and modify your Login Information. You are solely responsible for maintaining the confidentiality of the Login Information, and you will be responsible for all uses of the Login Information, including purchases, whether or not authorized by you. You are responsible for anything that happens through your Account.
+Powersource reserves the right to remove or reclaim any usernames at any time and for any reason, including but not limited to claims by a third party that a username violates the third party's rights.
+The Service supports only one Account per game on a supported device.
+License Limitations
+Any use of the Service in violation of these License Limitations is strictly prohibited, can result in the immediate revocation of your limited license and may subject you to liability for violations of law.
+You agree that you will not, under any circumstances:
+- Engage in any act that Powersource deems to be in conflict with the spirit or intent of the Service or make improper use of Powersource's support services.
+- Use or take part (directly or indirectly) in the use of cheats, exploits, automation software, emulators, bots, hacks, mods or any unauthorized third-party software designed to modify or interfere with the Service, any Powersource game or any Powersource game experience.
+- Engage in any act that negatively affects any Powersource game through abnormal methods such as duplicate login.
+- Modify or cause to be modified any files that are a part of the Service or any Powersource game without Powersource's express written consent.
+- Disrupt, interfere with or otherwise adversely affect the normal flow of the Service or otherwise act in a manner that may negatively affect other users' experience when using the Service or playing Powersource's games. This includes win trading and any other kind of manipulation of rankings, taking advantage of errors in the Service to gain an unfair edge over other players and any other act that intentionally abuses or goes against the design of the Service.
+- Disrupt, overburden, or aid or assist in the disruption or overburdening of any computer or server ("Server") used to offer or support the Service or any Powersource game environment.
+Institute, assist, or become involved in any type of attack, including without limitation distribution of a virus, denial of service attacks upon the Service, or other attempts to disrupt the Service or any other person's use or enjoyment of the Service.
+- Attempt to gain unauthorized access to the Service, Accounts registered to others or to the computers, Servers, or networks connected to the Service by any means other than the user interface provided by Powersource, including but not limited to, by circumventing or modifying, attempting to circumvent or modify, or encouraging or assisting any other person to circumvent or modify, any security, technology, device, or software that is part of the Service.
+Post any information that is abusive, threatening, obscene, defamatory, libelous, or racially, sexually, religiously, or otherwise objectionable or offensive or engage in ongoing toxic behavior, such as by repeatedly posting information on an unsolicited basis.
+- Post any information that contains nudity, excessive violence, or offensive subject matter or that contains a link to such content.
+- Attempt to, or harass, abuse, or harm, or advocate or incite harassment, abuse, or harm of another person, group, including Powersource employees, including Powersource's customer service representatives.
+- Make available through the Service any material or information that infringes any copyright, trademark, patent, trade secret, right of privacy, right of publicity, or other right of any person or entity or impersonates any other person, including without limitation a Powersource employee.
+- Reverse engineer, decompile, disassemble, decipher or otherwise attempt to derive the source code for any underlying software or other intellectual property used to provide the Service or any Powersource game, or to obtain any information from the Service or any Powersource game using any method not expressly permitted by Powersource.
+- Solicit or attempt to solicit Login Information or any other login credentials or personal information from other users of the Service or any Powersource game.
+- Collect or post anyone's private information, including personally identifiable information (whether in text, image or video form), identification documents, or financial information through the Service.
+- Use any Powersource game for gambling, betting or any similar activity in which prizes or rewards can be won (directly or indirectly), including betting on the outcome of matches in which you participate as a player, irrespective of whether or not there is a fee or stake involved.
+Powersource reserves the right to determine what conduct it considers to be in violation of the rules of use or otherwise outside the intent or spirit of these Terms of Service or the Service itself. Powersource reserves the right to take action as a result, which may include terminating your Account and prohibiting you from using the Service in whole or in part.
+1.2. Suspension and Termination of Account and Service
+WITHOUT LIMITING ANY OTHER REMEDIES, POWERSOURCE MAY LIMIT, SUSPEND, TERMINATE, MODIFY, OR DELETE ACCOUNTS OR ACCESS TO THE SERVICE OR PORTIONS THEREOF IF YOU ARE, OR POWERSOURCE SUSPECTS THAT YOU ARE, FAILING TO COMPLY WITH ANY OF THESE TERMS OF SERVICE OR FOR ANY ACTUAL OR SUSPECTED ILLEGAL OR IMPROPER USE OF THE SERVICE, WITH OR WITHOUT NOTICE TO YOU. YOU CAN LOSE YOUR USER NAME AND PERSONA IN THE SERVICE AS A RESULT OF ACCOUNT TERMINATION OR LIMITATION, AS WELL AS ANY BENEFITS, PRIVILEGES, EARNED ITEMS AND PURCHASED ITEMS ASSOCIATED WITH YOUR USE OF THE SERVICE, AND POWERSOURCE IS UNDER NO OBLIGATION TO COMPENSATE YOU FOR ANY SUCH LOSSES OR RESULTS.
+WITHOUT LIMITING OUR OTHER REMEDIES, WE MAY LIMIT, SUSPEND OR TERMINATE THE SERVICE AND USER ACCOUNTS OR PORTIONS THEREOF, PROHIBIT ACCESS TO OUR GAMES AND SITES, AND THEIR CONTENT, SERVICES AND TOOLS, DELAY OR REMOVE HOSTED CONTENT, AND TAKE TECHNICAL AND LEGAL STEPS TO PREVENT USERS FROM ACCESSING THE SERVICE IF WE BELIEVE THAT THEY ARE CREATING RISK OR POSSIBLE LEGAL LIABILITIES, INFRINGING THE INTELLECTUAL PROPERTY RIGHTS OF THIRD PARTIES, OR ACTING INCONSISTENTLY WITH THE LETTER OR SPIRIT OF OUR TERMS OR   POLICIES. ADDITIONALLY, WE MAY, IN APPROPRIATE CIRCUMSTANCES AND AT OUR SOLE DISCRETION, SUSPEND OR TERMINATE ACCOUNTS OF USERS WHO MAY BE REPEAT INFRINGERS OF THIRD PARTY INTELLECTUAL PROPERTY RIGHTS.
+POWERSOURCE RESERVES THE RIGHT TO TERMINATE ANY ACCOUNT THAT HAS BEEN INACTIVE FOR 180 DAYS.
+Powersource reserves the right to stop offering and/or supporting the Service or a particular game or part of the Service at any time, at which point your license to use the Service or a part thereof will be automatically terminated. In such event, Powersource shall not be required to provide refunds, benefits or other compensation to users in connection with such discontinued Service. Termination of your Account can include disabling your access to the Service or any part thereof including any content you submitted or others submitted.
+2. Ownership
+2.1. Games and Service
+All rights, title and interest in and to the Service (including without limitation any games, titles, computer code, themes, objects, characters, character names, stories, dialogue, catch phrases, concepts, artwork, animations, sounds, musical compositions, audio-visual effects, methods of operation, moral rights, documentation, in-game chat transcripts, character profile information, recordings of games played using a Powersource game client, and the Powersource game clients and server software) are owned by Powersource. Powersource reserves all rights, including without limitation, all intellectual property rights or other proprietary rights, in connection with its games and the Service.
+2.2. Accounts
+NOTWITHSTANDING ANYTHING TO THE CONTRARY HEREIN, YOU ACKNOWLEDGE AND AGREE THAT YOU SHALL HAVE NO OWNERSHIP OR OTHER PROPERTY INTEREST IN THE ACCOUNT, AND YOU FURTHER ACKNOWLEDGE AND AGREE THAT ALL RIGHTS IN AND TO THE ACCOUNT ARE AND SHALL FOREVER BE OWNED BY AND INURE TO THE BENEFIT OF POWERSOURCE.
+2.3. Virtual Items
+Powersource owns, has licensed, or otherwise has rights to use all of the content that appears in the Service or in Powersource games. Notwithstanding any provision to the contrary herein, you agree that you have no right or title in or to any content that appears in the Service, including without limitation the virtual goods or currency appearing or originating in any Powersource game, whether earned in a game or purchased from Powersource, or any other attributes associated with an Account or stored on the Service.
+3. User Content
+3.1. Submission of User Content
+"User Content" means any communications, images, sounds, and all the material, data, and information that you upload or transmit through a Powersource game client or the Service, or that other users upload or transmit, including without limitation any chat text. By transmitting or submitting any User Content while using the Service, you affirm, represent and warrant that such transmission or submission is (a) accurate and not confidential or misleading; (b) not in violation of any laws, contractual restrictions or other third party rights, and that you have permission from any third party whose personal information or intellectual property is comprised in the User Content; (c) free of viruses, adware, spyware, worms or other malicious code; and (d) you acknowledge and agree that any of your personal information within such content will at all times be processed by Powersource in accordance with its Privacy Policy.
+3.1.1. Content Screening
+Powersource assumes no responsibility for the conduct of any user submitting any User Content, and assumes no responsibility for monitoring the Service for inappropriate content or conduct. We do not, and cannot, pre-screen or monitor all User Content. Your use of the Service is at your own risk. By using the Service, you may be exposed to User Content that is offensive, indecent or otherwise not in line with your expectations. You bear all risks associated with the use of any User Content available in connection with the Service. At our discretion, our representatives or technology may monitor and/or record your interaction with the Service or communications (including without limitation chat text) when you are using the Service.
+By entering into these Terms of Service, you hereby provide your irrevocable consent to such monitoring and recording. You acknowledge and agree that you have no expectation of privacy concerning the transmission of any User Content, including without limitation chat text or voice communications.
+Powersource reserves the right in its sole discretion to review, monitor, prohibit, edit, delete, disable access to or otherwise make unavailable any User Content (including without limitation your User Content) without notice for any reason or for no reason at any time. If at any time Powersource chooses, in its sole discretion, to monitor the Service, Powersource nonetheless assumes no responsibility for User Content and assumes no obligation to modify or remove any inappropriate User Content. We have the right, but not the obligation, in our sole discretion to edit, refuse to post, or remove any User Content.
+3.2. Information Use by Other Members of the Service
+3.2.1. Public Discourse
+The Service may include various forums, blogs and chat features where you can post User Content, including your observations and comments on designated topics. Powersource cannot guarantee that other members will not use the ideas and information that you share. Therefore, if you have an idea or information that you would like to keep confidential and/or don't want others to use, do not post it on the Service. Powersource shall have no responsibility to evaluate, use or compensate you for any ideas or information you may choose to submit.
+3.2.2. Responsible For Your Own Content
+You are solely responsible for the information that you post on, through or in connection with the Service and that you provide to others. Powersource may reject, refuse to post or delete any User Content for any or no reason, including, but not limited to, User Content that in the sole judgment of Powersource violates these Terms of Service.
+3.2.3. Your License to Powersource
+You hereby grant to Powersource an irrevocable, perpetual, transferable, fully paid-up, royalty-free, worldwide license (including the right to sublicense and assign to third party) and right to copy, reproduce, fix, adapt, modify, create derivative works from, manufacture, commercialize, publish, distribute, sell, license, sublicense, transfer, lease, transmit, publicly display, publicly perform, or provide access to electronically, broadcast, communicate to the public by telecommunication, display, perform, enter into computer memory, and use and practice, in any way, your User Content as well as all modified and derivative works thereof in connection with our provision of the Service, including marketing and promotions of the Service. You also hereby grant to Powersource the right to authorize others to exercise any of the rights granted to Powersource under these Terms of Service. You further hereby grant to Powersource the unconditional, irrevocable right to use and exploit your name, likeness and any other information or material included in any User Content and in connection with any User Content, without any obligation to you. Except as prohibited by law, you waive any rights of attribution and/or any moral rights you may have in your User Content, regardless of whether your User Content is altered or changed in any manner. Powersource does not claim any ownership rights in your User Content and nothing in these Terms of Service is intended to restrict any rights that you may have to use and exploit your User Content. Powersource has no obligation to monitor or enforce your intellectual property rights in or to your User Content.
+3.3. User Interactions
+You are solely responsible for your interactions with other users of the Service and any other parties with whom you interact through the Service and/or Powersource games. Powersource reserves the right, but has no obligation, to become involved in any way with these disputes. You will fully cooperate with Powersource to investigate any suspected unlawful, fraudulent or improper activity, including, without limitation, granting Powersource access to any password-protected portions of your Account.
+If you have a dispute with one or more users, you release us (and our officers, directors, agents, subsidiaries, joint ventures and employees) from claims, demands and damages (actual and consequential) of every kind and nature, known and unknown, arising out of or in any way connected with such disputes.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">발효일 : 2020년 11월 6일
+본 약관(이하 "서비스 약관")은 귀하와 경기 성남시 분당구 이매로 45에 사무소를 가진 회사(사업자 등록번호 720-11-01531)인 Powersource Studio (이하 "Powersource Studio" 또는 "당사") 사이에 있어서 귀하가 Powersource Studio의 게임, 웹사이트 및 관련 서비스(이하 "서비스")를 이용하는 것에 관하여 적용됩니다. 또한 서비스의 이용에는 Powersource Studio의 개인정보 보호정책과 기타 관련 정책들이 적용되는데, 이는 본 약관에 참조 형식으로 포함됩니다.
+서비스에 접속하거나 이를 이용(Powersource Studio의 웹사이트를 방문하거나 게임에 접속하는 행위를 포함)하기 전에, 귀하는 본 서비스 약관과 개인정보 보호정책에 동의하여야 합니다. 또한 귀하는 서비스 계정(이하 "계정")을 등록할 필요가 있습니다. 계정을 등록하거나 서비스를 이용함으로써, 귀하는 귀하가 거주하는 국가의 미성년자가 아님을 표시하는 것입니다. 만일 귀하가 미성년자일 경우에는 귀하가 계정을 등록하거나 또는 서비스를 이용함으로써 귀하는 귀하의 법정 대리인이 본 약관을 검토하고 동의하였다는 의사표시를 한 것입니다. 만일 귀하가 Google과 같은 소셜 네트워크 서비스(이하 "SNS")를 통하여 서비스에 접속하였다면, 귀하는 본 서비스 약관뿐만 아니라 SNS의 서비스 약관까지 준수해야 합니다.
+귀하가 서비스를 설치∙이용 또는 서비스에 접속함으로써, 귀하는 본 서비스 약관에 동의한 것입니다. 만일 귀하가 본 서비스 약관에 동의하지 않는다면, 서비스에의 접속 또는 서비스의 설치 또는 이용을 하지 않으시길 바랍니다. 서비스가 금지되는 경우 서비스의 이용은 무효입니다.
+Powersource Studio는 관련 법령에 따라 Powersource Studio의 서비스상에 변경된 조건들을 게재함으로써 본 서비스 약관과 당사의 개인정보 보호정책과 기타 관련 Powersource Studio 정책들의 일부를 재량에 따라 변경∙수정∙추가 또는 제거할 권리를 가집니다. Powersource Studio가 약관 및 개인정보보호정책을 변경할 경우, 변경된 내용은 Powersource Studio가 고지한 적용일자에 효력을 발생합니다. Powersource Studio는 적용일자로부터 최소한 7일 이전(이용자의 권리 및 의무에 중대하게 불리한 경우에는 30일 이전)에 적용일, 변경내용, 변경사유 등을 명시하여 Powersource Studio의 웹사이트 또는 서비스 화면에 고지합니다. 귀하는 이에 대하여 거부의사를 표시할 수 있고, 거부의사의 표시 없이 서비스를 계속해서 이용하는 것은 그러한 변경을 수용하는 것으로 간주될 것입니다. 만일 귀하가 귀하의 서비스 이용과 관련된 당사의 현재 버전의 서비스 약관, 개인정보 보호정책, 또는 그 밖에 어떠한 정책, 규칙 또는 행동강령의 어느 한 부분에라도 동의하지 않는다면, 서비스를 이용할 수 있는 귀하의 라이선스는 즉시 종료되어야 하고, 귀하는 즉시 서비스의 이용을 중단해야 합니다.
+1. 라이선스
+1.1. 서비스 이용에 관한 제한적 라이선스의 허여
+본 서비스 약관과 그 밖에 관련된 Powersource Studio의 정책들에 대한 귀하의 동의 및 지속적인 준수에 따라, Powersource Studio는 귀하에게 양도 불가능하고, 비독점적이고, 2차 라이선스 허여가 불가능하고, 취소 가능하고, 귀하 자신의 비상업적∙오락적 목적으로의 접속과 이용에 한정되며, 제한된 라이선스를 허여합니다. 귀하는 그 밖의 다른 목적으로 서비스를 이용하지 않을 것에 동의합니다.
+이하의 제한들은 서비스의 이용에 적용됩니다.
+- 미성년자가 법정대리인의 동의를 받지 않고 의무부담행위를 한 경우(예를 들면, 유료서비스 결제), 미성년자 또는 그 미성년자의 법정대리인은 해당계약을 취소할 수 있습니다.
+- 귀하는 귀하의 계정을 구매, 판매, 대여, 양도(혹은 이를 시도)하지 않고 거짓 신원 혹은 정보로 또는 타인을 대신하여 계정을 생성하지 않아야 합니다; 귀하가 사전에 Powersource Studio에 의해 제명되었거나 다른 Powersource Studio 게임의 플레이가 금지되었을 경우 서비스를 이용할 수 없습니다.
+- 귀하는 오로지 비상업적인 목적으로만 귀하의 계정을 이용하여야 합니다. 귀하는 광고, 호객행위, 상업적 광고들의 전송(행운의 편지, 스팸메일 또는 누군가에 대한 반복적이거나 허위의 메시지 전송을 포함) 목적으로 서비스를 이용할 수 없습니다.
+로그인 정보 및 계정
+귀하는 귀하의 계정에 대한 암호를 선택할 것을 요구 받게 되거나 계정 접속을 위해 다른 비밀 정보를 사용할 수도 있습니다(이하 "로그인 정보"). 귀하는 계정 또는 로그인 정보를 타인과 공유할 수 없고, 타인으로 하여금 귀하의 계정에 접근하거나 그 밖에 귀하의 계정의 보안을 위협하는 어떠한 행위를 하도록 허락할 수 없습니다. 귀하가 보안사고를 알게 되거나 합리적으로 보안사고를 의심할만한 상황을 인지하게 될 경우(로그인 정보의 손실, 도난 또는 무단 공개를 포함하나, 이에 한정되지 아니함), 귀하는 즉시 Powersource Studio에 해당 사실을 통지하고 귀하의 로그인 정보를 수정하여야 합니다. 귀하의 로그인 정보의 비밀유지는 전적으로 귀하가 책임져야 하고, 귀하는 귀하의 로그인 정보에 관한 모든 이용행위(구매행위를 포함하며, 귀하의 승인을 받았는지 여부는 불문함)에 대하여 책임을 부담합니다. 귀하는 귀하의 계정을 통하여 발생하는 모든 사안에 대하여 책임을 부담합니다.
+Powersource Studio는 언제든지, 그리고 어떠한 이유로든지(어떠한 이용자명이 제3자의 권리를 침해하였다는 제3자의 주장을 포함하나, 이에 한정되지 아니함), 어떠한 이용자명도 제거하거나 회수할 권리를 가집니다.
+본 서비스는 지원기기의 게임당 하나의 계정만을 지원합니다.
+라이선스의 제한
+본 라이선스의 제한을 위반한 상태에서의 모든 서비스의 이용은 엄격하게 금지되고, 귀하의 제한된 라이선스는 즉시 취소될 수 있으며, 귀하는 위법행위에 대하여 책임을 져야 할 수도 있습니다.
+귀하는 어떤 상황에서도 다음과 같은 행위를 하지 않을 것에 동의합니다.
+- Powersource Studio의 서비스 정신 또는 서비스 의도에 반하는 것으로 Powersource Studio가 간주하는 행위 또는 Powersource Studio의 지원 서비스를 부적절하게 이용하는 행위
+- Powersource Studio의 게임 또는 게임경력을 변경하거나 방해하도록 설계된 치트, 엑스플로잇, 자동화 소프트웨어, 에뮬레이터, 보트, 해킹 프로그램, 유저제작게임 또는 그 밖에 승인되지 않은 제3자 소프트웨어를 이용 혹은 이용(직, 간접적)에 참여하거나, 서비스 또는 Powersource Studio 게임의 일부 파일을 변경하거나 변경하도록 하는 행위
+- 중복 로그인 등 비정상적인 방법으로 Powersource Studio의 게임에 부정적인 영향을 주는 행위
+- 서비스의 일반적인 흐름에 지장을 주거나 방해 또는 이에 부정적인 영향을 주는 행위나 서비스의 이용이나 Powersource Studio의 게임 플레이에서 다른 사용자의 경험에 부정적인 영향을 주는 방식의 행동. 이는 몰아주기와 같은 순위 조작과 관련된 모든 행동, 서비스 오류를 통해 다른 플레이어들로부터 부당한 이득을 얻는 행동, 서비스 내용에 대한 의도적인 악용 및 이에 반하는 행동들을 포함합니다.
+- 서비스 또는 Powersource Studio의 게임 환경을 제공하거나 지원하는 데에 사용되는 컴퓨터 또는 서버(이하 "서버")에 과부하를 걸거나 방해를 주거나 또는 이러한 과부하 또는 방해행위를 지원하는 행위
+- 공격행위(바이러스의 배포, 서비스에 대한 거부 공격, 또는 그 밖에 서비스 또는 제3자의 서비스 이용을 방해하고자 하는 행위를 포함하나, 이에 한정되지 아니함)를 개시하거나, 지원하거나, 또는 그에 관여하는 행위
+- 서비스, 타인 또는 다른 컴퓨터에 등록된 계정, 서버 또는 서비스에 연결된 네트워크에 대해 Powersource Studio로부터 제공된 이용자 인터페이스가 아닌 다른 수단을 통해 승인되지 않은 접속을 시도하는 행위(서비스의 일부분인 보안, 기술, 기기 또는 소프트웨어를 변경 또는 우회하거나 그러한 시도를 하는 행위 또는 그러한 변경이나 우회를 하는 누군가를 지원하거나 방조하는 행위를 포함하나, 이에 한정되지 아니함)
+- 권리남용적이거나 위협적이거나 음란하거나 타인의 명예를 훼손하거나 비방하거나 인종∙성별∙종교적 또는 그 밖의 이유로 부당하거나 불쾌한 정보를 게시하는 행위 또는 원치 않는 모든 사람들에게 반복적으로 정보를 게시하는 것과 같이 지속적인 이러한 해독행위들에 관여하는 것
+- 나체, 과도한 폭력 또는 불쾌한 주제를 포함한 정보 또는 그러한 내용에 관한 링크를 게시하는 행위
+- Powersource Studio의 고객 서비스 대리인을 포함하여 Powersource Studio의 피용자를 포함한 타인이나 그룹을 희롱하거나 괴롭히거나 해를 끼치는 행위 또는 그러한 희롱 또는 가해를 시도하거나 조장하는 행위
+- 서비스를 통하여 타인인 개인 또는 법인의 저작권, 상표, 특허, 영업비밀, 프라이버시권, 퍼블리시티권 또는 기타 권리를 침해하거나 타인(Powersource Studio의 피용자를 포함하나, 이에 한정되지 아니함)을 사칭하는 자료 또는 정보를 사용할 수 있도록 하는 행위
+- 서비스 또는 Powersource Studio의 게임을 제공하기 위하여 사용된 근본 소프트웨어 또는 다른 지적 재산권의 소스 코드를 추출하기 위하여, 또는 Powersource Studio가 명시적으로 허용하지 않은 방법을 사용하여 서비스 또는 Powersource Studio 게임으로부터 정보를 얻기 위하여 역설계, 역컴파일, 역어셈블, 해독행위 또는 기타 이를 위한 시도를 하는 행위
+- 서비스 또는 Powersource Studio 게임의 다른 이용자로부터 로그인 정보나 기타 로그인을 위한 비밀 정보 또는 개인정보를 구하거나 구하려는 시도를 하는 행위
+- 서비스를 통하여 누군가의 사적인 정보{개인신원정보(문자, 이미지, 또는 비디오와 같은 형태 불문함), 신원확인 문서, 또는 재무정보를 포함}를 수집하거나 게시하는 행위
+수수료 또는 판돈의 개입 여부를 불문하고, 귀하가 플레이어로서 참가하는 경기의 결과에 대해 배팅하는 행위를 포함해 도박, 배팅 또는 (직접적 또는 간접적으로) 상 또는 보상이 획득될 수 있는 유사한 활동을 위해 Powersource Studio 게임을 이용하는 행위
+Powersource Studio는 어떠한 행위가 이용규칙 위반에 해당되거나 본 서비스 약관 및 본 서비스 약관의 의도 또는 정신을 이탈하는 것인지 여부를 결정할 권리를 가집니다. Powersource Studio는 그 결정의 결과로서 조치를 취할 권리를 가지며 여기에는 귀하의 계정을 종료시키고 귀하의 서비스 이용을 전부 또는 일부를 금지하는 것이 포함됩니다.
+1.2. 계정과 서비스의 중단 및 종료
+만일 귀하가 본 서비스 약관을 준수하지 않거나 또는 서비스를 불법으로 또는 부적절하게 이용하거나, 또는 Powersource Studio가 귀하의 약관 미준수, 위법하거나 부적절한 이용행위를 의심할만한 사정이 있는 경우(이하 총칭하여 "이용자 의무위반 행위")에는, Powersource Studio는 귀하에게 통지하고 귀하의 서비스 또는 그 일부에 대한 접속 또는 귀하의 계정을 제한∙중단∙변경∙삭제(이하 "이용제한 조치")할 수 있습니다. Powersource Studio는 이용자 의무위반 행위에 대하여 위반행위의 내용, 정도, 횟수, 결과 등 제반 사정을 고려하여 차등하여 서비스 이용제한 조치를 취할 수 있고, 이는 Powersource Studio의 다른 권리구제수단을 제한하지 않습니다. 계정종료 또는 제한의 결과로, 귀하는 귀하의 서비스 이용과 관련된 이익, 특권, 획득한 아이템들과 구매한 아이템들뿐만 아니라 귀하의 서비스 내 이용자명과 캐릭터를 상실할 수 있고, Powersource Studio는 이러한 손해 또는 결과에 관하여 귀하에게 배상할 책임이 없습니다.
+당사는 이용자가 위험 또는 법률상 책임을 창출하거나, 제3자의 지적재산권을 침해하거나, 또는 당사의 약관이나 정책의 문언 또는 정신에 반하는 행위를 하는 것으로 판단될 경우에는 서비스와 이용자 계정 또는 그 일부분을 제한∙중단 또는 해지할 수 있고, 당사의 게임∙사이트 및 그 콘텐츠∙서비스∙툴에의 접속을 금지할 수 있으며, 제공되는 콘텐츠를 제거하거나 지연시킬 수 있고, 해당 이용자의 서비스 접속을 막기 위한 기술적∙법률적 조치를 취할 수 있습니다(이는 Powersource Studio의 다른 권리구제수단을 제한하지 않음). 또한, 당사는 적절한 상황 하에서 전적으로 당사의 재량에 따라, 제3자의 지적재산권을 반복적으로 침해할 여지가 있는 이용자의 계정을 중단하거나 해지시킬 수 있습니다.
+Powersource Studio는 180일 이상 휴면 중인 계정을 해지시킬 권리를 가집니다.
+Powersource Studio는 언제든지 서비스 또는 특정 게임 또는 서비스 일부의 제공 및/또는 지원을 중단할 권리를 가지고, 그와 동시에 서비스 또는 그 일부를 이용할 수 있는 귀하의 라이선스는 자동으로 종료됩니다. 이러한 경우, Powersource Studio는 이용자에 대하여 서비스의 중단으로 인한 환불∙보상∙배상을 할 책임을 부담하지 않습니다. 귀하의 계정의 해지에는 서비스 또는 그 일부(귀하 또는 타인이 제출한 콘텐츠를 포함)에 대한 귀하의 접속을 불가능하게 하는 것도 포함될 수 있습니다.
+2. 소유권
+2.1. 게임과 서비스
+서비스에 관한 모든 권리, 소유권, 이익(게임, 출판물, 컴퓨터 코드, 테마, 물건, 캐릭터, 캐릭터명, 스토리, 다이얼로그, 캐치프레이즈, 콘셉트, 삽화, 애니메이션, 음향, 음악구성형식, 시청각적 효과, 작동방법, 저작인격권, 서류, 게임상의 채팅기록, 캐릭터 프로필 정보, Powersource Studio의 게임 클라이언트를 이용한 게임 플레이 기록, Powersource Studio의 게임 클라이언트와 서버 소프트웨어를 포함하나, 이에 한정되지 아니함)은 Powersource Studio가 소유합니다. Powersource Studio는 당사의 게임 및 서비스에 관한 모든 권리(지적재산권 또는 그 밖의 소유권을 포함하나, 이에 한정되지 아니함)를 가집니다.
+2.2. 계정
+어떠한 경우에도, 귀하는 귀하가 계정에 대한 소유권 또는 그 밖의 재산상 이익을 가지지 않음을 인정하고 동의하며, 나아가, 귀하는 계정상의 또는 계정에 대한 모든 권리는 영구적으로 Powersource Studio가 소유하고 Powersource Studio의 이익을 위하여만 유효함을 인정하고 동의합니다.
+2.3. 가상 아이템들
+Powersource Studio는 Powersource Studio의 게임 또는 서비스상의 모든 콘텐츠를 소유하고, 라이선스를 허여하며 기타 이를 이용할 권리를 가집니다. 어떠한 경우에도, 귀하는 서비스상의 어떠한 콘텐츠(Powersource Studio의 게임에서 발생하거나 나타나는 가상의 물품 또는 통화(게임상에서 획득하였거나 Powersource Studio로부터 구매하였는지 여부를 불문함) 또는 계정과 결부되거나 서비스상에 저장된 부수물을 포함하나, 이에 한정되지 아니함)에 대하여 아무런 권리 또는 소유권을 가지지 않음에 동의합니다.
+3. 이용자 콘텐츠
+3.1 이용자 콘텐츠 개진
+"이용자 콘텐츠"는 의사소통, 이미지, 음향, 그리고 모든 자료, 데이터, 그리고 귀하 또는 다른 이용자들이 Powersource Studio 게임 클라이언트 또는 서비스를 통하여 업로드하거나 전송한 정보(채팅 텍스트를 포함하나, 이에 한정되지 아니함)를 의미합니다. 서비스를 이용하는 동안 어떠한 이용자 콘텐츠를 전송 또는 제출함으로써, 귀하는 그러한 전송 또는 제출행위가 (a)정확하고, 비밀이 아니며, (b) 법률 또는 계약상의 제한 또는 그 밖의 제3자의 권리를 위반하지 아니하고, 또한 귀하가 이용자 콘텐츠를 구성하는 개인정보 또는 지적재산권의 소유자인 제3자로부터 허락을 받았으며, (c) 바이러스, 애드웨어, 스파이웨어, 웜 바이러스 또는 그 밖의 악성코드가 없다는 것을 확인하고 진술 및 보증하며, (d) 그러한 콘텐츠 내의 귀하의 개인정보는 언제나 Powersource Studio의 개인정보 보호정책에 따라 처리됨을 인정하고 이에 동의합니다.
+3.2. 콘텐츠 심사
+Powersource Studio는 이용자 콘텐츠를 제출하는 이용자의 행위에 대하여 어떠한 책임도 지지 않고, 부적절한 콘텐츠 또는 행위에 대하여 서비스를 감시할 어떠한 책임도 지지 않습니다. 당사는 모든 이용자 콘텐츠를 사전에 심사하거나 감시할 수 없고 심사 또는 감시하지도 않습니다. 귀하의 서비스 이용에 따른 위험은 귀하 자신이 부담합니다. 서비스를 이용함으로써 귀하는 불쾌하고, 외설적이거나 귀하의 기대에 부응하지 않는 이용자 콘텐츠에 노출될 수 있습니다. 귀하는 서비스와 연결되어 사용 가능한 모든 이용자 콘텐츠의 사용과 관련된 일체의 위험을 부담합니다. 당사의 재량에 따라, 귀하의 서비스 이용 시 당사의 대리인 또는 당사의 기술에 의하여 귀하의 서비스와의 상호작용 또는 의사소통(채팅 텍스트를 포함하나 이에 한정되지 아니함)을 관찰 및/또는 기록할 수 있습니다.
+본 서비스 약관을 체결함으로써 귀하는 이러한 관찰과 기록에 대하여 취소할 수 없는 동의를 하는 것입니다. 귀하는 채팅 텍스트 또는 음성 의사소통을 포함하여 이용자 콘텐츠의 전송과 관련하여 프라이버시를 기대하지 않음을 인정하고 동의합니다.
+Powersource Studio는 어떠한 근거에 대한 공지 없이 혹은 언제든지 별다른 이유 없이 재량으로 사용자 콘텐츠(귀하의 사용자 콘텐츠에 대한 제한 없이 이를 포함하여)에 대한 검토, 관찰, 금지, 편집, 삭제, 접속 금지 또는 이를 이용할 수 없도록 할 권한을 갖습니다. Powersource Studio가 전적으로 당사의 재량에 따라 서비스를 관찰하기로 결정한 경우에도, Powersource Studio는 이용자 콘텐츠에 대하여 어떠한 책임도 부담하지 아니하고, 부적절한 이용자 콘텐츠를 수정 또는 제거할 의무를 부담하지도 않습니다. 당사는 당사의 전적인 재량 하에 이용자 콘텐츠를 편집하고, 전송을 거부하거나 제거할 권리를 가지고 있으나, 그러한 의무를 부담하지는 않습니다.
+3.2. 서비스의 다른 이용자들에 의한 정보 이용
+3.2.1. 공시
+지정된 주제에 관한 귀하의 논평과 언급을 포함하여 귀하가 이용자 콘텐츠를 게시할 수 있는 다양한 포럼, 블로그, 그리고 채팅 기능이 서비스에 포함될 수 있습니다. Powersource Studio는 귀하가 공유하는 아이디어와 정보를 다른 이용자들이 이용하지 않으리라는 점을 보증하지 않습니다. 따라서 만일 귀하가 비밀을 유지하고자 하는 정보 또는 아이디어를 가지고 있고 또는/그리고 다른 사람들이 이를 이용하지 않기를 바란다면, 이를 서비스에 게시하지 마십시오. Powersource Studio는 귀하가 제출하기로 결정한 아이디어 또는 정보를 평가하거나 이용하거나 그와 관련하여 귀하에게 배상할 책임을 지지 않습니다.
+3.2.2. 귀하 소유의 콘텐츠에 대한 책임
+귀하는 귀하가 서비스상에 또는 서비스를 통하여 또는 서비스와 관련하여 게시하거나 또는 타인에게 제공한 정보에 대하여 전적으로 책임을 집니다. Powersource Studio는 어떠한 이유로든지 또는 아무 이유 없이도 이용자 콘텐츠(Powersource Studio의 전적인 판단에 따랐을 때 본 서비스 약관을 위반하는 이용자 콘텐츠를 포함하나, 이에 한정되지 아니함)를 거절하거나 게시를 거부하거나 이를 삭제할 수 있습니다.
+3.3. Powersource Studio에 대한 귀하의 라이선스
+귀하는 이로써 Powersource Studio에 대하여 취소할 수 없고, 영구적이며, 이전 가능하며, 전액 완납된, 로열티가 부과되지 않는, 전 세계적인 라이선스(2차 라이선스권과 제3자에 대한 양도권을 포함)와, 당사의 서비스 제공과 관련된 귀하의 이용자 콘텐츠뿐만 아니라 그에 관한 모든 변경되고 파생된 가공물을 복사∙복제∙재생성∙수리∙조정∙변경∙2차적저작물 생성∙제조∙상업화∙퍼블리싱∙배포∙판매∙라이선스∙2차 라이선스∙이전∙리스∙전송∙공개적인 전시∙공개적인 공연∙전자적 접속의 제공∙방송∙전기통신에 의한 대중과의 의사소통∙전시∙공연∙컴퓨터 메모리에의 입력, 그리고 어떠한 방식으로든지 이용 및 실행(서비스의 마케팅과 프로모션을 포함)할 권리를 허여합니다. 또한 귀하는 Powersource Studio가 본 서비스 약관에 따라 Powersource Studio에게 허여된 권리를 행사할 권한을 타인에게 부여할 수 있음을 허여합니다. 나아가 귀하는 Powersource Studio에게, 귀하에 대하여 어떠한 의무도 부담함이 없이, 귀하의 성명, 초상, 그리고 그 밖에 이용자 콘텐츠에 포함되거나 그와 연관된 정보 또는 자료를 이용하고 활용할 무조건적이고 취소 불가능한 권리를 허여합니다. 법률에 의하여 금지되지 않는 한, 귀하의 이용자 콘텐츠가 어떠한 방식으로 수정 또는 변경되건 간에, 귀하는 귀하의 이용자 콘텐츠에 대하여 귀하가 가질 수 있는 모든 소유권 및/또는 저작인격권을 포기합니다. Powersource Studio는 귀하의 이용자 콘텐츠에 대하여 어떠한 소유권도 주장하지 않고 본 서비스 약관은 귀하가 귀하의 이용자 콘텐츠를 이용하고 활용할 권리를 제한하지 않습니다. Powersource Studio는 귀하의 이용자 콘텐츠에 대한 귀하의 지적 재산권을 감시하거나 집행할 의무를 부담하지 않습니다
+3.4. 이용자 상호작용
+귀하는 서비스의 다른 이용자들 및 서비스 및/또는 Powersource Studio 게임을 통하여 귀하가 상호작용하는 다른 당사자들과의 상호작용에 대하여 전적으로 책임을 부담합니다. Powersource Studio는 이러한 분쟁에 관여할 권리를 가지지만 그러한 의무는 부담하지 않습니다. 위법하거나 사기적이거나 또는 부적합하다고 의심받는 활동에 관한 Powersource Studio의 조사에 귀하는 전적으로 협력(Powersource Studio가 귀하의 계정의 암호로 보호받는 부분에 접속하는 것을 승인하는 것을 포함하나, 이에 한정되지 아니함)합니다.
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -912,10 +912,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
@@ -934,10 +934,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
